--- a/dream/KnowledgeExtraction/KEtool_examples/KE tool&GUI/test_data.xlsx
+++ b/dream/KnowledgeExtraction/KEtool_examples/KE tool&GUI/test_data.xlsx
@@ -64,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +126,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -132,6 +135,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:P94"/>
+  <dimension ref="C1:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,2185 +512,2825 @@
       </c>
     </row>
     <row r="2" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>1.2820833300000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>1.4270833300000001</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>1.38270833</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>1.4404166700000001</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>1.1322916700000001</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>1.775625</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>1.775625</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="5">
         <v>0.62562499999999999</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="5">
         <v>1.1389583329999999</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="5">
         <v>1.1389583329999999</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="5">
         <v>1.2731250000000001</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="5">
         <v>1.2731250000000001</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="5">
         <v>0.87083333299999999</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="5">
         <v>1.8789583329999999</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>0.86416667000000003</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>0.97291667000000004</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>0.95104166999999995</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>1.1947916700000001</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>1.746875</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="5">
         <v>0.89354166999999995</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>0.89354166999999995</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="5">
         <v>0.416875</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <v>1.7631250000000001</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="5">
         <v>1.7631250000000001</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="5">
         <v>1.4824999999999999</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="5">
         <v>1.4824999999999999</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="5">
         <v>1.3589583329999999</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="5">
         <v>1.2891666669999999</v>
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>1.578125</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>1.4895833300000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>1.545625</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>1.2437499999999999</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>0.99604166999999999</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>2.020833E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>2.020833E-2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <v>0.40770833000000001</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="5">
         <v>1.7260416670000001</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="5">
         <v>1.7260416670000001</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <v>0.88416666700000002</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="5">
         <v>0.88416666700000002</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="5">
         <v>1.3045833330000001</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="5">
         <v>1.0562499999999999</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>0.93520833000000003</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>1.0431250000000001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>1.67208333</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>1.07020833</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>2.0812499999999998</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>1.36145833</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>1.36145833</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="5">
         <v>0.27729166999999999</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <v>1.350625</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="5">
         <v>1.350625</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5">
         <v>0.79041666700000002</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="5">
         <v>0.79041666700000002</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="5">
         <v>1.053541667</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="5">
         <v>1.13625</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>1.39625</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>1.38</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>1.4924999999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>0.79</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>0.88583332999999997</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>1.74125</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>1.74125</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="5">
         <v>0.27770833</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="5">
         <v>0.968958333</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="5">
         <v>0.968958333</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="5">
         <v>0.82979166699999996</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="5">
         <v>0.82979166699999996</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="5">
         <v>1.163125</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="5">
         <v>1.8397916670000001</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>0.70458332999999995</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>0.86562499999999998</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>0.69354167</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>0.46124999999999999</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>1.2162500000000001</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>1.25979167</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>1.25979167</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>0.76541667000000002</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="5">
         <v>0.87</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="5">
         <v>0.87</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="5">
         <v>0.90229166699999996</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="5">
         <v>0.90229166699999996</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="5">
         <v>1.255416667</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="5">
         <v>1.819583333</v>
       </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>1.090625</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>1.3814583300000001</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>1.59395833</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>0.96937499999999999</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>1.27354167</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>1.3389583300000001</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>1.3389583300000001</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>0.30145833</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="5">
         <v>0.87083333299999999</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="5">
         <v>0.87083333299999999</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="5">
         <v>1.5249999999999999</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="5">
         <v>1.5249999999999999</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="5">
         <v>1.056666667</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="5">
         <v>1.64625</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>0.82625000000000004</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>0.80125000000000002</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>1.2370833299999999</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>1.3589583300000001</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>1.60729167</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <v>1.5595833299999999</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>1.5595833299999999</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="5">
         <v>0.42937500000000001</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="5">
         <v>1.980208333</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="5">
         <v>1.980208333</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="5">
         <v>1.451666667</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="5">
         <v>1.451666667</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="5">
         <v>1.6754166669999999</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="5">
         <v>1.3822916670000001</v>
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>1.63520833</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>1.615</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>0.80312499999999998</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>1.3956249999999999</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>1.9470833299999999</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <v>2.0152083300000001</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>2.0152083300000001</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="5">
         <v>1.0954166700000001</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="5">
         <v>2.1808333329999998</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="5">
         <v>2.1808333329999998</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="5">
         <v>0.96270833300000003</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="5">
         <v>0.96270833300000003</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="5">
         <v>1.442916667</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="5">
         <v>1.629166667</v>
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>1.51979167</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>1.0472916699999999</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>0.96895832999999998</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>1.0697916700000001</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>1.45854167</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
         <v>1.1566666699999999</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>1.1566666699999999</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="5">
         <v>0.27374999999999999</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="5">
         <v>0.97604166699999995</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="5">
         <v>0.97604166699999995</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="5">
         <v>0.81562500000000004</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="5">
         <v>0.81562500000000004</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="5">
         <v>0.93562500000000004</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="5">
         <v>1.326666667</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>0.83937499999999998</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>0.79291666999999999</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>0.96687500000000004</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>0.99416667000000003</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>0.94854167</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>0.97270833000000001</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>0.97270833000000001</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <v>0.50083332999999997</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="5">
         <v>1.57125</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="5">
         <v>1.57125</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="5">
         <v>0.87770833299999995</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="5">
         <v>0.87770833299999995</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="5">
         <v>0.89604166699999999</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="5">
         <v>1.326666667</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>0.85583332999999995</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>1.45208333</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>1.46979167</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <v>1.29666667</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>0.84375</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <v>0.90583332999999999</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <v>0.90583332999999999</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="5">
         <v>0.43208332999999999</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="5">
         <v>1.0137499999999999</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="5">
         <v>1.0137499999999999</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="5">
         <v>1.3545833329999999</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="5">
         <v>1.3545833329999999</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="5">
         <v>1.254583333</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="5">
         <v>1.128125</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>1.4872916700000001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>1.1654166699999999</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>1.0504166699999999</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>0.75833333000000003</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>1.44291667</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <v>0.99604166999999999</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="5">
         <v>0.99604166999999999</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="5">
         <v>0.70666667000000005</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="5">
         <v>0.89916666700000003</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="5">
         <v>0.89916666700000003</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="5">
         <v>1.05</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="5">
         <v>1.05</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="5">
         <v>1.596458333</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="5">
         <v>2.032291667</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>1.2179166699999999</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>0.76437500000000003</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>0.65270832999999995</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="5">
         <v>0.97791667000000004</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>1.3529166699999999</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <v>1.3654166700000001</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="5">
         <v>1.3654166700000001</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="5">
         <v>0.88333333000000003</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="5">
         <v>1.528541667</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="5">
         <v>1.528541667</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="5">
         <v>0.869166667</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="5">
         <v>0.869166667</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="5">
         <v>1.4864583330000001</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="5">
         <v>1.8177083329999999</v>
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>0.69041666999999995</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>1.2481249999999999</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>0.75270833000000004</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>1.2939583299999999</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>1.64</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>0.99395833</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>0.99395833</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>0.28729167</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="5">
         <v>1.224583333</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="5">
         <v>1.224583333</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="5">
         <v>1.1077083329999999</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="5">
         <v>1.1077083329999999</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="5">
         <v>1.327083333</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="5">
         <v>1.5960416669999999</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>1.275625</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>0.75333333000000002</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="5">
         <v>1.4852083300000001</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="5">
         <v>1.2495833300000001</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>0.98375000000000001</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="5">
         <v>1.5997916700000001</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>1.5997916700000001</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="5">
         <v>0.44416666999999999</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="5">
         <v>1.069583333</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="5">
         <v>1.069583333</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="5">
         <v>0.95145833300000004</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="5">
         <v>0.95145833300000004</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="5">
         <v>1.5504166669999999</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="5">
         <v>1.067916667</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>1.1791666700000001</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>0.92791667</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="5">
         <v>0.78645832999999998</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="5">
         <v>0.90395833000000003</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>1.1122916700000001</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="5">
         <v>0.96770833000000001</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="5">
         <v>0.96770833000000001</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="5">
         <v>0.45645833000000002</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="5">
         <v>1.2777083330000001</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="5">
         <v>1.2777083330000001</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="5">
         <v>0.995208333</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="5">
         <v>0.995208333</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="5">
         <v>0.92562500000000003</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="5">
         <v>0.96125000000000005</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>1.316875</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>1.43625</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="5">
         <v>1.4266666699999999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <v>0.87020832999999997</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>0.97291667000000004</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="5">
         <v>1.68979167</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="5">
         <v>1.68979167</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="5">
         <v>1.12833333</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="5">
         <v>1.297083333</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="5">
         <v>1.297083333</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="5">
         <v>0.86562499999999998</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="5">
         <v>0.86562499999999998</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="5">
         <v>1.9924999999999999</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="5">
         <v>1.522708333</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>0.87270833000000003</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>1.09395833</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>0.99583332999999996</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="5">
         <v>0.83187500000000003</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>1.42875</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="5">
         <v>1.0131250000000001</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="5">
         <v>1.0131250000000001</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="5">
         <v>0.48395832999999999</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="5">
         <v>1.232916667</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="5">
         <v>1.232916667</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="5">
         <v>0.88958333300000003</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="5">
         <v>0.88958333300000003</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="5">
         <v>1.6514583329999999</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="5">
         <v>1.9568749999999999</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>1.3610416700000001</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>0.81229167000000002</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="5">
         <v>0.82270832999999999</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="5">
         <v>0.80458333000000004</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>1.00770833</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="5">
         <v>1.57604167</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="5">
         <v>1.57604167</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="5">
         <v>0.87124999999999997</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="5">
         <v>1.2595833329999999</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="5">
         <v>1.2595833329999999</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="5">
         <v>1.0018750000000001</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="5">
         <v>1.0018750000000001</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="5">
         <v>1.609166667</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="5">
         <v>0.86937500000000001</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>0.88395833000000001</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>0.83083333000000004</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="5">
         <v>1.29583333</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="5">
         <v>1.3466666700000001</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>1.8385416699999999</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="5">
         <v>1.485625</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="5">
         <v>1.485625</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="5">
         <v>0.45166666999999999</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="5">
         <v>1.0575000000000001</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="5">
         <v>1.0575000000000001</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="5">
         <v>1.3060416669999999</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="5">
         <v>1.3060416669999999</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="5">
         <v>1.4327083329999999</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="5">
         <v>1.0533333330000001</v>
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>1.21979167</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>0.89333333000000004</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="5">
         <v>0.82291667000000002</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="5">
         <v>0.89020832999999999</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>1.6212500000000001</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="5">
         <v>1.5549999999999999</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <v>1.5549999999999999</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="5">
         <v>0.39333332999999998</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="5">
         <v>1.173333333</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="5">
         <v>1.173333333</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="5">
         <v>0.89624999999999999</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="5">
         <v>0.89624999999999999</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="5">
         <v>1.4470833329999999</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="5">
         <v>1.365208333</v>
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>0.76916667000000005</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>1.78458333</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="5">
         <v>1.62291667</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="5">
         <v>0.78062500000000001</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="5">
         <v>1.4906250000000001</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="5">
         <v>0.39604167000000001</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="5">
         <v>0.39604167000000001</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="5">
         <v>0.41499999999999998</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="5">
         <v>1.565833333</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="5">
         <v>1.565833333</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="5">
         <v>1.0877083329999999</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="5">
         <v>1.0877083329999999</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="5">
         <v>1.7306250000000001</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="5">
         <v>0.91625000000000001</v>
       </c>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>0.76166666999999999</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>1.4450000000000001</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="5">
         <v>1.71854167</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="5">
         <v>2.1618750000000002</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <v>1.6979166699999999</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="5">
         <v>1.61083333</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="5">
         <v>1.61083333</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="5">
         <v>0.65666667000000001</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="5">
         <v>0.98145833299999996</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="5">
         <v>0.98145833299999996</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="5">
         <v>1.409583333</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="5">
         <v>1.409583333</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="5">
         <v>1.319375</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="5">
         <v>1.7112499999999999</v>
       </c>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="2">
+      <c r="C26" s="5">
         <v>1.03895833</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>0.92354166999999998</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="5">
         <v>2.10479167</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="5">
         <v>1.5495833299999999</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="5">
         <v>0.71291667000000003</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="5">
         <v>0.91333333000000005</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="5">
         <v>0.91333333000000005</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="5">
         <v>0.38750000000000001</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="5">
         <v>1.6343749999999999</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="5">
         <v>1.6343749999999999</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="5">
         <v>1.6068750000000001</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="5">
         <v>1.6068750000000001</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="5">
         <v>1.1954166669999999</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="5">
         <v>1.586666667</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <v>0.60562499999999997</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>0.86208333000000004</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="5">
         <v>1.37375</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="5">
         <v>1.3756250000000001</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="5">
         <v>1.85166667</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="5">
         <v>1.20166667</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="5">
         <v>1.20166667</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="5">
         <v>0.59020832999999995</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="5">
         <v>1.6825000000000001</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="5">
         <v>1.6825000000000001</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="5">
         <v>1.0677083329999999</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="5">
         <v>1.0677083329999999</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="5">
         <v>1.3910416670000001</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="5">
         <v>1.786875</v>
       </c>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="2">
+      <c r="C28" s="5">
         <v>1.83229167</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>1.31916667</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="5">
         <v>1.3566666700000001</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="5">
         <v>1.89645833</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="5">
         <v>1.36708333</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="5">
         <v>0.90187499999999998</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="5">
         <v>0.90187499999999998</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="5">
         <v>0.41583333</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="5">
         <v>1.012916667</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="5">
         <v>1.012916667</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="5">
         <v>1.534166667</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="5">
         <v>1.534166667</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="5">
         <v>1.683125</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="5">
         <v>1.6466666670000001</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C29" s="2">
+      <c r="C29" s="5">
         <v>1.20854167</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>1.20541667</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="5">
         <v>0.82854167000000001</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
         <v>1.5341666700000001</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="5">
         <v>0.88604167</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="5">
         <v>1.3443750000000001</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="5">
         <v>1.3443750000000001</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="5">
         <v>0.48791667</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="5">
         <v>1.750208333</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="5">
         <v>1.750208333</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="5">
         <v>0.93583333300000004</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="5">
         <v>0.93583333300000004</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="5">
         <v>1.175208333</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="5">
         <v>1.7652083329999999</v>
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="2">
+      <c r="C30" s="5">
         <v>1.1627083300000001</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>0.91666667000000002</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="5">
         <v>0.89895833000000003</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="5">
         <v>5.4314583299999999</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
         <v>0.99291666999999995</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="5">
         <v>1.0554166700000001</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="5">
         <v>1.0554166700000001</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="5">
         <v>0.83937499999999998</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="5">
         <v>1.3975</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="5">
         <v>1.3975</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="5">
         <v>1.0352083329999999</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="5">
         <v>1.0352083329999999</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="5">
         <v>1.0945833330000001</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="5">
         <v>1.515416667</v>
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="2">
+      <c r="C31" s="5">
         <v>0.84812500000000002</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>1.49333333</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="5">
         <v>2.5420833300000001</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="5">
         <v>0.79958333000000004</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="5">
         <v>1.42333333</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="5">
         <v>0.99124999999999996</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="5">
         <v>0.99124999999999996</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="5">
         <v>0.82562500000000005</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="5">
         <v>0.82562500000000005</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="5">
         <v>2.0460416669999999</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="5">
         <v>2.0460416669999999</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="5">
         <v>1.136041667</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="5">
         <v>1.5331250000000001</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="2">
+      <c r="C32" s="5">
         <v>0.53062500000000001</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>1.61166667</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="5">
         <v>1.15729167</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="5">
         <v>0.68604167000000005</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="5">
         <v>1.02145833</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="5">
         <v>1.0729166699999999</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="5">
         <v>1.0729166699999999</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="5">
         <v>0.48979167000000001</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="5">
         <v>1.153541667</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="5">
         <v>1.153541667</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="5">
         <v>1.5037499999999999</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="5">
         <v>1.5037499999999999</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="5">
         <v>1.61625</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="5">
         <v>1.1939583330000001</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C33" s="2">
+      <c r="C33" s="5">
         <v>1.6579166700000001</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <v>1.5006250000000001</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="5">
         <v>1.0989583300000001</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="5">
         <v>0.82583333000000003</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="5">
         <v>0.89395833000000002</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="5">
         <v>1.17083333</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="5">
         <v>1.17083333</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="5">
         <v>0.52270833000000005</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="5">
         <v>0.82187500000000002</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="5">
         <v>0.82187500000000002</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="5">
         <v>0.82437499999999997</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="5">
         <v>0.82437499999999997</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="5">
         <v>1.431666667</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="5">
         <v>1.2777083330000001</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C34" s="2">
+      <c r="C34" s="5">
         <v>1.8633333299999999</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <v>2.3822916699999999</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="5">
         <v>2.25458333</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="5">
         <v>1.5383333299999999</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="5">
         <v>1.6333333299999999</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="5">
         <v>0.80687500000000001</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="5">
         <v>0.80687500000000001</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="5">
         <v>0.50145832999999995</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="5">
         <v>0.84583333299999997</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="5">
         <v>0.84583333299999997</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="5">
         <v>1.1343749999999999</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="5">
         <v>1.1343749999999999</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="5">
         <v>1.451875</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="5">
         <v>1.114791667</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C35" s="2">
+      <c r="C35" s="5">
         <v>1.2570833299999999</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="5">
         <v>0.78</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="5">
         <v>0.77375000000000005</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="5">
         <v>1.4606250000000001</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="5">
         <v>1.17854167</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="5">
         <v>0.71958332999999997</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="5">
         <v>0.71958332999999997</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="5">
         <v>0.385625</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="5">
         <v>1.07</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="5">
         <v>1.07</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="5">
         <v>1.061041667</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="5">
         <v>1.061041667</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="5">
         <v>0.96229166700000002</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="5">
         <v>1.3733333329999999</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C36" s="2">
+      <c r="C36" s="5">
         <v>1.2239583300000001</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="5">
         <v>1.6310416700000001</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="5">
         <v>0.83041666999999997</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="5">
         <v>0.91166667000000001</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="5">
         <v>1.38041667</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="5">
         <v>1.451875</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="5">
         <v>1.451875</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="5">
         <v>0.93895832999999995</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="5">
         <v>0.85604166699999995</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="5">
         <v>0.85604166699999995</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="5">
         <v>1.4279166670000001</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="5">
         <v>1.4279166670000001</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="5">
         <v>1.4918750000000001</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="5">
         <v>1.8674999999999999</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C37" s="2">
+      <c r="C37" s="5">
         <v>0.79020833000000001</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="5">
         <v>1.2985416700000001</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="5">
         <v>1.558125</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="5">
         <v>1.9327083300000001</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="5">
         <v>0.97270833000000001</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="5">
         <v>1.1922916699999999</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="5">
         <v>1.1922916699999999</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="5">
         <v>0.40812500000000002</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="5">
         <v>1.6587499999999999</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="5">
         <v>1.6587499999999999</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="5">
         <v>1.3420833329999999</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="5">
         <v>1.3420833329999999</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="5">
         <v>1.98</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="5">
         <v>1.912083333</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C38" s="2">
+      <c r="C38" s="5">
         <v>1.2985416700000001</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="5">
         <v>0.97458332999999997</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="5">
         <v>0.98020832999999996</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="5">
         <v>1.0339583299999999</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="5">
         <v>1.5762499999999999</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="5">
         <v>1.3610416700000001</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="5">
         <v>1.3610416700000001</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="5">
         <v>0.56666667000000004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="5">
         <v>0.90812499999999996</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="5">
         <v>0.90812499999999996</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="5">
         <v>1.019791667</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="5">
         <v>1.019791667</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="5">
         <v>1.0756250000000001</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="5">
         <v>1.3343750000000001</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C39" s="2">
+      <c r="C39" s="5">
         <v>0.74437500000000001</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="5">
         <v>1.2685416700000001</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="5">
         <v>1.2829166700000001</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="5">
         <v>1.18520833</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="5">
         <v>1.003125</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="5">
         <v>1.0162500000000001</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="5">
         <v>1.0162500000000001</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="5">
         <v>0.48812499999999998</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="5">
         <v>0.943333333</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="5">
         <v>0.943333333</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="5">
         <v>1.043541667</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="5">
         <v>1.043541667</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="5">
         <v>1.7168749999999999</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="5">
         <v>1.006875</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C40" s="2">
+      <c r="C40" s="5">
         <v>1.221875</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="5">
         <v>1.0062500000000001</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="5">
         <v>1.5329166700000001</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="5">
         <v>1.5072916700000001</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="5">
         <v>1.4914583299999999</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="5">
         <v>1.4750000000000001</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="5">
         <v>1.4750000000000001</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="5">
         <v>0.95458332999999995</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="5">
         <v>0.895625</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="5">
         <v>0.895625</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="5">
         <v>1.265833333</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="5">
         <v>1.265833333</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="5">
         <v>1.8147916669999999</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="5">
         <v>1.2075</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C41" s="2">
+      <c r="C41" s="5">
         <v>1.51145833</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="5">
         <v>1.8443750000000001</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="5">
         <v>1.26666667</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="5">
         <v>1.454375</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="5">
         <v>0.71416667</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="5">
         <v>0.97395832999999998</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="5">
         <v>0.97395832999999998</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="5">
         <v>0.54916666999999997</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="5">
         <v>0.41229166699999997</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="5">
         <v>0.41229166699999997</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="5">
         <v>2.1783333329999999</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="5">
         <v>2.1783333329999999</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="5">
         <v>1.2366666669999999</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="5">
         <v>1.4895833329999999</v>
       </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C42" s="2">
+      <c r="C42" s="5">
         <v>1.105</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="5">
         <v>1.6131249999999999</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="5">
         <v>0.91937500000000005</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="5">
         <v>1.059375</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="5">
         <v>1.1402083300000001</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="5">
         <v>0.99541667</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="5">
         <v>0.99541667</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="5">
         <v>0.50458333</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="5">
         <v>1.9481250000000001</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="5">
         <v>1.9481250000000001</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="5">
         <v>2.1222916669999998</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="5">
         <v>2.1222916669999998</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="5">
         <v>1.7693749999999999</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="5">
         <v>1.328333333</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C43" s="2">
+      <c r="C43" s="5">
         <v>0.91125</v>
       </c>
-      <c r="E43" s="2">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5">
         <v>1.9012500000000001</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="5">
         <v>0.86624999999999996</v>
       </c>
-      <c r="H43" s="2">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5">
         <v>1.2050000000000001</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="5">
         <v>1.2050000000000001</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="5">
         <v>0.52958333000000002</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="5">
         <v>1.3141666670000001</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="5">
         <v>1.3141666670000001</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="5">
         <v>1.4927083329999999</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="5">
         <v>1.4927083329999999</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="5">
         <v>1.691666667</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="5">
         <v>1.0216666670000001</v>
       </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C44" s="2">
+      <c r="C44" s="5">
         <v>1.0685416700000001</v>
       </c>
-      <c r="E44" s="2">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5">
         <v>1.6087499999999999</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="5">
         <v>0.89</v>
       </c>
-      <c r="H44" s="2">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5">
         <v>0.72375</v>
       </c>
-      <c r="J44" s="2">
+      <c r="I44" s="6"/>
+      <c r="J44" s="5">
         <v>0.38374999999999998</v>
       </c>
-      <c r="L44" s="2">
+      <c r="K44" s="5"/>
+      <c r="L44" s="5">
         <v>1.4822916669999999</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="5">
         <v>0.86562499999999998</v>
       </c>
-      <c r="O44" s="2">
+      <c r="N44" s="5"/>
+      <c r="O44" s="5">
         <v>1.4708333330000001</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="5">
         <v>1.7091666670000001</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C45" s="2">
+      <c r="C45" s="5">
         <v>0.80020833000000002</v>
       </c>
-      <c r="E45" s="2">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5">
         <v>0.77437500000000004</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="5">
         <v>1.2408333300000001</v>
       </c>
-      <c r="J45" s="2">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5">
         <v>0.48895833</v>
       </c>
-      <c r="L45" s="2">
+      <c r="K45" s="5"/>
+      <c r="L45" s="5">
         <v>1.0149999999999999</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="5">
         <v>1.0160416670000001</v>
       </c>
-      <c r="O45" s="2">
+      <c r="N45" s="5"/>
+      <c r="O45" s="5">
         <v>1.659375</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="5">
         <v>1.0641666670000001</v>
       </c>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C46" s="2">
+      <c r="C46" s="5">
         <v>0.66083333</v>
       </c>
-      <c r="J46" s="2">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="5">
         <v>0.299375</v>
       </c>
-      <c r="L46" s="2">
+      <c r="K46" s="5"/>
+      <c r="L46" s="5">
         <v>1.485625</v>
       </c>
-      <c r="O46" s="2">
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5">
         <v>0.900416667</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="5">
         <v>1.378333333</v>
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="J47" s="2">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="5">
         <v>0.94708333</v>
       </c>
-      <c r="L47" s="2">
+      <c r="K47" s="5"/>
+      <c r="L47" s="5">
         <v>1.578125</v>
       </c>
-      <c r="O47" s="2">
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5">
         <v>1.0687500000000001</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="5">
         <v>1.902083333</v>
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="J48" s="2">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5">
         <v>0.14812500000000001</v>
       </c>
-      <c r="L48" s="2">
+      <c r="K48" s="5"/>
+      <c r="L48" s="5">
         <v>1.546875</v>
       </c>
-      <c r="O48" s="2">
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5">
         <v>1.954166667</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48" s="5">
         <v>2.1110416669999998</v>
       </c>
     </row>
-    <row r="49" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J49" s="2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="5">
         <v>0.56062500000000004</v>
       </c>
-      <c r="O49" s="2">
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5">
         <v>1.7987500000000001</v>
       </c>
-    </row>
-    <row r="50" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J50" s="2">
+      <c r="P49" s="5"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="5">
         <v>1.2672916700000001</v>
       </c>
-      <c r="O50" s="2">
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5">
         <v>1.5318750000000001</v>
       </c>
-    </row>
-    <row r="51" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J51" s="2">
+      <c r="P50" s="5"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="5">
         <v>0.39729166999999999</v>
       </c>
-      <c r="O51" s="2">
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5">
         <v>1.9614583329999999</v>
       </c>
-    </row>
-    <row r="52" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J52" s="2">
+      <c r="P51" s="5"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="5">
         <v>1.2279166699999999</v>
       </c>
-    </row>
-    <row r="53" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J53" s="2">
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="5">
         <v>0.43958332999999999</v>
       </c>
-    </row>
-    <row r="54" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J54" s="2">
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="5">
         <v>0.50270833000000004</v>
       </c>
-    </row>
-    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J55" s="2">
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="5">
         <v>0.34958333000000003</v>
       </c>
-    </row>
-    <row r="56" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J56" s="2">
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="5">
         <v>0.30479167000000001</v>
       </c>
-    </row>
-    <row r="57" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J57" s="2">
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="5">
         <v>0.96562499999999996</v>
       </c>
-    </row>
-    <row r="58" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J58" s="2">
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="5">
         <v>0.48541666999999999</v>
       </c>
-    </row>
-    <row r="59" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J59" s="2">
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="5">
         <v>0.53229166999999999</v>
       </c>
-    </row>
-    <row r="60" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J60" s="2">
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="5">
         <v>0.20020832999999999</v>
       </c>
-    </row>
-    <row r="61" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J61" s="2">
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="5">
         <v>0.30041667</v>
       </c>
-    </row>
-    <row r="62" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J62" s="2">
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="5">
         <v>1.2281249999999999</v>
       </c>
-    </row>
-    <row r="63" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J63" s="2">
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="5">
         <v>0.38458333</v>
       </c>
-    </row>
-    <row r="64" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J64" s="2">
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="5">
         <v>0.40208333000000002</v>
       </c>
-    </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J65" s="2">
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="5">
         <v>0.29479167000000001</v>
       </c>
-    </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J66" s="2">
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="5">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J67" s="2">
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="5">
         <v>0.41875000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J68" s="2">
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="5">
         <v>0.71562499999999996</v>
       </c>
-    </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J69" s="2">
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="5">
         <v>0.73270833000000002</v>
       </c>
-    </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J70" s="2">
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+    </row>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="5">
         <v>0.57020833000000004</v>
       </c>
-    </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J71" s="2">
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="5">
         <v>0.48708332999999998</v>
       </c>
-    </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J72" s="2">
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="5">
         <v>0.59437499999999999</v>
       </c>
-    </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J73" s="2">
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="5">
         <v>0.26187500000000002</v>
       </c>
-    </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J74" s="2">
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="5">
         <v>1.014375</v>
       </c>
-    </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J75" s="2">
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="5">
         <v>0.44874999999999998</v>
       </c>
-    </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J76" s="2">
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+    </row>
+    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="5">
         <v>0.46541666999999998</v>
       </c>
-    </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J77" s="2">
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="5">
         <v>0.38854167000000001</v>
       </c>
-    </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J78" s="2">
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+    </row>
+    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="5">
         <v>0.96062499999999995</v>
       </c>
-    </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J79" s="2">
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="5">
         <v>0.63479167000000003</v>
       </c>
-    </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J80" s="2">
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+    </row>
+    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="5">
         <v>0.38729166999999998</v>
       </c>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J81" s="2">
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="5">
         <v>0.89270833000000005</v>
       </c>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J82" s="2">
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="5">
         <v>0.40500000000000003</v>
       </c>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J83" s="2">
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="5">
         <v>0.37916666999999998</v>
       </c>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J84" s="2">
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="5">
         <v>0.24708332999999999</v>
       </c>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J85" s="2">
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="5">
         <v>0.59208333000000002</v>
       </c>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J86" s="2">
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="5">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J87" s="2">
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="5">
         <v>0.30770832999999997</v>
       </c>
-    </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J88" s="2">
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="5">
         <v>0.75791666999999996</v>
       </c>
-    </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J89" s="2">
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="5">
         <v>0.48125000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J90" s="2">
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="5">
         <v>0.69374999999999998</v>
       </c>
-    </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J91" s="2">
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="5">
         <v>0.38208333</v>
       </c>
-    </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J92" s="2">
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="5">
         <v>0.31479167000000002</v>
       </c>
-    </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J93" s="2">
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="5">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J94" s="2">
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="5">
         <v>0.42083333000000001</v>
       </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="J95" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dream/KnowledgeExtraction/KEtool_examples/KE tool&GUI/test_data.xlsx
+++ b/dream/KnowledgeExtraction/KEtool_examples/KE tool&GUI/test_data.xlsx
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -136,6 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="S186" sqref="S186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,10 +511,10 @@
         <v>0.95664983949443727</v>
       </c>
       <c r="D2" s="5">
-        <v>0.5372853226511789</v>
+        <v>0.78153952931715498</v>
       </c>
       <c r="E2" s="5">
-        <v>0.32410884135064516</v>
+        <v>0.11985794077792424</v>
       </c>
       <c r="F2" s="5">
         <v>0.61153211454139711</v>
@@ -522,19 +523,19 @@
         <v>0.77356080177131681</v>
       </c>
       <c r="H2" s="5">
-        <v>1.4777048055717062E-2</v>
+        <v>0.51975136943460709</v>
       </c>
       <c r="I2" s="4">
         <v>0.21430665422460365</v>
       </c>
-      <c r="J2" s="4">
-        <v>3.2117298720768815E-2</v>
+      <c r="J2" s="6">
+        <v>0.3955889589552477</v>
       </c>
       <c r="K2" s="4">
         <v>0.19843493323223443</v>
       </c>
-      <c r="L2" s="4">
-        <v>0.98340987836521254</v>
+      <c r="L2" s="6">
+        <v>0.93955228034389859</v>
       </c>
       <c r="M2" s="4">
         <v>0.93955228034389859</v>
@@ -542,8 +543,8 @@
       <c r="N2" s="4">
         <v>1.7910270725827051E-6</v>
       </c>
-      <c r="O2" s="4">
-        <v>0.24749203282488713</v>
+      <c r="O2" s="6">
+        <v>0.95183489097885932</v>
       </c>
       <c r="P2" s="4">
         <v>0.95183489097885932</v>
@@ -554,10 +555,10 @@
         <v>0.80959588922505277</v>
       </c>
       <c r="D3" s="5">
-        <v>0.85300294283982647</v>
+        <v>0.69185614211772273</v>
       </c>
       <c r="E3" s="5">
-        <v>0.3255215011469223</v>
+        <v>0.65807554655071299</v>
       </c>
       <c r="F3" s="5">
         <v>0.69532715497169684</v>
@@ -566,19 +567,19 @@
         <v>0.70601248845906162</v>
       </c>
       <c r="H3" s="5">
-        <v>2.7594728118775698</v>
+        <v>0.62178104229908093</v>
       </c>
       <c r="I3" s="4">
         <v>0.18271264720431088</v>
       </c>
-      <c r="J3" s="4">
-        <v>4.5466396064216035</v>
+      <c r="J3" s="6">
+        <v>0.42649778359616775</v>
       </c>
       <c r="K3" s="4">
         <v>0.21274455776912232</v>
       </c>
-      <c r="L3" s="4">
-        <v>1.5090413491584196</v>
+      <c r="L3" s="6">
+        <v>1.2394368627205492</v>
       </c>
       <c r="M3" s="4">
         <v>1.2394368627205492</v>
@@ -586,8 +587,8 @@
       <c r="N3" s="4">
         <v>8.8724976827205163E-2</v>
       </c>
-      <c r="O3" s="4">
-        <v>0.11015252484995075</v>
+      <c r="O3" s="6">
+        <v>1.0998067990521836</v>
       </c>
       <c r="P3" s="4">
         <v>1.0998067990521836</v>
@@ -598,10 +599,10 @@
         <v>1.0605884806021033</v>
       </c>
       <c r="D4" s="5">
-        <v>0.83639138801582613</v>
+        <v>0.80599732170345184</v>
       </c>
       <c r="E4" s="5">
-        <v>0.46523857034038463</v>
+        <v>1.4543999858768757</v>
       </c>
       <c r="F4" s="5">
         <v>0.79951493992442269</v>
@@ -610,19 +611,19 @@
         <v>0.69604640669840601</v>
       </c>
       <c r="H4" s="5">
-        <v>4.0510794933634005</v>
+        <v>1.7512355648805167</v>
       </c>
       <c r="I4" s="4">
         <v>0.20320609659322039</v>
       </c>
-      <c r="J4" s="4">
-        <v>8.7308782413025129E-2</v>
+      <c r="J4" s="6">
+        <v>0.39301367057050623</v>
       </c>
       <c r="K4" s="4">
         <v>0.18633704936902057</v>
       </c>
-      <c r="L4" s="4">
-        <v>1.0139907223850746</v>
+      <c r="L4" s="6">
+        <v>0.75910324243832106</v>
       </c>
       <c r="M4" s="4">
         <v>0.75910324243832106</v>
@@ -630,8 +631,8 @@
       <c r="N4" s="4">
         <v>0.12046990946914013</v>
       </c>
-      <c r="O4" s="4">
-        <v>1.0456573393792221</v>
+      <c r="O4" s="6">
+        <v>0.98514092637400807</v>
       </c>
       <c r="P4" s="4">
         <v>0.98514092637400807</v>
@@ -642,10 +643,10 @@
         <v>1.0609394866475033</v>
       </c>
       <c r="D5" s="5">
-        <v>0.62956757911444372</v>
+        <v>0.6384992268058185</v>
       </c>
       <c r="E5" s="5">
-        <v>0.6355576130083187</v>
+        <v>0.40042817577545509</v>
       </c>
       <c r="F5" s="5">
         <v>0.7812229634615484</v>
@@ -654,19 +655,19 @@
         <v>0.72327320431615183</v>
       </c>
       <c r="H5" s="5">
-        <v>3.8717949915543164E-2</v>
+        <v>3.3420034564909153</v>
       </c>
       <c r="I5" s="4">
         <v>0.18694682101538951</v>
       </c>
-      <c r="J5" s="4">
-        <v>5.5011387969514329</v>
+      <c r="J5" s="6">
+        <v>0.4019453292011545</v>
       </c>
       <c r="K5" s="4">
         <v>0.22397557022050191</v>
       </c>
-      <c r="L5" s="4">
-        <v>1.8811898996086367</v>
+      <c r="L5" s="6">
+        <v>1.0766495353863716</v>
       </c>
       <c r="M5" s="4">
         <v>1.0766495353863716</v>
@@ -674,8 +675,8 @@
       <c r="N5" s="4">
         <v>0.99999964142546305</v>
       </c>
-      <c r="O5" s="4">
-        <v>0.20917138566902432</v>
+      <c r="O5" s="6">
+        <v>1.0931449762824532</v>
       </c>
       <c r="P5" s="4">
         <v>1.0931449762824532</v>
@@ -686,10 +687,10 @@
         <v>0.90931476615472961</v>
       </c>
       <c r="D6" s="5">
-        <v>0.66081268398333515</v>
+        <v>0.55662363889102984</v>
       </c>
       <c r="E6" s="5">
-        <v>1.4750720981548973</v>
+        <v>8.3440147294294845E-2</v>
       </c>
       <c r="F6" s="5">
         <v>0.85732023149915715</v>
@@ -698,19 +699,19 @@
         <v>0.72557191744874583</v>
       </c>
       <c r="H6" s="5">
-        <v>0.61197008796991992</v>
+        <v>3.2807695179316978</v>
       </c>
       <c r="I6" s="4">
         <v>0.20109890704224292</v>
       </c>
-      <c r="J6" s="4">
-        <v>3.3292769650563816</v>
+      <c r="J6" s="6">
+        <v>0.3845894908703813</v>
       </c>
       <c r="K6" s="4">
         <v>0.19445262678826372</v>
       </c>
-      <c r="L6" s="4">
-        <v>0.46480827558053533</v>
+      <c r="L6" s="6">
+        <v>0.69433759089232594</v>
       </c>
       <c r="M6" s="4">
         <v>0.69433759089232594</v>
@@ -718,8 +719,8 @@
       <c r="N6" s="4">
         <v>2.3960977420123111E-2</v>
       </c>
-      <c r="O6" s="4">
-        <v>0.35250485490192096</v>
+      <c r="O6" s="6">
+        <v>1.0594957852130737</v>
       </c>
       <c r="P6" s="4">
         <v>1.0594957852130737</v>
@@ -730,10 +731,10 @@
         <v>0.6898360858100322</v>
       </c>
       <c r="D7" s="5">
-        <v>0.82681933375265892</v>
+        <v>0.79326887988784489</v>
       </c>
       <c r="E7" s="5">
-        <v>0.10152629188803312</v>
+        <v>1.6468731160879366</v>
       </c>
       <c r="F7" s="5">
         <v>0.56795380877286195</v>
@@ -742,19 +743,19 @@
         <v>0.80916972221889893</v>
       </c>
       <c r="H7" s="5">
-        <v>0.30743616777250771</v>
+        <v>0.52316291821321814</v>
       </c>
       <c r="I7" s="4">
         <v>0.20513816776641247</v>
       </c>
-      <c r="J7" s="4">
-        <v>1.2617921158142025</v>
+      <c r="J7" s="6">
+        <v>0.39990148762387445</v>
       </c>
       <c r="K7" s="4">
         <v>0.21545850419338844</v>
       </c>
-      <c r="L7" s="4">
-        <v>0.17793042825759944</v>
+      <c r="L7" s="6">
+        <v>1.0761585862030163</v>
       </c>
       <c r="M7" s="4">
         <v>1.0761585862030163</v>
@@ -762,8 +763,8 @@
       <c r="N7" s="4">
         <v>1.5320655210709615E-4</v>
       </c>
-      <c r="O7" s="4">
-        <v>0.18380333531245185</v>
+      <c r="O7" s="6">
+        <v>0.98215680219994239</v>
       </c>
       <c r="P7" s="4">
         <v>0.98215680219994239</v>
@@ -774,10 +775,10 @@
         <v>0.81761148021554242</v>
       </c>
       <c r="D8" s="5">
-        <v>0.67078043146464927</v>
+        <v>0.73213140446847258</v>
       </c>
       <c r="E8" s="5">
-        <v>0.15422532098640843</v>
+        <v>0.83502728214776478</v>
       </c>
       <c r="F8" s="5">
         <v>0.96808495441005837</v>
@@ -786,19 +787,19 @@
         <v>0.72633020848600338</v>
       </c>
       <c r="H8" s="5">
-        <v>0.10933723189232269</v>
+        <v>0.51759641265116174</v>
       </c>
       <c r="I8" s="4">
         <v>0.19742886444462499</v>
       </c>
-      <c r="J8" s="4">
-        <v>0.20603650936489959</v>
+      <c r="J8" s="6">
+        <v>0.42991191960808406</v>
       </c>
       <c r="K8" s="4">
         <v>0.18733962061028808</v>
       </c>
-      <c r="L8" s="4">
-        <v>2.4100948916328671</v>
+      <c r="L8" s="6">
+        <v>0.96319384677493802</v>
       </c>
       <c r="M8" s="4">
         <v>0.96319384677493802</v>
@@ -806,8 +807,8 @@
       <c r="N8" s="4">
         <v>8.3068937683661369E-4</v>
       </c>
-      <c r="O8" s="4">
-        <v>2.8337764472286446</v>
+      <c r="O8" s="6">
+        <v>1.1062675375725803</v>
       </c>
       <c r="P8" s="4">
         <v>1.1062675375725803</v>
@@ -818,10 +819,10 @@
         <v>0.81656463721035688</v>
       </c>
       <c r="D9" s="5">
-        <v>0.86617009368010089</v>
+        <v>0.86502624487689184</v>
       </c>
       <c r="E9" s="5">
-        <v>1.2624427195381409</v>
+        <v>0.46038847676798494</v>
       </c>
       <c r="F9" s="5">
         <v>0.8573027434084286</v>
@@ -830,19 +831,19 @@
         <v>0.69002130339919965</v>
       </c>
       <c r="H9" s="5">
-        <v>0.37269309980942694</v>
+        <v>0.46676244040647386</v>
       </c>
       <c r="I9" s="4">
         <v>0.18917336257675144</v>
       </c>
-      <c r="J9" s="4">
-        <v>3.2117371940659742</v>
+      <c r="J9" s="6">
+        <v>0.35665522871161215</v>
       </c>
       <c r="K9" s="4">
         <v>0.24954856371376186</v>
       </c>
-      <c r="L9" s="4">
-        <v>1.8075686900524333</v>
+      <c r="L9" s="6">
+        <v>0.97096568238098802</v>
       </c>
       <c r="M9" s="4">
         <v>0.97096568238098802</v>
@@ -850,8 +851,8 @@
       <c r="N9" s="4">
         <v>6.1230112776848117E-2</v>
       </c>
-      <c r="O9" s="4">
-        <v>0.50673973531897232</v>
+      <c r="O9" s="6">
+        <v>0.99171704133739058</v>
       </c>
       <c r="P9" s="4">
         <v>0.99171704133739058</v>
@@ -862,10 +863,10 @@
         <v>0.59860386185081926</v>
       </c>
       <c r="D10" s="5">
-        <v>0.52160292679539655</v>
+        <v>0.98048547199532077</v>
       </c>
       <c r="E10" s="5">
-        <v>2.4434311399158988</v>
+        <v>1.3981258934331247</v>
       </c>
       <c r="F10" s="5">
         <v>0.73445693337794993</v>
@@ -874,19 +875,19 @@
         <v>0.7595425778167878</v>
       </c>
       <c r="H10" s="5">
-        <v>2.8426658064042294</v>
+        <v>2.4465745296674473</v>
       </c>
       <c r="I10" s="4">
         <v>0.21835937226294436</v>
       </c>
-      <c r="J10" s="4">
-        <v>4.6468652094599259</v>
+      <c r="J10" s="6">
+        <v>0.41731426652706211</v>
       </c>
       <c r="K10" s="4">
         <v>0.17037972567371762</v>
       </c>
-      <c r="L10" s="4">
-        <v>1.9190298209436076</v>
+      <c r="L10" s="6">
+        <v>0.91801679665173075</v>
       </c>
       <c r="M10" s="4">
         <v>0.91801679665173075</v>
@@ -894,8 +895,8 @@
       <c r="N10" s="4">
         <v>0.67168378729139577</v>
       </c>
-      <c r="O10" s="4">
-        <v>0.90747442994135019</v>
+      <c r="O10" s="6">
+        <v>1.0355380021460447</v>
       </c>
       <c r="P10" s="4">
         <v>1.0355380021460447</v>
@@ -906,10 +907,10 @@
         <v>0.79685606511287022</v>
       </c>
       <c r="D11" s="5">
-        <v>0.55161744997716422</v>
+        <v>0.47854502714394342</v>
       </c>
       <c r="E11" s="5">
-        <v>0.21154938308198595</v>
+        <v>3.326652529562375</v>
       </c>
       <c r="F11" s="5">
         <v>0.70263921002482377</v>
@@ -918,19 +919,19 @@
         <v>0.74185997907597401</v>
       </c>
       <c r="H11" s="5">
-        <v>0.47995810327629601</v>
+        <v>0.37996165651570135</v>
       </c>
       <c r="I11" s="4">
         <v>0.18925372605729637</v>
       </c>
-      <c r="J11" s="4">
-        <v>6.7708582863641817</v>
+      <c r="J11" s="6">
+        <v>0.38481283349002104</v>
       </c>
       <c r="K11" s="4">
         <v>0.20508218404527631</v>
       </c>
-      <c r="L11" s="4">
-        <v>0.19317617166404247</v>
+      <c r="L11" s="6">
+        <v>0.87892111905719006</v>
       </c>
       <c r="M11" s="4">
         <v>0.87892111905719006</v>
@@ -938,8 +939,8 @@
       <c r="N11" s="4">
         <v>0.99989085067827643</v>
       </c>
-      <c r="O11" s="4">
-        <v>2.3969168164842056</v>
+      <c r="O11" s="6">
+        <v>1.1343312256503413</v>
       </c>
       <c r="P11" s="4">
         <v>1.1343312256503413</v>
@@ -950,10 +951,10 @@
         <v>0.81681419256407539</v>
       </c>
       <c r="D12" s="5">
-        <v>0.76144969641201632</v>
+        <v>0.58511763893571112</v>
       </c>
       <c r="E12" s="5">
-        <v>0.80223265778223174</v>
+        <v>0.97009807909568735</v>
       </c>
       <c r="F12" s="5">
         <v>0.8783817811078567</v>
@@ -962,19 +963,19 @@
         <v>0.71856156157273898</v>
       </c>
       <c r="H12" s="5">
-        <v>0.27705177001676845</v>
+        <v>0.88260948703130127</v>
       </c>
       <c r="I12" s="4">
         <v>0.19808408965287416</v>
       </c>
-      <c r="J12" s="4">
-        <v>5.9664096932142403</v>
+      <c r="J12" s="6">
+        <v>0.37993231610889339</v>
       </c>
       <c r="K12" s="4">
         <v>0.17232445104995658</v>
       </c>
-      <c r="L12" s="4">
-        <v>0.82181444635848244</v>
+      <c r="L12" s="6">
+        <v>1.0800646991171681</v>
       </c>
       <c r="M12" s="4">
         <v>1.0800646991171681</v>
@@ -982,8 +983,8 @@
       <c r="N12" s="4">
         <v>0.99994062579680099</v>
       </c>
-      <c r="O12" s="4">
-        <v>1.6335793834215124</v>
+      <c r="O12" s="6">
+        <v>1.0499961581024997</v>
       </c>
       <c r="P12" s="4">
         <v>1.0499961581024997</v>
@@ -994,10 +995,10 @@
         <v>0.87784548605081425</v>
       </c>
       <c r="D13" s="5">
-        <v>0.76663690554969954</v>
+        <v>0.44805096183356807</v>
       </c>
       <c r="E13" s="5">
-        <v>0.92650428051633216</v>
+        <v>2.9604431484992428</v>
       </c>
       <c r="F13" s="5">
         <v>0.8686236042374621</v>
@@ -1006,19 +1007,19 @@
         <v>0.66821190865948377</v>
       </c>
       <c r="H13" s="5">
-        <v>0.98173154517017047</v>
+        <v>0.303509592639292</v>
       </c>
       <c r="I13" s="4">
         <v>0.20589921402202824</v>
       </c>
-      <c r="J13" s="4">
-        <v>2.9270013501418926</v>
+      <c r="J13" s="6">
+        <v>0.41232733681357209</v>
       </c>
       <c r="K13" s="4">
         <v>0.27148449346309211</v>
       </c>
-      <c r="L13" s="4">
-        <v>2.5258578828166751</v>
+      <c r="L13" s="6">
+        <v>1.0840367819942989</v>
       </c>
       <c r="M13" s="4">
         <v>1.0840367819942989</v>
@@ -1026,8 +1027,8 @@
       <c r="N13" s="4">
         <v>0.45847026304182853</v>
       </c>
-      <c r="O13" s="4">
-        <v>9.0815506057776274E-2</v>
+      <c r="O13" s="6">
+        <v>0.88211552384032588</v>
       </c>
       <c r="P13" s="4">
         <v>0.88211552384032588</v>
@@ -1038,10 +1039,10 @@
         <v>0.61986817481635703</v>
       </c>
       <c r="D14" s="5">
-        <v>0.62867033333653732</v>
+        <v>0.69658480418324453</v>
       </c>
       <c r="E14" s="5">
-        <v>0.65957519760777761</v>
+        <v>1.050492097236112</v>
       </c>
       <c r="F14" s="5">
         <v>0.88493341725188135</v>
@@ -1050,19 +1051,19 @@
         <v>0.70070298356112104</v>
       </c>
       <c r="H14" s="5">
-        <v>5.4204041415913826E-2</v>
+        <v>1.8461954426117659</v>
       </c>
       <c r="I14" s="4">
         <v>0.20023569816610393</v>
       </c>
-      <c r="J14" s="4">
-        <v>3.7673275180176486</v>
+      <c r="J14" s="6">
+        <v>0.39231779363347585</v>
       </c>
       <c r="K14" s="4">
         <v>0.17596249523602767</v>
       </c>
-      <c r="L14" s="4">
-        <v>0.49313976518774805</v>
+      <c r="L14" s="6">
+        <v>0.86416647608872732</v>
       </c>
       <c r="M14" s="4">
         <v>0.86416647608872732</v>
@@ -1070,8 +1071,8 @@
       <c r="N14" s="4">
         <v>0.49951220835366461</v>
       </c>
-      <c r="O14" s="4">
-        <v>2.3269775396819887</v>
+      <c r="O14" s="6">
+        <v>0.72171624548027169</v>
       </c>
       <c r="P14" s="4">
         <v>0.72171624548027169</v>
@@ -1082,10 +1083,10 @@
         <v>0.86621698361633304</v>
       </c>
       <c r="D15" s="5">
-        <v>0.87415343072897844</v>
+        <v>0.57629104829370215</v>
       </c>
       <c r="E15" s="5">
-        <v>0.29833511843349009</v>
+        <v>0.40736510234884721</v>
       </c>
       <c r="F15" s="5">
         <v>0.54927667369542588</v>
@@ -1094,19 +1095,19 @@
         <v>0.68447532114116094</v>
       </c>
       <c r="H15" s="5">
-        <v>1.2888411210682333</v>
+        <v>0.14642167044853591</v>
       </c>
       <c r="I15" s="4">
         <v>0.19390239986196992</v>
       </c>
-      <c r="J15" s="4">
-        <v>0.95009163585192413</v>
+      <c r="J15" s="6">
+        <v>0.40258676374187924</v>
       </c>
       <c r="K15" s="4">
         <v>0.26139444337955198</v>
       </c>
-      <c r="L15" s="4">
-        <v>5.1607060743780166E-2</v>
+      <c r="L15" s="6">
+        <v>1.1580919369012526</v>
       </c>
       <c r="M15" s="4">
         <v>1.1580919369012526</v>
@@ -1114,8 +1115,8 @@
       <c r="N15" s="4">
         <v>3.104492662485244E-5</v>
       </c>
-      <c r="O15" s="4">
-        <v>1.1553204344003392</v>
+      <c r="O15" s="6">
+        <v>0.99464234734490786</v>
       </c>
       <c r="P15" s="4">
         <v>0.99464234734490786</v>
@@ -1126,10 +1127,10 @@
         <v>0.56784337328544632</v>
       </c>
       <c r="D16" s="5">
-        <v>0.60048104156052573</v>
+        <v>0.44200255367920349</v>
       </c>
       <c r="E16" s="5">
-        <v>0.28360187512360951</v>
+        <v>3.3255199797729831</v>
       </c>
       <c r="F16" s="5">
         <v>0.90288121076885774</v>
@@ -1138,19 +1139,19 @@
         <v>0.62160365607402746</v>
       </c>
       <c r="H16" s="5">
-        <v>1.3564385893510844</v>
+        <v>0.41736717287914255</v>
       </c>
       <c r="I16" s="4">
         <v>0.20293219720027983</v>
       </c>
-      <c r="J16" s="4">
-        <v>2.767325047588475</v>
+      <c r="J16" s="6">
+        <v>0.40945002602018321</v>
       </c>
       <c r="K16" s="4">
         <v>0.20980759877318347</v>
       </c>
-      <c r="L16" s="4">
-        <v>1.2174697573861821</v>
+      <c r="L16" s="6">
+        <v>1.2081375632706717</v>
       </c>
       <c r="M16" s="4">
         <v>1.2081375632706717</v>
@@ -1158,8 +1159,8 @@
       <c r="N16" s="4">
         <v>0.9999997054344425</v>
       </c>
-      <c r="O16" s="4">
-        <v>0.28381510565507934</v>
+      <c r="O16" s="6">
+        <v>1.0657117825552695</v>
       </c>
       <c r="P16" s="4">
         <v>1.0657117825552695</v>
@@ -1170,10 +1171,10 @@
         <v>0.83020586166588928</v>
       </c>
       <c r="D17" s="5">
-        <v>0.70500406656551895</v>
+        <v>0.72135500836623301</v>
       </c>
       <c r="E17" s="5">
-        <v>0.11881178242144129</v>
+        <v>0.52481221313546922</v>
       </c>
       <c r="F17" s="5">
         <v>0.75156404021487355</v>
@@ -1182,19 +1183,19 @@
         <v>0.7274162291950117</v>
       </c>
       <c r="H17" s="5">
-        <v>2.2524894849299719</v>
+        <v>0.1275547033908338</v>
       </c>
       <c r="I17" s="4">
         <v>0.21313443690746167</v>
       </c>
-      <c r="J17" s="4">
-        <v>7.7332090702944489</v>
+      <c r="J17" s="6">
+        <v>0.40997095263105615</v>
       </c>
       <c r="K17" s="4">
         <v>0.2652251142613577</v>
       </c>
-      <c r="L17" s="4">
-        <v>3.2021007808453019</v>
+      <c r="L17" s="6">
+        <v>0.98241153982222496</v>
       </c>
       <c r="M17" s="4">
         <v>0.98241153982222496</v>
@@ -1202,8 +1203,8 @@
       <c r="N17" s="4">
         <v>2.2435739089921424E-3</v>
       </c>
-      <c r="O17" s="4">
-        <v>1.4851047861650626</v>
+      <c r="O17" s="6">
+        <v>1.0831165304890538</v>
       </c>
       <c r="P17" s="4">
         <v>1.0831165304890538</v>
@@ -1214,10 +1215,10 @@
         <v>0.7492234238995592</v>
       </c>
       <c r="D18" s="5">
-        <v>0.77427157101503796</v>
+        <v>0.67013515123118772</v>
       </c>
       <c r="E18" s="5">
-        <v>0.29953409956188265</v>
+        <v>2.342844081154007</v>
       </c>
       <c r="F18" s="5">
         <v>0.81577862133777279</v>
@@ -1226,19 +1227,19 @@
         <v>0.75667848970988105</v>
       </c>
       <c r="H18" s="5">
-        <v>2.1665846218597378</v>
+        <v>0.56884732394375404</v>
       </c>
       <c r="I18" s="4">
         <v>0.19630564676661744</v>
       </c>
-      <c r="J18" s="4">
-        <v>0.40907845461463849</v>
+      <c r="J18" s="6">
+        <v>0.41297899060037191</v>
       </c>
       <c r="K18" s="4">
         <v>0.19298572772375194</v>
       </c>
-      <c r="L18" s="4">
-        <v>2.6982517446183003</v>
+      <c r="L18" s="6">
+        <v>1.1746606250477123</v>
       </c>
       <c r="M18" s="4">
         <v>1.1746606250477123</v>
@@ -1246,8 +1247,8 @@
       <c r="N18" s="4">
         <v>6.1592531565798095E-5</v>
       </c>
-      <c r="O18" s="4">
-        <v>0.17864002120639977</v>
+      <c r="O18" s="6">
+        <v>0.94306660723901226</v>
       </c>
       <c r="P18" s="4">
         <v>0.94306660723901226</v>
@@ -1258,10 +1259,10 @@
         <v>0.7688052033097813</v>
       </c>
       <c r="D19" s="5">
-        <v>0.85774107164886804</v>
+        <v>0.79477870744444068</v>
       </c>
       <c r="E19" s="5">
-        <v>0.43230027186938008</v>
+        <v>1.2603724945275281</v>
       </c>
       <c r="F19" s="5">
         <v>0.82713475593996466</v>
@@ -1270,19 +1271,19 @@
         <v>0.69247467325999457</v>
       </c>
       <c r="H19" s="5">
-        <v>1.0081045711220391</v>
+        <v>0.17167377528326536</v>
       </c>
       <c r="I19" s="4">
         <v>0.22594447288021149</v>
       </c>
-      <c r="J19" s="4">
-        <v>0.10866026459161317</v>
+      <c r="J19" s="6">
+        <v>0.38863889031096865</v>
       </c>
       <c r="K19" s="4">
         <v>0.21279892076733017</v>
       </c>
-      <c r="L19" s="4">
-        <v>1.0544349843858241</v>
+      <c r="L19" s="6">
+        <v>0.67383054734989423</v>
       </c>
       <c r="M19" s="4">
         <v>0.67383054734989423</v>
@@ -1290,8 +1291,8 @@
       <c r="N19" s="4">
         <v>5.0426657428706168E-2</v>
       </c>
-      <c r="O19" s="4">
-        <v>0.98575830817468779</v>
+      <c r="O19" s="6">
+        <v>1.039815929014547</v>
       </c>
       <c r="P19" s="4">
         <v>1.039815929014547</v>
@@ -1302,10 +1303,10 @@
         <v>0.66312241934107707</v>
       </c>
       <c r="D20" s="5">
-        <v>0.84850512206083495</v>
+        <v>0.8139388489817696</v>
       </c>
       <c r="E20" s="5">
-        <v>0.27291931466551222</v>
+        <v>0.77164994816192845</v>
       </c>
       <c r="F20" s="5">
         <v>0.62731722104212695</v>
@@ -1314,19 +1315,19 @@
         <v>0.75887160762950379</v>
       </c>
       <c r="H20" s="5">
-        <v>0.81059268357769831</v>
+        <v>1.2980490820416852</v>
       </c>
       <c r="I20" s="4">
         <v>0.18779158924605685</v>
       </c>
-      <c r="J20" s="4">
-        <v>3.1197839920566754</v>
+      <c r="J20" s="6">
+        <v>0.36120723433801072</v>
       </c>
       <c r="K20" s="4">
         <v>0.27332621534699036</v>
       </c>
-      <c r="L20" s="4">
-        <v>1.1097480042324252E-2</v>
+      <c r="L20" s="6">
+        <v>0.38978950267592793</v>
       </c>
       <c r="M20" s="4">
         <v>0.38978950267592793</v>
@@ -1334,8 +1335,8 @@
       <c r="N20" s="4">
         <v>0.34859016628603112</v>
       </c>
-      <c r="O20" s="4">
-        <v>0.82582342800560804</v>
+      <c r="O20" s="6">
+        <v>1.0881942360154944</v>
       </c>
       <c r="P20" s="4">
         <v>1.0881942360154944</v>
@@ -1346,10 +1347,10 @@
         <v>0.74869434805550017</v>
       </c>
       <c r="D21" s="5">
-        <v>0.76339360299456371</v>
+        <v>0.8531926470457446</v>
       </c>
       <c r="E21" s="5">
-        <v>0.12521527450335967</v>
+        <v>1.1133634404708146E-3</v>
       </c>
       <c r="F21" s="5">
         <v>0.72045241998236376</v>
@@ -1358,19 +1359,19 @@
         <v>0.6944341060757121</v>
       </c>
       <c r="H21" s="5">
-        <v>5.4415647773592708E-2</v>
+        <v>0.12045280916846061</v>
       </c>
       <c r="I21" s="4">
         <v>0.19585887698390295</v>
       </c>
-      <c r="J21" s="4">
-        <v>2.3379136768247526</v>
+      <c r="J21" s="6">
+        <v>0.40259440418188475</v>
       </c>
       <c r="K21" s="4">
         <v>0.23105245911138048</v>
       </c>
-      <c r="L21" s="4">
-        <v>0.95328274154336157</v>
+      <c r="L21" s="6">
+        <v>0.88184046628379908</v>
       </c>
       <c r="M21" s="4">
         <v>0.88184046628379908</v>
@@ -1378,8 +1379,8 @@
       <c r="N21" s="4">
         <v>0.91185208900829351</v>
       </c>
-      <c r="O21" s="4">
-        <v>1.9230345692290052</v>
+      <c r="O21" s="6">
+        <v>1.0039399413288854</v>
       </c>
       <c r="P21" s="4">
         <v>1.0039399413288854</v>
@@ -1390,10 +1391,10 @@
         <v>0.93400692804510532</v>
       </c>
       <c r="D22" s="5">
-        <v>0.83562130727760398</v>
+        <v>0.82684498521730099</v>
       </c>
       <c r="E22" s="5">
-        <v>0.26217820724472957</v>
+        <v>1.2037659281116315</v>
       </c>
       <c r="F22" s="5">
         <v>0.79754723982569975</v>
@@ -1402,19 +1403,19 @@
         <v>0.64552729269010189</v>
       </c>
       <c r="H22" s="5">
-        <v>0.44182681027164034</v>
+        <v>1.0823005588556176</v>
       </c>
       <c r="I22" s="4">
         <v>0.18667439091288179</v>
       </c>
-      <c r="J22" s="4">
-        <v>1.4128467094070052</v>
+      <c r="J22" s="6">
+        <v>0.38825900384656992</v>
       </c>
       <c r="K22" s="4">
         <v>0.26596187027150681</v>
       </c>
-      <c r="L22" s="4">
-        <v>0.45867965284254109</v>
+      <c r="L22" s="6">
+        <v>0.82370095330198412</v>
       </c>
       <c r="M22" s="4">
         <v>0.82370095330198412</v>
@@ -1422,8 +1423,8 @@
       <c r="N22" s="4">
         <v>0.23523467345127655</v>
       </c>
-      <c r="O22" s="4">
-        <v>3.4063153380026012</v>
+      <c r="O22" s="6">
+        <v>1.1247922574061666</v>
       </c>
       <c r="P22" s="4">
         <v>1.1247922574061666</v>
@@ -1434,10 +1435,10 @@
         <v>0.79348188248086149</v>
       </c>
       <c r="D23" s="5">
-        <v>0.81462712249541203</v>
+        <v>0.55836309933420658</v>
       </c>
       <c r="E23" s="5">
-        <v>2.8834634647713298</v>
+        <v>0.60581227552239236</v>
       </c>
       <c r="F23" s="5">
         <v>0.79124180354760998</v>
@@ -1446,19 +1447,19 @@
         <v>0.75704769608688605</v>
       </c>
       <c r="H23" s="5">
-        <v>0.83121223409149703</v>
+        <v>0.21959846548941167</v>
       </c>
       <c r="I23" s="4">
         <v>0.21004213453979467</v>
       </c>
-      <c r="J23" s="4">
-        <v>8.349660474632568</v>
+      <c r="J23" s="6">
+        <v>0.39907148876884518</v>
       </c>
       <c r="K23" s="4">
         <v>0.29780992229057524</v>
       </c>
-      <c r="L23" s="4">
-        <v>1.4309235803319378</v>
+      <c r="L23" s="6">
+        <v>1.0525680336022529</v>
       </c>
       <c r="M23" s="4">
         <v>1.0525680336022529</v>
@@ -1466,8 +1467,8 @@
       <c r="N23" s="4">
         <v>0.99999999999999534</v>
       </c>
-      <c r="O23" s="4">
-        <v>0.2290221189467978</v>
+      <c r="O23" s="6">
+        <v>1.0105746248468748</v>
       </c>
       <c r="P23" s="4">
         <v>1.0105746248468748</v>
@@ -1478,10 +1479,10 @@
         <v>0.96119108554177857</v>
       </c>
       <c r="D24" s="5">
-        <v>0.67194573424126358</v>
+        <v>0.76310164956642268</v>
       </c>
       <c r="E24" s="5">
-        <v>0.95814973704075312</v>
+        <v>3.1301800023800972</v>
       </c>
       <c r="F24" s="5">
         <v>0.7676460272478034</v>
@@ -1490,19 +1491,19 @@
         <v>0.67755299551360015</v>
       </c>
       <c r="H24" s="5">
-        <v>0.77651464008609805</v>
+        <v>0.38787636236200146</v>
       </c>
       <c r="I24" s="4">
         <v>0.19274924206006352</v>
       </c>
-      <c r="J24" s="4">
-        <v>0.59814683266611046</v>
+      <c r="J24" s="6">
+        <v>0.44750337808537211</v>
       </c>
       <c r="K24" s="4">
         <v>0.19147030334893722</v>
       </c>
-      <c r="L24" s="4">
-        <v>1.1516832308128893</v>
+      <c r="L24" s="6">
+        <v>0.93298262877056148</v>
       </c>
       <c r="M24" s="4">
         <v>0.93298262877056148</v>
@@ -1510,8 +1511,8 @@
       <c r="N24" s="4">
         <v>0.99999997905567695</v>
       </c>
-      <c r="O24" s="4">
-        <v>1.0778570152631843</v>
+      <c r="O24" s="6">
+        <v>0.91572895885610694</v>
       </c>
       <c r="P24" s="4">
         <v>0.91572895885610694</v>
@@ -1522,10 +1523,10 @@
         <v>0.7473867483232095</v>
       </c>
       <c r="D25" s="5">
-        <v>0.66552902814400949</v>
+        <v>0.72709505982317224</v>
       </c>
       <c r="E25" s="5">
-        <v>1.5461356270848763</v>
+        <v>0.45010107076557265</v>
       </c>
       <c r="F25" s="5">
         <v>0.69969064619968191</v>
@@ -1534,19 +1535,19 @@
         <v>0.62160619957227237</v>
       </c>
       <c r="H25" s="5">
-        <v>2.118605288761918</v>
+        <v>0.89704640310596651</v>
       </c>
       <c r="I25" s="4">
         <v>0.20951120705585041</v>
       </c>
-      <c r="J25" s="4">
-        <v>0.13107851846875448</v>
+      <c r="J25" s="6">
+        <v>0.39839244858792278</v>
       </c>
       <c r="K25" s="4">
         <v>0.19349497819337286</v>
       </c>
-      <c r="L25" s="4">
-        <v>0.25558768970856399</v>
+      <c r="L25" s="6">
+        <v>0.88339074015325814</v>
       </c>
       <c r="M25" s="4">
         <v>0.88339074015325814</v>
@@ -1554,8 +1555,8 @@
       <c r="N25" s="4">
         <v>5.8406411318599532E-3</v>
       </c>
-      <c r="O25" s="4">
-        <v>1.325469120132529</v>
+      <c r="O25" s="6">
+        <v>0.98048756946918991</v>
       </c>
       <c r="P25" s="4">
         <v>0.98048756946918991</v>
@@ -1566,10 +1567,10 @@
         <v>0.64212669184440907</v>
       </c>
       <c r="D26" s="5">
-        <v>0.79462879709665724</v>
+        <v>0.97065262557784071</v>
       </c>
       <c r="E26" s="5">
-        <v>0.36907886355272118</v>
+        <v>0.65014429300434151</v>
       </c>
       <c r="F26" s="5">
         <v>0.75271968066437489</v>
@@ -1578,19 +1579,19 @@
         <v>0.65871211068657642</v>
       </c>
       <c r="H26" s="5">
-        <v>0.54739658343525721</v>
+        <v>0.70808813410555183</v>
       </c>
       <c r="I26" s="4">
         <v>0.19345006811036872</v>
       </c>
-      <c r="J26" s="4">
-        <v>2.3862932306355242</v>
+      <c r="J26" s="6">
+        <v>0.39405528774714449</v>
       </c>
       <c r="K26" s="4">
         <v>0.23236113393098701</v>
       </c>
-      <c r="L26" s="4">
-        <v>0.21965604499191371</v>
+      <c r="L26" s="6">
+        <v>0.82691293244498931</v>
       </c>
       <c r="M26" s="4">
         <v>0.82691293244498931</v>
@@ -1598,8 +1599,8 @@
       <c r="N26" s="4">
         <v>0.99998452483299949</v>
       </c>
-      <c r="O26" s="4">
-        <v>6.8670550884634016E-2</v>
+      <c r="O26" s="6">
+        <v>0.98442127262377244</v>
       </c>
       <c r="P26" s="4">
         <v>0.98442127262377244</v>
@@ -1610,10 +1611,10 @@
         <v>0.67545599339568863</v>
       </c>
       <c r="D27" s="5">
-        <v>0.72863133783352552</v>
+        <v>0.79215375300769408</v>
       </c>
       <c r="E27" s="5">
-        <v>0.19148659418635042</v>
+        <v>1.0081089292488978</v>
       </c>
       <c r="F27" s="5">
         <v>0.67099311193248612</v>
@@ -1622,19 +1623,19 @@
         <v>0.76380906429383866</v>
       </c>
       <c r="H27" s="5">
-        <v>0.95796628489561786</v>
+        <v>0.88362181713611321</v>
       </c>
       <c r="I27" s="4">
         <v>0.20110054935616831</v>
       </c>
-      <c r="J27" s="4">
-        <v>2.5021977101480446</v>
+      <c r="J27" s="6">
+        <v>0.41037190128367285</v>
       </c>
       <c r="K27" s="4">
         <v>0.20765496080417778</v>
       </c>
-      <c r="L27" s="4">
-        <v>0.39584882942173599</v>
+      <c r="L27" s="6">
+        <v>1.0793074101946964</v>
       </c>
       <c r="M27" s="4">
         <v>1.0793074101946964</v>
@@ -1642,8 +1643,8 @@
       <c r="N27" s="4">
         <v>0.99986119940077545</v>
       </c>
-      <c r="O27" s="4">
-        <v>0.97403848785240388</v>
+      <c r="O27" s="6">
+        <v>0.85848718756645559</v>
       </c>
       <c r="P27" s="4">
         <v>0.85848718756645559</v>
@@ -1654,10 +1655,10 @@
         <v>0.76550240191242858</v>
       </c>
       <c r="D28" s="5">
-        <v>0.72209161953235335</v>
+        <v>0.75152339301247428</v>
       </c>
       <c r="E28" s="5">
-        <v>1.9358274858559912</v>
+        <v>1.475319591821358</v>
       </c>
       <c r="F28" s="5">
         <v>0.80016470060717104</v>
@@ -1666,19 +1667,19 @@
         <v>0.70559596362420052</v>
       </c>
       <c r="H28" s="5">
-        <v>3.8143481054824084</v>
+        <v>1.1784619961754113</v>
       </c>
       <c r="I28" s="4">
         <v>0.20339213410717794</v>
       </c>
-      <c r="J28" s="4">
-        <v>2.2579559082890293</v>
+      <c r="J28" s="6">
+        <v>0.41856641442475984</v>
       </c>
       <c r="K28" s="4">
         <v>0.24427787979084226</v>
       </c>
-      <c r="L28" s="4">
-        <v>0.89106207910548096</v>
+      <c r="L28" s="6">
+        <v>1.0495048233962843</v>
       </c>
       <c r="M28" s="4">
         <v>1.0495048233962843</v>
@@ -1686,8 +1687,8 @@
       <c r="N28" s="4">
         <v>0.87564921792301575</v>
       </c>
-      <c r="O28" s="4">
-        <v>0.24780790634543706</v>
+      <c r="O28" s="6">
+        <v>0.94558373190206257</v>
       </c>
       <c r="P28" s="4">
         <v>0.94558373190206257</v>
@@ -1698,10 +1699,10 @@
         <v>0.97180665615586215</v>
       </c>
       <c r="D29" s="5">
-        <v>0.59702579138303291</v>
+        <v>0.83797222025688745</v>
       </c>
       <c r="E29" s="5">
-        <v>3.0448254353838727E-2</v>
+        <v>1.7585483622357376</v>
       </c>
       <c r="F29" s="5">
         <v>0.77086951330861553</v>
@@ -1710,19 +1711,19 @@
         <v>0.81837764879077934</v>
       </c>
       <c r="H29" s="5">
-        <v>0.2406159755294775</v>
+        <v>2.8937647108616349</v>
       </c>
       <c r="I29" s="4">
         <v>0.19813260402012281</v>
       </c>
-      <c r="J29" s="4">
-        <v>3.0308602614785589</v>
+      <c r="J29" s="6">
+        <v>0.39855642159334342</v>
       </c>
       <c r="K29" s="4">
         <v>0.22389423998855787</v>
       </c>
-      <c r="L29" s="4">
-        <v>0.62566559493427976</v>
+      <c r="L29" s="6">
+        <v>0.94311441878051983</v>
       </c>
       <c r="M29" s="4">
         <v>0.94311441878051983</v>
@@ -1730,8 +1731,8 @@
       <c r="N29" s="4">
         <v>0.85190285989018932</v>
       </c>
-      <c r="O29" s="4">
-        <v>0.14981503633590484</v>
+      <c r="O29" s="6">
+        <v>1.0533918035760572</v>
       </c>
       <c r="P29" s="4">
         <v>1.0533918035760572</v>
@@ -1742,10 +1743,10 @@
         <v>0.97191088949373383</v>
       </c>
       <c r="D30" s="5">
-        <v>0.59374656412771654</v>
+        <v>0.62430904195776538</v>
       </c>
       <c r="E30" s="5">
-        <v>0.67284900539306924</v>
+        <v>1.8059025154044175</v>
       </c>
       <c r="F30" s="5">
         <v>0.75058847920851612</v>
@@ -1754,19 +1755,19 @@
         <v>0.6880675729272222</v>
       </c>
       <c r="H30" s="5">
-        <v>3.9353822864296149</v>
+        <v>0.3992015837721764</v>
       </c>
       <c r="I30" s="4">
         <v>0.19773542071284816</v>
       </c>
-      <c r="J30" s="4">
-        <v>1.0725569156086607</v>
+      <c r="J30" s="6">
+        <v>0.40430556109404336</v>
       </c>
       <c r="K30" s="4">
         <v>0.23866977089282704</v>
       </c>
-      <c r="L30" s="4">
-        <v>0.44836165005134421</v>
+      <c r="L30" s="6">
+        <v>0.81300093897578252</v>
       </c>
       <c r="M30" s="4">
         <v>0.81300093897578252</v>
@@ -1774,8 +1775,8 @@
       <c r="N30" s="4">
         <v>2.2401444339654715E-3</v>
       </c>
-      <c r="O30" s="4">
-        <v>0.6092007942105423</v>
+      <c r="O30" s="6">
+        <v>0.92998266642711869</v>
       </c>
       <c r="P30" s="4">
         <v>0.92998266642711869</v>
@@ -1786,10 +1787,10 @@
         <v>0.69960489915632484</v>
       </c>
       <c r="D31" s="5">
-        <v>0.83114278185315182</v>
+        <v>0.60335160919010589</v>
       </c>
       <c r="E31" s="5">
-        <v>0.45174882563598534</v>
+        <v>2.3482477300677744</v>
       </c>
       <c r="F31" s="5">
         <v>0.75011759837793213</v>
@@ -1798,19 +1799,19 @@
         <v>0.78347963538678189</v>
       </c>
       <c r="H31" s="5">
-        <v>1.0798030484833747</v>
+        <v>0.36997649459890714</v>
       </c>
       <c r="I31" s="4">
         <v>0.20026673130111591</v>
       </c>
-      <c r="J31" s="4">
-        <v>2.28698736904947</v>
+      <c r="J31" s="6">
+        <v>0.43001874079423485</v>
       </c>
       <c r="K31" s="4">
         <v>0.17544227433030091</v>
       </c>
-      <c r="L31" s="4">
-        <v>0.78125129208815391</v>
+      <c r="L31" s="6">
+        <v>1.146912633500909</v>
       </c>
       <c r="M31" s="4">
         <v>1.146912633500909</v>
@@ -1818,8 +1819,8 @@
       <c r="N31" s="4">
         <v>0.92128475515091257</v>
       </c>
-      <c r="O31" s="4">
-        <v>0.9450172559892045</v>
+      <c r="O31" s="6">
+        <v>0.90140178340846333</v>
       </c>
       <c r="P31" s="4">
         <v>0.90140178340846333</v>
@@ -1830,10 +1831,10 @@
         <v>0.93983962705361757</v>
       </c>
       <c r="D32" s="5">
-        <v>0.80218227464054526</v>
+        <v>0.75152897238971961</v>
       </c>
       <c r="E32" s="5">
-        <v>0.7812380077501796</v>
+        <v>0.32765705389485894</v>
       </c>
       <c r="F32" s="5">
         <v>0.75650681354759652</v>
@@ -1842,19 +1843,19 @@
         <v>0.66207741908132256</v>
       </c>
       <c r="H32" s="5">
-        <v>0.38067202648950593</v>
+        <v>0.24898427001556431</v>
       </c>
       <c r="I32" s="4">
         <v>0.19049812699465882</v>
       </c>
-      <c r="J32" s="4">
-        <v>2.7753526352567612</v>
+      <c r="J32" s="6">
+        <v>0.39158771707663909</v>
       </c>
       <c r="K32" s="4">
         <v>0.20428089592736814</v>
       </c>
-      <c r="L32" s="4">
-        <v>0.36708833304378841</v>
+      <c r="L32" s="6">
+        <v>0.95643532246983531</v>
       </c>
       <c r="M32" s="4">
         <v>0.95643532246983531</v>
@@ -1862,8 +1863,8 @@
       <c r="N32" s="4">
         <v>0.99991916053846053</v>
       </c>
-      <c r="O32" s="4">
-        <v>0.32147874501169249</v>
+      <c r="O32" s="6">
+        <v>0.9767296246587136</v>
       </c>
       <c r="P32" s="4">
         <v>0.9767296246587136</v>
@@ -1874,10 +1875,10 @@
         <v>0.78359731077992323</v>
       </c>
       <c r="D33" s="5">
-        <v>0.68100956124133338</v>
+        <v>0.73468655656887927</v>
       </c>
       <c r="E33" s="5">
-        <v>1.8563783403845955</v>
+        <v>4.2648161248213329E-2</v>
       </c>
       <c r="F33" s="5">
         <v>0.82094721707746299</v>
@@ -1886,19 +1887,19 @@
         <v>0.77943549678016311</v>
       </c>
       <c r="H33" s="5">
-        <v>2.9964731086032983</v>
+        <v>3.8431307633034524</v>
       </c>
       <c r="I33" s="4">
         <v>0.21105107264173562</v>
       </c>
-      <c r="J33" s="4">
-        <v>0.7965117891038842</v>
+      <c r="J33" s="6">
+        <v>0.42450618600089907</v>
       </c>
       <c r="K33" s="4">
         <v>0.2586801701810435</v>
       </c>
-      <c r="L33" s="4">
-        <v>3.1282692732844524</v>
+      <c r="L33" s="6">
+        <v>0.79130751449443959</v>
       </c>
       <c r="M33" s="4">
         <v>0.79130751449443959</v>
@@ -1906,8 +1907,8 @@
       <c r="N33" s="4">
         <v>0.99999999999731859</v>
       </c>
-      <c r="O33" s="4">
-        <v>0.83881247970829631</v>
+      <c r="O33" s="6">
+        <v>1.0524094383739482</v>
       </c>
       <c r="P33" s="4">
         <v>1.0524094383739482</v>
@@ -1918,10 +1919,10 @@
         <v>0.76289136058296458</v>
       </c>
       <c r="D34" s="5">
-        <v>0.58670357563554409</v>
+        <v>0.67877425999058361</v>
       </c>
       <c r="E34" s="5">
-        <v>4.5042658979026058</v>
+        <v>1.1878713716399214</v>
       </c>
       <c r="F34" s="5">
         <v>0.73478657987084062</v>
@@ -1930,19 +1931,19 @@
         <v>0.68568690340287042</v>
       </c>
       <c r="H34" s="5">
-        <v>2.1090896304193789</v>
+        <v>2.0085326031842219</v>
       </c>
       <c r="I34" s="4">
         <v>0.19171175353863726</v>
       </c>
-      <c r="J34" s="4">
-        <v>2.7325100450420274</v>
+      <c r="J34" s="6">
+        <v>0.37255949235024399</v>
       </c>
       <c r="K34" s="4">
         <v>0.21305546454594743</v>
       </c>
-      <c r="L34" s="4">
-        <v>1.4528023204180724</v>
+      <c r="L34" s="6">
+        <v>0.82841811506573992</v>
       </c>
       <c r="M34" s="4">
         <v>0.82841811506573992</v>
@@ -1950,8 +1951,8 @@
       <c r="N34" s="4">
         <v>5.905683756354841E-2</v>
       </c>
-      <c r="O34" s="4">
-        <v>2.0268758506794291</v>
+      <c r="O34" s="6">
+        <v>1.0411621633447192</v>
       </c>
       <c r="P34" s="4">
         <v>1.0411621633447192</v>
@@ -1962,10 +1963,10 @@
         <v>0.74041309271641731</v>
       </c>
       <c r="D35" s="5">
-        <v>0.74334832398388284</v>
+        <v>0.80920097912614986</v>
       </c>
       <c r="E35" s="5">
-        <v>0.63522717639422255</v>
+        <v>0.23782803693162313</v>
       </c>
       <c r="F35" s="5">
         <v>0.83664511212205606</v>
@@ -1974,19 +1975,19 @@
         <v>0.65921240057291763</v>
       </c>
       <c r="H35" s="5">
-        <v>0.52236640453348604</v>
+        <v>0.32210475977001507</v>
       </c>
       <c r="I35" s="4">
         <v>0.19260031855116516</v>
       </c>
-      <c r="J35" s="4">
-        <v>3.5467405663288107</v>
+      <c r="J35" s="6">
+        <v>0.38772911810864319</v>
       </c>
       <c r="K35" s="4">
         <v>0.24654280754983138</v>
       </c>
-      <c r="L35" s="4">
-        <v>0.78580534108508393</v>
+      <c r="L35" s="6">
+        <v>0.84774830239684518</v>
       </c>
       <c r="M35" s="4">
         <v>0.84774830239684518</v>
@@ -1994,8 +1995,8 @@
       <c r="N35" s="4">
         <v>3.6021327636065598E-8</v>
       </c>
-      <c r="O35" s="4">
-        <v>1.4866435266093274</v>
+      <c r="O35" s="6">
+        <v>0.99414463284540877</v>
       </c>
       <c r="P35" s="4">
         <v>0.99414463284540877</v>
@@ -2006,10 +2007,10 @@
         <v>0.66588656140996449</v>
       </c>
       <c r="D36" s="5">
-        <v>0.66185728399316734</v>
+        <v>0.85759566841346746</v>
       </c>
       <c r="E36" s="5">
-        <v>3.2690959762097536</v>
+        <v>0.19492209395505419</v>
       </c>
       <c r="F36" s="5">
         <v>0.81113240984691815</v>
@@ -2018,19 +2019,19 @@
         <v>0.75460804262525205</v>
       </c>
       <c r="H36" s="5">
-        <v>1.1823003709266267</v>
+        <v>2.1113498212215558</v>
       </c>
       <c r="I36" s="4">
         <v>0.198185574427588</v>
       </c>
-      <c r="J36" s="4">
-        <v>2.5032367492708079</v>
+      <c r="J36" s="6">
+        <v>0.41200422616596466</v>
       </c>
       <c r="K36" s="4">
         <v>0.25152047431168723</v>
       </c>
-      <c r="L36" s="4">
-        <v>0.94313331537262579</v>
+      <c r="L36" s="6">
+        <v>0.9213236406866111</v>
       </c>
       <c r="M36" s="4">
         <v>0.9213236406866111</v>
@@ -2038,8 +2039,8 @@
       <c r="N36" s="4">
         <v>2.2751319363959969E-2</v>
       </c>
-      <c r="O36" s="4">
-        <v>1.9955839255910726</v>
+      <c r="O36" s="6">
+        <v>0.86492040258854241</v>
       </c>
       <c r="P36" s="4">
         <v>0.86492040258854241</v>
@@ -2050,10 +2051,10 @@
         <v>1.254581530013237</v>
       </c>
       <c r="D37" s="5">
-        <v>0.69482000916595954</v>
+        <v>0.77277902387080799</v>
       </c>
       <c r="E37" s="5">
-        <v>7.6498050180092411E-2</v>
+        <v>0.73922885136532901</v>
       </c>
       <c r="F37" s="5">
         <v>0.96334597506363306</v>
@@ -2062,19 +2063,19 @@
         <v>0.74395319858763553</v>
       </c>
       <c r="H37" s="5">
-        <v>1.4932478827316</v>
+        <v>0.68918331279934009</v>
       </c>
       <c r="I37" s="4">
         <v>0.20171049306188304</v>
       </c>
-      <c r="J37" s="4">
-        <v>5.5180937817935121</v>
+      <c r="J37" s="6">
+        <v>0.38520388840782049</v>
       </c>
       <c r="K37" s="4">
         <v>0.19826461060486567</v>
       </c>
-      <c r="L37" s="4">
-        <v>0.32490185021836393</v>
+      <c r="L37" s="6">
+        <v>0.96531346165852572</v>
       </c>
       <c r="M37" s="4">
         <v>0.96531346165852572</v>
@@ -2082,8 +2083,8 @@
       <c r="N37" s="4">
         <v>0.98518739095525087</v>
       </c>
-      <c r="O37" s="4">
-        <v>2.5193538480086457</v>
+      <c r="O37" s="6">
+        <v>0.96826559622892172</v>
       </c>
       <c r="P37" s="4">
         <v>0.96826559622892172</v>
@@ -2094,10 +2095,10 @@
         <v>0.93248721000559298</v>
       </c>
       <c r="D38" s="5">
-        <v>0.8917223745236692</v>
+        <v>0.70617101185622333</v>
       </c>
       <c r="E38" s="5">
-        <v>3.2901896162530173</v>
+        <v>4.0390364170120252</v>
       </c>
       <c r="F38" s="5">
         <v>1.0443978015242983</v>
@@ -2106,19 +2107,19 @@
         <v>0.66508102716123829</v>
       </c>
       <c r="H38" s="5">
-        <v>1.9332518691389713</v>
+        <v>0.94716089698518546</v>
       </c>
       <c r="I38" s="4">
         <v>0.1944561871035361</v>
       </c>
-      <c r="J38" s="4">
-        <v>0.75174285764299886</v>
+      <c r="J38" s="6">
+        <v>0.40515210533317003</v>
       </c>
       <c r="K38" s="4">
         <v>0.22212339319900742</v>
       </c>
-      <c r="L38" s="4">
-        <v>4.4389176814147694E-4</v>
+      <c r="L38" s="6">
+        <v>0.75477169924785092</v>
       </c>
       <c r="M38" s="4">
         <v>0.75477169924785092</v>
@@ -2126,8 +2127,8 @@
       <c r="N38" s="4">
         <v>0.99885161837095826</v>
       </c>
-      <c r="O38" s="4">
-        <v>0.29165829297155749</v>
+      <c r="O38" s="6">
+        <v>0.90911209492732992</v>
       </c>
       <c r="P38" s="4">
         <v>0.90911209492732992</v>
@@ -2138,10 +2139,10 @@
         <v>0.79797507871135565</v>
       </c>
       <c r="D39" s="5">
-        <v>0.44138322922332768</v>
+        <v>1.0617761226426756</v>
       </c>
       <c r="E39" s="5">
-        <v>1.951135807278916</v>
+        <v>0.35879296801229277</v>
       </c>
       <c r="F39" s="5">
         <v>0.88191521433598119</v>
@@ -2150,19 +2151,19 @@
         <v>0.67490605202612797</v>
       </c>
       <c r="H39" s="5">
-        <v>0.35226109407917872</v>
+        <v>1.8491433848635423</v>
       </c>
       <c r="I39" s="4">
         <v>0.20238054989814341</v>
       </c>
-      <c r="J39" s="4">
-        <v>0.32498958149744961</v>
+      <c r="J39" s="6">
+        <v>0.39833570566278925</v>
       </c>
       <c r="K39" s="4">
         <v>0.17745812434808028</v>
       </c>
-      <c r="L39" s="4">
-        <v>1.3677329458274423</v>
+      <c r="L39" s="6">
+        <v>0.96701165978950099</v>
       </c>
       <c r="M39" s="4">
         <v>0.96701165978950099</v>
@@ -2170,8 +2171,8 @@
       <c r="N39" s="4">
         <v>1.2021089329507739E-2</v>
       </c>
-      <c r="O39" s="4">
-        <v>1.4127627297850471</v>
+      <c r="O39" s="6">
+        <v>0.99357959054648726</v>
       </c>
       <c r="P39" s="4">
         <v>0.99357959054648726</v>
@@ -2182,10 +2183,10 @@
         <v>0.86739204419073435</v>
       </c>
       <c r="D40" s="5">
-        <v>0.80268360641482683</v>
+        <v>0.50035692316246461</v>
       </c>
       <c r="E40" s="5">
-        <v>6.8579863363640996</v>
+        <v>0.28279554158628212</v>
       </c>
       <c r="F40" s="5">
         <v>0.84866629837829954</v>
@@ -2194,19 +2195,19 @@
         <v>0.62107162965351759</v>
       </c>
       <c r="H40" s="5">
-        <v>0.83583629024897554</v>
+        <v>1.5377424662582024</v>
       </c>
       <c r="I40" s="4">
         <v>0.18802104896579588</v>
       </c>
-      <c r="J40" s="4">
-        <v>1.3836938352445145</v>
+      <c r="J40" s="6">
+        <v>0.38911702720802194</v>
       </c>
       <c r="K40" s="4">
         <v>0.22656611971010715</v>
       </c>
-      <c r="L40" s="4">
-        <v>1.0308938167208073</v>
+      <c r="L40" s="6">
+        <v>0.72933436336991697</v>
       </c>
       <c r="M40" s="4">
         <v>0.72933436336991697</v>
@@ -2214,8 +2215,8 @@
       <c r="N40" s="4">
         <v>3.2644893407337949E-2</v>
       </c>
-      <c r="O40" s="4">
-        <v>0.72623237611017322</v>
+      <c r="O40" s="6">
+        <v>0.97636625323666604</v>
       </c>
       <c r="P40" s="4">
         <v>0.97636625323666604</v>
@@ -2226,10 +2227,10 @@
         <v>0.52165327918484139</v>
       </c>
       <c r="D41" s="5">
-        <v>0.77161406560783885</v>
+        <v>0.78921936053457586</v>
       </c>
       <c r="E41" s="5">
-        <v>1.3542986204197025</v>
+        <v>3.0745141469060449</v>
       </c>
       <c r="F41" s="5">
         <v>0.79190846229718137</v>
@@ -2238,19 +2239,19 @@
         <v>0.72479478930369057</v>
       </c>
       <c r="H41" s="5">
-        <v>1.7127664641349376</v>
+        <v>4.305391914397505E-2</v>
       </c>
       <c r="I41" s="4">
         <v>0.20560485764523517</v>
       </c>
-      <c r="J41" s="4">
-        <v>2.7081104369309275</v>
+      <c r="J41" s="6">
+        <v>0.37411053142718609</v>
       </c>
       <c r="K41" s="4">
         <v>0.15711785259528421</v>
       </c>
-      <c r="L41" s="4">
-        <v>1.2388891124866186</v>
+      <c r="L41" s="6">
+        <v>0.92823658153998301</v>
       </c>
       <c r="M41" s="4">
         <v>0.92823658153998301</v>
@@ -2258,8 +2259,8 @@
       <c r="N41" s="4">
         <v>5.7134846148179375E-2</v>
       </c>
-      <c r="O41" s="4">
-        <v>9.0357662304597963E-2</v>
+      <c r="O41" s="6">
+        <v>0.96549619679006071</v>
       </c>
       <c r="P41" s="4">
         <v>0.96549619679006071</v>
@@ -2270,10 +2271,10 @@
         <v>0.50467112025453709</v>
       </c>
       <c r="D42" s="5">
-        <v>0.77105128463073913</v>
+        <v>0.67026023503274124</v>
       </c>
       <c r="E42" s="5">
-        <v>0.6858220967080606</v>
+        <v>0.38821125778910948</v>
       </c>
       <c r="F42" s="5">
         <v>0.67587945212372569</v>
@@ -2282,19 +2283,19 @@
         <v>0.74020788007050209</v>
       </c>
       <c r="H42" s="5">
-        <v>3.4819954856215469</v>
+        <v>1.0507849165961831</v>
       </c>
       <c r="I42" s="4">
         <v>0.20304228098311941</v>
       </c>
-      <c r="J42" s="4">
-        <v>2.8438988373549869</v>
+      <c r="J42" s="6">
+        <v>0.39439177450309421</v>
       </c>
       <c r="K42" s="4">
         <v>0.16535621998457464</v>
       </c>
-      <c r="L42" s="4">
-        <v>0.34184744545370122</v>
+      <c r="L42" s="6">
+        <v>1.0700010642776461</v>
       </c>
       <c r="M42" s="4">
         <v>1.0700010642776461</v>
@@ -2302,8 +2303,8 @@
       <c r="N42" s="4">
         <v>8.6168955316219844E-6</v>
       </c>
-      <c r="O42" s="4">
-        <v>0.29390972499474466</v>
+      <c r="O42" s="6">
+        <v>1.0363692965480173</v>
       </c>
       <c r="P42" s="4">
         <v>1.0363692965480173</v>
@@ -2314,10 +2315,10 @@
         <v>0.6129542145546002</v>
       </c>
       <c r="D43" s="5">
-        <v>0.72379430998739713</v>
+        <v>0.88666314974890115</v>
       </c>
       <c r="E43" s="5">
-        <v>5.5359226220284143E-2</v>
+        <v>3.8958715126013317</v>
       </c>
       <c r="F43" s="5">
         <v>0.73472198345470585</v>
@@ -2326,19 +2327,19 @@
         <v>0.71641192575897339</v>
       </c>
       <c r="H43" s="5">
-        <v>1.0493031032007261</v>
+        <v>1.5806551665876565</v>
       </c>
       <c r="I43" s="4">
         <v>0.19755046685454594</v>
       </c>
-      <c r="J43" s="4">
-        <v>1.8176707872411133</v>
+      <c r="J43" s="6">
+        <v>0.41149910892520541</v>
       </c>
       <c r="K43" s="4">
         <v>0.13990379728525601</v>
       </c>
-      <c r="L43" s="4">
-        <v>0.76067461897920075</v>
+      <c r="L43" s="6">
+        <v>0.98102781197586608</v>
       </c>
       <c r="M43" s="4">
         <v>0.98102781197586608</v>
@@ -2346,8 +2347,8 @@
       <c r="N43" s="4">
         <v>2.7990144034201025E-7</v>
       </c>
-      <c r="O43" s="4">
-        <v>4.6504420816295928</v>
+      <c r="O43" s="6">
+        <v>1.0306767567129462</v>
       </c>
       <c r="P43" s="4">
         <v>1.0306767567129462</v>
@@ -2358,10 +2359,10 @@
         <v>0.76838911402827592</v>
       </c>
       <c r="D44" s="5">
-        <v>0.8136273749352837</v>
+        <v>0.68018744415470478</v>
       </c>
       <c r="E44" s="5">
-        <v>3.4760929124266018</v>
+        <v>1.5717132841842485</v>
       </c>
       <c r="F44" s="5">
         <v>0.76012014378452497</v>
@@ -2370,19 +2371,19 @@
         <v>0.76207679173804088</v>
       </c>
       <c r="H44" s="5">
-        <v>0.85968808558664922</v>
+        <v>1.0257206209029401</v>
       </c>
       <c r="I44" s="4">
         <v>0.2005384144257833</v>
       </c>
-      <c r="J44" s="4">
-        <v>0.15732585627982865</v>
+      <c r="J44" s="6">
+        <v>0.40364879534991288</v>
       </c>
       <c r="K44" s="4">
         <v>0.21521424575705939</v>
       </c>
-      <c r="L44" s="4">
-        <v>1.2520714219047486</v>
+      <c r="L44" s="6">
+        <v>0.92544223801075709</v>
       </c>
       <c r="M44" s="4">
         <v>0.92544223801075709</v>
@@ -2390,8 +2391,8 @@
       <c r="N44" s="4">
         <v>0.99999993147283461</v>
       </c>
-      <c r="O44" s="4">
-        <v>0.37896962183233029</v>
+      <c r="O44" s="6">
+        <v>0.86605197966276304</v>
       </c>
       <c r="P44" s="4">
         <v>0.86605197966276304</v>
@@ -2402,10 +2403,10 @@
         <v>0.74479855915715942</v>
       </c>
       <c r="D45" s="5">
-        <v>0.80293344678164758</v>
+        <v>0.70855680749511452</v>
       </c>
       <c r="E45" s="5">
-        <v>3.241654507171666</v>
+        <v>1.3203843900490098</v>
       </c>
       <c r="F45" s="5">
         <v>0.74543018664436012</v>
@@ -2414,19 +2415,19 @@
         <v>0.70713118508215733</v>
       </c>
       <c r="H45" s="5">
-        <v>1.984767835552381</v>
+        <v>1.3191512456565395</v>
       </c>
       <c r="I45" s="4">
         <v>0.20970890623364569</v>
       </c>
-      <c r="J45" s="4">
-        <v>2.4105894936639514</v>
+      <c r="J45" s="6">
+        <v>0.42594369411207972</v>
       </c>
       <c r="K45" s="4">
         <v>0.22033290011960341</v>
       </c>
-      <c r="L45" s="4">
-        <v>4.0147327425312174</v>
+      <c r="L45" s="6">
+        <v>0.84997310260466064</v>
       </c>
       <c r="M45" s="4">
         <v>0.84997310260466064</v>
@@ -2434,8 +2435,8 @@
       <c r="N45" s="4">
         <v>0.99999999999999989</v>
       </c>
-      <c r="O45" s="4">
-        <v>1.3499214397971961</v>
+      <c r="O45" s="6">
+        <v>1.0200403720426663</v>
       </c>
       <c r="P45" s="4">
         <v>1.0200403720426663</v>
@@ -2446,10 +2447,10 @@
         <v>0.48254021289837107</v>
       </c>
       <c r="D46" s="5">
-        <v>0.66310805290472985</v>
+        <v>1.01585448318833</v>
       </c>
       <c r="E46" s="5">
-        <v>0.17013915860899498</v>
+        <v>1.7262274488515164</v>
       </c>
       <c r="F46" s="5">
         <v>0.49625131933947408</v>
@@ -2458,19 +2459,19 @@
         <v>0.77504696413684793</v>
       </c>
       <c r="H46" s="5">
-        <v>0.4765515680032979</v>
+        <v>2.3292323886715867</v>
       </c>
       <c r="I46" s="4">
         <v>0.20724014858317064</v>
       </c>
-      <c r="J46" s="4">
-        <v>2.318962081597534</v>
+      <c r="J46" s="6">
+        <v>0.39971295628633108</v>
       </c>
       <c r="K46" s="4">
         <v>0.2076058008714628</v>
       </c>
-      <c r="L46" s="4">
-        <v>2.1314341908027985</v>
+      <c r="L46" s="6">
+        <v>0.76207711427482872</v>
       </c>
       <c r="M46" s="4">
         <v>0.76207711427482872</v>
@@ -2478,8 +2479,8 @@
       <c r="N46" s="4">
         <v>7.7195929543421466E-10</v>
       </c>
-      <c r="O46" s="4">
-        <v>0.53538302448754338</v>
+      <c r="O46" s="6">
+        <v>0.98301342856344331</v>
       </c>
       <c r="P46" s="4">
         <v>0.98301342856344331</v>
@@ -2490,10 +2491,10 @@
         <v>0.64535037154571195</v>
       </c>
       <c r="D47" s="5">
-        <v>0.67395552961349559</v>
+        <v>0.73190282145316654</v>
       </c>
       <c r="E47" s="5">
-        <v>2.485099259394751</v>
+        <v>0.3240388631604868</v>
       </c>
       <c r="F47" s="5">
         <v>0.91839011452014196</v>
@@ -2502,19 +2503,19 @@
         <v>0.59425416728545466</v>
       </c>
       <c r="H47" s="5">
-        <v>6.9128819243756912E-2</v>
+        <v>0.7119771957166291</v>
       </c>
       <c r="I47" s="4">
         <v>0.21053443009139336</v>
       </c>
-      <c r="J47" s="4">
-        <v>4.3420141379588433</v>
+      <c r="J47" s="6">
+        <v>0.40027577569122647</v>
       </c>
       <c r="K47" s="4">
         <v>0.24984229405305719</v>
       </c>
-      <c r="L47" s="4">
-        <v>1.1313496394984062</v>
+      <c r="L47" s="6">
+        <v>0.81427107432934609</v>
       </c>
       <c r="M47" s="4">
         <v>0.81427107432934609</v>
@@ -2522,8 +2523,8 @@
       <c r="N47" s="4">
         <v>1.1629916094191814E-4</v>
       </c>
-      <c r="O47" s="4">
-        <v>7.6940284518209154E-2</v>
+      <c r="O47" s="6">
+        <v>1.0849327744475823</v>
       </c>
       <c r="P47" s="4">
         <v>1.0849327744475823</v>
@@ -2534,10 +2535,10 @@
         <v>0.93859468465079332</v>
       </c>
       <c r="D48" s="5">
-        <v>0.74651004704972801</v>
+        <v>0.62260832517129738</v>
       </c>
       <c r="E48" s="5">
-        <v>0.21343145375190095</v>
+        <v>1.22515829427482</v>
       </c>
       <c r="F48" s="5">
         <v>0.66171559599910179</v>
@@ -2546,19 +2547,19 @@
         <v>0.6649642551460816</v>
       </c>
       <c r="H48" s="5">
-        <v>0.73907408119173879</v>
+        <v>4.0080024157539977</v>
       </c>
       <c r="I48" s="4">
         <v>0.19467801336768034</v>
       </c>
-      <c r="J48" s="4">
-        <v>0.5722164597447954</v>
+      <c r="J48" s="6">
+        <v>0.35988960057549924</v>
       </c>
       <c r="K48" s="4">
         <v>0.21532947069656266</v>
       </c>
-      <c r="L48" s="4">
-        <v>2.117045923310064</v>
+      <c r="L48" s="6">
+        <v>0.81891478035896559</v>
       </c>
       <c r="M48" s="4">
         <v>0.81891478035896559</v>
@@ -2566,8 +2567,8 @@
       <c r="N48" s="4">
         <v>3.3083577869316122E-2</v>
       </c>
-      <c r="O48" s="4">
-        <v>0.53544400698968653</v>
+      <c r="O48" s="6">
+        <v>0.99647851553211886</v>
       </c>
       <c r="P48" s="4">
         <v>0.99647851553211886</v>
@@ -2578,10 +2579,10 @@
         <v>0.87718860590341408</v>
       </c>
       <c r="D49" s="5">
-        <v>0.7542804426842501</v>
+        <v>0.5376930906920151</v>
       </c>
       <c r="E49" s="5">
-        <v>0.51541945551938284</v>
+        <v>0.54076696372061217</v>
       </c>
       <c r="F49" s="5">
         <v>0.79250005377382904</v>
@@ -2590,19 +2591,19 @@
         <v>0.68363271208973153</v>
       </c>
       <c r="H49" s="5">
-        <v>1.7680730705932686</v>
+        <v>1.6005144595540794</v>
       </c>
       <c r="I49" s="4">
         <v>0.20561821977432995</v>
       </c>
-      <c r="J49" s="4">
-        <v>0.31831518920441543</v>
+      <c r="J49" s="6">
+        <v>0.409777304380951</v>
       </c>
       <c r="K49" s="4">
         <v>0.21523567319771164</v>
       </c>
-      <c r="L49" s="4">
-        <v>2.9303348909242204</v>
+      <c r="L49" s="6">
+        <v>0.8258043957896174</v>
       </c>
       <c r="M49" s="4">
         <v>0.8258043957896174</v>
@@ -2610,8 +2611,8 @@
       <c r="N49" s="4">
         <v>1.1181219475626109E-2</v>
       </c>
-      <c r="O49" s="4">
-        <v>1.2859185335532339</v>
+      <c r="O49" s="6">
+        <v>0.89655778640133921</v>
       </c>
       <c r="P49" s="4">
         <v>0.89655778640133921</v>
@@ -2622,10 +2623,10 @@
         <v>0.8518902870029712</v>
       </c>
       <c r="D50" s="5">
-        <v>0.69637489974363642</v>
+        <v>0.61397684410039144</v>
       </c>
       <c r="E50" s="5">
-        <v>0.48208324898150778</v>
+        <v>1.2590321831902138</v>
       </c>
       <c r="F50" s="5">
         <v>0.68878514970352989</v>
@@ -2634,19 +2635,19 @@
         <v>0.6998020700284221</v>
       </c>
       <c r="H50" s="5">
-        <v>0.65499839106852431</v>
+        <v>6.5295571133907284</v>
       </c>
       <c r="I50" s="4">
         <v>0.19384029628542973</v>
       </c>
-      <c r="J50" s="4">
-        <v>3.7143312553674184</v>
+      <c r="J50" s="6">
+        <v>0.42389329869635933</v>
       </c>
       <c r="K50" s="4">
         <v>0.27948687151909435</v>
       </c>
-      <c r="L50" s="4">
-        <v>2.0198958381780154</v>
+      <c r="L50" s="6">
+        <v>0.89682794402055777</v>
       </c>
       <c r="M50" s="4">
         <v>0.89682794402055777</v>
@@ -2654,8 +2655,8 @@
       <c r="N50" s="4">
         <v>7.4849874546960718E-3</v>
       </c>
-      <c r="O50" s="4">
-        <v>1.6510139759484372</v>
+      <c r="O50" s="6">
+        <v>0.91175213511588926</v>
       </c>
       <c r="P50" s="4">
         <v>0.91175213511588926</v>
@@ -2666,10 +2667,10 @@
         <v>0.89830195151256109</v>
       </c>
       <c r="D51" s="5">
-        <v>0.73360372173471977</v>
+        <v>0.61953462454767383</v>
       </c>
       <c r="E51" s="5">
-        <v>2.2215111884431202</v>
+        <v>0.57245056554270257</v>
       </c>
       <c r="F51" s="5">
         <v>0.81645515161656035</v>
@@ -2678,19 +2679,19 @@
         <v>0.60466025959934633</v>
       </c>
       <c r="H51" s="5">
-        <v>2.1312031156404103</v>
+        <v>1.2534090032911913</v>
       </c>
       <c r="I51" s="4">
         <v>0.21043439365090186</v>
       </c>
-      <c r="J51" s="4">
-        <v>0.59704483446111412</v>
+      <c r="J51" s="6">
+        <v>0.39144912176253394</v>
       </c>
       <c r="K51" s="4">
         <v>0.18608517647027972</v>
       </c>
-      <c r="L51" s="4">
-        <v>1.0713233032707881</v>
+      <c r="L51" s="6">
+        <v>1.0077205199839032</v>
       </c>
       <c r="M51" s="4">
         <v>1.0077205199839032</v>
@@ -2698,8 +2699,8 @@
       <c r="N51" s="4">
         <v>5.5861889664376102E-3</v>
       </c>
-      <c r="O51" s="4">
-        <v>1.4633757085357957</v>
+      <c r="O51" s="6">
+        <v>0.89057016372247721</v>
       </c>
       <c r="P51" s="4">
         <v>0.89057016372247721</v>
@@ -2710,10 +2711,10 @@
         <v>0.96916311963186752</v>
       </c>
       <c r="D52" s="5">
-        <v>0.66829912792280965</v>
+        <v>0.72192807727751118</v>
       </c>
       <c r="E52" s="5">
-        <v>5.8886578516061565</v>
+        <v>1.84810609299185</v>
       </c>
       <c r="F52" s="5">
         <v>0.78330723021776283</v>
@@ -2722,19 +2723,19 @@
         <v>0.79325837616331629</v>
       </c>
       <c r="H52" s="5">
-        <v>1.1778601464572971</v>
+        <v>2.2635651788326547</v>
       </c>
       <c r="I52" s="4">
         <v>0.19064735945908595</v>
       </c>
-      <c r="J52" s="4">
-        <v>4.3503830109617807</v>
+      <c r="J52" s="6">
+        <v>0.39897298438447965</v>
       </c>
       <c r="K52" s="4">
         <v>0.22289884918862563</v>
       </c>
-      <c r="L52" s="4">
-        <v>4.2633719771006134E-2</v>
+      <c r="L52" s="6">
+        <v>0.76038002675286809</v>
       </c>
       <c r="M52" s="4">
         <v>0.76038002675286809</v>
@@ -2742,8 +2743,8 @@
       <c r="N52" s="4">
         <v>6.4803601499724237E-2</v>
       </c>
-      <c r="O52" s="4">
-        <v>0.27304292478356007</v>
+      <c r="O52" s="6">
+        <v>1.0439425803292328</v>
       </c>
       <c r="P52" s="4">
         <v>1.0439425803292328</v>
@@ -2754,10 +2755,10 @@
         <v>0.46154824607942629</v>
       </c>
       <c r="D53" s="5">
-        <v>0.67178704955613922</v>
+        <v>0.8653304190793798</v>
       </c>
       <c r="E53" s="5">
-        <v>4.0679230136289037</v>
+        <v>1.4166769849212582</v>
       </c>
       <c r="F53" s="5">
         <v>0.67996403505930447</v>
@@ -2766,19 +2767,19 @@
         <v>0.64276043670181449</v>
       </c>
       <c r="H53" s="5">
-        <v>0.23138165672800995</v>
+        <v>0.18865183106497169</v>
       </c>
       <c r="I53" s="4">
         <v>0.20463215440848523</v>
       </c>
-      <c r="J53" s="4">
-        <v>1.1496927691106673</v>
+      <c r="J53" s="6">
+        <v>0.40945553144688229</v>
       </c>
       <c r="K53" s="4">
         <v>0.24693230293248844</v>
       </c>
-      <c r="L53" s="4">
-        <v>0.36393146060238413</v>
+      <c r="L53" s="6">
+        <v>1.0479955758186397</v>
       </c>
       <c r="M53" s="4">
         <v>1.0479955758186397</v>
@@ -2786,8 +2787,8 @@
       <c r="N53" s="4">
         <v>0.99999749602678467</v>
       </c>
-      <c r="O53" s="4">
-        <v>9.2810940581963597E-2</v>
+      <c r="O53" s="6">
+        <v>1.0831332188119998</v>
       </c>
       <c r="P53" s="4">
         <v>1.0831332188119998</v>
@@ -2798,10 +2799,10 @@
         <v>0.67983942473399017</v>
       </c>
       <c r="D54" s="5">
-        <v>0.85957252201461098</v>
+        <v>0.59165940122044991</v>
       </c>
       <c r="E54" s="5">
-        <v>0.10241574148842612</v>
+        <v>0.94013124637539114</v>
       </c>
       <c r="F54" s="5">
         <v>0.95143755595206603</v>
@@ -2810,19 +2811,19 @@
         <v>0.65212737020002887</v>
       </c>
       <c r="H54" s="5">
-        <v>0.16020202036311409</v>
+        <v>9.0378239414480102E-3</v>
       </c>
       <c r="I54" s="4">
         <v>0.18597092905997487</v>
       </c>
-      <c r="J54" s="4">
-        <v>0.41790381530590903</v>
+      <c r="J54" s="6">
+        <v>0.41147283109954563</v>
       </c>
       <c r="K54" s="4">
         <v>0.24643463646018254</v>
       </c>
-      <c r="L54" s="4">
-        <v>0.115154045986361</v>
+      <c r="L54" s="6">
+        <v>0.95417911012547174</v>
       </c>
       <c r="M54" s="4">
         <v>0.95417911012547174</v>
@@ -2830,8 +2831,8 @@
       <c r="N54" s="4">
         <v>4.2037868364618681E-4</v>
       </c>
-      <c r="O54" s="4">
-        <v>0.83745036408732654</v>
+      <c r="O54" s="6">
+        <v>1.0445234812590272</v>
       </c>
       <c r="P54" s="4">
         <v>1.0445234812590272</v>
@@ -2842,10 +2843,10 @@
         <v>1.0639919596408323</v>
       </c>
       <c r="D55" s="5">
-        <v>0.72559349186307898</v>
+        <v>0.79243779079314314</v>
       </c>
       <c r="E55" s="5">
-        <v>3.8450055109458155E-2</v>
+        <v>1.8746922562438932</v>
       </c>
       <c r="F55" s="5">
         <v>0.97199183744446827</v>
@@ -2854,19 +2855,19 @@
         <v>0.75691881148881601</v>
       </c>
       <c r="H55" s="5">
-        <v>4.6332380942979041E-2</v>
+        <v>0.54067597717655769</v>
       </c>
       <c r="I55" s="4">
         <v>0.20609544312451711</v>
       </c>
-      <c r="J55" s="4">
-        <v>8.144988250610945</v>
+      <c r="J55" s="6">
+        <v>0.39133351287282719</v>
       </c>
       <c r="K55" s="4">
         <v>0.25260400894178592</v>
       </c>
-      <c r="L55" s="4">
-        <v>0.10215140777301944</v>
+      <c r="L55" s="6">
+        <v>1.4587818950342446</v>
       </c>
       <c r="M55" s="4">
         <v>1.4587818950342446</v>
@@ -2874,8 +2875,8 @@
       <c r="N55" s="4">
         <v>3.1600243686159264E-3</v>
       </c>
-      <c r="O55" s="4">
-        <v>1.0294369848665308</v>
+      <c r="O55" s="6">
+        <v>0.98010413483942105</v>
       </c>
       <c r="P55" s="4">
         <v>0.98010413483942105</v>
@@ -2886,10 +2887,10 @@
         <v>0.63070408955808155</v>
       </c>
       <c r="D56" s="5">
-        <v>0.59617498713605954</v>
+        <v>0.67269141394968979</v>
       </c>
       <c r="E56" s="5">
-        <v>0.38338269066004493</v>
+        <v>0.18665377236871772</v>
       </c>
       <c r="F56" s="5">
         <v>0.77395625392033429</v>
@@ -2898,19 +2899,19 @@
         <v>0.68288643720696451</v>
       </c>
       <c r="H56" s="5">
-        <v>0.92396699595538212</v>
+        <v>0.35763107475049777</v>
       </c>
       <c r="I56" s="4">
         <v>0.1945497967387895</v>
       </c>
-      <c r="J56" s="4">
-        <v>0.41618404346632604</v>
+      <c r="J56" s="6">
+        <v>0.40404339145684337</v>
       </c>
       <c r="K56" s="4">
         <v>0.10815116173258157</v>
       </c>
-      <c r="L56" s="4">
-        <v>0.1714721316929585</v>
+      <c r="L56" s="6">
+        <v>1.1027538061386752</v>
       </c>
       <c r="M56" s="4">
         <v>1.1027538061386752</v>
@@ -2918,8 +2919,8 @@
       <c r="N56" s="4">
         <v>0.99999999485984814</v>
       </c>
-      <c r="O56" s="4">
-        <v>0.46246219741384881</v>
+      <c r="O56" s="6">
+        <v>1.0209982707464826</v>
       </c>
       <c r="P56" s="4">
         <v>1.0209982707464826</v>
@@ -2930,10 +2931,10 @@
         <v>0.62805360831832713</v>
       </c>
       <c r="D57" s="5">
-        <v>0.71106252305801987</v>
+        <v>0.79289316787468622</v>
       </c>
       <c r="E57" s="5">
-        <v>0.47075455331627147</v>
+        <v>0.24016921702903965</v>
       </c>
       <c r="F57" s="5">
         <v>0.96433591443621869</v>
@@ -2942,19 +2943,19 @@
         <v>0.7386694399364544</v>
       </c>
       <c r="H57" s="5">
-        <v>0.21345546234664187</v>
+        <v>0.40511385917886739</v>
       </c>
       <c r="I57" s="4">
         <v>0.20180616310979041</v>
       </c>
-      <c r="J57" s="4">
-        <v>0.29768608870645624</v>
+      <c r="J57" s="6">
+        <v>0.37917646756792506</v>
       </c>
       <c r="K57" s="4">
         <v>0.20040692961221071</v>
       </c>
-      <c r="L57" s="4">
-        <v>7.0476348113381368E-2</v>
+      <c r="L57" s="6">
+        <v>0.76240663503107231</v>
       </c>
       <c r="M57" s="4">
         <v>0.76240663503107231</v>
@@ -2962,8 +2963,8 @@
       <c r="N57" s="4">
         <v>2.6786395323912957E-2</v>
       </c>
-      <c r="O57" s="4">
-        <v>1.7368969244518755</v>
+      <c r="O57" s="6">
+        <v>0.94956822764785687</v>
       </c>
       <c r="P57" s="4">
         <v>0.94956822764785687</v>
@@ -2974,10 +2975,10 @@
         <v>0.6659395032129759</v>
       </c>
       <c r="D58" s="5">
-        <v>0.71044588805812592</v>
+        <v>0.71933013478468488</v>
       </c>
       <c r="E58" s="5">
-        <v>1.7785937200548252</v>
+        <v>6.4116670581928917E-4</v>
       </c>
       <c r="F58" s="5">
         <v>0.79546230840474186</v>
@@ -2986,19 +2987,19 @@
         <v>0.71843639532831538</v>
       </c>
       <c r="H58" s="5">
-        <v>1.0351142973053997</v>
+        <v>0.83172378214540477</v>
       </c>
       <c r="I58" s="4">
         <v>0.20561489150320084</v>
       </c>
-      <c r="J58" s="4">
-        <v>0.43268372860810428</v>
+      <c r="J58" s="6">
+        <v>0.3821365113633875</v>
       </c>
       <c r="K58" s="4">
         <v>0.22367137723924296</v>
       </c>
-      <c r="L58" s="4">
-        <v>0.8915684260773038</v>
+      <c r="L58" s="6">
+        <v>0.60767444421212324</v>
       </c>
       <c r="M58" s="4">
         <v>0.60767444421212324</v>
@@ -3006,8 +3007,8 @@
       <c r="N58" s="4">
         <v>0.99999432818541789</v>
       </c>
-      <c r="O58" s="4">
-        <v>0.2864648091758431</v>
+      <c r="O58" s="6">
+        <v>0.97477930511115141</v>
       </c>
       <c r="P58" s="4">
         <v>0.97477930511115141</v>
@@ -3018,10 +3019,10 @@
         <v>0.83165542687523875</v>
       </c>
       <c r="D59" s="5">
-        <v>0.77644736489633226</v>
+        <v>0.66939557019593654</v>
       </c>
       <c r="E59" s="5">
-        <v>0.39878184509311654</v>
+        <v>0.55210665886681476</v>
       </c>
       <c r="F59" s="5">
         <v>0.69153544451262572</v>
@@ -3030,19 +3031,19 @@
         <v>0.67294532360222181</v>
       </c>
       <c r="H59" s="5">
-        <v>0.85889853530908611</v>
+        <v>0.65656799922388032</v>
       </c>
       <c r="I59" s="4">
         <v>0.20058474364402323</v>
       </c>
-      <c r="J59" s="4">
-        <v>3.0957097566143053</v>
+      <c r="J59" s="6">
+        <v>0.39696767536640071</v>
       </c>
       <c r="K59" s="4">
         <v>0.28086045668657861</v>
       </c>
-      <c r="L59" s="4">
-        <v>0.56129713083936961</v>
+      <c r="L59" s="6">
+        <v>0.73945270047312672</v>
       </c>
       <c r="M59" s="4">
         <v>0.73945270047312672</v>
@@ -3050,8 +3051,8 @@
       <c r="N59" s="4">
         <v>0.96778581494603444</v>
       </c>
-      <c r="O59" s="4">
-        <v>1.9710741208327389</v>
+      <c r="O59" s="6">
+        <v>1.0420078199925151</v>
       </c>
       <c r="P59" s="4">
         <v>1.0420078199925151</v>
@@ -3062,10 +3063,10 @@
         <v>0.50519168045546381</v>
       </c>
       <c r="D60" s="5">
-        <v>0.6048065692672141</v>
+        <v>0.70371553817193089</v>
       </c>
       <c r="E60" s="5">
-        <v>1.1836277260145138</v>
+        <v>0.34063620033199765</v>
       </c>
       <c r="F60" s="5">
         <v>0.78135765454874961</v>
@@ -3074,19 +3075,19 @@
         <v>0.61929644388209015</v>
       </c>
       <c r="H60" s="5">
-        <v>1.7806559291692077</v>
+        <v>3.1263678831776276</v>
       </c>
       <c r="I60" s="4">
         <v>0.20370074668340621</v>
       </c>
-      <c r="J60" s="4">
-        <v>2.2299366380412211</v>
+      <c r="J60" s="6">
+        <v>0.36232391464428887</v>
       </c>
       <c r="K60" s="4">
         <v>0.21375840664503271</v>
       </c>
-      <c r="L60" s="4">
-        <v>1.4759865231328588</v>
+      <c r="L60" s="6">
+        <v>0.9434522917259438</v>
       </c>
       <c r="M60" s="4">
         <v>0.9434522917259438</v>
@@ -3094,8 +3095,8 @@
       <c r="N60" s="4">
         <v>0.99994111686674347</v>
       </c>
-      <c r="O60" s="4">
-        <v>5.3277060115532997</v>
+      <c r="O60" s="6">
+        <v>1.0623677672114893</v>
       </c>
       <c r="P60" s="4">
         <v>1.0623677672114893</v>
@@ -3106,10 +3107,10 @@
         <v>0.73408431748864389</v>
       </c>
       <c r="D61" s="5">
-        <v>0.74876774393331058</v>
+        <v>0.62169439655918568</v>
       </c>
       <c r="E61" s="5">
-        <v>0.27425684594081606</v>
+        <v>0.96826708575485232</v>
       </c>
       <c r="F61" s="5">
         <v>0.56889088770059437</v>
@@ -3118,19 +3119,19 @@
         <v>0.83178009019851551</v>
       </c>
       <c r="H61" s="5">
-        <v>1.3376752629043756</v>
+        <v>4.6542262375262745E-2</v>
       </c>
       <c r="I61" s="4">
         <v>0.195182867279387</v>
       </c>
-      <c r="J61" s="4">
-        <v>0.317550598918377</v>
+      <c r="J61" s="6">
+        <v>0.37156153885474419</v>
       </c>
       <c r="K61" s="4">
         <v>0.19833758382130018</v>
       </c>
-      <c r="L61" s="4">
-        <v>1.4681897042867382</v>
+      <c r="L61" s="6">
+        <v>1.0326518161626355</v>
       </c>
       <c r="M61" s="4">
         <v>1.0326518161626355</v>
@@ -3138,8 +3139,8 @@
       <c r="N61" s="4">
         <v>4.2617553628223788E-2</v>
       </c>
-      <c r="O61" s="4">
-        <v>1.514016118939133</v>
+      <c r="O61" s="6">
+        <v>0.9848474724683921</v>
       </c>
       <c r="P61" s="4">
         <v>0.9848474724683921</v>
@@ -3150,10 +3151,10 @@
         <v>0.81912401422561476</v>
       </c>
       <c r="D62" s="5">
-        <v>0.91219477502182789</v>
+        <v>0.59019024589985136</v>
       </c>
       <c r="E62" s="5">
-        <v>1.6557759565267229</v>
+        <v>1.1397146241946055</v>
       </c>
       <c r="F62" s="5">
         <v>0.78437802884561891</v>
@@ -3162,19 +3163,19 @@
         <v>0.73982572789965384</v>
       </c>
       <c r="H62" s="5">
-        <v>1.8411039300793679</v>
+        <v>0.14589147883511788</v>
       </c>
       <c r="I62" s="4">
         <v>0.20458023723844132</v>
       </c>
-      <c r="J62" s="4">
-        <v>0.90903720769256258</v>
+      <c r="J62" s="6">
+        <v>0.38647109315565714</v>
       </c>
       <c r="K62" s="4">
         <v>0.19918644281214162</v>
       </c>
-      <c r="L62" s="4">
-        <v>1.8616236110264601</v>
+      <c r="L62" s="6">
+        <v>0.61780499348321893</v>
       </c>
       <c r="M62" s="4">
         <v>0.61780499348321893</v>
@@ -3182,8 +3183,8 @@
       <c r="N62" s="4">
         <v>5.9567610041302955E-9</v>
       </c>
-      <c r="O62" s="4">
-        <v>2.4412288324443336</v>
+      <c r="O62" s="6">
+        <v>0.96498183626557887</v>
       </c>
       <c r="P62" s="4">
         <v>0.96498183626557887</v>
@@ -3194,10 +3195,10 @@
         <v>0.59747284435453551</v>
       </c>
       <c r="D63" s="5">
-        <v>0.76996752139651237</v>
+        <v>0.33930255579561519</v>
       </c>
       <c r="E63" s="5">
-        <v>0.14707113129835422</v>
+        <v>3.21378160108772</v>
       </c>
       <c r="F63" s="5">
         <v>0.73581725895128203</v>
@@ -3206,19 +3207,19 @@
         <v>0.74545416813489096</v>
       </c>
       <c r="H63" s="5">
-        <v>1.0002932652181182</v>
+        <v>1.6302661613162841</v>
       </c>
       <c r="I63" s="4">
         <v>0.19485818974543373</v>
       </c>
-      <c r="J63" s="4">
-        <v>0.33735447519119421</v>
+      <c r="J63" s="6">
+        <v>0.42493035090307413</v>
       </c>
       <c r="K63" s="4">
         <v>0.20685415549258976</v>
       </c>
-      <c r="L63" s="4">
-        <v>9.5913820971645899E-2</v>
+      <c r="L63" s="6">
+        <v>0.87291833172016986</v>
       </c>
       <c r="M63" s="4">
         <v>0.87291833172016986</v>
@@ -3226,8 +3227,8 @@
       <c r="N63" s="4">
         <v>0.99955825736933757</v>
       </c>
-      <c r="O63" s="4">
-        <v>1.6050586414947792</v>
+      <c r="O63" s="6">
+        <v>0.98644595087453502</v>
       </c>
       <c r="P63" s="4">
         <v>0.98644595087453502</v>
@@ -3238,10 +3239,10 @@
         <v>0.64445277255254885</v>
       </c>
       <c r="D64" s="5">
-        <v>0.52671156734347169</v>
+        <v>0.72004614821704771</v>
       </c>
       <c r="E64" s="5">
-        <v>1.380410109178696</v>
+        <v>1.6130998562331704</v>
       </c>
       <c r="F64" s="5">
         <v>0.98140179525523652</v>
@@ -3250,19 +3251,19 @@
         <v>0.6855033900005485</v>
       </c>
       <c r="H64" s="5">
-        <v>0.38836692479812329</v>
+        <v>1.8093654565996391</v>
       </c>
       <c r="I64" s="4">
         <v>0.20285812115331051</v>
       </c>
-      <c r="J64" s="4">
-        <v>0.38920574787267936</v>
+      <c r="J64" s="6">
+        <v>0.44828876691237241</v>
       </c>
       <c r="K64" s="4">
         <v>0.19450218345839992</v>
       </c>
-      <c r="L64" s="4">
-        <v>0.92733303744415163</v>
+      <c r="L64" s="6">
+        <v>0.75151439196742964</v>
       </c>
       <c r="M64" s="4">
         <v>0.75151439196742964</v>
@@ -3270,8 +3271,8 @@
       <c r="N64" s="4">
         <v>0.99999999999963318</v>
       </c>
-      <c r="O64" s="4">
-        <v>0.82747571447157708</v>
+      <c r="O64" s="6">
+        <v>0.93923402952802937</v>
       </c>
       <c r="P64" s="4">
         <v>0.93923402952802937</v>
@@ -3282,10 +3283,10 @@
         <v>1.0397244018383831</v>
       </c>
       <c r="D65" s="5">
-        <v>0.89877888966069086</v>
+        <v>0.49384631361355347</v>
       </c>
       <c r="E65" s="5">
-        <v>0.19438473239570242</v>
+        <v>1.1918262118719556</v>
       </c>
       <c r="F65" s="5">
         <v>0.68088834568491652</v>
@@ -3294,19 +3295,19 @@
         <v>0.75424045961777753</v>
       </c>
       <c r="H65" s="5">
-        <v>1.2807355432583101</v>
+        <v>2.3072016135049958</v>
       </c>
       <c r="I65" s="4">
         <v>0.20398363278667667</v>
       </c>
-      <c r="J65" s="4">
-        <v>2.0609338864240714</v>
+      <c r="J65" s="6">
+        <v>0.39467053502467886</v>
       </c>
       <c r="K65" s="4">
         <v>5.6930252379334079E-2</v>
       </c>
-      <c r="L65" s="4">
-        <v>6.4577224918133488E-2</v>
+      <c r="L65" s="6">
+        <v>0.856610881392039</v>
       </c>
       <c r="M65" s="4">
         <v>0.856610881392039</v>
@@ -3314,8 +3315,8 @@
       <c r="N65" s="4">
         <v>1.6082408579334104E-2</v>
       </c>
-      <c r="O65" s="4">
-        <v>1.1108234026104167</v>
+      <c r="O65" s="6">
+        <v>1.0612270781619206</v>
       </c>
       <c r="P65" s="4">
         <v>1.0612270781619206</v>
@@ -3326,10 +3327,10 @@
         <v>0.74527403504258949</v>
       </c>
       <c r="D66" s="5">
-        <v>0.8921113650261504</v>
+        <v>0.79953351687816132</v>
       </c>
       <c r="E66" s="5">
-        <v>1.7810305877360775</v>
+        <v>0.17007725207748634</v>
       </c>
       <c r="F66" s="5">
         <v>0.74318004942326443</v>
@@ -3338,19 +3339,19 @@
         <v>0.71181447607203374</v>
       </c>
       <c r="H66" s="5">
-        <v>0.14087098446600174</v>
+        <v>7.3403199963823473</v>
       </c>
       <c r="I66" s="4">
         <v>0.19642247721039316</v>
       </c>
-      <c r="J66" s="4">
-        <v>4.1346901391642821E-2</v>
+      <c r="J66" s="6">
+        <v>0.39823121814992718</v>
       </c>
       <c r="K66" s="4">
         <v>0.22504481019947223</v>
       </c>
-      <c r="L66" s="4">
-        <v>0.63585613159444687</v>
+      <c r="L66" s="6">
+        <v>0.93490222592151395</v>
       </c>
       <c r="M66" s="4">
         <v>0.93490222592151395</v>
@@ -3358,8 +3359,8 @@
       <c r="N66" s="4">
         <v>1</v>
       </c>
-      <c r="O66" s="4">
-        <v>0.15564676422673526</v>
+      <c r="O66" s="6">
+        <v>1.0732393883707281</v>
       </c>
       <c r="P66" s="4">
         <v>1.0732393883707281</v>
@@ -3370,10 +3371,10 @@
         <v>0.61243813844774986</v>
       </c>
       <c r="D67" s="5">
-        <v>0.49177933686357944</v>
+        <v>0.6001953257969761</v>
       </c>
       <c r="E67" s="5">
-        <v>0.68960997441965211</v>
+        <v>0.82791319313615708</v>
       </c>
       <c r="F67" s="5">
         <v>0.83669221486835055</v>
@@ -3382,19 +3383,19 @@
         <v>0.70507358769135342</v>
       </c>
       <c r="H67" s="5">
-        <v>1.5236109514871554</v>
+        <v>0.12856730352183865</v>
       </c>
       <c r="I67" s="4">
         <v>0.19878397439656004</v>
       </c>
-      <c r="J67" s="4">
-        <v>0.20101346742803941</v>
+      <c r="J67" s="6">
+        <v>0.3948925822398342</v>
       </c>
       <c r="K67" s="4">
         <v>0.22847872181009374</v>
       </c>
-      <c r="L67" s="4">
-        <v>6.8638027559972559E-2</v>
+      <c r="L67" s="6">
+        <v>0.98593540882882991</v>
       </c>
       <c r="M67" s="4">
         <v>0.98593540882882991</v>
@@ -3402,8 +3403,8 @@
       <c r="N67" s="4">
         <v>0.99999999522847904</v>
       </c>
-      <c r="O67" s="4">
-        <v>1.1858207546076225</v>
+      <c r="O67" s="6">
+        <v>0.95701140337681367</v>
       </c>
       <c r="P67" s="4">
         <v>0.95701140337681367</v>
@@ -3414,10 +3415,10 @@
         <v>1.0645944163702472</v>
       </c>
       <c r="D68" s="5">
-        <v>0.79816030336390298</v>
+        <v>0.7438776909146898</v>
       </c>
       <c r="E68" s="5">
-        <v>1.5427096153869309</v>
+        <v>1.2414082349656574</v>
       </c>
       <c r="F68" s="5">
         <v>0.74662757809711666</v>
@@ -3426,19 +3427,19 @@
         <v>0.69337653545845979</v>
       </c>
       <c r="H68" s="5">
-        <v>6.5730241919680604E-2</v>
+        <v>2.4238327660059422</v>
       </c>
       <c r="I68" s="4">
         <v>0.2108199014795033</v>
       </c>
-      <c r="J68" s="4">
-        <v>0.58728443657610185</v>
+      <c r="J68" s="6">
+        <v>0.38076093825869195</v>
       </c>
       <c r="K68" s="4">
         <v>0.17428582235032639</v>
       </c>
-      <c r="L68" s="4">
-        <v>2.0909782677244317</v>
+      <c r="L68" s="6">
+        <v>1.1527131442141125</v>
       </c>
       <c r="M68" s="4">
         <v>1.1527131442141125</v>
@@ -3446,8 +3447,8 @@
       <c r="N68" s="4">
         <v>0.99699538483190098</v>
       </c>
-      <c r="O68" s="4">
-        <v>0.39352618513563592</v>
+      <c r="O68" s="6">
+        <v>1.0683178209798483</v>
       </c>
       <c r="P68" s="4">
         <v>1.0683178209798483</v>
@@ -3458,10 +3459,10 @@
         <v>0.93823314232778865</v>
       </c>
       <c r="D69" s="5">
-        <v>0.77685308385599194</v>
+        <v>0.81767671445354106</v>
       </c>
       <c r="E69" s="5">
-        <v>0.42011183691231946</v>
+        <v>5.3852236707838556E-2</v>
       </c>
       <c r="F69" s="5">
         <v>0.70603867215188876</v>
@@ -3470,19 +3471,19 @@
         <v>0.77100283537752545</v>
       </c>
       <c r="H69" s="5">
-        <v>3.5532803310163534</v>
+        <v>0.41054620176748496</v>
       </c>
       <c r="I69" s="4">
         <v>0.20745064074410091</v>
       </c>
-      <c r="J69" s="4">
-        <v>1.8801920684407267</v>
+      <c r="J69" s="6">
+        <v>0.3957063122950869</v>
       </c>
       <c r="K69" s="4">
         <v>0.24414075462545118</v>
       </c>
-      <c r="L69" s="4">
-        <v>0.17279639030584285</v>
+      <c r="L69" s="6">
+        <v>0.90334983811313152</v>
       </c>
       <c r="M69" s="4">
         <v>0.90334983811313152</v>
@@ -3490,8 +3491,8 @@
       <c r="N69" s="4">
         <v>0.99996158044244288</v>
       </c>
-      <c r="O69" s="4">
-        <v>0.89030203410238296</v>
+      <c r="O69" s="6">
+        <v>0.85480418115566204</v>
       </c>
       <c r="P69" s="4">
         <v>0.85480418115566204</v>
@@ -3502,10 +3503,10 @@
         <v>0.86908433626910542</v>
       </c>
       <c r="D70" s="5">
-        <v>0.76646297890855974</v>
+        <v>0.81196535242981727</v>
       </c>
       <c r="E70" s="5">
-        <v>0.7412919405876035</v>
+        <v>2.3656813560856649</v>
       </c>
       <c r="F70" s="5">
         <v>0.95776957472468438</v>
@@ -3514,19 +3515,19 @@
         <v>0.67183876637895656</v>
       </c>
       <c r="H70" s="5">
-        <v>2.2462524879803696E-2</v>
+        <v>0.630201334001254</v>
       </c>
       <c r="I70" s="4">
         <v>0.1952325863804083</v>
       </c>
-      <c r="J70" s="4">
-        <v>0.4995063055992689</v>
+      <c r="J70" s="6">
+        <v>0.44012150993543575</v>
       </c>
       <c r="K70" s="4">
         <v>0.16022860138621764</v>
       </c>
-      <c r="L70" s="4">
-        <v>0.31039106626871998</v>
+      <c r="L70" s="6">
+        <v>0.65249016789539938</v>
       </c>
       <c r="M70" s="4">
         <v>0.65249016789539938</v>
@@ -3534,8 +3535,8 @@
       <c r="N70" s="4">
         <v>0.86105709012698783</v>
       </c>
-      <c r="O70" s="4">
-        <v>1.2623628517701888</v>
+      <c r="O70" s="6">
+        <v>0.9512940214958383</v>
       </c>
       <c r="P70" s="4">
         <v>0.9512940214958383</v>
@@ -3546,10 +3547,10 @@
         <v>0.40406768122330555</v>
       </c>
       <c r="D71" s="5">
-        <v>0.64268016594980015</v>
+        <v>0.8693665618990043</v>
       </c>
       <c r="E71" s="5">
-        <v>0.53695108748989417</v>
+        <v>0.49285746972779904</v>
       </c>
       <c r="F71" s="5">
         <v>0.73944343358412024</v>
@@ -3558,19 +3559,19 @@
         <v>0.70665383062740417</v>
       </c>
       <c r="H71" s="5">
-        <v>0.84202873082995422</v>
+        <v>3.5662793515536077E-2</v>
       </c>
       <c r="I71" s="4">
         <v>0.18887651482704379</v>
       </c>
-      <c r="J71" s="4">
-        <v>0.23110839337487965</v>
+      <c r="J71" s="6">
+        <v>0.37343576554103175</v>
       </c>
       <c r="K71" s="4">
         <v>0.17768686583576859</v>
       </c>
-      <c r="L71" s="4">
-        <v>1.7692018287862559</v>
+      <c r="L71" s="6">
+        <v>0.79436141044746889</v>
       </c>
       <c r="M71" s="4">
         <v>0.79436141044746889</v>
@@ -3578,8 +3579,8 @@
       <c r="N71" s="4">
         <v>2.1482416934409363E-2</v>
       </c>
-      <c r="O71" s="4">
-        <v>4.1547795077149789</v>
+      <c r="O71" s="6">
+        <v>0.9984739117945427</v>
       </c>
       <c r="P71" s="4">
         <v>0.9984739117945427</v>
@@ -3590,10 +3591,10 @@
         <v>0.67442768447360057</v>
       </c>
       <c r="D72" s="5">
-        <v>0.58067781756365933</v>
+        <v>0.66367616461779144</v>
       </c>
       <c r="E72" s="5">
-        <v>1.4752375914089668</v>
+        <v>0.54484934435002763</v>
       </c>
       <c r="F72" s="5">
         <v>1.0303770274478516</v>
@@ -3602,19 +3603,19 @@
         <v>0.74391593962829305</v>
       </c>
       <c r="H72" s="5">
-        <v>2.8074826707120049</v>
+        <v>1.2532309685779162</v>
       </c>
       <c r="I72" s="4">
         <v>0.19843739432864407</v>
       </c>
-      <c r="J72" s="4">
-        <v>0.54599200823680061</v>
+      <c r="J72" s="6">
+        <v>0.39776624821173662</v>
       </c>
       <c r="K72" s="4">
         <v>0.24017257189545685</v>
       </c>
-      <c r="L72" s="4">
-        <v>1.0867027690807005</v>
+      <c r="L72" s="6">
+        <v>0.97567141874326513</v>
       </c>
       <c r="M72" s="4">
         <v>0.97567141874326513</v>
@@ -3622,8 +3623,8 @@
       <c r="N72" s="4">
         <v>0.99999999999930334</v>
       </c>
-      <c r="O72" s="4">
-        <v>2.2603008531621445</v>
+      <c r="O72" s="6">
+        <v>0.81176358203777621</v>
       </c>
       <c r="P72" s="4">
         <v>0.81176358203777621</v>
@@ -3634,10 +3635,10 @@
         <v>0.92759317173257894</v>
       </c>
       <c r="D73" s="5">
-        <v>0.56160253023933804</v>
+        <v>0.66485238115654011</v>
       </c>
       <c r="E73" s="5">
-        <v>3.2986727232751925</v>
+        <v>2.9520558044944054</v>
       </c>
       <c r="F73" s="5">
         <v>0.89021926219287351</v>
@@ -3646,19 +3647,19 @@
         <v>0.79139557919280124</v>
       </c>
       <c r="H73" s="5">
-        <v>0.26045601234019039</v>
+        <v>0.7010621786004686</v>
       </c>
       <c r="I73" s="4">
         <v>0.19923394392473648</v>
       </c>
-      <c r="J73" s="4">
-        <v>5.7616650583665221</v>
+      <c r="J73" s="6">
+        <v>0.42074604301968616</v>
       </c>
       <c r="K73" s="4">
         <v>0.11825453059586259</v>
       </c>
-      <c r="L73" s="4">
-        <v>2.4263184802212066</v>
+      <c r="L73" s="6">
+        <v>1.2702453788659582</v>
       </c>
       <c r="M73" s="4">
         <v>1.2702453788659582</v>
@@ -3666,8 +3667,8 @@
       <c r="N73" s="4">
         <v>1.0375700649003228E-2</v>
       </c>
-      <c r="O73" s="4">
-        <v>0.77803280551355702</v>
+      <c r="O73" s="6">
+        <v>0.88322942734987753</v>
       </c>
       <c r="P73" s="4">
         <v>0.88322942734987753</v>
@@ -3678,10 +3679,10 @@
         <v>0.63504580376614039</v>
       </c>
       <c r="D74" s="5">
-        <v>0.68714402865546376</v>
+        <v>0.85863309849913338</v>
       </c>
       <c r="E74" s="5">
-        <v>6.227487561111908</v>
+        <v>0.69768938101761357</v>
       </c>
       <c r="F74" s="5">
         <v>0.86691760301184861</v>
@@ -3690,19 +3691,19 @@
         <v>0.67202758739961987</v>
       </c>
       <c r="H74" s="5">
-        <v>0.16261683754014189</v>
+        <v>0.73939332827612914</v>
       </c>
       <c r="I74" s="4">
         <v>0.1876314985263563</v>
       </c>
-      <c r="J74" s="4">
-        <v>0.49983861439129823</v>
+      <c r="J74" s="6">
+        <v>0.39467027637105379</v>
       </c>
       <c r="K74" s="4">
         <v>0.26585112656376397</v>
       </c>
-      <c r="L74" s="4">
-        <v>0.10395558729566623</v>
+      <c r="L74" s="6">
+        <v>0.92750163741458491</v>
       </c>
       <c r="M74" s="4">
         <v>0.92750163741458491</v>
@@ -3710,8 +3711,8 @@
       <c r="N74" s="4">
         <v>0.99481258168595799</v>
       </c>
-      <c r="O74" s="4">
-        <v>0.13529785075484604</v>
+      <c r="O74" s="6">
+        <v>1.0209623411782143</v>
       </c>
       <c r="P74" s="4">
         <v>1.0209623411782143</v>
@@ -3722,10 +3723,10 @@
         <v>0.65046535601672717</v>
       </c>
       <c r="D75" s="5">
-        <v>0.75997562405124663</v>
+        <v>0.7100629439247873</v>
       </c>
       <c r="E75" s="5">
-        <v>4.3454832206683243</v>
+        <v>0.24335725841028319</v>
       </c>
       <c r="F75" s="5">
         <v>0.65124040414395035</v>
@@ -3734,19 +3735,19 @@
         <v>0.70533470991085012</v>
       </c>
       <c r="H75" s="5">
-        <v>1.4226495671068222</v>
+        <v>0.71651112216888924</v>
       </c>
       <c r="I75" s="4">
         <v>0.19662815281975218</v>
       </c>
-      <c r="J75" s="4">
-        <v>0.80307063955529523</v>
+      <c r="J75" s="6">
+        <v>0.41696000745112377</v>
       </c>
       <c r="K75" s="4">
         <v>0.1870808336221394</v>
       </c>
-      <c r="L75" s="4">
-        <v>2.0463068341934521</v>
+      <c r="L75" s="6">
+        <v>0.81899500696151595</v>
       </c>
       <c r="M75" s="4">
         <v>0.81899500696151595</v>
@@ -3754,8 +3755,8 @@
       <c r="N75" s="4">
         <v>2.5712395438046261E-2</v>
       </c>
-      <c r="O75" s="4">
-        <v>0.30424326185108175</v>
+      <c r="O75" s="6">
+        <v>0.97119652311937144</v>
       </c>
       <c r="P75" s="4">
         <v>0.97119652311937144</v>
@@ -3766,10 +3767,10 @@
         <v>0.98083070738185185</v>
       </c>
       <c r="D76" s="5">
-        <v>0.84535630633591552</v>
+        <v>0.81950147820401786</v>
       </c>
       <c r="E76" s="5">
-        <v>2.2336860773017757</v>
+        <v>0.1060494929095884</v>
       </c>
       <c r="F76" s="5">
         <v>1.00740715370445</v>
@@ -3778,19 +3779,19 @@
         <v>0.6354897172057431</v>
       </c>
       <c r="H76" s="5">
-        <v>1.627313817014004</v>
+        <v>1.7169639356912334</v>
       </c>
       <c r="I76" s="4">
         <v>0.19953166036919706</v>
       </c>
-      <c r="J76" s="4">
-        <v>3.3757471503312133</v>
+      <c r="J76" s="6">
+        <v>0.43352724827532113</v>
       </c>
       <c r="K76" s="4">
         <v>0.17387676983005695</v>
       </c>
-      <c r="L76" s="4">
-        <v>1.0993231666202621</v>
+      <c r="L76" s="6">
+        <v>0.60373058256568735</v>
       </c>
       <c r="M76" s="4">
         <v>0.60373058256568735</v>
@@ -3798,8 +3799,8 @@
       <c r="N76" s="4">
         <v>8.2534603296303901E-6</v>
       </c>
-      <c r="O76" s="4">
-        <v>1.572892666549461E-3</v>
+      <c r="O76" s="6">
+        <v>0.95799262591951129</v>
       </c>
       <c r="P76" s="4">
         <v>0.95799262591951129</v>
@@ -3810,10 +3811,10 @@
         <v>0.83717985887855828</v>
       </c>
       <c r="D77" s="5">
-        <v>0.63508175035297132</v>
+        <v>0.58488621667332308</v>
       </c>
       <c r="E77" s="5">
-        <v>1.3298441029907817</v>
+        <v>0.64716189285472503</v>
       </c>
       <c r="F77" s="5">
         <v>0.7813796201198433</v>
@@ -3822,19 +3823,19 @@
         <v>0.68115501379698296</v>
       </c>
       <c r="H77" s="5">
-        <v>0.69841053998734337</v>
+        <v>0.13092309457199394</v>
       </c>
       <c r="I77" s="4">
         <v>0.18434332410790158</v>
       </c>
-      <c r="J77" s="4">
-        <v>1.6376377345878497</v>
+      <c r="J77" s="6">
+        <v>0.42186809136538816</v>
       </c>
       <c r="K77" s="4">
         <v>0.19143006988815103</v>
       </c>
-      <c r="L77" s="4">
-        <v>2.8048886232150334</v>
+      <c r="L77" s="6">
+        <v>0.94595327780814076</v>
       </c>
       <c r="M77" s="4">
         <v>0.94595327780814076</v>
@@ -3842,8 +3843,8 @@
       <c r="N77" s="4">
         <v>0.7188174126083271</v>
       </c>
-      <c r="O77" s="4">
-        <v>1.8968060770362174</v>
+      <c r="O77" s="6">
+        <v>0.9878127548517418</v>
       </c>
       <c r="P77" s="4">
         <v>0.9878127548517418</v>
@@ -3854,10 +3855,10 @@
         <v>0.4905625287192602</v>
       </c>
       <c r="D78" s="5">
-        <v>0.65007405081249436</v>
+        <v>0.62358356632823209</v>
       </c>
       <c r="E78" s="5">
-        <v>0.19949790971675865</v>
+        <v>2.0240515361216129</v>
       </c>
       <c r="F78" s="5">
         <v>0.74650895423905594</v>
@@ -3866,19 +3867,19 @@
         <v>0.7464568373333168</v>
       </c>
       <c r="H78" s="5">
-        <v>2.7836263613947039</v>
+        <v>0.55183006212370478</v>
       </c>
       <c r="I78" s="4">
         <v>0.21028680877089223</v>
       </c>
-      <c r="J78" s="4">
-        <v>0.73403536679467596</v>
+      <c r="J78" s="6">
+        <v>0.37238974323338997</v>
       </c>
       <c r="K78" s="4">
         <v>0.14601639494737167</v>
       </c>
-      <c r="L78" s="4">
-        <v>0.72545794542982156</v>
+      <c r="L78" s="6">
+        <v>0.96670733844898205</v>
       </c>
       <c r="M78" s="4">
         <v>0.96670733844898205</v>
@@ -3886,8 +3887,8 @@
       <c r="N78" s="4">
         <v>0.85603918606700968</v>
       </c>
-      <c r="O78" s="4">
-        <v>0.52723744273790873</v>
+      <c r="O78" s="6">
+        <v>0.9754267416010457</v>
       </c>
       <c r="P78" s="4">
         <v>0.9754267416010457</v>
@@ -3898,10 +3899,10 @@
         <v>0.67207886197012146</v>
       </c>
       <c r="D79" s="5">
-        <v>0.72502321765661293</v>
+        <v>0.55509711425718333</v>
       </c>
       <c r="E79" s="5">
-        <v>1.1400606950380203</v>
+        <v>3.6028653499550836</v>
       </c>
       <c r="F79" s="5">
         <v>0.81899188150708413</v>
@@ -3910,19 +3911,19 @@
         <v>0.58681279995917424</v>
       </c>
       <c r="H79" s="5">
-        <v>0.22395866556118993</v>
+        <v>0.33696512304223625</v>
       </c>
       <c r="I79" s="4">
         <v>0.19368504744228512</v>
       </c>
-      <c r="J79" s="4">
-        <v>4.0259787161905427</v>
+      <c r="J79" s="6">
+        <v>0.39518556969017399</v>
       </c>
       <c r="K79" s="4">
         <v>0.19963687958211376</v>
       </c>
-      <c r="L79" s="4">
-        <v>8.7633383801734965E-2</v>
+      <c r="L79" s="6">
+        <v>0.66754577234886991</v>
       </c>
       <c r="M79" s="4">
         <v>0.66754577234886991</v>
@@ -3930,8 +3931,8 @@
       <c r="N79" s="4">
         <v>0.288084293938834</v>
       </c>
-      <c r="O79" s="4">
-        <v>1.3776597447602708</v>
+      <c r="O79" s="6">
+        <v>1.0313151417023585</v>
       </c>
       <c r="P79" s="4">
         <v>1.0313151417023585</v>
@@ -3942,10 +3943,10 @@
         <v>0.72306305792161274</v>
       </c>
       <c r="D80" s="5">
-        <v>0.80911470093911531</v>
+        <v>0.74088692392550193</v>
       </c>
       <c r="E80" s="5">
-        <v>1.4479626855983003</v>
+        <v>5.1367752670635314</v>
       </c>
       <c r="F80" s="5">
         <v>0.74259311060023092</v>
@@ -3954,19 +3955,19 @@
         <v>0.76075655071209058</v>
       </c>
       <c r="H80" s="5">
-        <v>6.7967553385532972E-3</v>
+        <v>1.1595348434117956</v>
       </c>
       <c r="I80" s="4">
         <v>0.19979012190951995</v>
       </c>
-      <c r="J80" s="4">
-        <v>0.36503832881284248</v>
+      <c r="J80" s="6">
+        <v>0.41482314640187568</v>
       </c>
       <c r="K80" s="4">
         <v>0.19567090326687112</v>
       </c>
-      <c r="L80" s="4">
-        <v>0.3697195809155176</v>
+      <c r="L80" s="6">
+        <v>0.76676061971548082</v>
       </c>
       <c r="M80" s="4">
         <v>0.76676061971548082</v>
@@ -3974,8 +3975,8 @@
       <c r="N80" s="4">
         <v>1.2040919525387802E-5</v>
       </c>
-      <c r="O80" s="4">
-        <v>0.49553598951960715</v>
+      <c r="O80" s="6">
+        <v>0.99394774698707034</v>
       </c>
       <c r="P80" s="4">
         <v>0.99394774698707034</v>
@@ -3986,10 +3987,10 @@
         <v>0.74162919077923306</v>
       </c>
       <c r="D81" s="5">
-        <v>0.69856034171747594</v>
+        <v>0.79599546368897178</v>
       </c>
       <c r="E81" s="5">
-        <v>0.6397884055934524</v>
+        <v>0.65586910159464051</v>
       </c>
       <c r="F81" s="5">
         <v>0.65900717105537088</v>
@@ -3998,19 +3999,19 @@
         <v>0.63862086277755448</v>
       </c>
       <c r="H81" s="5">
-        <v>0.31235110879005834</v>
+        <v>9.8414394669025004E-2</v>
       </c>
       <c r="I81" s="4">
         <v>0.19673306247729494</v>
       </c>
-      <c r="J81" s="4">
-        <v>4.0742519828530694</v>
+      <c r="J81" s="6">
+        <v>0.40440857488549903</v>
       </c>
       <c r="K81" s="4">
         <v>0.22417493120794832</v>
       </c>
-      <c r="L81" s="4">
-        <v>0.22667857691998103</v>
+      <c r="L81" s="6">
+        <v>1.0527245957689788</v>
       </c>
       <c r="M81" s="4">
         <v>1.0527245957689788</v>
@@ -4018,8 +4019,8 @@
       <c r="N81" s="4">
         <v>1.4035077704543843E-3</v>
       </c>
-      <c r="O81" s="4">
-        <v>0.42334155850650024</v>
+      <c r="O81" s="6">
+        <v>0.88186436716380712</v>
       </c>
       <c r="P81" s="4">
         <v>0.88186436716380712</v>
@@ -4030,10 +4031,10 @@
         <v>1.192778849907937</v>
       </c>
       <c r="D82" s="5">
-        <v>0.64045530036621923</v>
+        <v>0.71376167422741621</v>
       </c>
       <c r="E82" s="5">
-        <v>1.4463452614133281</v>
+        <v>0.2993639730293895</v>
       </c>
       <c r="F82" s="5">
         <v>0.76537910678882459</v>
@@ -4042,19 +4043,19 @@
         <v>0.660124254126218</v>
       </c>
       <c r="H82" s="5">
-        <v>0.43065004687105568</v>
+        <v>1.9371403741121795</v>
       </c>
       <c r="I82" s="4">
         <v>0.18711820191222864</v>
       </c>
-      <c r="J82" s="4">
-        <v>0.41518509038907359</v>
+      <c r="J82" s="6">
+        <v>0.37175949690681087</v>
       </c>
       <c r="K82" s="4">
         <v>0.21416383158423752</v>
       </c>
-      <c r="L82" s="4">
-        <v>0.95395039387165981</v>
+      <c r="L82" s="6">
+        <v>1.1697969484293738</v>
       </c>
       <c r="M82" s="4">
         <v>1.1697969484293738</v>
@@ -4062,8 +4063,8 @@
       <c r="N82" s="4">
         <v>0.99955785253226836</v>
       </c>
-      <c r="O82" s="4">
-        <v>1.0956923125288811</v>
+      <c r="O82" s="6">
+        <v>0.97857400479905177</v>
       </c>
       <c r="P82" s="4">
         <v>0.97857400479905177</v>
@@ -4074,10 +4075,10 @@
         <v>0.76487929532357013</v>
       </c>
       <c r="D83" s="5">
-        <v>0.70557140860526613</v>
+        <v>0.7367765555955893</v>
       </c>
       <c r="E83" s="5">
-        <v>4.6656754991554347E-2</v>
+        <v>2.0658609950022755</v>
       </c>
       <c r="F83" s="5">
         <v>0.77722820430889661</v>
@@ -4086,19 +4087,19 @@
         <v>0.65371246871622823</v>
       </c>
       <c r="H83" s="5">
-        <v>0.93389223940412236</v>
+        <v>0.99300466301527757</v>
       </c>
       <c r="I83" s="4">
         <v>0.17738438547510524</v>
       </c>
-      <c r="J83" s="4">
-        <v>5.0220242014387857</v>
+      <c r="J83" s="6">
+        <v>0.3979439234670728</v>
       </c>
       <c r="K83" s="4">
         <v>0.2020186015690742</v>
       </c>
-      <c r="L83" s="4">
-        <v>5.1864503625935421E-2</v>
+      <c r="L83" s="6">
+        <v>0.75271747457104055</v>
       </c>
       <c r="M83" s="4">
         <v>0.75271747457104055</v>
@@ -4106,8 +4107,8 @@
       <c r="N83" s="4">
         <v>2.1744501064149515E-2</v>
       </c>
-      <c r="O83" s="4">
-        <v>3.917537003110422</v>
+      <c r="O83" s="6">
+        <v>0.98598219260361764</v>
       </c>
       <c r="P83" s="4">
         <v>0.98598219260361764</v>
@@ -4118,10 +4119,10 @@
         <v>1.1985030392330667</v>
       </c>
       <c r="D84" s="5">
-        <v>0.63646644643246775</v>
+        <v>0.75029678918239873</v>
       </c>
       <c r="E84" s="5">
-        <v>1.1004098365022004</v>
+        <v>0.36758610081825954</v>
       </c>
       <c r="F84" s="5">
         <v>0.79723598132241258</v>
@@ -4130,19 +4131,19 @@
         <v>0.81750063739865697</v>
       </c>
       <c r="H84" s="5">
-        <v>1.5482749804750207</v>
+        <v>1.8341906663044174</v>
       </c>
       <c r="I84" s="4">
         <v>0.20625633895289855</v>
       </c>
-      <c r="J84" s="4">
-        <v>5.8004128950888106E-2</v>
+      <c r="J84" s="6">
+        <v>0.38765815549607652</v>
       </c>
       <c r="K84" s="4">
         <v>0.20923856908255833</v>
       </c>
-      <c r="L84" s="4">
-        <v>0.14610220706891494</v>
+      <c r="L84" s="6">
+        <v>1.195487781763511</v>
       </c>
       <c r="M84" s="4">
         <v>1.195487781763511</v>
@@ -4150,8 +4151,8 @@
       <c r="N84" s="4">
         <v>3.4504356006932531E-8</v>
       </c>
-      <c r="O84" s="4">
-        <v>0.4355552645108009</v>
+      <c r="O84" s="6">
+        <v>0.98632925062405352</v>
       </c>
       <c r="P84" s="4">
         <v>0.98632925062405352</v>
@@ -4162,10 +4163,10 @@
         <v>0.79610082501925805</v>
       </c>
       <c r="D85" s="5">
-        <v>0.86896579781891925</v>
+        <v>0.93545023654041026</v>
       </c>
       <c r="E85" s="5">
-        <v>0.887264123858725</v>
+        <v>0.29789342430645288</v>
       </c>
       <c r="F85" s="5">
         <v>0.87199178697711699</v>
@@ -4174,19 +4175,19 @@
         <v>0.81268974928172333</v>
       </c>
       <c r="H85" s="5">
-        <v>0.35696430636515958</v>
+        <v>0.60271642980696938</v>
       </c>
       <c r="I85" s="4">
         <v>0.18729507811175058</v>
       </c>
-      <c r="J85" s="4">
-        <v>3.1929476166266282</v>
+      <c r="J85" s="6">
+        <v>0.38871289559668026</v>
       </c>
       <c r="K85" s="4">
         <v>0.29772443210945282</v>
       </c>
-      <c r="L85" s="4">
-        <v>1.8687206312692592</v>
+      <c r="L85" s="6">
+        <v>0.82325452800747001</v>
       </c>
       <c r="M85" s="4">
         <v>0.82325452800747001</v>
@@ -4194,8 +4195,8 @@
       <c r="N85" s="4">
         <v>2.6768808217911422E-5</v>
       </c>
-      <c r="O85" s="4">
-        <v>0.21827706733257707</v>
+      <c r="O85" s="6">
+        <v>0.80471182781454675</v>
       </c>
       <c r="P85" s="4">
         <v>0.80471182781454675</v>
@@ -4206,10 +4207,10 @@
         <v>0.41611019450032749</v>
       </c>
       <c r="D86" s="5">
-        <v>0.95801782949806547</v>
+        <v>0.89365196514529388</v>
       </c>
       <c r="E86" s="5">
-        <v>0.97301779112799813</v>
+        <v>1.3557258158223724</v>
       </c>
       <c r="F86" s="5">
         <v>0.7718329446699902</v>
@@ -4218,19 +4219,19 @@
         <v>0.56427563006824344</v>
       </c>
       <c r="H86" s="5">
-        <v>0.64683986742419086</v>
+        <v>1.4159131485215113</v>
       </c>
       <c r="I86" s="4">
         <v>0.20465036081317495</v>
       </c>
-      <c r="J86" s="4">
-        <v>0.7934757438160619</v>
+      <c r="J86" s="6">
+        <v>0.39163476275267334</v>
       </c>
       <c r="K86" s="4">
         <v>0.21667921308464203</v>
       </c>
-      <c r="L86" s="4">
-        <v>1.4863674485911533</v>
+      <c r="L86" s="6">
+        <v>0.74343665527659941</v>
       </c>
       <c r="M86" s="4">
         <v>0.74343665527659941</v>
@@ -4238,8 +4239,8 @@
       <c r="N86" s="4">
         <v>3.3237724564348017E-8</v>
       </c>
-      <c r="O86" s="4">
-        <v>0.12422302971867522</v>
+      <c r="O86" s="6">
+        <v>0.91858745771658501</v>
       </c>
       <c r="P86" s="4">
         <v>0.91858745771658501</v>
@@ -4250,10 +4251,10 @@
         <v>0.72665226696826035</v>
       </c>
       <c r="D87" s="5">
-        <v>0.54429175433171306</v>
+        <v>0.76016743698263012</v>
       </c>
       <c r="E87" s="5">
-        <v>1.2624449963414492</v>
+        <v>0.74573018573322947</v>
       </c>
       <c r="F87" s="5">
         <v>0.80905985778223688</v>
@@ -4262,19 +4263,19 @@
         <v>0.60304930564727233</v>
       </c>
       <c r="H87" s="5">
-        <v>0.33246288147130632</v>
+        <v>0.6848975260067548</v>
       </c>
       <c r="I87" s="4">
         <v>0.20273148097359092</v>
       </c>
-      <c r="J87" s="4">
-        <v>4.4845234756717876</v>
+      <c r="J87" s="6">
+        <v>0.4209272502255279</v>
       </c>
       <c r="K87" s="4">
         <v>0.20261061038637923</v>
       </c>
-      <c r="L87" s="4">
-        <v>0.30340983081584272</v>
+      <c r="L87" s="6">
+        <v>0.53440279824246351</v>
       </c>
       <c r="M87" s="4">
         <v>0.53440279824246351</v>
@@ -4282,8 +4283,8 @@
       <c r="N87" s="4">
         <v>8.7546532619765379E-7</v>
       </c>
-      <c r="O87" s="4">
-        <v>0.49396930550035845</v>
+      <c r="O87" s="6">
+        <v>0.98761937183130843</v>
       </c>
       <c r="P87" s="4">
         <v>0.98761937183130843</v>
@@ -4294,10 +4295,10 @@
         <v>0.66375935991706569</v>
       </c>
       <c r="D88" s="5">
-        <v>0.75970651492648833</v>
+        <v>0.64407751646817468</v>
       </c>
       <c r="E88" s="5">
-        <v>0.57801702100228414</v>
+        <v>1.4045227324715173</v>
       </c>
       <c r="F88" s="5">
         <v>0.80481824893944431</v>
@@ -4306,19 +4307,19 @@
         <v>0.66104149941860735</v>
       </c>
       <c r="H88" s="5">
-        <v>2.1435779490065876</v>
+        <v>2.518604156053641</v>
       </c>
       <c r="I88" s="4">
         <v>0.19630511480154184</v>
       </c>
-      <c r="J88" s="4">
-        <v>7.4495700597184662</v>
+      <c r="J88" s="6">
+        <v>0.42537263735180342</v>
       </c>
       <c r="K88" s="4">
         <v>0.23448627172687</v>
       </c>
-      <c r="L88" s="4">
-        <v>0.58678202198840401</v>
+      <c r="L88" s="6">
+        <v>1.0786916891134291</v>
       </c>
       <c r="M88" s="4">
         <v>1.0786916891134291</v>
@@ -4326,8 +4327,8 @@
       <c r="N88" s="4">
         <v>3.5731281888137921E-5</v>
       </c>
-      <c r="O88" s="4">
-        <v>0.38611796816049038</v>
+      <c r="O88" s="6">
+        <v>0.91023477164225175</v>
       </c>
       <c r="P88" s="4">
         <v>0.91023477164225175</v>
@@ -4338,10 +4339,10 @@
         <v>0.89938722744477195</v>
       </c>
       <c r="D89" s="5">
-        <v>0.60020669298368157</v>
+        <v>0.74473713589102708</v>
       </c>
       <c r="E89" s="5">
-        <v>0.42928875023632729</v>
+        <v>0.56952363612149326</v>
       </c>
       <c r="F89" s="5">
         <v>0.72463783432662543</v>
@@ -4350,19 +4351,19 @@
         <v>0.73588823846408513</v>
       </c>
       <c r="H89" s="5">
-        <v>0.4772337540980735</v>
+        <v>0.64080846535402081</v>
       </c>
       <c r="I89" s="4">
         <v>0.20595507784687089</v>
       </c>
-      <c r="J89" s="4">
-        <v>1.1285345472766499</v>
+      <c r="J89" s="6">
+        <v>0.45720499435793605</v>
       </c>
       <c r="K89" s="4">
         <v>0.15166298794171071</v>
       </c>
-      <c r="L89" s="4">
-        <v>3.2826815763218753</v>
+      <c r="L89" s="6">
+        <v>1.3754229851337914</v>
       </c>
       <c r="M89" s="4">
         <v>1.3754229851337914</v>
@@ -4370,8 +4371,8 @@
       <c r="N89" s="4">
         <v>0.99999999999988254</v>
       </c>
-      <c r="O89" s="4">
-        <v>0.5470766118329452</v>
+      <c r="O89" s="6">
+        <v>0.97617678910118344</v>
       </c>
       <c r="P89" s="4">
         <v>0.97617678910118344</v>
@@ -4382,10 +4383,10 @@
         <v>0.48606643103138536</v>
       </c>
       <c r="D90" s="5">
-        <v>0.58176819219662623</v>
+        <v>0.87973021209520663</v>
       </c>
       <c r="E90" s="5">
-        <v>0.41727283263608761</v>
+        <v>1.9796037649212483</v>
       </c>
       <c r="F90" s="5">
         <v>0.76519198612310901</v>
@@ -4394,19 +4395,19 @@
         <v>0.709977218182409</v>
       </c>
       <c r="H90" s="5">
-        <v>0.66223684644573155</v>
+        <v>1.644792260666422</v>
       </c>
       <c r="I90" s="4">
         <v>0.19602886044043435</v>
       </c>
-      <c r="J90" s="4">
-        <v>2.2043549392796926</v>
+      <c r="J90" s="6">
+        <v>0.37919546107807139</v>
       </c>
       <c r="K90" s="4">
         <v>0.16867531360435561</v>
       </c>
-      <c r="L90" s="4">
-        <v>8.5569138795621794E-3</v>
+      <c r="L90" s="6">
+        <v>1.017883474644274</v>
       </c>
       <c r="M90" s="4">
         <v>1.017883474644274</v>
@@ -4414,8 +4415,8 @@
       <c r="N90" s="4">
         <v>0.99996588843521395</v>
       </c>
-      <c r="O90" s="4">
-        <v>3.722745569449629</v>
+      <c r="O90" s="6">
+        <v>0.96854003820328693</v>
       </c>
       <c r="P90" s="4">
         <v>0.96854003820328693</v>
@@ -4426,10 +4427,10 @@
         <v>0.45675991038371627</v>
       </c>
       <c r="D91" s="5">
-        <v>0.88000508513919606</v>
+        <v>0.87002494580018752</v>
       </c>
       <c r="E91" s="5">
-        <v>0.6981862131954647</v>
+        <v>0.26391615217469644</v>
       </c>
       <c r="F91" s="5">
         <v>0.84249558180544681</v>
@@ -4438,19 +4439,19 @@
         <v>0.78723113680557788</v>
       </c>
       <c r="H91" s="5">
-        <v>1.8539856492580686</v>
+        <v>0.85216679728707612</v>
       </c>
       <c r="I91" s="4">
         <v>0.19722348738035311</v>
       </c>
-      <c r="J91" s="4">
-        <v>0.28695065251295543</v>
+      <c r="J91" s="6">
+        <v>0.39553600352247731</v>
       </c>
       <c r="K91" s="4">
         <v>0.20218942793052555</v>
       </c>
-      <c r="L91" s="4">
-        <v>2.3276596516041881</v>
+      <c r="L91" s="6">
+        <v>1.2152058724184669</v>
       </c>
       <c r="M91" s="4">
         <v>1.2152058724184669</v>
@@ -4458,8 +4459,8 @@
       <c r="N91" s="4">
         <v>0.99999667682159132</v>
       </c>
-      <c r="O91" s="4">
-        <v>0.89474443192278752</v>
+      <c r="O91" s="6">
+        <v>1.0216267179669547</v>
       </c>
       <c r="P91" s="4">
         <v>1.0216267179669547</v>
@@ -4470,10 +4471,10 @@
         <v>0.7883898600992183</v>
       </c>
       <c r="D92" s="5">
-        <v>0.65366248722395881</v>
+        <v>0.64020282407115447</v>
       </c>
       <c r="E92" s="5">
-        <v>0.82409437838886979</v>
+        <v>0.37713683626777983</v>
       </c>
       <c r="F92" s="5">
         <v>0.80231030860838781</v>
@@ -4482,19 +4483,19 @@
         <v>0.82886815444791773</v>
       </c>
       <c r="H92" s="5">
-        <v>0.12256280612904157</v>
+        <v>1.441142627287521</v>
       </c>
       <c r="I92" s="4">
         <v>0.21259830406081234</v>
       </c>
-      <c r="J92" s="4">
-        <v>5.9850761080283279</v>
+      <c r="J92" s="6">
+        <v>0.41163482620378683</v>
       </c>
       <c r="K92" s="4">
         <v>0.22042592621844312</v>
       </c>
-      <c r="L92" s="4">
-        <v>7.5152174335761379E-2</v>
+      <c r="L92" s="6">
+        <v>0.91521646207950635</v>
       </c>
       <c r="M92" s="4">
         <v>0.91521646207950635</v>
@@ -4502,8 +4503,8 @@
       <c r="N92" s="4">
         <v>1.0524514692616132E-7</v>
       </c>
-      <c r="O92" s="4">
-        <v>1.5719799673256563</v>
+      <c r="O92" s="6">
+        <v>1.0442146836966304</v>
       </c>
       <c r="P92" s="4">
         <v>1.0442146836966304</v>
@@ -4514,10 +4515,10 @@
         <v>0.96968433414278621</v>
       </c>
       <c r="D93" s="5">
-        <v>0.52690877839474648</v>
+        <v>0.57127337127117483</v>
       </c>
       <c r="E93" s="5">
-        <v>1.3670411492295866</v>
+        <v>1.061589268707507E-2</v>
       </c>
       <c r="F93" s="5">
         <v>0.91989155842692427</v>
@@ -4526,19 +4527,19 @@
         <v>0.78269616633437666</v>
       </c>
       <c r="H93" s="5">
-        <v>0.64105457212075612</v>
+        <v>0.18350069176462419</v>
       </c>
       <c r="I93" s="4">
         <v>0.1887535066177313</v>
       </c>
-      <c r="J93" s="4">
-        <v>2.7140969746256003</v>
+      <c r="J93" s="6">
+        <v>0.41956847652458767</v>
       </c>
       <c r="K93" s="4">
         <v>0.18202653603786534</v>
       </c>
-      <c r="L93" s="4">
-        <v>0.42873251917264116</v>
+      <c r="L93" s="6">
+        <v>1.0891325351914851</v>
       </c>
       <c r="M93" s="4">
         <v>1.0891325351914851</v>
@@ -4546,8 +4547,8 @@
       <c r="N93" s="4">
         <v>0.99999999963254849</v>
       </c>
-      <c r="O93" s="4">
-        <v>1.3069047993944842</v>
+      <c r="O93" s="6">
+        <v>0.80086996455149384</v>
       </c>
       <c r="P93" s="4">
         <v>0.80086996455149384</v>
@@ -4558,10 +4559,10 @@
         <v>0.72506300922049571</v>
       </c>
       <c r="D94" s="5">
-        <v>0.75075536810276722</v>
+        <v>0.58701039872995264</v>
       </c>
       <c r="E94" s="5">
-        <v>0.26104478369782813</v>
+        <v>2.5169044615863951</v>
       </c>
       <c r="F94" s="5">
         <v>1.038293564266767</v>
@@ -4570,19 +4571,19 @@
         <v>0.69598541729392305</v>
       </c>
       <c r="H94" s="5">
-        <v>0.5360700335735531</v>
+        <v>0.35898524368285112</v>
       </c>
       <c r="I94" s="4">
         <v>0.18956042804859441</v>
       </c>
-      <c r="J94" s="4">
-        <v>0.1122831266245418</v>
+      <c r="J94" s="6">
+        <v>0.40073762709989802</v>
       </c>
       <c r="K94" s="4">
         <v>0.26881605042674411</v>
       </c>
-      <c r="L94" s="4">
-        <v>2.3234344227924679</v>
+      <c r="L94" s="6">
+        <v>1.0016286079438168</v>
       </c>
       <c r="M94" s="4">
         <v>1.0016286079438168</v>
@@ -4590,8 +4591,8 @@
       <c r="N94" s="4">
         <v>2.4795370718113367E-4</v>
       </c>
-      <c r="O94" s="4">
-        <v>0.28167759089950722</v>
+      <c r="O94" s="6">
+        <v>1.1237486135526515</v>
       </c>
       <c r="P94" s="4">
         <v>1.1237486135526515</v>
@@ -4602,10 +4603,10 @@
         <v>0.46872440991345582</v>
       </c>
       <c r="D95" s="5">
-        <v>0.89308474340894783</v>
+        <v>0.6494885559210376</v>
       </c>
       <c r="E95" s="5">
-        <v>0.13770650932285936</v>
+        <v>1.3037755559131048</v>
       </c>
       <c r="F95" s="5">
         <v>0.83552679694460186</v>
@@ -4614,19 +4615,19 @@
         <v>0.82838886605534867</v>
       </c>
       <c r="H95" s="5">
-        <v>5.0283129405070709E-2</v>
+        <v>1.7953812690050446</v>
       </c>
       <c r="I95" s="4">
         <v>0.2024583229903788</v>
       </c>
-      <c r="J95" s="4">
-        <v>8.2064431325904437</v>
+      <c r="J95" s="6">
+        <v>0.41276906214986686</v>
       </c>
       <c r="K95" s="4">
         <v>0.249221091436852</v>
       </c>
-      <c r="L95" s="4">
-        <v>8.0442173104981071E-2</v>
+      <c r="L95" s="6">
+        <v>0.98246229969923793</v>
       </c>
       <c r="M95" s="4">
         <v>0.98246229969923793</v>
@@ -4634,8 +4635,8 @@
       <c r="N95" s="4">
         <v>3.3827113974876318E-7</v>
       </c>
-      <c r="O95" s="4">
-        <v>0.30566535232337222</v>
+      <c r="O95" s="6">
+        <v>0.97897203101885821</v>
       </c>
       <c r="P95" s="4">
         <v>0.97897203101885821</v>
@@ -4646,10 +4647,10 @@
         <v>0.73698034144286206</v>
       </c>
       <c r="D96" s="5">
-        <v>0.72878162453012885</v>
+        <v>0.86607001363747682</v>
       </c>
       <c r="E96" s="5">
-        <v>1.1441219314250799</v>
+        <v>0.48853529421931619</v>
       </c>
       <c r="F96" s="5">
         <v>0.77214856090257866</v>
@@ -4658,19 +4659,19 @@
         <v>0.75961582575534237</v>
       </c>
       <c r="H96" s="5">
-        <v>1.1259271601836267</v>
+        <v>0.84762677175218959</v>
       </c>
       <c r="I96" s="4">
         <v>0.18387848510044441</v>
       </c>
-      <c r="J96" s="4">
-        <v>1.4958237251653221</v>
+      <c r="J96" s="6">
+        <v>0.40738840986039643</v>
       </c>
       <c r="K96" s="4">
         <v>0.21297849690729906</v>
       </c>
-      <c r="L96" s="4">
-        <v>1.0673796808063587</v>
+      <c r="L96" s="6">
+        <v>0.59090980742972921</v>
       </c>
       <c r="M96" s="4">
         <v>0.59090980742972921</v>
@@ -4678,8 +4679,8 @@
       <c r="N96" s="4">
         <v>0.70383711213954392</v>
       </c>
-      <c r="O96" s="4">
-        <v>1.2632061358211315</v>
+      <c r="O96" s="6">
+        <v>0.91329519661072789</v>
       </c>
       <c r="P96" s="4">
         <v>0.91329519661072789</v>
@@ -4690,10 +4691,10 @@
         <v>1.0232868192844904</v>
       </c>
       <c r="D97" s="5">
-        <v>0.66779201203712046</v>
+        <v>0.69773187655164193</v>
       </c>
       <c r="E97" s="5">
-        <v>0.91853484286429432</v>
+        <v>2.2782480446767739</v>
       </c>
       <c r="F97" s="5">
         <v>0.73145802265721116</v>
@@ -4702,19 +4703,19 @@
         <v>0.77855103850386786</v>
       </c>
       <c r="H97" s="5">
-        <v>2.2114690787756546</v>
+        <v>1.5969377195828105</v>
       </c>
       <c r="I97" s="4">
         <v>0.1850514573382982</v>
       </c>
-      <c r="J97" s="4">
-        <v>2.9291857057189445E-2</v>
+      <c r="J97" s="6">
+        <v>0.46104009907736831</v>
       </c>
       <c r="K97" s="4">
         <v>0.27428382427665687</v>
       </c>
-      <c r="L97" s="4">
-        <v>1.3271198970610203</v>
+      <c r="L97" s="6">
+        <v>1.1851254011168297</v>
       </c>
       <c r="M97" s="4">
         <v>1.1851254011168297</v>
@@ -4722,8 +4723,8 @@
       <c r="N97" s="4">
         <v>0.31701682833324718</v>
       </c>
-      <c r="O97" s="4">
-        <v>2.7180492023513798</v>
+      <c r="O97" s="6">
+        <v>0.8846686041285563</v>
       </c>
       <c r="P97" s="4">
         <v>0.8846686041285563</v>
@@ -4734,10 +4735,10 @@
         <v>0.86520564212503714</v>
       </c>
       <c r="D98" s="5">
-        <v>0.9301155394399504</v>
+        <v>0.97905397673175298</v>
       </c>
       <c r="E98" s="5">
-        <v>0.37024112871036358</v>
+        <v>4.223642246787537</v>
       </c>
       <c r="F98" s="5">
         <v>0.80825726971250733</v>
@@ -4746,19 +4747,19 @@
         <v>0.73729272414927782</v>
       </c>
       <c r="H98" s="5">
-        <v>1.248307751910317</v>
+        <v>2.4710688010593622</v>
       </c>
       <c r="I98" s="4">
         <v>0.20849512885783267</v>
       </c>
-      <c r="J98" s="4">
-        <v>7.300118908334543</v>
+      <c r="J98" s="6">
+        <v>0.37611413731271692</v>
       </c>
       <c r="K98" s="4">
         <v>0.1633994048502794</v>
       </c>
-      <c r="L98" s="4">
-        <v>1.5785620367870041</v>
+      <c r="L98" s="6">
+        <v>1.1491613178741014</v>
       </c>
       <c r="M98" s="4">
         <v>1.1491613178741014</v>
@@ -4766,8 +4767,8 @@
       <c r="N98" s="4">
         <v>0.99985823230379811</v>
       </c>
-      <c r="O98" s="4">
-        <v>1.1885515230559673</v>
+      <c r="O98" s="6">
+        <v>1.1879694245445602</v>
       </c>
       <c r="P98" s="4">
         <v>1.1879694245445602</v>
@@ -4778,10 +4779,10 @@
         <v>0.87138902232210258</v>
       </c>
       <c r="D99" s="5">
-        <v>1.0148409370945706</v>
+        <v>0.83437797338869868</v>
       </c>
       <c r="E99" s="5">
-        <v>2.021217875918131</v>
+        <v>0.8661951641834621</v>
       </c>
       <c r="F99" s="5">
         <v>0.73100652229770824</v>
@@ -4790,19 +4791,19 @@
         <v>0.76093153653687329</v>
       </c>
       <c r="H99" s="5">
-        <v>0.78326627305343077</v>
+        <v>0.48987967500890955</v>
       </c>
       <c r="I99" s="4">
         <v>0.18895712976137638</v>
       </c>
-      <c r="J99" s="4">
-        <v>1.6123891177269445</v>
+      <c r="J99" s="6">
+        <v>0.42487556321922293</v>
       </c>
       <c r="K99" s="4">
         <v>0.20210351129755802</v>
       </c>
-      <c r="L99" s="4">
-        <v>0.67184147315054721</v>
+      <c r="L99" s="6">
+        <v>1.0940708641380041</v>
       </c>
       <c r="M99" s="4">
         <v>1.0940708641380041</v>
@@ -4810,8 +4811,8 @@
       <c r="N99" s="4">
         <v>5.0067305669226882E-5</v>
       </c>
-      <c r="O99" s="4">
-        <v>0.44990840002277416</v>
+      <c r="O99" s="6">
+        <v>1.006801346437558</v>
       </c>
       <c r="P99" s="4">
         <v>1.006801346437558</v>
@@ -4822,10 +4823,10 @@
         <v>0.57662206450740827</v>
       </c>
       <c r="D100" s="5">
-        <v>0.69215983840789186</v>
+        <v>0.56686001130875341</v>
       </c>
       <c r="E100" s="5">
-        <v>1.2741616136263345</v>
+        <v>1.2786010326937423</v>
       </c>
       <c r="F100" s="5">
         <v>0.68003709823834824</v>
@@ -4834,19 +4835,19 @@
         <v>0.74540284498462828</v>
       </c>
       <c r="H100" s="5">
-        <v>0.20602427417258098</v>
+        <v>2.2372254808893319</v>
       </c>
       <c r="I100" s="4">
         <v>0.19132263904324187</v>
       </c>
-      <c r="J100" s="4">
-        <v>1.6150283889927912</v>
+      <c r="J100" s="6">
+        <v>0.39255655971280673</v>
       </c>
       <c r="K100" s="4">
         <v>0.16942578397463987</v>
       </c>
-      <c r="L100" s="4">
-        <v>1.0522773861822903</v>
+      <c r="L100" s="6">
+        <v>0.44651731347722812</v>
       </c>
       <c r="M100" s="4">
         <v>0.44651731347722812</v>
@@ -4854,8 +4855,8 @@
       <c r="N100" s="4">
         <v>0.25163369330373853</v>
       </c>
-      <c r="O100" s="4">
-        <v>0.66054538284519204</v>
+      <c r="O100" s="6">
+        <v>1.0871236066888015</v>
       </c>
       <c r="P100" s="4">
         <v>1.0871236066888015</v>
@@ -4866,10 +4867,10 @@
         <v>0.69230347328633002</v>
       </c>
       <c r="D101" s="5">
-        <v>0.88241712220313562</v>
+        <v>0.44297943829446462</v>
       </c>
       <c r="E101" s="5">
-        <v>0.68042644553817289</v>
+        <v>0.31808659782909066</v>
       </c>
       <c r="F101" s="5">
         <v>0.91290604350447169</v>
@@ -4878,19 +4879,19 @@
         <v>0.74225662386381852</v>
       </c>
       <c r="H101" s="5">
-        <v>0.72489143075736395</v>
+        <v>0.63655616202923315</v>
       </c>
       <c r="I101" s="4">
         <v>0.20120180006518695</v>
       </c>
-      <c r="J101" s="4">
-        <v>9.9393084596865355E-2</v>
+      <c r="J101" s="6">
+        <v>0.3846588042580168</v>
       </c>
       <c r="K101" s="4">
         <v>0.15551411157070491</v>
       </c>
-      <c r="L101" s="4">
-        <v>0.25617228929166996</v>
+      <c r="L101" s="6">
+        <v>0.92484085775413638</v>
       </c>
       <c r="M101" s="4">
         <v>0.92484085775413638</v>
@@ -4898,8 +4899,8 @@
       <c r="N101" s="4">
         <v>1.3247600987983871E-10</v>
       </c>
-      <c r="O101" s="4">
-        <v>1.5771580158497591</v>
+      <c r="O101" s="6">
+        <v>1.0315912312353019</v>
       </c>
       <c r="P101" s="4">
         <v>1.0315912312353019</v>
@@ -4910,10 +4911,10 @@
         <v>0.85564760832598319</v>
       </c>
       <c r="D102" s="5">
-        <v>0.65549167651910145</v>
+        <v>0.78153952931715498</v>
       </c>
       <c r="E102" s="5">
-        <v>1.3257878580984896</v>
+        <v>0.11985794077792424</v>
       </c>
       <c r="F102" s="5">
         <v>0.73318211777413689</v>
@@ -4922,19 +4923,19 @@
         <v>0.68526374312311411</v>
       </c>
       <c r="H102" s="5">
-        <v>2.594768774149002</v>
+        <v>0.51975136943460709</v>
       </c>
       <c r="I102" s="4">
         <v>0.18617771205321795</v>
       </c>
-      <c r="J102" s="4">
-        <v>3.3788360786491556E-2</v>
+      <c r="J102" s="6">
+        <v>0.41444339803554314</v>
       </c>
       <c r="K102" s="4">
         <v>0.21938666484986535</v>
       </c>
-      <c r="L102" s="4">
-        <v>3.3018856386601314</v>
+      <c r="L102" s="6">
+        <v>0.8711079758883965</v>
       </c>
       <c r="M102" s="4">
         <v>0.8711079758883965</v>
@@ -4942,8 +4943,8 @@
       <c r="N102" s="4">
         <v>1.3764989516492022E-8</v>
       </c>
-      <c r="O102" s="4">
-        <v>0.28145193976474503</v>
+      <c r="O102" s="6">
+        <v>0.96695561838136745</v>
       </c>
       <c r="P102" s="4">
         <v>0.96695561838136745</v>
@@ -4954,10 +4955,10 @@
         <v>0.60399058584546694</v>
       </c>
       <c r="D103" s="5">
-        <v>0.97833643040948726</v>
+        <v>0.69185614211772273</v>
       </c>
       <c r="E103" s="5">
-        <v>0.8354032038658995</v>
+        <v>0.65807554655071299</v>
       </c>
       <c r="F103" s="5">
         <v>0.99919162246048665</v>
@@ -4966,19 +4967,19 @@
         <v>0.75328824702032593</v>
       </c>
       <c r="H103" s="5">
-        <v>0.28274242539209593</v>
+        <v>0.62178104229908093</v>
       </c>
       <c r="I103" s="4">
         <v>0.18718102861248506</v>
       </c>
-      <c r="J103" s="4">
-        <v>0.83444816046632742</v>
+      <c r="J103" s="6">
+        <v>0.39409811926273902</v>
       </c>
       <c r="K103" s="4">
         <v>0.25574019252970026</v>
       </c>
-      <c r="L103" s="4">
-        <v>0.98787892358098117</v>
+      <c r="L103" s="6">
+        <v>0.8348979090471208</v>
       </c>
       <c r="M103" s="4">
         <v>0.8348979090471208</v>
@@ -4986,8 +4987,8 @@
       <c r="N103" s="4">
         <v>1.3029998104110789E-2</v>
       </c>
-      <c r="O103" s="4">
-        <v>1.1546955381416992</v>
+      <c r="O103" s="6">
+        <v>0.79892540698285275</v>
       </c>
       <c r="P103" s="4">
         <v>0.79892540698285275</v>
@@ -4998,10 +4999,10 @@
         <v>0.66046046745977549</v>
       </c>
       <c r="D104" s="5">
-        <v>0.87200001262380211</v>
+        <v>0.80599732170345184</v>
       </c>
       <c r="E104" s="5">
-        <v>0.43623557768468268</v>
+        <v>1.4543999858768757</v>
       </c>
       <c r="F104" s="5">
         <v>0.55925649587663573</v>
@@ -5010,19 +5011,19 @@
         <v>0.74024558239409777</v>
       </c>
       <c r="H104" s="5">
-        <v>0.31193551744281683</v>
+        <v>1.7512355648805167</v>
       </c>
       <c r="I104" s="4">
         <v>0.19038662238801204</v>
       </c>
-      <c r="J104" s="4">
-        <v>2.8646037335573609</v>
+      <c r="J104" s="6">
+        <v>0.38903214365176753</v>
       </c>
       <c r="K104" s="4">
         <v>0.20367036012652895</v>
       </c>
-      <c r="L104" s="4">
-        <v>0.19645172524504792</v>
+      <c r="L104" s="6">
+        <v>1.1124640368624861</v>
       </c>
       <c r="M104" s="4">
         <v>1.1124640368624861</v>
@@ -5030,8 +5031,8 @@
       <c r="N104" s="4">
         <v>0.20599542550960304</v>
       </c>
-      <c r="O104" s="4">
-        <v>0.38737700621528859</v>
+      <c r="O104" s="6">
+        <v>0.99907948082058529</v>
       </c>
       <c r="P104" s="4">
         <v>0.99907948082058529</v>
@@ -5042,10 +5043,10 @@
         <v>0.81632060119917438</v>
       </c>
       <c r="D105" s="5">
-        <v>0.74808008016518468</v>
+        <v>0.6384992268058185</v>
       </c>
       <c r="E105" s="5">
-        <v>3.6031599207701692</v>
+        <v>0.40042817577545509</v>
       </c>
       <c r="F105" s="5">
         <v>0.6656723189754451</v>
@@ -5054,19 +5055,19 @@
         <v>0.71289821588308699</v>
       </c>
       <c r="H105" s="5">
-        <v>3.1533223375072077E-2</v>
+        <v>3.3420034564909153</v>
       </c>
       <c r="I105" s="4">
         <v>0.19597490584451929</v>
       </c>
-      <c r="J105" s="4">
-        <v>1.3133067998128813</v>
+      <c r="J105" s="6">
+        <v>0.40173025837103477</v>
       </c>
       <c r="K105" s="4">
         <v>0.23698925577524024</v>
       </c>
-      <c r="L105" s="4">
-        <v>0.30452791352913816</v>
+      <c r="L105" s="6">
+        <v>1.1805101449400215</v>
       </c>
       <c r="M105" s="4">
         <v>1.1805101449400215</v>
@@ -5074,8 +5075,8 @@
       <c r="N105" s="4">
         <v>0.95127692926013807</v>
       </c>
-      <c r="O105" s="4">
-        <v>0.91972375561939379</v>
+      <c r="O105" s="6">
+        <v>0.90656721695795772</v>
       </c>
       <c r="P105" s="4">
         <v>0.90656721695795772</v>
@@ -5086,10 +5087,10 @@
         <v>0.61912483052455658</v>
       </c>
       <c r="D106" s="5">
-        <v>0.80442612943748892</v>
+        <v>0.55662363889102984</v>
       </c>
       <c r="E106" s="5">
-        <v>0.60079158886398609</v>
+        <v>8.3440147294294845E-2</v>
       </c>
       <c r="F106" s="5">
         <v>0.98354854123331004</v>
@@ -5098,19 +5099,19 @@
         <v>0.74337728701174743</v>
       </c>
       <c r="H106" s="5">
-        <v>0.16123254773784898</v>
+        <v>3.2807695179316978</v>
       </c>
       <c r="I106" s="4">
         <v>0.20729025842925852</v>
       </c>
-      <c r="J106" s="4">
-        <v>5.9559337061514075</v>
+      <c r="J106" s="6">
+        <v>0.37547734238273628</v>
       </c>
       <c r="K106" s="4">
         <v>0.21404464322939329</v>
       </c>
-      <c r="L106" s="4">
-        <v>1.9281954353002708</v>
+      <c r="L106" s="6">
+        <v>1.0697068085803041</v>
       </c>
       <c r="M106" s="4">
         <v>1.0697068085803041</v>
@@ -5118,8 +5119,8 @@
       <c r="N106" s="4">
         <v>0.99816919294467965</v>
       </c>
-      <c r="O106" s="4">
-        <v>0.87484401390384536</v>
+      <c r="O106" s="6">
+        <v>1.139439520588269</v>
       </c>
       <c r="P106" s="4">
         <v>1.139439520588269</v>
@@ -5130,10 +5131,10 @@
         <v>0.71467975534320183</v>
       </c>
       <c r="D107" s="5">
-        <v>0.73583959905141172</v>
+        <v>0.79326887988784489</v>
       </c>
       <c r="E107" s="5">
-        <v>0.77873455583257178</v>
+        <v>1.6468731160879366</v>
       </c>
       <c r="F107" s="5">
         <v>0.75487711144919223</v>
@@ -5142,19 +5143,19 @@
         <v>0.69864404004574543</v>
       </c>
       <c r="H107" s="5">
-        <v>2.4161384801054928</v>
+        <v>0.52316291821321814</v>
       </c>
       <c r="I107" s="4">
         <v>0.2111068752292331</v>
       </c>
-      <c r="J107" s="4">
-        <v>0.81898504680502449</v>
+      <c r="J107" s="6">
+        <v>0.38370764664080081</v>
       </c>
       <c r="K107" s="4">
         <v>0.24029701426792607</v>
       </c>
-      <c r="L107" s="4">
-        <v>0.28705436109670029</v>
+      <c r="L107" s="6">
+        <v>0.98657582021181622</v>
       </c>
       <c r="M107" s="4">
         <v>0.98657582021181622</v>
@@ -5162,8 +5163,8 @@
       <c r="N107" s="4">
         <v>0.97384130314702066</v>
       </c>
-      <c r="O107" s="4">
-        <v>0.63733167671582969</v>
+      <c r="O107" s="6">
+        <v>0.82328734010491245</v>
       </c>
       <c r="P107" s="4">
         <v>0.82328734010491245</v>
@@ -5174,10 +5175,10 @@
         <v>0.90078934032144575</v>
       </c>
       <c r="D108" s="5">
-        <v>0.74856738468289308</v>
+        <v>0.73213140446847258</v>
       </c>
       <c r="E108" s="5">
-        <v>0.75516117592588228</v>
+        <v>0.83502728214776478</v>
       </c>
       <c r="F108" s="5">
         <v>0.69495424473188283</v>
@@ -5186,19 +5187,19 @@
         <v>0.72752821736714235</v>
       </c>
       <c r="H108" s="5">
-        <v>6.0160155562913487E-2</v>
+        <v>0.51759641265116174</v>
       </c>
       <c r="I108" s="4">
         <v>0.20730598770501824</v>
       </c>
-      <c r="J108" s="4">
-        <v>1.4830633702493361</v>
+      <c r="J108" s="6">
+        <v>0.38900160524080912</v>
       </c>
       <c r="K108" s="4">
         <v>0.1881049595100569</v>
       </c>
-      <c r="L108" s="4">
-        <v>0.47624604579409208</v>
+      <c r="L108" s="6">
+        <v>0.90250257582911397</v>
       </c>
       <c r="M108" s="4">
         <v>0.90250257582911397</v>
@@ -5206,8 +5207,8 @@
       <c r="N108" s="4">
         <v>0.95976965837855366</v>
       </c>
-      <c r="O108" s="4">
-        <v>0.65590871969012421</v>
+      <c r="O108" s="6">
+        <v>1.0138069763589674</v>
       </c>
       <c r="P108" s="4">
         <v>1.0138069763589674</v>
@@ -5218,10 +5219,10 @@
         <v>0.85597685704996518</v>
       </c>
       <c r="D109" s="5">
-        <v>0.67468088122932379</v>
+        <v>0.86502624487689184</v>
       </c>
       <c r="E109" s="5">
-        <v>0.47575294105542087</v>
+        <v>0.46038847676798494</v>
       </c>
       <c r="F109" s="5">
         <v>0.7116825417255952</v>
@@ -5230,19 +5231,19 @@
         <v>0.73044095740911419</v>
       </c>
       <c r="H109" s="5">
-        <v>0.10172906232919202</v>
+        <v>0.46676244040647386</v>
       </c>
       <c r="I109" s="4">
         <v>0.19619127194928579</v>
       </c>
-      <c r="J109" s="4">
-        <v>0.66612871392370998</v>
+      <c r="J109" s="6">
+        <v>0.39973373862719763</v>
       </c>
       <c r="K109" s="4">
         <v>0.14362703735133092</v>
       </c>
-      <c r="L109" s="4">
-        <v>0.24007683656740419</v>
+      <c r="L109" s="6">
+        <v>0.6946324499701384</v>
       </c>
       <c r="M109" s="4">
         <v>0.6946324499701384</v>
@@ -5250,8 +5251,8 @@
       <c r="N109" s="4">
         <v>0.99982279010065267</v>
       </c>
-      <c r="O109" s="4">
-        <v>1.8610788284862374</v>
+      <c r="O109" s="6">
+        <v>0.97126673407667263</v>
       </c>
       <c r="P109" s="4">
         <v>0.97126673407667263</v>
@@ -5262,10 +5263,10 @@
         <v>0.95849646714413028</v>
       </c>
       <c r="D110" s="5">
-        <v>0.66852156202594437</v>
+        <v>0.98048547199532077</v>
       </c>
       <c r="E110" s="5">
-        <v>0.84571206352923023</v>
+        <v>1.3981258934331247</v>
       </c>
       <c r="F110" s="5">
         <v>0.81178842300793919</v>
@@ -5274,19 +5275,19 @@
         <v>0.79631563344088285</v>
       </c>
       <c r="H110" s="5">
-        <v>2.2971607235925319E-2</v>
+        <v>2.4465745296674473</v>
       </c>
       <c r="I110" s="4">
         <v>0.1939240550960295</v>
       </c>
-      <c r="J110" s="4">
-        <v>5.9212307989399688</v>
+      <c r="J110" s="6">
+        <v>0.44950693763368882</v>
       </c>
       <c r="K110" s="4">
         <v>0.20343775809819292</v>
       </c>
-      <c r="L110" s="4">
-        <v>0.71062807435058239</v>
+      <c r="L110" s="6">
+        <v>0.86887005795803107</v>
       </c>
       <c r="M110" s="4">
         <v>0.86887005795803107</v>
@@ -5294,8 +5295,8 @@
       <c r="N110" s="4">
         <v>0.99999999997468625</v>
       </c>
-      <c r="O110" s="4">
-        <v>0.4129341250849341</v>
+      <c r="O110" s="6">
+        <v>1.0079675543170019</v>
       </c>
       <c r="P110" s="4">
         <v>1.0079675543170019</v>
@@ -5306,10 +5307,10 @@
         <v>0.69830902389290928</v>
       </c>
       <c r="D111" s="5">
-        <v>0.64306242391549984</v>
+        <v>0.47854502714394342</v>
       </c>
       <c r="E111" s="5">
-        <v>8.7551612289782449E-2</v>
+        <v>3.326652529562375</v>
       </c>
       <c r="F111" s="5">
         <v>0.90513881279687247</v>
@@ -5318,19 +5319,19 @@
         <v>0.67471887719349999</v>
       </c>
       <c r="H111" s="5">
-        <v>0.15413242727841897</v>
+        <v>0.37996165651570135</v>
       </c>
       <c r="I111" s="4">
         <v>0.19498972936071959</v>
       </c>
-      <c r="J111" s="4">
-        <v>6.7863676736174652</v>
+      <c r="J111" s="6">
+        <v>0.44281658750897995</v>
       </c>
       <c r="K111" s="4">
         <v>0.2853109302090534</v>
       </c>
-      <c r="L111" s="4">
-        <v>1.8850142630268027</v>
+      <c r="L111" s="6">
+        <v>0.54134837960972193</v>
       </c>
       <c r="M111" s="4">
         <v>0.54134837960972193</v>
@@ -5338,8 +5339,8 @@
       <c r="N111" s="4">
         <v>7.7235157863679717E-5</v>
       </c>
-      <c r="O111" s="4">
-        <v>2.2253596542550675E-2</v>
+      <c r="O111" s="6">
+        <v>0.87892632749600863</v>
       </c>
       <c r="P111" s="4">
         <v>0.87892632749600863</v>
@@ -5350,10 +5351,10 @@
         <v>0.72641223494852958</v>
       </c>
       <c r="D112" s="5">
-        <v>0.70854439763669363</v>
+        <v>0.58511763893571112</v>
       </c>
       <c r="E112" s="5">
-        <v>0.62916579710479859</v>
+        <v>0.97009807909568735</v>
       </c>
       <c r="F112" s="5">
         <v>1.0437037610799484</v>
@@ -5362,19 +5363,19 @@
         <v>0.71014415979353585</v>
       </c>
       <c r="H112" s="5">
-        <v>3.0624217700548759</v>
+        <v>0.88260948703130127</v>
       </c>
       <c r="I112" s="4">
         <v>0.2020293934766437</v>
       </c>
-      <c r="J112" s="4">
-        <v>0.19829439071270594</v>
+      <c r="J112" s="6">
+        <v>0.38619916559639172</v>
       </c>
       <c r="K112" s="4">
         <v>0.19476682438455029</v>
       </c>
-      <c r="L112" s="4">
-        <v>0.30572084322139104</v>
+      <c r="L112" s="6">
+        <v>0.89420392830620721</v>
       </c>
       <c r="M112" s="4">
         <v>0.89420392830620721</v>
@@ -5382,8 +5383,8 @@
       <c r="N112" s="4">
         <v>0.15556596291923563</v>
       </c>
-      <c r="O112" s="4">
-        <v>1.3553805543552255</v>
+      <c r="O112" s="6">
+        <v>0.9930784868118695</v>
       </c>
       <c r="P112" s="4">
         <v>0.9930784868118695</v>
@@ -5394,10 +5395,10 @@
         <v>0.82211697430251107</v>
       </c>
       <c r="D113" s="5">
-        <v>0.78886238225857708</v>
+        <v>0.44805096183356807</v>
       </c>
       <c r="E113" s="5">
-        <v>0.92930654306313976</v>
+        <v>2.9604431484992428</v>
       </c>
       <c r="F113" s="5">
         <v>0.86872527820299461</v>
@@ -5406,19 +5407,19 @@
         <v>0.70457151313164679</v>
       </c>
       <c r="H113" s="5">
-        <v>0.21024075233135345</v>
+        <v>0.303509592639292</v>
       </c>
       <c r="I113" s="4">
         <v>0.21267922714601023</v>
       </c>
-      <c r="J113" s="4">
-        <v>2.5717687284860546</v>
+      <c r="J113" s="6">
+        <v>0.37509122123574024</v>
       </c>
       <c r="K113" s="4">
         <v>0.18565389947128533</v>
       </c>
-      <c r="L113" s="4">
-        <v>4.2974287267008515</v>
+      <c r="L113" s="6">
+        <v>1.3114384121795668</v>
       </c>
       <c r="M113" s="4">
         <v>1.3114384121795668</v>
@@ -5426,8 +5427,8 @@
       <c r="N113" s="4">
         <v>4.8841686156103133E-2</v>
       </c>
-      <c r="O113" s="4">
-        <v>0.79176633247015171</v>
+      <c r="O113" s="6">
+        <v>0.91276081081910354</v>
       </c>
       <c r="P113" s="4">
         <v>0.91276081081910354</v>
@@ -5438,10 +5439,10 @@
         <v>0.47376276007869816</v>
       </c>
       <c r="D114" s="5">
-        <v>0.73305084860271363</v>
+        <v>0.69658480418324453</v>
       </c>
       <c r="E114" s="5">
-        <v>1.30199725438948</v>
+        <v>1.050492097236112</v>
       </c>
       <c r="F114" s="5">
         <v>0.95361099471208777</v>
@@ -5450,19 +5451,19 @@
         <v>0.74152124885577264</v>
       </c>
       <c r="H114" s="5">
-        <v>3.0715960195235104</v>
+        <v>1.8461954426117659</v>
       </c>
       <c r="I114" s="4">
         <v>0.19392183463889723</v>
       </c>
-      <c r="J114" s="4">
-        <v>2.2428442606863661</v>
+      <c r="J114" s="6">
+        <v>0.42847875482165226</v>
       </c>
       <c r="K114" s="4">
         <v>0.19770888769243228</v>
       </c>
-      <c r="L114" s="4">
-        <v>0.91893299281434049</v>
+      <c r="L114" s="6">
+        <v>0.89797506611759081</v>
       </c>
       <c r="M114" s="4">
         <v>0.89797506611759081</v>
@@ -5470,8 +5471,8 @@
       <c r="N114" s="4">
         <v>1.2040814029642247E-2</v>
       </c>
-      <c r="O114" s="4">
-        <v>5.1130652461884377E-2</v>
+      <c r="O114" s="6">
+        <v>1.0093984611597262</v>
       </c>
       <c r="P114" s="4">
         <v>1.0093984611597262</v>
@@ -5482,10 +5483,10 @@
         <v>0.50805414943055471</v>
       </c>
       <c r="D115" s="5">
-        <v>0.87409925916509101</v>
+        <v>0.57629104829370215</v>
       </c>
       <c r="E115" s="5">
-        <v>2.629473814343533</v>
+        <v>0.40736510234884721</v>
       </c>
       <c r="F115" s="5">
         <v>0.95718852983857583</v>
@@ -5494,19 +5495,19 @@
         <v>0.79803358215434494</v>
       </c>
       <c r="H115" s="5">
-        <v>1.2929202848106309</v>
+        <v>0.14642167044853591</v>
       </c>
       <c r="I115" s="4">
         <v>0.21496540658451635</v>
       </c>
-      <c r="J115" s="4">
-        <v>3.5863431930307592</v>
+      <c r="J115" s="6">
+        <v>0.40007719072074288</v>
       </c>
       <c r="K115" s="4">
         <v>0.2220158473862574</v>
       </c>
-      <c r="L115" s="4">
-        <v>1.7834723966697783</v>
+      <c r="L115" s="6">
+        <v>0.85455648191173494</v>
       </c>
       <c r="M115" s="4">
         <v>0.85455648191173494</v>
@@ -5514,8 +5515,8 @@
       <c r="N115" s="4">
         <v>0.94148308013970894</v>
       </c>
-      <c r="O115" s="4">
-        <v>0.21513864191172663</v>
+      <c r="O115" s="6">
+        <v>1.0841099847772933</v>
       </c>
       <c r="P115" s="4">
         <v>1.0841099847772933</v>
@@ -5526,10 +5527,10 @@
         <v>0.97804296177436878</v>
       </c>
       <c r="D116" s="5">
-        <v>0.7328948271407929</v>
+        <v>0.44200255367920349</v>
       </c>
       <c r="E116" s="5">
-        <v>0.27591052645823266</v>
+        <v>3.3255199797729831</v>
       </c>
       <c r="F116" s="5">
         <v>0.57215668193262603</v>
@@ -5538,19 +5539,19 @@
         <v>0.66726440753535787</v>
       </c>
       <c r="H116" s="5">
-        <v>2.6487108645111097</v>
+        <v>0.41736717287914255</v>
       </c>
       <c r="I116" s="4">
         <v>0.19634098096075109</v>
       </c>
-      <c r="J116" s="4">
-        <v>1.1766010479880487</v>
+      <c r="J116" s="6">
+        <v>0.41760461737639115</v>
       </c>
       <c r="K116" s="4">
         <v>0.20702300240042135</v>
       </c>
-      <c r="L116" s="4">
-        <v>0.19966609643447958</v>
+      <c r="L116" s="6">
+        <v>0.83185905889232403</v>
       </c>
       <c r="M116" s="4">
         <v>0.83185905889232403</v>
@@ -5558,8 +5559,8 @@
       <c r="N116" s="4">
         <v>0.90069356931554767</v>
       </c>
-      <c r="O116" s="4">
-        <v>1.4964057547316003</v>
+      <c r="O116" s="6">
+        <v>1.0133081756830784</v>
       </c>
       <c r="P116" s="4">
         <v>1.0133081756830784</v>
@@ -5570,10 +5571,10 @@
         <v>0.46053558834373076</v>
       </c>
       <c r="D117" s="5">
-        <v>0.82569586822014529</v>
+        <v>0.72135500836623301</v>
       </c>
       <c r="E117" s="5">
-        <v>0.50922731447838321</v>
+        <v>0.52481221313546922</v>
       </c>
       <c r="F117" s="5">
         <v>0.88674764266059203</v>
@@ -5582,19 +5583,19 @@
         <v>0.73411002063997599</v>
       </c>
       <c r="H117" s="5">
-        <v>0.35350204422461695</v>
+        <v>0.1275547033908338</v>
       </c>
       <c r="I117" s="4">
         <v>0.20229766132201379</v>
       </c>
-      <c r="J117" s="4">
-        <v>1.5030561392431965</v>
+      <c r="J117" s="6">
+        <v>0.40733813341074493</v>
       </c>
       <c r="K117" s="4">
         <v>0.18791461958545136</v>
       </c>
-      <c r="L117" s="4">
-        <v>0.19974185528219421</v>
+      <c r="L117" s="6">
+        <v>0.67038572435259369</v>
       </c>
       <c r="M117" s="4">
         <v>0.67038572435259369</v>
@@ -5602,8 +5603,8 @@
       <c r="N117" s="4">
         <v>0.91310280162455792</v>
       </c>
-      <c r="O117" s="4">
-        <v>0.19574019392358175</v>
+      <c r="O117" s="6">
+        <v>1.1326535941024587</v>
       </c>
       <c r="P117" s="4">
         <v>1.1326535941024587</v>
@@ -5614,10 +5615,10 @@
         <v>0.41042539739829365</v>
       </c>
       <c r="D118" s="5">
-        <v>0.85658811913049759</v>
+        <v>0.67013515123118772</v>
       </c>
       <c r="E118" s="5">
-        <v>0.1478159604546869</v>
+        <v>2.342844081154007</v>
       </c>
       <c r="F118" s="5">
         <v>0.70377991873582912</v>
@@ -5626,19 +5627,19 @@
         <v>0.70697413608731974</v>
       </c>
       <c r="H118" s="5">
-        <v>0.51375627140563518</v>
+        <v>0.56884732394375404</v>
       </c>
       <c r="I118" s="4">
         <v>0.18516518046476396</v>
       </c>
-      <c r="J118" s="4">
-        <v>5.5776037487652586</v>
+      <c r="J118" s="6">
+        <v>0.38882892502134281</v>
       </c>
       <c r="K118" s="4">
         <v>0.20919122102175955</v>
       </c>
-      <c r="L118" s="4">
-        <v>0.1597620220663124</v>
+      <c r="L118" s="6">
+        <v>0.73952892041144347</v>
       </c>
       <c r="M118" s="4">
         <v>0.73952892041144347</v>
@@ -5646,8 +5647,8 @@
       <c r="N118" s="4">
         <v>8.2710089993313168E-2</v>
       </c>
-      <c r="O118" s="4">
-        <v>0.82069821650348285</v>
+      <c r="O118" s="6">
+        <v>1.1884562814584692</v>
       </c>
       <c r="P118" s="4">
         <v>1.1884562814584692</v>
@@ -5658,10 +5659,10 @@
         <v>0.94987175796535483</v>
       </c>
       <c r="D119" s="5">
-        <v>0.88480589294533807</v>
+        <v>0.79477870744444068</v>
       </c>
       <c r="E119" s="5">
-        <v>0.10840951321188259</v>
+        <v>1.2603724945275281</v>
       </c>
       <c r="F119" s="5">
         <v>0.77213660629833103</v>
@@ -5670,19 +5671,19 @@
         <v>0.7266924575074184</v>
       </c>
       <c r="H119" s="5">
-        <v>0.69068153981199454</v>
+        <v>0.17167377528326536</v>
       </c>
       <c r="I119" s="4">
         <v>0.18481620972306995</v>
       </c>
-      <c r="J119" s="4">
-        <v>0.93944469394368602</v>
+      <c r="J119" s="6">
+        <v>0.39318628449105736</v>
       </c>
       <c r="K119" s="4">
         <v>0.22460644004757693</v>
       </c>
-      <c r="L119" s="4">
-        <v>2.0181710169747284</v>
+      <c r="L119" s="6">
+        <v>0.97088493288772626</v>
       </c>
       <c r="M119" s="4">
         <v>0.97088493288772626</v>
@@ -5690,8 +5691,8 @@
       <c r="N119" s="4">
         <v>1.8418043871925083E-2</v>
       </c>
-      <c r="O119" s="4">
-        <v>0.99397016997922094</v>
+      <c r="O119" s="6">
+        <v>1.0138429826138218</v>
       </c>
       <c r="P119" s="4">
         <v>1.0138429826138218</v>
@@ -5702,10 +5703,10 @@
         <v>0.88259255384649582</v>
       </c>
       <c r="D120" s="5">
-        <v>0.52492797879603226</v>
+        <v>0.8139388489817696</v>
       </c>
       <c r="E120" s="5">
-        <v>0.10938590639231181</v>
+        <v>0.77164994816192845</v>
       </c>
       <c r="F120" s="5">
         <v>0.84374787963586095</v>
@@ -5714,19 +5715,19 @@
         <v>0.82135431809373416</v>
       </c>
       <c r="H120" s="5">
-        <v>4.608083103793E-4</v>
+        <v>1.2980490820416852</v>
       </c>
       <c r="I120" s="4">
         <v>0.19562361406380083</v>
       </c>
-      <c r="J120" s="4">
-        <v>0.55412143062395991</v>
+      <c r="J120" s="6">
+        <v>0.40921853554970472</v>
       </c>
       <c r="K120" s="4">
         <v>0.15360143463595546</v>
       </c>
-      <c r="L120" s="4">
-        <v>3.154418700675873</v>
+      <c r="L120" s="6">
+        <v>1.0984260155590202</v>
       </c>
       <c r="M120" s="4">
         <v>1.0984260155590202</v>
@@ -5734,8 +5735,8 @@
       <c r="N120" s="4">
         <v>2.4367662965834317E-2</v>
       </c>
-      <c r="O120" s="4">
-        <v>0.86566690899346987</v>
+      <c r="O120" s="6">
+        <v>1.0219520228008265</v>
       </c>
       <c r="P120" s="4">
         <v>1.0219520228008265</v>
@@ -5746,10 +5747,10 @@
         <v>0.45805296765042547</v>
       </c>
       <c r="D121" s="5">
-        <v>0.69954473474629975</v>
+        <v>0.8531926470457446</v>
       </c>
       <c r="E121" s="5">
-        <v>0.5420195090403076</v>
+        <v>1.1133634404708146E-3</v>
       </c>
       <c r="F121" s="5">
         <v>0.72609454651115135</v>
@@ -5758,19 +5759,19 @@
         <v>0.83760632793807077</v>
       </c>
       <c r="H121" s="5">
-        <v>0.47432530079653262</v>
+        <v>0.12045280916846061</v>
       </c>
       <c r="I121" s="4">
         <v>0.1983607709707432</v>
       </c>
-      <c r="J121" s="4">
-        <v>1.456689990747593</v>
+      <c r="J121" s="6">
+        <v>0.38804436219398475</v>
       </c>
       <c r="K121" s="4">
         <v>0.18844254880465156</v>
       </c>
-      <c r="L121" s="4">
-        <v>0.41267797047415256</v>
+      <c r="L121" s="6">
+        <v>1.0630585312506184</v>
       </c>
       <c r="M121" s="4">
         <v>1.0630585312506184</v>
@@ -5778,8 +5779,8 @@
       <c r="N121" s="4">
         <v>3.22871971100527E-2</v>
       </c>
-      <c r="O121" s="4">
-        <v>0.36249748893916223</v>
+      <c r="O121" s="6">
+        <v>1.0852149455389959</v>
       </c>
       <c r="P121" s="4">
         <v>1.0852149455389959</v>
@@ -5790,10 +5791,10 @@
         <v>0.49170899119261324</v>
       </c>
       <c r="D122" s="5">
-        <v>0.64169134850287035</v>
+        <v>0.82684498521730099</v>
       </c>
       <c r="E122" s="5">
-        <v>2.2117678214446208</v>
+        <v>1.2037659281116315</v>
       </c>
       <c r="F122" s="5">
         <v>0.69179028080972538</v>
@@ -5802,19 +5803,19 @@
         <v>0.73508861128303715</v>
       </c>
       <c r="H122" s="5">
-        <v>0.56087791012606869</v>
+        <v>1.0823005588556176</v>
       </c>
       <c r="I122" s="4">
         <v>0.20362149785881914</v>
       </c>
-      <c r="J122" s="4">
-        <v>0.44215117879170196</v>
+      <c r="J122" s="6">
+        <v>0.42575639491004452</v>
       </c>
       <c r="K122" s="4">
         <v>0.2608785616040592</v>
       </c>
-      <c r="L122" s="4">
-        <v>0.54905162875935098</v>
+      <c r="L122" s="6">
+        <v>0.98386741447011228</v>
       </c>
       <c r="M122" s="4">
         <v>0.98386741447011228</v>
@@ -5822,8 +5823,8 @@
       <c r="N122" s="4">
         <v>2.0451032387261616E-6</v>
       </c>
-      <c r="O122" s="4">
-        <v>7.3558012215043392E-2</v>
+      <c r="O122" s="6">
+        <v>0.97217593354984577</v>
       </c>
       <c r="P122" s="4">
         <v>0.97217593354984577</v>
@@ -5834,10 +5835,10 @@
         <v>1.0372191227864427</v>
       </c>
       <c r="D123" s="5">
-        <v>0.87097458540319428</v>
+        <v>0.55836309933420658</v>
       </c>
       <c r="E123" s="5">
-        <v>0.83478533442001546</v>
+        <v>0.60581227552239236</v>
       </c>
       <c r="F123" s="5">
         <v>0.42805381671812759</v>
@@ -5846,19 +5847,19 @@
         <v>0.78555897945516817</v>
       </c>
       <c r="H123" s="5">
-        <v>0.22585068869111832</v>
+        <v>0.21959846548941167</v>
       </c>
       <c r="I123" s="4">
         <v>0.21178009005284373</v>
       </c>
-      <c r="J123" s="4">
-        <v>0.41842803587573624</v>
+      <c r="J123" s="6">
+        <v>0.39658060310320847</v>
       </c>
       <c r="K123" s="4">
         <v>0.16963177653100564</v>
       </c>
-      <c r="L123" s="4">
-        <v>0.24538611933567148</v>
+      <c r="L123" s="6">
+        <v>0.68481424406883595</v>
       </c>
       <c r="M123" s="4">
         <v>0.68481424406883595</v>
@@ -5866,8 +5867,8 @@
       <c r="N123" s="4">
         <v>0.9999999959421999</v>
       </c>
-      <c r="O123" s="4">
-        <v>0.54719574101772639</v>
+      <c r="O123" s="6">
+        <v>0.99024380522041389</v>
       </c>
       <c r="P123" s="4">
         <v>0.99024380522041389</v>
@@ -5878,10 +5879,10 @@
         <v>0.87794661879281</v>
       </c>
       <c r="D124" s="5">
-        <v>0.66370814714298021</v>
+        <v>0.76310164956642268</v>
       </c>
       <c r="E124" s="5">
-        <v>0.84734659079125441</v>
+        <v>3.1301800023800972</v>
       </c>
       <c r="F124" s="5">
         <v>0.70291675653751429</v>
@@ -5890,19 +5891,19 @@
         <v>0.73020265744625235</v>
       </c>
       <c r="H124" s="5">
-        <v>0.33682674244276556</v>
+        <v>0.38787636236200146</v>
       </c>
       <c r="I124" s="4">
         <v>0.21880002132848195</v>
       </c>
-      <c r="J124" s="4">
-        <v>3.2770014013161717</v>
+      <c r="J124" s="6">
+        <v>0.3945627440017877</v>
       </c>
       <c r="K124" s="4">
         <v>0.23929901167112219</v>
       </c>
-      <c r="L124" s="4">
-        <v>1.3813770345178684</v>
+      <c r="L124" s="6">
+        <v>0.75740965488542589</v>
       </c>
       <c r="M124" s="4">
         <v>0.75740965488542589</v>
@@ -5910,8 +5911,8 @@
       <c r="N124" s="4">
         <v>0.99889681774423589</v>
       </c>
-      <c r="O124" s="4">
-        <v>0.33921238875382842</v>
+      <c r="O124" s="6">
+        <v>0.95477851424133731</v>
       </c>
       <c r="P124" s="4">
         <v>0.95477851424133731</v>
@@ -5922,10 +5923,10 @@
         <v>0.89896282029033081</v>
       </c>
       <c r="D125" s="5">
-        <v>0.75226902062924861</v>
+        <v>0.72709505982317224</v>
       </c>
       <c r="E125" s="5">
-        <v>7.1184889695220539</v>
+        <v>0.45010107076557265</v>
       </c>
       <c r="F125" s="5">
         <v>1.0362880648742441</v>
@@ -5934,19 +5935,19 @@
         <v>0.71104391110071252</v>
       </c>
       <c r="H125" s="5">
-        <v>1.945561491595762</v>
+        <v>0.89704640310596651</v>
       </c>
       <c r="I125" s="4">
         <v>0.17806009352938335</v>
       </c>
-      <c r="J125" s="4">
-        <v>0.76519479945307667</v>
+      <c r="J125" s="6">
+        <v>0.39211903349055921</v>
       </c>
       <c r="K125" s="4">
         <v>0.16507343677608405</v>
       </c>
-      <c r="L125" s="4">
-        <v>0.79132938738737824</v>
+      <c r="L125" s="6">
+        <v>0.87019930924947375</v>
       </c>
       <c r="M125" s="4">
         <v>0.87019930924947375</v>
@@ -5954,8 +5955,8 @@
       <c r="N125" s="4">
         <v>0.99571918587340424</v>
       </c>
-      <c r="O125" s="4">
-        <v>0.29634384375243683</v>
+      <c r="O125" s="6">
+        <v>0.99289365299522792</v>
       </c>
       <c r="P125" s="4">
         <v>0.99289365299522792</v>
@@ -5966,10 +5967,10 @@
         <v>0.81014703711643143</v>
       </c>
       <c r="D126" s="5">
-        <v>0.75355994167710927</v>
+        <v>0.97065262557784071</v>
       </c>
       <c r="E126" s="5">
-        <v>7.4387869039772944E-2</v>
+        <v>0.65014429300434151</v>
       </c>
       <c r="F126" s="5">
         <v>0.63752359315198892</v>
@@ -5978,19 +5979,19 @@
         <v>0.72981836248259235</v>
       </c>
       <c r="H126" s="5">
-        <v>2.7220258392221512</v>
+        <v>0.70808813410555183</v>
       </c>
       <c r="I126" s="4">
         <v>0.20829023420117596</v>
       </c>
-      <c r="J126" s="4">
-        <v>1.5988799428493261</v>
+      <c r="J126" s="6">
+        <v>0.43784807823236827</v>
       </c>
       <c r="K126" s="4">
         <v>0.2167274501757265</v>
       </c>
-      <c r="L126" s="4">
-        <v>3.4371399080393732</v>
+      <c r="L126" s="6">
+        <v>0.9049659140988997</v>
       </c>
       <c r="M126" s="4">
         <v>0.9049659140988997</v>
@@ -5998,8 +5999,8 @@
       <c r="N126" s="4">
         <v>3.5033132603770801E-4</v>
       </c>
-      <c r="O126" s="4">
-        <v>1.6314624059686925E-2</v>
+      <c r="O126" s="6">
+        <v>1.0393026095908786</v>
       </c>
       <c r="P126" s="4">
         <v>1.0393026095908786</v>
@@ -6010,10 +6011,10 @@
         <v>1.1102409605438348</v>
       </c>
       <c r="D127" s="5">
-        <v>0.7244293507678693</v>
+        <v>0.79215375300769408</v>
       </c>
       <c r="E127" s="5">
-        <v>7.13971059860084</v>
+        <v>1.0081089292488978</v>
       </c>
       <c r="F127" s="5">
         <v>1.0493381835934534</v>
@@ -6022,19 +6023,19 @@
         <v>0.8159377021555434</v>
       </c>
       <c r="H127" s="5">
-        <v>9.0419061989162705E-2</v>
+        <v>0.88362181713611321</v>
       </c>
       <c r="I127" s="4">
         <v>0.1982856224256736</v>
       </c>
-      <c r="J127" s="4">
-        <v>5.0047680875181477</v>
+      <c r="J127" s="6">
+        <v>0.40467636004819091</v>
       </c>
       <c r="K127" s="4">
         <v>0.20100771109090532</v>
       </c>
-      <c r="L127" s="4">
-        <v>0.22593248833665971</v>
+      <c r="L127" s="6">
+        <v>0.81462982995765432</v>
       </c>
       <c r="M127" s="4">
         <v>0.81462982995765432</v>
@@ -6042,8 +6043,8 @@
       <c r="N127" s="4">
         <v>1.2491409162062102E-2</v>
       </c>
-      <c r="O127" s="4">
-        <v>9.8306931418099222E-2</v>
+      <c r="O127" s="6">
+        <v>0.99340677585974579</v>
       </c>
       <c r="P127" s="4">
         <v>0.99340677585974579</v>
@@ -6054,10 +6055,10 @@
         <v>0.86717277162238027</v>
       </c>
       <c r="D128" s="5">
-        <v>0.70745243219172183</v>
+        <v>0.75152339301247428</v>
       </c>
       <c r="E128" s="5">
-        <v>1.7194221955717752</v>
+        <v>1.475319591821358</v>
       </c>
       <c r="F128" s="5">
         <v>0.65712368210929695</v>
@@ -6066,19 +6067,19 @@
         <v>0.69287986504262489</v>
       </c>
       <c r="H128" s="5">
-        <v>0.15922080787022161</v>
+        <v>1.1784619961754113</v>
       </c>
       <c r="I128" s="4">
         <v>0.22255137605646041</v>
       </c>
-      <c r="J128" s="4">
-        <v>0.54833860873320861</v>
+      <c r="J128" s="6">
+        <v>0.38652113458575932</v>
       </c>
       <c r="K128" s="4">
         <v>0.17649279422076231</v>
       </c>
-      <c r="L128" s="4">
-        <v>0.61753716833978711</v>
+      <c r="L128" s="6">
+        <v>1.1672199468226938</v>
       </c>
       <c r="M128" s="4">
         <v>1.1672199468226938</v>
@@ -6086,8 +6087,8 @@
       <c r="N128" s="4">
         <v>9.6712342696616715E-2</v>
       </c>
-      <c r="O128" s="4">
-        <v>2.2337895199157551</v>
+      <c r="O128" s="6">
+        <v>1.1296883543450893</v>
       </c>
       <c r="P128" s="4">
         <v>1.1296883543450893</v>
@@ -6098,10 +6099,10 @@
         <v>0.73223712403108265</v>
       </c>
       <c r="D129" s="5">
-        <v>0.61440655102192554</v>
+        <v>0.83797222025688745</v>
       </c>
       <c r="E129" s="5">
-        <v>0.74172546512188164</v>
+        <v>1.7585483622357376</v>
       </c>
       <c r="F129" s="5">
         <v>0.92061642276039579</v>
@@ -6110,19 +6111,19 @@
         <v>0.74337481133110128</v>
       </c>
       <c r="H129" s="5">
-        <v>0.54289037969341858</v>
+        <v>2.8937647108616349</v>
       </c>
       <c r="I129" s="4">
         <v>0.20491330939002739</v>
       </c>
-      <c r="J129" s="4">
-        <v>0.41288824782429268</v>
+      <c r="J129" s="6">
+        <v>0.35751958425202474</v>
       </c>
       <c r="K129" s="4">
         <v>0.29843395467076944</v>
       </c>
-      <c r="L129" s="4">
-        <v>1.6399038601658549</v>
+      <c r="L129" s="6">
+        <v>1.0273379689883304</v>
       </c>
       <c r="M129" s="4">
         <v>1.0273379689883304</v>
@@ -6130,8 +6131,8 @@
       <c r="N129" s="4">
         <v>0.40241996811088321</v>
       </c>
-      <c r="O129" s="4">
-        <v>0.79976256200172535</v>
+      <c r="O129" s="6">
+        <v>0.8827688359560677</v>
       </c>
       <c r="P129" s="4">
         <v>0.8827688359560677</v>
@@ -6142,10 +6143,10 @@
         <v>0.87080223990888994</v>
       </c>
       <c r="D130" s="5">
-        <v>0.71063209655526383</v>
+        <v>0.62430904195776538</v>
       </c>
       <c r="E130" s="5">
-        <v>0.55515070085070517</v>
+        <v>1.8059025154044175</v>
       </c>
       <c r="F130" s="5">
         <v>0.60029949057095799</v>
@@ -6154,19 +6155,19 @@
         <v>0.75220661725473748</v>
       </c>
       <c r="H130" s="5">
-        <v>9.8422608556747906E-2</v>
+        <v>0.3992015837721764</v>
       </c>
       <c r="I130" s="4">
         <v>0.18565331128965576</v>
       </c>
-      <c r="J130" s="4">
-        <v>5.9562841710366756</v>
+      <c r="J130" s="6">
+        <v>0.42043299595144218</v>
       </c>
       <c r="K130" s="4">
         <v>0.15751580311917118</v>
       </c>
-      <c r="L130" s="4">
-        <v>0.33792161065220078</v>
+      <c r="L130" s="6">
+        <v>0.89779250138132105</v>
       </c>
       <c r="M130" s="4">
         <v>0.89779250138132105</v>
@@ -6174,8 +6175,8 @@
       <c r="N130" s="4">
         <v>9.2630039244221297E-4</v>
       </c>
-      <c r="O130" s="4">
-        <v>1.2129039019006387</v>
+      <c r="O130" s="6">
+        <v>0.9746872975578833</v>
       </c>
       <c r="P130" s="4">
         <v>0.9746872975578833</v>
@@ -6186,10 +6187,10 @@
         <v>0.59418372430608435</v>
       </c>
       <c r="D131" s="5">
-        <v>0.78267771585635648</v>
+        <v>0.60335160919010589</v>
       </c>
       <c r="E131" s="5">
-        <v>5.635672406520538E-2</v>
+        <v>2.3482477300677744</v>
       </c>
       <c r="F131" s="5">
         <v>0.96062619958804718</v>
@@ -6198,19 +6199,19 @@
         <v>0.80432440745121137</v>
       </c>
       <c r="H131" s="5">
-        <v>0.57201133419242933</v>
+        <v>0.36997649459890714</v>
       </c>
       <c r="I131" s="4">
         <v>0.19989606240323135</v>
       </c>
-      <c r="J131" s="4">
-        <v>0.6570424339815194</v>
+      <c r="J131" s="6">
+        <v>0.39059807074774927</v>
       </c>
       <c r="K131" s="4">
         <v>0.20496455686371576</v>
       </c>
-      <c r="L131" s="4">
-        <v>0.6876217378969206</v>
+      <c r="L131" s="6">
+        <v>0.65854240940733777</v>
       </c>
       <c r="M131" s="4">
         <v>0.65854240940733777</v>
@@ -6218,8 +6219,8 @@
       <c r="N131" s="4">
         <v>9.9715479892927719E-7</v>
       </c>
-      <c r="O131" s="4">
-        <v>0.17152385128632786</v>
+      <c r="O131" s="6">
+        <v>0.89480963104154998</v>
       </c>
       <c r="P131" s="4">
         <v>0.89480963104154998</v>
@@ -6230,10 +6231,10 @@
         <v>0.69589186451542195</v>
       </c>
       <c r="D132" s="5">
-        <v>0.77897168154014895</v>
+        <v>0.75152897238971961</v>
       </c>
       <c r="E132" s="5">
-        <v>2.3428032466829127</v>
+        <v>0.32765705389485894</v>
       </c>
       <c r="F132" s="5">
         <v>0.90465675852292704</v>
@@ -6242,19 +6243,19 @@
         <v>0.74488362837253586</v>
       </c>
       <c r="H132" s="5">
-        <v>0.90658082641778681</v>
+        <v>0.24898427001556431</v>
       </c>
       <c r="I132" s="4">
         <v>0.20194109499709292</v>
       </c>
-      <c r="J132" s="4">
-        <v>0.11142109253267023</v>
+      <c r="J132" s="6">
+        <v>0.41172044707346145</v>
       </c>
       <c r="K132" s="4">
         <v>0.16860011226369342</v>
       </c>
-      <c r="L132" s="4">
-        <v>0.30461602995859738</v>
+      <c r="L132" s="6">
+        <v>0.87550126514734539</v>
       </c>
       <c r="M132" s="4">
         <v>0.87550126514734539</v>
@@ -6262,8 +6263,8 @@
       <c r="N132" s="4">
         <v>8.8825661417340024E-2</v>
       </c>
-      <c r="O132" s="4">
-        <v>0.30977393025125233</v>
+      <c r="O132" s="6">
+        <v>0.89588129944165962</v>
       </c>
       <c r="P132" s="4">
         <v>0.89588129944165962</v>
@@ -6274,10 +6275,10 @@
         <v>0.81424433989995881</v>
       </c>
       <c r="D133" s="5">
-        <v>0.58822727174922629</v>
+        <v>0.73468655656887927</v>
       </c>
       <c r="E133" s="5">
-        <v>0.26157440567793994</v>
+        <v>4.2648161248213329E-2</v>
       </c>
       <c r="F133" s="5">
         <v>0.88654310060590402</v>
@@ -6286,19 +6287,19 @@
         <v>0.57053828804941342</v>
       </c>
       <c r="H133" s="5">
-        <v>1.911254576556223</v>
+        <v>3.8431307633034524</v>
       </c>
       <c r="I133" s="4">
         <v>0.20053313130053704</v>
       </c>
-      <c r="J133" s="4">
-        <v>7.443898962231807</v>
+      <c r="J133" s="6">
+        <v>0.411249519203714</v>
       </c>
       <c r="K133" s="4">
         <v>0.17738978707690942</v>
       </c>
-      <c r="L133" s="4">
-        <v>0.54555401892106026</v>
+      <c r="L133" s="6">
+        <v>0.82650751000738143</v>
       </c>
       <c r="M133" s="4">
         <v>0.82650751000738143</v>
@@ -6306,8 +6307,8 @@
       <c r="N133" s="4">
         <v>1.3083009366356457E-5</v>
       </c>
-      <c r="O133" s="4">
-        <v>2.0650097493780377</v>
+      <c r="O133" s="6">
+        <v>1.0404036679396367</v>
       </c>
       <c r="P133" s="4">
         <v>1.0404036679396367</v>
@@ -6318,10 +6319,10 @@
         <v>0.73511066194680319</v>
       </c>
       <c r="D134" s="5">
-        <v>0.63420761575587714</v>
+        <v>0.67877425999058361</v>
       </c>
       <c r="E134" s="5">
-        <v>0.38215644696983853</v>
+        <v>1.1878713716399214</v>
       </c>
       <c r="F134" s="5">
         <v>0.8343970398203634</v>
@@ -6330,19 +6331,19 @@
         <v>0.75773989360027905</v>
       </c>
       <c r="H134" s="5">
-        <v>0.58267667331617856</v>
+        <v>2.0085326031842219</v>
       </c>
       <c r="I134" s="4">
         <v>0.2085519360220135</v>
       </c>
-      <c r="J134" s="4">
-        <v>4.0429931175171987</v>
+      <c r="J134" s="6">
+        <v>0.39060803036829167</v>
       </c>
       <c r="K134" s="4">
         <v>0.20279380795796403</v>
       </c>
-      <c r="L134" s="4">
-        <v>3.4240515922111019E-2</v>
+      <c r="L134" s="6">
+        <v>1.0307756789112834</v>
       </c>
       <c r="M134" s="4">
         <v>1.0307756789112834</v>
@@ -6350,8 +6351,8 @@
       <c r="N134" s="4">
         <v>6.3611006757805112E-3</v>
       </c>
-      <c r="O134" s="4">
-        <v>1.2406259268810378</v>
+      <c r="O134" s="6">
+        <v>0.91672751914364425</v>
       </c>
       <c r="P134" s="4">
         <v>0.91672751914364425</v>
@@ -6362,10 +6363,10 @@
         <v>0.4668479368264371</v>
       </c>
       <c r="D135" s="5">
-        <v>0.95769456296105404</v>
+        <v>0.80920097912614986</v>
       </c>
       <c r="E135" s="5">
-        <v>3.4802334989623578</v>
+        <v>0.23782803693162313</v>
       </c>
       <c r="F135" s="5">
         <v>0.54713948240470711</v>
@@ -6374,19 +6375,19 @@
         <v>0.78763896080208773</v>
       </c>
       <c r="H135" s="5">
-        <v>0.44925589637261315</v>
+        <v>0.32210475977001507</v>
       </c>
       <c r="I135" s="4">
         <v>0.19711760858328345</v>
       </c>
-      <c r="J135" s="4">
-        <v>3.276656670334158</v>
+      <c r="J135" s="6">
+        <v>0.37405271495622849</v>
       </c>
       <c r="K135" s="4">
         <v>0.23505021149873012</v>
       </c>
-      <c r="L135" s="4">
-        <v>1.6409930724823736</v>
+      <c r="L135" s="6">
+        <v>1.0271221725460493</v>
       </c>
       <c r="M135" s="4">
         <v>1.0271221725460493</v>
@@ -6394,8 +6395,8 @@
       <c r="N135" s="4">
         <v>0.99980958037201484</v>
       </c>
-      <c r="O135" s="4">
-        <v>1.4174134063700752</v>
+      <c r="O135" s="6">
+        <v>1.083388007105877</v>
       </c>
       <c r="P135" s="4">
         <v>1.083388007105877</v>
@@ -6406,10 +6407,10 @@
         <v>0.66262171290152527</v>
       </c>
       <c r="D136" s="5">
-        <v>0.70439544093343076</v>
+        <v>0.85759566841346746</v>
       </c>
       <c r="E136" s="5">
-        <v>8.9024147858722008E-2</v>
+        <v>0.19492209395505419</v>
       </c>
       <c r="F136" s="5">
         <v>0.70239658116574355</v>
@@ -6418,19 +6419,19 @@
         <v>0.71644219271107557</v>
       </c>
       <c r="H136" s="5">
-        <v>3.0281044581728409</v>
+        <v>2.1113498212215558</v>
       </c>
       <c r="I136" s="4">
         <v>0.19174159273772892</v>
       </c>
-      <c r="J136" s="4">
-        <v>2.1522449407827602</v>
+      <c r="J136" s="6">
+        <v>0.41878311983647826</v>
       </c>
       <c r="K136" s="4">
         <v>0.24845452469801502</v>
       </c>
-      <c r="L136" s="4">
-        <v>0.76666648156565798</v>
+      <c r="L136" s="6">
+        <v>0.84261906787767393</v>
       </c>
       <c r="M136" s="4">
         <v>0.84261906787767393</v>
@@ -6438,8 +6439,8 @@
       <c r="N136" s="4">
         <v>7.5534332822976752E-2</v>
       </c>
-      <c r="O136" s="4">
-        <v>1.8272068204342828</v>
+      <c r="O136" s="6">
+        <v>1.0307581401890835</v>
       </c>
       <c r="P136" s="4">
         <v>1.0307581401890835</v>
@@ -6450,10 +6451,10 @@
         <v>1.0831974526796186</v>
       </c>
       <c r="D137" s="5">
-        <v>0.64813455061476022</v>
+        <v>0.77277902387080799</v>
       </c>
       <c r="E137" s="5">
-        <v>0.11371396548164214</v>
+        <v>0.73922885136532901</v>
       </c>
       <c r="F137" s="5">
         <v>0.80295467626467731</v>
@@ -6462,19 +6463,19 @@
         <v>0.69193750751752703</v>
       </c>
       <c r="H137" s="5">
-        <v>9.9911089120941932E-2</v>
+        <v>0.68918331279934009</v>
       </c>
       <c r="I137" s="4">
         <v>0.17711774037591943</v>
       </c>
-      <c r="J137" s="4">
-        <v>0.2658511600387975</v>
+      <c r="J137" s="6">
+        <v>0.4066700697600924</v>
       </c>
       <c r="K137" s="4">
         <v>0.22648095902388105</v>
       </c>
-      <c r="L137" s="4">
-        <v>0.22303819166255728</v>
+      <c r="L137" s="6">
+        <v>0.83999635391757888</v>
       </c>
       <c r="M137" s="4">
         <v>0.83999635391757888</v>
@@ -6482,8 +6483,8 @@
       <c r="N137" s="4">
         <v>0.24470609254055384</v>
       </c>
-      <c r="O137" s="4">
-        <v>1.0979096215767119</v>
+      <c r="O137" s="6">
+        <v>0.9571923148832584</v>
       </c>
       <c r="P137" s="4">
         <v>0.9571923148832584</v>
@@ -6494,10 +6495,10 @@
         <v>0.74841676289212111</v>
       </c>
       <c r="D138" s="5">
-        <v>0.78848601683817598</v>
+        <v>0.70617101185622333</v>
       </c>
       <c r="E138" s="5">
-        <v>0.30553430791814312</v>
+        <v>4.0390364170120252</v>
       </c>
       <c r="F138" s="5">
         <v>0.76233991897331566</v>
@@ -6506,19 +6507,19 @@
         <v>0.71745371727543239</v>
       </c>
       <c r="H138" s="5">
-        <v>0.4181968486815284</v>
+        <v>0.94716089698518546</v>
       </c>
       <c r="I138" s="4">
         <v>0.20517375486153958</v>
       </c>
-      <c r="J138" s="4">
-        <v>0.2641427181681133</v>
+      <c r="J138" s="6">
+        <v>0.39524201604158798</v>
       </c>
       <c r="K138" s="4">
         <v>0.24590823106987847</v>
       </c>
-      <c r="L138" s="4">
-        <v>0.58065500668838055</v>
+      <c r="L138" s="6">
+        <v>1.0539166430909312</v>
       </c>
       <c r="M138" s="4">
         <v>1.0539166430909312</v>
@@ -6526,8 +6527,8 @@
       <c r="N138" s="4">
         <v>0.99999990437036745</v>
       </c>
-      <c r="O138" s="4">
-        <v>1.383409023499103</v>
+      <c r="O138" s="6">
+        <v>1.0828191359795702</v>
       </c>
       <c r="P138" s="4">
         <v>1.0828191359795702</v>
@@ -6538,10 +6539,10 @@
         <v>0.72746981527568555</v>
       </c>
       <c r="D139" s="5">
-        <v>0.62573727372895904</v>
+        <v>1.0617761226426756</v>
       </c>
       <c r="E139" s="5">
-        <v>0.38031241951369626</v>
+        <v>0.35879296801229277</v>
       </c>
       <c r="F139" s="5">
         <v>0.92271415428371595</v>
@@ -6550,19 +6551,19 @@
         <v>0.76417814389555838</v>
       </c>
       <c r="H139" s="5">
-        <v>3.5214173922917542</v>
+        <v>1.8491433848635423</v>
       </c>
       <c r="I139" s="4">
         <v>0.19371124766531186</v>
       </c>
-      <c r="J139" s="4">
-        <v>1.1231064512981097</v>
+      <c r="J139" s="6">
+        <v>0.43501406278765364</v>
       </c>
       <c r="K139" s="4">
         <v>0.16313775679576584</v>
       </c>
-      <c r="L139" s="4">
-        <v>3.2065496214985174</v>
+      <c r="L139" s="6">
+        <v>0.50339490176542712</v>
       </c>
       <c r="M139" s="4">
         <v>0.50339490176542712</v>
@@ -6570,8 +6571,8 @@
       <c r="N139" s="4">
         <v>0.98643137346204035</v>
       </c>
-      <c r="O139" s="4">
-        <v>0.7512376789447911</v>
+      <c r="O139" s="6">
+        <v>0.99515133588416971</v>
       </c>
       <c r="P139" s="4">
         <v>0.99515133588416971</v>
@@ -6582,10 +6583,10 @@
         <v>1.1933946513601787</v>
       </c>
       <c r="D140" s="5">
-        <v>0.65839667257127377</v>
+        <v>0.50035692316246461</v>
       </c>
       <c r="E140" s="5">
-        <v>0.13747102946133977</v>
+        <v>0.28279554158628212</v>
       </c>
       <c r="F140" s="5">
         <v>0.81767666281968743</v>
@@ -6594,19 +6595,19 @@
         <v>0.74113089704903246</v>
       </c>
       <c r="H140" s="5">
-        <v>0.74479639043862267</v>
+        <v>1.5377424662582024</v>
       </c>
       <c r="I140" s="4">
         <v>0.1977332598341644</v>
       </c>
-      <c r="J140" s="4">
-        <v>0.66681704956391685</v>
+      <c r="J140" s="6">
+        <v>0.40855255115545497</v>
       </c>
       <c r="K140" s="4">
         <v>0.24726239843672074</v>
       </c>
-      <c r="L140" s="4">
-        <v>0.24984681751678137</v>
+      <c r="L140" s="6">
+        <v>0.952465866190504</v>
       </c>
       <c r="M140" s="4">
         <v>0.952465866190504</v>
@@ -6614,8 +6615,8 @@
       <c r="N140" s="4">
         <v>0.99996601185137213</v>
       </c>
-      <c r="O140" s="4">
-        <v>1.0242860202153519</v>
+      <c r="O140" s="6">
+        <v>1.1085158516160949</v>
       </c>
       <c r="P140" s="4">
         <v>1.1085158516160949</v>
@@ -6626,10 +6627,10 @@
         <v>0.68321445802847369</v>
       </c>
       <c r="D141" s="5">
-        <v>0.74239003487855337</v>
+        <v>0.78921936053457586</v>
       </c>
       <c r="E141" s="5">
-        <v>0.17954080608677972</v>
+        <v>3.0745141469060449</v>
       </c>
       <c r="F141" s="5">
         <v>0.7975999961791429</v>
@@ -6638,19 +6639,19 @@
         <v>0.75072080660811158</v>
       </c>
       <c r="H141" s="5">
-        <v>0.40405786763343593</v>
+        <v>4.305391914397505E-2</v>
       </c>
       <c r="I141" s="4">
         <v>0.20151401497097121</v>
       </c>
-      <c r="J141" s="4">
-        <v>1.3602929322311084</v>
+      <c r="J141" s="6">
+        <v>0.37596249455306063</v>
       </c>
       <c r="K141" s="4">
         <v>0.18015077671255947</v>
       </c>
-      <c r="L141" s="4">
-        <v>4.5622822019043863</v>
+      <c r="L141" s="6">
+        <v>1.0131648299140836</v>
       </c>
       <c r="M141" s="4">
         <v>1.0131648299140836</v>
@@ -6658,8 +6659,8 @@
       <c r="N141" s="4">
         <v>0.99999999539547924</v>
       </c>
-      <c r="O141" s="4">
-        <v>0.70688431549656627</v>
+      <c r="O141" s="6">
+        <v>0.97666011667271913</v>
       </c>
       <c r="P141" s="4">
         <v>0.97666011667271913</v>
@@ -6670,10 +6671,10 @@
         <v>1.0953274059573344</v>
       </c>
       <c r="D142" s="5">
-        <v>0.68787653718094366</v>
+        <v>0.67026023503274124</v>
       </c>
       <c r="E142" s="5">
-        <v>0.87315592692985644</v>
+        <v>0.38821125778910948</v>
       </c>
       <c r="F142" s="5">
         <v>0.79008536576022126</v>
@@ -6682,19 +6683,19 @@
         <v>0.73157185573789385</v>
       </c>
       <c r="H142" s="5">
-        <v>1.0553649159425635</v>
+        <v>1.0507849165961831</v>
       </c>
       <c r="I142" s="4">
         <v>0.20058344473658621</v>
       </c>
-      <c r="J142" s="4">
-        <v>3.6370065888810248</v>
+      <c r="J142" s="6">
+        <v>0.37566330358109307</v>
       </c>
       <c r="K142" s="4">
         <v>0.24411447671273778</v>
       </c>
-      <c r="L142" s="4">
-        <v>1.1108466139562574</v>
+      <c r="L142" s="6">
+        <v>0.9095488593094504</v>
       </c>
       <c r="M142" s="4">
         <v>0.9095488593094504</v>
@@ -6702,8 +6703,8 @@
       <c r="N142" s="4">
         <v>1.7386866483888049E-4</v>
       </c>
-      <c r="O142" s="4">
-        <v>0.27995812403129422</v>
+      <c r="O142" s="6">
+        <v>0.93497253797041979</v>
       </c>
       <c r="P142" s="4">
         <v>0.93497253797041979</v>
@@ -6714,10 +6715,10 @@
         <v>0.66193000409469305</v>
       </c>
       <c r="D143" s="5">
-        <v>0.54350671199569756</v>
+        <v>0.88666314974890115</v>
       </c>
       <c r="E143" s="5">
-        <v>3.6878247557056927</v>
+        <v>3.8958715126013317</v>
       </c>
       <c r="F143" s="5">
         <v>0.78730431590823791</v>
@@ -6726,19 +6727,19 @@
         <v>0.73573125317882992</v>
       </c>
       <c r="H143" s="5">
-        <v>6.5141715966901617E-2</v>
+        <v>1.5806551665876565</v>
       </c>
       <c r="I143" s="4">
         <v>0.2157980172328714</v>
       </c>
-      <c r="J143" s="4">
-        <v>13.016793865545923</v>
+      <c r="J143" s="6">
+        <v>0.3763323214383697</v>
       </c>
       <c r="K143" s="4">
         <v>0.23512156020082597</v>
       </c>
-      <c r="L143" s="4">
-        <v>0.13218939956519393</v>
+      <c r="L143" s="6">
+        <v>0.90472172614930324</v>
       </c>
       <c r="M143" s="4">
         <v>0.90472172614930324</v>
@@ -6746,8 +6747,8 @@
       <c r="N143" s="4">
         <v>0.93210216992157779</v>
       </c>
-      <c r="O143" s="4">
-        <v>0.18959191424705388</v>
+      <c r="O143" s="6">
+        <v>1.0821555018362037</v>
       </c>
       <c r="P143" s="4">
         <v>1.0821555018362037</v>
@@ -6758,10 +6759,10 @@
         <v>0.85582042252173773</v>
       </c>
       <c r="D144" s="5">
-        <v>0.85166420144219401</v>
+        <v>0.68018744415470478</v>
       </c>
       <c r="E144" s="5">
-        <v>6.1902540021337334E-2</v>
+        <v>1.5717132841842485</v>
       </c>
       <c r="F144" s="5">
         <v>0.57459778106102677</v>
@@ -6770,19 +6771,19 @@
         <v>0.77709683995787049</v>
       </c>
       <c r="H144" s="5">
-        <v>2.8444713203703627</v>
+        <v>1.0257206209029401</v>
       </c>
       <c r="I144" s="4">
         <v>0.20663397799329494</v>
       </c>
-      <c r="J144" s="4">
-        <v>9.5476219710804475</v>
+      <c r="J144" s="6">
+        <v>0.37369612050125228</v>
       </c>
       <c r="K144" s="4">
         <v>0.25773093747911424</v>
       </c>
-      <c r="L144" s="4">
-        <v>0.67329864667089467</v>
+      <c r="L144" s="6">
+        <v>0.93757577795412128</v>
       </c>
       <c r="M144" s="4">
         <v>0.93757577795412128</v>
@@ -6790,8 +6791,8 @@
       <c r="N144" s="4">
         <v>4.5887196272301374E-2</v>
       </c>
-      <c r="O144" s="4">
-        <v>4.3841693657774372E-3</v>
+      <c r="O144" s="6">
+        <v>0.81259676350390686</v>
       </c>
       <c r="P144" s="4">
         <v>0.81259676350390686</v>
@@ -6802,10 +6803,10 @@
         <v>0.59023180990239132</v>
       </c>
       <c r="D145" s="5">
-        <v>0.96456340045728639</v>
+        <v>0.70855680749511452</v>
       </c>
       <c r="E145" s="5">
-        <v>0.47726399415426723</v>
+        <v>1.3203843900490098</v>
       </c>
       <c r="F145" s="5">
         <v>0.55517174737631303</v>
@@ -6814,19 +6815,19 @@
         <v>0.75485493937988069</v>
       </c>
       <c r="H145" s="5">
-        <v>1.2080502208612711</v>
+        <v>1.3191512456565395</v>
       </c>
       <c r="I145" s="4">
         <v>0.20139960767782372</v>
       </c>
-      <c r="J145" s="4">
-        <v>3.034313618742317</v>
+      <c r="J145" s="6">
+        <v>0.41049724345486233</v>
       </c>
       <c r="K145" s="4">
         <v>0.16597382257059351</v>
       </c>
-      <c r="L145" s="4">
-        <v>1.037419436846567</v>
+      <c r="L145" s="6">
+        <v>1.2050466743025194</v>
       </c>
       <c r="M145" s="4">
         <v>1.2050466743025194</v>
@@ -6834,8 +6835,8 @@
       <c r="N145" s="4">
         <v>0.9999998880687837</v>
       </c>
-      <c r="O145" s="4">
-        <v>0.60721020483649124</v>
+      <c r="O145" s="6">
+        <v>0.89533492562768124</v>
       </c>
       <c r="P145" s="4">
         <v>0.89533492562768124</v>
@@ -6846,10 +6847,10 @@
         <v>0.61981465909754685</v>
       </c>
       <c r="D146" s="5">
-        <v>0.62099684982546044</v>
+        <v>1.01585448318833</v>
       </c>
       <c r="E146" s="5">
-        <v>0.58497362661723873</v>
+        <v>1.7262274488515164</v>
       </c>
       <c r="F146" s="5">
         <v>0.67533913631886366</v>
@@ -6858,19 +6859,19 @@
         <v>0.69620892877070306</v>
       </c>
       <c r="H146" s="5">
-        <v>0.70124361319154271</v>
+        <v>2.3292323886715867</v>
       </c>
       <c r="I146" s="4">
         <v>0.18474983201503953</v>
       </c>
-      <c r="J146" s="4">
-        <v>3.0013653860015839</v>
+      <c r="J146" s="6">
+        <v>0.42901013544834693</v>
       </c>
       <c r="K146" s="4">
         <v>0.24166589087818635</v>
       </c>
-      <c r="L146" s="4">
-        <v>0.53960749199123892</v>
+      <c r="L146" s="6">
+        <v>0.87940243983406241</v>
       </c>
       <c r="M146" s="4">
         <v>0.87940243983406241</v>
@@ -6878,8 +6879,8 @@
       <c r="N146" s="4">
         <v>0.81016463304681396</v>
       </c>
-      <c r="O146" s="4">
-        <v>0.85729717264601324</v>
+      <c r="O146" s="6">
+        <v>0.98010378115107111</v>
       </c>
       <c r="P146" s="4">
         <v>0.98010378115107111</v>
@@ -6890,10 +6891,10 @@
         <v>0.74190187640952332</v>
       </c>
       <c r="D147" s="5">
-        <v>0.77326107996901838</v>
+        <v>0.73190282145316654</v>
       </c>
       <c r="E147" s="5">
-        <v>0.5436705477970426</v>
+        <v>0.3240388631604868</v>
       </c>
       <c r="F147" s="5">
         <v>0.68409417693800056</v>
@@ -6902,19 +6903,19 @@
         <v>0.77380112855637284</v>
       </c>
       <c r="H147" s="5">
-        <v>1.9253055794201184</v>
+        <v>0.7119771957166291</v>
       </c>
       <c r="I147" s="4">
         <v>0.20838034132254477</v>
       </c>
-      <c r="J147" s="4">
-        <v>3.7662228180768271</v>
+      <c r="J147" s="6">
+        <v>0.40100308653501754</v>
       </c>
       <c r="K147" s="4">
         <v>0.1642949337514277</v>
       </c>
-      <c r="L147" s="4">
-        <v>0.28566294800356828</v>
+      <c r="L147" s="6">
+        <v>0.81320634516516277</v>
       </c>
       <c r="M147" s="4">
         <v>0.81320634516516277</v>
@@ -6922,8 +6923,8 @@
       <c r="N147" s="4">
         <v>0.76360343189982194</v>
       </c>
-      <c r="O147" s="4">
-        <v>0.67309039272789006</v>
+      <c r="O147" s="6">
+        <v>0.98517715732378985</v>
       </c>
       <c r="P147" s="4">
         <v>0.98517715732378985</v>
@@ -6934,10 +6935,10 @@
         <v>0.84307429235004128</v>
       </c>
       <c r="D148" s="5">
-        <v>0.70344005087917194</v>
+        <v>0.62260832517129738</v>
       </c>
       <c r="E148" s="5">
-        <v>7.8742495106216046E-2</v>
+        <v>1.22515829427482</v>
       </c>
       <c r="F148" s="5">
         <v>0.90936943452566488</v>
@@ -6946,19 +6947,19 @@
         <v>0.73412140744887777</v>
       </c>
       <c r="H148" s="5">
-        <v>0.57630692712110232</v>
+        <v>4.0080024157539977</v>
       </c>
       <c r="I148" s="4">
         <v>0.21304691142846982</v>
       </c>
-      <c r="J148" s="4">
-        <v>1.6588599503307493</v>
+      <c r="J148" s="6">
+        <v>0.38946472181867026</v>
       </c>
       <c r="K148" s="4">
         <v>0.17173136326942023</v>
       </c>
-      <c r="L148" s="4">
-        <v>1.0220269708416152</v>
+      <c r="L148" s="6">
+        <v>0.75546508337483165</v>
       </c>
       <c r="M148" s="4">
         <v>0.75546508337483165</v>
@@ -6966,8 +6967,8 @@
       <c r="N148" s="4">
         <v>0.99837213788664969</v>
       </c>
-      <c r="O148" s="4">
-        <v>2.7677467530465796</v>
+      <c r="O148" s="6">
+        <v>0.96911509969899823</v>
       </c>
       <c r="P148" s="4">
         <v>0.96911509969899823</v>
@@ -6978,10 +6979,10 @@
         <v>0.81390832303220439</v>
       </c>
       <c r="D149" s="5">
-        <v>0.66245642684129391</v>
+        <v>0.5376930906920151</v>
       </c>
       <c r="E149" s="5">
-        <v>1.0987325959825134</v>
+        <v>0.54076696372061217</v>
       </c>
       <c r="F149" s="5">
         <v>0.7493573403721524</v>
@@ -6990,19 +6991,19 @@
         <v>0.75515285673135668</v>
       </c>
       <c r="H149" s="5">
-        <v>0.72898393177972598</v>
+        <v>1.6005144595540794</v>
       </c>
       <c r="I149" s="4">
         <v>0.19552537998722203</v>
       </c>
-      <c r="J149" s="4">
-        <v>3.8700045476349989</v>
+      <c r="J149" s="6">
+        <v>0.40622778010655086</v>
       </c>
       <c r="K149" s="4">
         <v>0.2067796194751306</v>
       </c>
-      <c r="L149" s="4">
-        <v>0.32588566811254183</v>
+      <c r="L149" s="6">
+        <v>0.7494487695376324</v>
       </c>
       <c r="M149" s="4">
         <v>0.7494487695376324</v>
@@ -7010,8 +7011,8 @@
       <c r="N149" s="4">
         <v>1.0645357367088512E-2</v>
       </c>
-      <c r="O149" s="4">
-        <v>2.5442793781371149</v>
+      <c r="O149" s="6">
+        <v>1.0426004847119963</v>
       </c>
       <c r="P149" s="4">
         <v>1.0426004847119963</v>
@@ -7022,10 +7023,10 @@
         <v>0.75956989016605192</v>
       </c>
       <c r="D150" s="5">
-        <v>0.7214701506319311</v>
+        <v>0.61397684410039144</v>
       </c>
       <c r="E150" s="5">
-        <v>7.4685189841874944E-2</v>
+        <v>1.2590321831902138</v>
       </c>
       <c r="F150" s="5">
         <v>0.43917563030839196</v>
@@ -7034,19 +7035,19 @@
         <v>0.66922696212923305</v>
       </c>
       <c r="H150" s="5">
-        <v>0.29521696208976389</v>
+        <v>6.5295571133907284</v>
       </c>
       <c r="I150" s="4">
         <v>0.19034100353205025</v>
       </c>
-      <c r="J150" s="4">
-        <v>3.9592730621447507</v>
+      <c r="J150" s="6">
+        <v>0.38381867292134275</v>
       </c>
       <c r="K150" s="4">
         <v>0.28362393634756439</v>
       </c>
-      <c r="L150" s="4">
-        <v>4.3209578508407764</v>
+      <c r="L150" s="6">
+        <v>1.0940204945921499</v>
       </c>
       <c r="M150" s="4">
         <v>1.0940204945921499</v>
@@ -7054,8 +7055,8 @@
       <c r="N150" s="4">
         <v>0.99999999999999989</v>
       </c>
-      <c r="O150" s="4">
-        <v>1.9405028918993199</v>
+      <c r="O150" s="6">
+        <v>1.0449736881720495</v>
       </c>
       <c r="P150" s="4">
         <v>1.0449736881720495</v>
@@ -7066,10 +7067,10 @@
         <v>0.67056840142795071</v>
       </c>
       <c r="D151" s="5">
-        <v>0.78011708753332965</v>
+        <v>0.61953462454767383</v>
       </c>
       <c r="E151" s="5">
-        <v>0.50387099299769855</v>
+        <v>0.57245056554270257</v>
       </c>
       <c r="F151" s="5">
         <v>0.84501955594037981</v>
@@ -7078,19 +7079,19 @@
         <v>0.73280928418726798</v>
       </c>
       <c r="H151" s="5">
-        <v>1.5317350538571972</v>
+        <v>1.2534090032911913</v>
       </c>
       <c r="I151" s="4">
         <v>0.19669633991711286</v>
       </c>
-      <c r="J151" s="4">
-        <v>1.1474681775942146</v>
+      <c r="J151" s="6">
+        <v>0.38082030922785742</v>
       </c>
       <c r="K151" s="4">
         <v>0.22049347921553239</v>
       </c>
-      <c r="L151" s="4">
-        <v>2.9965287505165642E-2</v>
+      <c r="L151" s="6">
+        <v>1.2659083731453113</v>
       </c>
       <c r="M151" s="4">
         <v>1.2659083731453113</v>
@@ -7098,8 +7099,8 @@
       <c r="N151" s="4">
         <v>0.53962194085149595</v>
       </c>
-      <c r="O151" s="4">
-        <v>2.1931415285866098</v>
+      <c r="O151" s="6">
+        <v>0.96235873428015062</v>
       </c>
       <c r="P151" s="4">
         <v>0.96235873428015062</v>
@@ -7110,10 +7111,10 @@
         <v>0.96531637297257045</v>
       </c>
       <c r="D152" s="5">
-        <v>0.65092616585493768</v>
+        <v>0.72192807727751118</v>
       </c>
       <c r="E152" s="5">
-        <v>0.11201008523008193</v>
+        <v>1.84810609299185</v>
       </c>
       <c r="F152" s="5">
         <v>0.82921183476644877</v>
@@ -7122,19 +7123,19 @@
         <v>0.79524939228563851</v>
       </c>
       <c r="H152" s="5">
-        <v>0.18920827743721838</v>
+        <v>2.2635651788326547</v>
       </c>
       <c r="I152" s="4">
         <v>0.21616130092811908</v>
       </c>
-      <c r="J152" s="4">
-        <v>2.786727015482994</v>
+      <c r="J152" s="6">
+        <v>0.38088330979446383</v>
       </c>
       <c r="K152" s="4">
         <v>0.23209532406922867</v>
       </c>
-      <c r="L152" s="4">
-        <v>1.9638470584568994</v>
+      <c r="L152" s="6">
+        <v>0.70173205097158975</v>
       </c>
       <c r="M152" s="4">
         <v>0.70173205097158975</v>
@@ -7142,8 +7143,8 @@
       <c r="N152" s="4">
         <v>0.19939045679438627</v>
       </c>
-      <c r="O152" s="4">
-        <v>2.5077962977637136</v>
+      <c r="O152" s="6">
+        <v>0.95381745024600706</v>
       </c>
       <c r="P152" s="4">
         <v>0.95381745024600706</v>
@@ -7154,10 +7155,10 @@
         <v>0.58305494132768343</v>
       </c>
       <c r="D153" s="5">
-        <v>0.74693940424407668</v>
+        <v>0.8653304190793798</v>
       </c>
       <c r="E153" s="5">
-        <v>0.88728270647348584</v>
+        <v>1.4166769849212582</v>
       </c>
       <c r="F153" s="5">
         <v>0.98441840903512068</v>
@@ -7166,19 +7167,19 @@
         <v>0.72668905913572457</v>
       </c>
       <c r="H153" s="5">
-        <v>2.2264665534202019</v>
+        <v>0.18865183106497169</v>
       </c>
       <c r="I153" s="4">
         <v>0.20112759539615704</v>
       </c>
-      <c r="J153" s="4">
-        <v>1.4094592586257663E-2</v>
+      <c r="J153" s="6">
+        <v>0.42406373873273506</v>
       </c>
       <c r="K153" s="4">
         <v>0.24177140420192705</v>
       </c>
-      <c r="L153" s="4">
-        <v>0.19481698238656472</v>
+      <c r="L153" s="6">
+        <v>0.95838191465754075</v>
       </c>
       <c r="M153" s="4">
         <v>0.95838191465754075</v>
@@ -7186,8 +7187,8 @@
       <c r="N153" s="4">
         <v>0.87752853718312929</v>
       </c>
-      <c r="O153" s="4">
-        <v>1.9356619463134248</v>
+      <c r="O153" s="6">
+        <v>0.98783377452722687</v>
       </c>
       <c r="P153" s="4">
         <v>0.98783377452722687</v>
@@ -7198,10 +7199,10 @@
         <v>0.92849464230919987</v>
       </c>
       <c r="D154" s="5">
-        <v>0.88649722232838346</v>
+        <v>0.59165940122044991</v>
       </c>
       <c r="E154" s="5">
-        <v>1.4673027417103139</v>
+        <v>0.94013124637539114</v>
       </c>
       <c r="F154" s="5">
         <v>0.71240904633620106</v>
@@ -7210,19 +7211,19 @@
         <v>0.70389665812524649</v>
       </c>
       <c r="H154" s="5">
-        <v>1.9025407485647865</v>
+        <v>9.0378239414480102E-3</v>
       </c>
       <c r="I154" s="4">
         <v>0.18807273535758923</v>
       </c>
-      <c r="J154" s="4">
-        <v>1.9137251604093582E-2</v>
+      <c r="J154" s="6">
+        <v>0.43647965909863712</v>
       </c>
       <c r="K154" s="4">
         <v>0.17471269737325412</v>
       </c>
-      <c r="L154" s="4">
-        <v>0.77566338928215306</v>
+      <c r="L154" s="6">
+        <v>0.896458199896352</v>
       </c>
       <c r="M154" s="4">
         <v>0.896458199896352</v>
@@ -7230,8 +7231,8 @@
       <c r="N154" s="4">
         <v>4.2269070100283007E-9</v>
       </c>
-      <c r="O154" s="4">
-        <v>0.35475331898975992</v>
+      <c r="O154" s="6">
+        <v>0.87691791265112518</v>
       </c>
       <c r="P154" s="4">
         <v>0.87691791265112518</v>
@@ -7242,10 +7243,10 @@
         <v>0.65689035059432299</v>
       </c>
       <c r="D155" s="5">
-        <v>0.74115216145065688</v>
+        <v>0.79243779079314314</v>
       </c>
       <c r="E155" s="5">
-        <v>1.6386023088754555E-2</v>
+        <v>1.8746922562438932</v>
       </c>
       <c r="F155" s="5">
         <v>0.6076681190941281</v>
@@ -7254,19 +7255,19 @@
         <v>0.73217275953873928</v>
       </c>
       <c r="H155" s="5">
-        <v>0.29376356413538351</v>
+        <v>0.54067597717655769</v>
       </c>
       <c r="I155" s="4">
         <v>0.20314118156945379</v>
       </c>
-      <c r="J155" s="4">
-        <v>13.268321215920754</v>
+      <c r="J155" s="6">
+        <v>0.41650947366543628</v>
       </c>
       <c r="K155" s="4">
         <v>0.1834516736752988</v>
       </c>
-      <c r="L155" s="4">
-        <v>3.8935968904709379</v>
+      <c r="L155" s="6">
+        <v>0.83091055758809207</v>
       </c>
       <c r="M155" s="4">
         <v>0.83091055758809207</v>
@@ -7274,8 +7275,8 @@
       <c r="N155" s="4">
         <v>0.9998713561135274</v>
       </c>
-      <c r="O155" s="4">
-        <v>0.10567442691205686</v>
+      <c r="O155" s="6">
+        <v>0.93725207303040792</v>
       </c>
       <c r="P155" s="4">
         <v>0.93725207303040792</v>
@@ -7286,10 +7287,10 @@
         <v>0.59706194232704857</v>
       </c>
       <c r="D156" s="5">
-        <v>0.49942784625987713</v>
+        <v>0.67269141394968979</v>
       </c>
       <c r="E156" s="5">
-        <v>0.11570133364455877</v>
+        <v>0.18665377236871772</v>
       </c>
       <c r="F156" s="5">
         <v>0.73236350446448306</v>
@@ -7298,19 +7299,19 @@
         <v>0.67045916716515341</v>
       </c>
       <c r="H156" s="5">
-        <v>0.56017668443277757</v>
+        <v>0.35763107475049777</v>
       </c>
       <c r="I156" s="4">
         <v>0.19141354712471254</v>
       </c>
-      <c r="J156" s="4">
-        <v>2.0064218636653735</v>
+      <c r="J156" s="6">
+        <v>0.40722211106379308</v>
       </c>
       <c r="K156" s="4">
         <v>0.22676818542230656</v>
       </c>
-      <c r="L156" s="4">
-        <v>0.45505180552411367</v>
+      <c r="L156" s="6">
+        <v>1.0262680316760149</v>
       </c>
       <c r="M156" s="4">
         <v>1.0262680316760149</v>
@@ -7318,8 +7319,8 @@
       <c r="N156" s="4">
         <v>0.99999785919290052</v>
       </c>
-      <c r="O156" s="4">
-        <v>0.23559784982531029</v>
+      <c r="O156" s="6">
+        <v>1.0190607297137757</v>
       </c>
       <c r="P156" s="4">
         <v>1.0190607297137757</v>
@@ -7330,10 +7331,10 @@
         <v>1.0484531791668692</v>
       </c>
       <c r="D157" s="5">
-        <v>0.69957561510352084</v>
+        <v>0.79289316787468622</v>
       </c>
       <c r="E157" s="5">
-        <v>5.0891341485406826E-2</v>
+        <v>0.24016921702903965</v>
       </c>
       <c r="F157" s="5">
         <v>0.70500697835394477</v>
@@ -7342,19 +7343,19 @@
         <v>0.74749765770767562</v>
       </c>
       <c r="H157" s="5">
-        <v>0.74350810951891999</v>
+        <v>0.40511385917886739</v>
       </c>
       <c r="I157" s="4">
         <v>0.20410356368741114</v>
       </c>
-      <c r="J157" s="4">
-        <v>5.3068162405204067</v>
+      <c r="J157" s="6">
+        <v>0.39181075504821439</v>
       </c>
       <c r="K157" s="4">
         <v>0.19327852903337644</v>
       </c>
-      <c r="L157" s="4">
-        <v>0.29363047175829832</v>
+      <c r="L157" s="6">
+        <v>1.0685573774994648</v>
       </c>
       <c r="M157" s="4">
         <v>1.0685573774994648</v>
@@ -7362,8 +7363,8 @@
       <c r="N157" s="4">
         <v>1.3565956393600123E-7</v>
       </c>
-      <c r="O157" s="4">
-        <v>2.2771399155951237</v>
+      <c r="O157" s="6">
+        <v>1.1351971626535569</v>
       </c>
       <c r="P157" s="4">
         <v>1.1351971626535569</v>
@@ -7374,10 +7375,10 @@
         <v>0.60838003936899154</v>
       </c>
       <c r="D158" s="5">
-        <v>1.0142027652464591</v>
+        <v>0.71933013478468488</v>
       </c>
       <c r="E158" s="5">
-        <v>0.2463656744534993</v>
+        <v>6.4116670581928917E-4</v>
       </c>
       <c r="F158" s="5">
         <v>0.6970511416291979</v>
@@ -7386,19 +7387,19 @@
         <v>0.60960769033587148</v>
       </c>
       <c r="H158" s="5">
-        <v>0.5444025450201847</v>
+        <v>0.83172378214540477</v>
       </c>
       <c r="I158" s="4">
         <v>0.21401992306108664</v>
       </c>
-      <c r="J158" s="4">
-        <v>2.855651500416251</v>
+      <c r="J158" s="6">
+        <v>0.39421046784344577</v>
       </c>
       <c r="K158" s="4">
         <v>0.1570989870416967</v>
       </c>
-      <c r="L158" s="4">
-        <v>1.2526707298701605</v>
+      <c r="L158" s="6">
+        <v>0.83039112374460045</v>
       </c>
       <c r="M158" s="4">
         <v>0.83039112374460045</v>
@@ -7406,8 +7407,8 @@
       <c r="N158" s="4">
         <v>0.39691855521551278</v>
       </c>
-      <c r="O158" s="4">
-        <v>6.9834641070349063E-2</v>
+      <c r="O158" s="6">
+        <v>0.88353277974067546</v>
       </c>
       <c r="P158" s="4">
         <v>0.88353277974067546</v>
@@ -7418,10 +7419,10 @@
         <v>0.82773117410073827</v>
       </c>
       <c r="D159" s="5">
-        <v>0.68818361348821555</v>
+        <v>0.66939557019593654</v>
       </c>
       <c r="E159" s="5">
-        <v>1.1101554874885935</v>
+        <v>0.55210665886681476</v>
       </c>
       <c r="F159" s="5">
         <v>0.60556553367709309</v>
@@ -7430,19 +7431,19 @@
         <v>0.67503278560482194</v>
       </c>
       <c r="H159" s="5">
-        <v>0.88518041071700315</v>
+        <v>0.65656799922388032</v>
       </c>
       <c r="I159" s="4">
         <v>0.18267505832946235</v>
       </c>
-      <c r="J159" s="4">
-        <v>9.1750468444892093</v>
+      <c r="J159" s="6">
+        <v>0.41160476081776032</v>
       </c>
       <c r="K159" s="4">
         <v>0.24122591235867313</v>
       </c>
-      <c r="L159" s="4">
-        <v>2.1246741473967972</v>
+      <c r="L159" s="6">
+        <v>0.91505356887053402</v>
       </c>
       <c r="M159" s="4">
         <v>0.91505356887053402</v>
@@ -7450,8 +7451,8 @@
       <c r="N159" s="4">
         <v>0.99997828235420905</v>
       </c>
-      <c r="O159" s="4">
-        <v>7.9283293780909425E-2</v>
+      <c r="O159" s="6">
+        <v>0.84659448484389399</v>
       </c>
       <c r="P159" s="4">
         <v>0.84659448484389399</v>
@@ -7462,10 +7463,10 @@
         <v>0.80389875471599215</v>
       </c>
       <c r="D160" s="5">
-        <v>0.83997203090314865</v>
+        <v>0.70371553817193089</v>
       </c>
       <c r="E160" s="5">
-        <v>0.40594821433047035</v>
+        <v>0.34063620033199765</v>
       </c>
       <c r="F160" s="5">
         <v>0.85229814250474323</v>
@@ -7474,19 +7475,19 @@
         <v>0.83123169818604836</v>
       </c>
       <c r="H160" s="5">
-        <v>1.7984865801653585</v>
+        <v>3.1263678831776276</v>
       </c>
       <c r="I160" s="4">
         <v>0.1890251803768698</v>
       </c>
-      <c r="J160" s="4">
-        <v>2.4960494772377109</v>
+      <c r="J160" s="6">
+        <v>0.37950798330274793</v>
       </c>
       <c r="K160" s="4">
         <v>0.24440781505892623</v>
       </c>
-      <c r="L160" s="4">
-        <v>3.4921896337841409</v>
+      <c r="L160" s="6">
+        <v>0.66344134222192674</v>
       </c>
       <c r="M160" s="4">
         <v>0.66344134222192674</v>
@@ -7494,8 +7495,8 @@
       <c r="N160" s="4">
         <v>0.97492635830066077</v>
       </c>
-      <c r="O160" s="4">
-        <v>0.76641088832150683</v>
+      <c r="O160" s="6">
+        <v>1.1409453068689761</v>
       </c>
       <c r="P160" s="4">
         <v>1.1409453068689761</v>
@@ -7506,10 +7507,10 @@
         <v>1.0452537706481315</v>
       </c>
       <c r="D161" s="5">
-        <v>0.70967445603116286</v>
+        <v>0.62169439655918568</v>
       </c>
       <c r="E161" s="5">
-        <v>2.9588649850600119</v>
+        <v>0.96826708575485232</v>
       </c>
       <c r="F161" s="5">
         <v>0.66080558451704152</v>
@@ -7518,19 +7519,19 @@
         <v>0.81906416965585038</v>
       </c>
       <c r="H161" s="5">
-        <v>1.2037886464960552E-2</v>
+        <v>4.6542262375262745E-2</v>
       </c>
       <c r="I161" s="4">
         <v>0.19944494151551184</v>
       </c>
-      <c r="J161" s="4">
-        <v>5.9014179572700236</v>
+      <c r="J161" s="6">
+        <v>0.42907765592599584</v>
       </c>
       <c r="K161" s="4">
         <v>0.20093813335694685</v>
       </c>
-      <c r="L161" s="4">
-        <v>3.2269586209778924</v>
+      <c r="L161" s="6">
+        <v>0.84247026866932595</v>
       </c>
       <c r="M161" s="4">
         <v>0.84247026866932595</v>
@@ -7538,8 +7539,8 @@
       <c r="N161" s="4">
         <v>0.99611039441439675</v>
       </c>
-      <c r="O161" s="4">
-        <v>0.3599478390488251</v>
+      <c r="O161" s="6">
+        <v>1.0425631810481433</v>
       </c>
       <c r="P161" s="4">
         <v>1.0425631810481433</v>
@@ -7550,10 +7551,10 @@
         <v>0.8582873678800963</v>
       </c>
       <c r="D162" s="5">
-        <v>0.67522880112762085</v>
+        <v>0.59019024589985136</v>
       </c>
       <c r="E162" s="5">
-        <v>1.9332841343993306</v>
+        <v>1.1397146241946055</v>
       </c>
       <c r="F162" s="5">
         <v>0.88603161829660759</v>
@@ -7562,19 +7563,19 @@
         <v>0.65241238430545445</v>
       </c>
       <c r="H162" s="5">
-        <v>0.51867197287349109</v>
+        <v>0.14589147883511788</v>
       </c>
       <c r="I162" s="4">
         <v>0.19039704408334301</v>
       </c>
-      <c r="J162" s="4">
-        <v>1.0131759588965878</v>
+      <c r="J162" s="6">
+        <v>0.3916449829856461</v>
       </c>
       <c r="K162" s="4">
         <v>0.14276075889636991</v>
       </c>
-      <c r="L162" s="4">
-        <v>0.34463559533704569</v>
+      <c r="L162" s="6">
+        <v>0.94732035629096079</v>
       </c>
       <c r="M162" s="4">
         <v>0.94732035629096079</v>
@@ -7582,8 +7583,8 @@
       <c r="N162" s="4">
         <v>0.92542333274644939</v>
       </c>
-      <c r="O162" s="4">
-        <v>0.80168961618956691</v>
+      <c r="O162" s="6">
+        <v>0.93291845836353837</v>
       </c>
       <c r="P162" s="4">
         <v>0.93291845836353837</v>
@@ -7594,10 +7595,10 @@
         <v>0.60861710918448408</v>
       </c>
       <c r="D163" s="5">
-        <v>0.68416420967535929</v>
+        <v>0.33930255579561519</v>
       </c>
       <c r="E163" s="5">
-        <v>1.5843509628460415</v>
+        <v>3.21378160108772</v>
       </c>
       <c r="F163" s="5">
         <v>1.1082722796149973</v>
@@ -7606,19 +7607,19 @@
         <v>0.82455459867799719</v>
       </c>
       <c r="H163" s="5">
-        <v>1.3669453175143353</v>
+        <v>1.6302661613162841</v>
       </c>
       <c r="I163" s="4">
         <v>0.18344308059128492</v>
       </c>
-      <c r="J163" s="4">
-        <v>3.1428980840137468</v>
+      <c r="J163" s="6">
+        <v>0.35788576550005097</v>
       </c>
       <c r="K163" s="4">
         <v>0.21631821978891519</v>
       </c>
-      <c r="L163" s="4">
-        <v>1.9049042112272163</v>
+      <c r="L163" s="6">
+        <v>0.93482762188244573</v>
       </c>
       <c r="M163" s="4">
         <v>0.93482762188244573</v>
@@ -7626,8 +7627,8 @@
       <c r="N163" s="4">
         <v>1.0516321031763536E-9</v>
       </c>
-      <c r="O163" s="4">
-        <v>1.0840678417683733</v>
+      <c r="O163" s="6">
+        <v>1.0520656589296846</v>
       </c>
       <c r="P163" s="4">
         <v>1.0520656589296846</v>
@@ -7638,10 +7639,10 @@
         <v>1.1020842846312831</v>
       </c>
       <c r="D164" s="5">
-        <v>0.62028152635623912</v>
+        <v>0.72004614821704771</v>
       </c>
       <c r="E164" s="5">
-        <v>0.15547592428928939</v>
+        <v>1.6130998562331704</v>
       </c>
       <c r="F164" s="5">
         <v>0.86860589972510438</v>
@@ -7650,19 +7651,19 @@
         <v>0.73403812779373712</v>
       </c>
       <c r="H164" s="5">
-        <v>1.331470048735242</v>
+        <v>1.8093654565996391</v>
       </c>
       <c r="I164" s="4">
         <v>0.20546838960656041</v>
       </c>
-      <c r="J164" s="4">
-        <v>1.6770123435164197</v>
+      <c r="J164" s="6">
+        <v>0.37185077173343217</v>
       </c>
       <c r="K164" s="4">
         <v>0.19020856618506193</v>
       </c>
-      <c r="L164" s="4">
-        <v>0.51598000454475013</v>
+      <c r="L164" s="6">
+        <v>0.6907515224957077</v>
       </c>
       <c r="M164" s="4">
         <v>0.6907515224957077</v>
@@ -7670,8 +7671,8 @@
       <c r="N164" s="4">
         <v>8.2839710830330979E-6</v>
       </c>
-      <c r="O164" s="4">
-        <v>0.22744837361930803</v>
+      <c r="O164" s="6">
+        <v>0.83234082687633926</v>
       </c>
       <c r="P164" s="4">
         <v>0.83234082687633926</v>
@@ -7682,10 +7683,10 @@
         <v>0.64840583000085417</v>
       </c>
       <c r="D165" s="5">
-        <v>0.82761421298508797</v>
+        <v>0.49384631361355347</v>
       </c>
       <c r="E165" s="5">
-        <v>0.67327405444197808</v>
+        <v>1.1918262118719556</v>
       </c>
       <c r="F165" s="5">
         <v>0.8282080922027335</v>
@@ -7694,19 +7695,19 @@
         <v>0.70885237205560292</v>
       </c>
       <c r="H165" s="5">
-        <v>0.80750899324350833</v>
+        <v>2.3072016135049958</v>
       </c>
       <c r="I165" s="4">
         <v>0.20119826344329525</v>
       </c>
-      <c r="J165" s="4">
-        <v>3.417252608750581E-2</v>
+      <c r="J165" s="6">
+        <v>0.42185276559715423</v>
       </c>
       <c r="K165" s="4">
         <v>0.21829135774143393</v>
       </c>
-      <c r="L165" s="4">
-        <v>1.5665181634613563</v>
+      <c r="L165" s="6">
+        <v>0.79101646493779176</v>
       </c>
       <c r="M165" s="4">
         <v>0.79101646493779176</v>
@@ -7714,8 +7715,8 @@
       <c r="N165" s="4">
         <v>1.190739278065153E-6</v>
       </c>
-      <c r="O165" s="4">
-        <v>9.9363567474896206E-2</v>
+      <c r="O165" s="6">
+        <v>0.87471234522339736</v>
       </c>
       <c r="P165" s="4">
         <v>0.87471234522339736</v>
@@ -7726,10 +7727,10 @@
         <v>0.61602264534391371</v>
       </c>
       <c r="D166" s="5">
-        <v>0.63045797960691818</v>
+        <v>0.79953351687816132</v>
       </c>
       <c r="E166" s="5">
-        <v>4.9751114855967042</v>
+        <v>0.17007725207748634</v>
       </c>
       <c r="F166" s="5">
         <v>0.72458724400856567</v>
@@ -7738,19 +7739,19 @@
         <v>0.56739652116967254</v>
       </c>
       <c r="H166" s="5">
-        <v>0.62362955021759958</v>
+        <v>7.3403199963823473</v>
       </c>
       <c r="I166" s="4">
         <v>0.20873706917942167</v>
       </c>
-      <c r="J166" s="4">
-        <v>1.8835579518039698</v>
+      <c r="J166" s="6">
+        <v>0.38787879700709549</v>
       </c>
       <c r="K166" s="4">
         <v>0.246720826778589</v>
       </c>
-      <c r="L166" s="4">
-        <v>1.3945655347139887</v>
+      <c r="L166" s="6">
+        <v>0.94441779307211282</v>
       </c>
       <c r="M166" s="4">
         <v>0.94441779307211282</v>
@@ -7758,8 +7759,8 @@
       <c r="N166" s="4">
         <v>8.2766468315021102E-2</v>
       </c>
-      <c r="O166" s="4">
-        <v>1.0714034555658885</v>
+      <c r="O166" s="6">
+        <v>1.060633226063987</v>
       </c>
       <c r="P166" s="4">
         <v>1.060633226063987</v>
@@ -7770,10 +7771,10 @@
         <v>0.62266595168926686</v>
       </c>
       <c r="D167" s="5">
-        <v>0.63833523038756046</v>
+        <v>0.6001953257969761</v>
       </c>
       <c r="E167" s="5">
-        <v>0.28990539351765937</v>
+        <v>0.82791319313615708</v>
       </c>
       <c r="F167" s="5">
         <v>0.49242778129800546</v>
@@ -7782,19 +7783,19 @@
         <v>0.77565043205120632</v>
       </c>
       <c r="H167" s="5">
-        <v>1.3704782536392992</v>
+        <v>0.12856730352183865</v>
       </c>
       <c r="I167" s="4">
         <v>0.19283360232365532</v>
       </c>
-      <c r="J167" s="4">
-        <v>3.2339657157468751</v>
+      <c r="J167" s="6">
+        <v>0.37835660762724932</v>
       </c>
       <c r="K167" s="4">
         <v>0.14221741779930844</v>
       </c>
-      <c r="L167" s="4">
-        <v>0.37230018567175416</v>
+      <c r="L167" s="6">
+        <v>0.82340185110108743</v>
       </c>
       <c r="M167" s="4">
         <v>0.82340185110108743</v>
@@ -7802,8 +7803,8 @@
       <c r="N167" s="4">
         <v>0.34191767873911588</v>
       </c>
-      <c r="O167" s="4">
-        <v>0.17807479136128879</v>
+      <c r="O167" s="6">
+        <v>0.88966376624301202</v>
       </c>
       <c r="P167" s="4">
         <v>0.88966376624301202</v>
@@ -7814,10 +7815,10 @@
         <v>0.95929098946573066</v>
       </c>
       <c r="D168" s="5">
-        <v>0.65438155988321234</v>
+        <v>0.7438776909146898</v>
       </c>
       <c r="E168" s="5">
-        <v>0.93329125262629054</v>
+        <v>1.2414082349656574</v>
       </c>
       <c r="F168" s="5">
         <v>0.78160288413558499</v>
@@ -7826,19 +7827,19 @@
         <v>0.71319297243754742</v>
       </c>
       <c r="H168" s="5">
-        <v>0.78063852753356289</v>
+        <v>2.4238327660059422</v>
       </c>
       <c r="I168" s="4">
         <v>0.20147037130093939</v>
       </c>
-      <c r="J168" s="4">
-        <v>1.8617331331230067</v>
+      <c r="J168" s="6">
+        <v>0.39058070423410068</v>
       </c>
       <c r="K168" s="4">
         <v>0.20648506709298031</v>
       </c>
-      <c r="L168" s="4">
-        <v>1.3907322177994044</v>
+      <c r="L168" s="6">
+        <v>0.6044912054988596</v>
       </c>
       <c r="M168" s="4">
         <v>0.6044912054988596</v>
@@ -7846,8 +7847,8 @@
       <c r="N168" s="4">
         <v>2.4666433663045718E-8</v>
       </c>
-      <c r="O168" s="4">
-        <v>0.1125299584261308</v>
+      <c r="O168" s="6">
+        <v>1.0324526433312315</v>
       </c>
       <c r="P168" s="4">
         <v>1.0324526433312315</v>
@@ -7858,10 +7859,10 @@
         <v>0.71683832030018579</v>
       </c>
       <c r="D169" s="5">
-        <v>0.87771580859697063</v>
+        <v>0.81767671445354106</v>
       </c>
       <c r="E169" s="5">
-        <v>0.10276528378589007</v>
+        <v>5.3852236707838556E-2</v>
       </c>
       <c r="F169" s="5">
         <v>0.82909665233367946</v>
@@ -7870,19 +7871,19 @@
         <v>0.73816275500464168</v>
       </c>
       <c r="H169" s="5">
-        <v>0.60327253023650274</v>
+        <v>0.41054620176748496</v>
       </c>
       <c r="I169" s="4">
         <v>0.21773503682560849</v>
       </c>
-      <c r="J169" s="4">
-        <v>0.4621932453671681</v>
+      <c r="J169" s="6">
+        <v>0.375561337055836</v>
       </c>
       <c r="K169" s="4">
         <v>0.19418447678149031</v>
       </c>
-      <c r="L169" s="4">
-        <v>1.9536191152845002</v>
+      <c r="L169" s="6">
+        <v>1.1978122875644153</v>
       </c>
       <c r="M169" s="4">
         <v>1.1978122875644153</v>
@@ -7890,8 +7891,8 @@
       <c r="N169" s="4">
         <v>6.4469368386145242E-6</v>
       </c>
-      <c r="O169" s="4">
-        <v>1.3130932307748386</v>
+      <c r="O169" s="6">
+        <v>1.0214617502362124</v>
       </c>
       <c r="P169" s="4">
         <v>1.0214617502362124</v>
@@ -7902,10 +7903,10 @@
         <v>0.74135483065519803</v>
       </c>
       <c r="D170" s="5">
-        <v>0.59918245935280956</v>
+        <v>0.81196535242981727</v>
       </c>
       <c r="E170" s="5">
-        <v>1.224089322374516</v>
+        <v>2.3656813560856649</v>
       </c>
       <c r="F170" s="5">
         <v>0.87123461150943671</v>
@@ -7914,19 +7915,19 @@
         <v>0.66622431577552876</v>
       </c>
       <c r="H170" s="5">
-        <v>0.58323122386031223</v>
+        <v>0.630201334001254</v>
       </c>
       <c r="I170" s="4">
         <v>0.21272453510123104</v>
       </c>
-      <c r="J170" s="4">
-        <v>9.3424598560117538</v>
+      <c r="J170" s="6">
+        <v>0.42645593175841928</v>
       </c>
       <c r="K170" s="4">
         <v>0.20771353222374214</v>
       </c>
-      <c r="L170" s="4">
-        <v>0.25047129730868767</v>
+      <c r="L170" s="6">
+        <v>0.8879036042502414</v>
       </c>
       <c r="M170" s="4">
         <v>0.8879036042502414</v>
@@ -7934,8 +7935,8 @@
       <c r="N170" s="4">
         <v>3.3634670476820225E-4</v>
       </c>
-      <c r="O170" s="4">
-        <v>1.7476700917864245</v>
+      <c r="O170" s="6">
+        <v>1.1618668953278268</v>
       </c>
       <c r="P170" s="4">
         <v>1.1618668953278268</v>
@@ -7946,10 +7947,10 @@
         <v>0.58010073360432002</v>
       </c>
       <c r="D171" s="5">
-        <v>0.68108062343623132</v>
+        <v>0.8693665618990043</v>
       </c>
       <c r="E171" s="5">
-        <v>1.7309119883133095</v>
+        <v>0.49285746972779904</v>
       </c>
       <c r="F171" s="5">
         <v>0.99844650034692961</v>
@@ -7958,19 +7959,19 @@
         <v>0.71710897623192738</v>
       </c>
       <c r="H171" s="5">
-        <v>1.9765967512507638</v>
+        <v>3.5662793515536077E-2</v>
       </c>
       <c r="I171" s="4">
         <v>0.20650693011582638</v>
       </c>
-      <c r="J171" s="4">
-        <v>0.54448207712397989</v>
+      <c r="J171" s="6">
+        <v>0.38319760721572343</v>
       </c>
       <c r="K171" s="4">
         <v>0.21221694399049448</v>
       </c>
-      <c r="L171" s="4">
-        <v>1.8887133164108545</v>
+      <c r="L171" s="6">
+        <v>0.94991357652712116</v>
       </c>
       <c r="M171" s="4">
         <v>0.94991357652712116</v>
@@ -7978,8 +7979,8 @@
       <c r="N171" s="4">
         <v>0.12006901408312734</v>
       </c>
-      <c r="O171" s="4">
-        <v>2.5899629643131892</v>
+      <c r="O171" s="6">
+        <v>1.0568399382706588</v>
       </c>
       <c r="P171" s="4">
         <v>1.0568399382706588</v>
@@ -7990,10 +7991,10 @@
         <v>0.69319563871836853</v>
       </c>
       <c r="D172" s="5">
-        <v>0.84594387957555672</v>
+        <v>0.66367616461779144</v>
       </c>
       <c r="E172" s="5">
-        <v>0.58784535060875265</v>
+        <v>0.54484934435002763</v>
       </c>
       <c r="F172" s="5">
         <v>0.73296281875922209</v>
@@ -8002,19 +8003,19 @@
         <v>0.61179444920348514</v>
       </c>
       <c r="H172" s="5">
-        <v>2.8278864740099738</v>
+        <v>1.2532309685779162</v>
       </c>
       <c r="I172" s="4">
         <v>0.1859866296479174</v>
       </c>
-      <c r="J172" s="4">
-        <v>11.549921491231041</v>
+      <c r="J172" s="6">
+        <v>0.41248311821177264</v>
       </c>
       <c r="K172" s="4">
         <v>0.16393909705361709</v>
       </c>
-      <c r="L172" s="4">
-        <v>2.8960002251805821</v>
+      <c r="L172" s="6">
+        <v>0.70728159965671011</v>
       </c>
       <c r="M172" s="4">
         <v>0.70728159965671011</v>
@@ -8022,8 +8023,8 @@
       <c r="N172" s="4">
         <v>0.13537750435039311</v>
       </c>
-      <c r="O172" s="4">
-        <v>3.4259365851099166</v>
+      <c r="O172" s="6">
+        <v>1.00944128073576</v>
       </c>
       <c r="P172" s="4">
         <v>1.00944128073576</v>
@@ -8034,10 +8035,10 @@
         <v>0.61343514394587395</v>
       </c>
       <c r="D173" s="5">
-        <v>0.8650387602446461</v>
+        <v>0.66485238115654011</v>
       </c>
       <c r="E173" s="5">
-        <v>0.79888300206793539</v>
+        <v>2.9520558044944054</v>
       </c>
       <c r="F173" s="5">
         <v>0.72078558178447305</v>
@@ -8046,19 +8047,19 @@
         <v>0.68661371307728747</v>
       </c>
       <c r="H173" s="5">
-        <v>0.57209718560524492</v>
+        <v>0.7010621786004686</v>
       </c>
       <c r="I173" s="4">
         <v>0.21948316320211503</v>
       </c>
-      <c r="J173" s="4">
-        <v>3.506236737117808</v>
+      <c r="J173" s="6">
+        <v>0.38949998254343299</v>
       </c>
       <c r="K173" s="4">
         <v>0.29237765660938725</v>
       </c>
-      <c r="L173" s="4">
-        <v>3.2561132497003378</v>
+      <c r="L173" s="6">
+        <v>0.86843165216854112</v>
       </c>
       <c r="M173" s="4">
         <v>0.86843165216854112</v>
@@ -8066,8 +8067,8 @@
       <c r="N173" s="4">
         <v>1.2027905038078446E-3</v>
       </c>
-      <c r="O173" s="4">
-        <v>0.24925188899296571</v>
+      <c r="O173" s="6">
+        <v>1.0735244447786318</v>
       </c>
       <c r="P173" s="4">
         <v>1.0735244447786318</v>
@@ -8078,10 +8079,10 @@
         <v>0.75787029237599346</v>
       </c>
       <c r="D174" s="5">
-        <v>0.69665407508811683</v>
+        <v>0.85863309849913338</v>
       </c>
       <c r="E174" s="5">
-        <v>1.1390970346830331</v>
+        <v>0.69768938101761357</v>
       </c>
       <c r="F174" s="5">
         <v>0.726694697216</v>
@@ -8090,19 +8091,19 @@
         <v>0.75766978440083865</v>
       </c>
       <c r="H174" s="5">
-        <v>0.2746563679607486</v>
+        <v>0.73939332827612914</v>
       </c>
       <c r="I174" s="4">
         <v>0.20578329585327115</v>
       </c>
-      <c r="J174" s="4">
-        <v>0.66087101676870963</v>
+      <c r="J174" s="6">
+        <v>0.36237516816353321</v>
       </c>
       <c r="K174" s="4">
         <v>0.2108762872167278</v>
       </c>
-      <c r="L174" s="4">
-        <v>2.1560141806779947</v>
+      <c r="L174" s="6">
+        <v>1.1386203299760262</v>
       </c>
       <c r="M174" s="4">
         <v>1.1386203299760262</v>
@@ -8110,8 +8111,8 @@
       <c r="N174" s="4">
         <v>0.99924052278119624</v>
       </c>
-      <c r="O174" s="4">
-        <v>0.59665186097337453</v>
+      <c r="O174" s="6">
+        <v>0.98844688394005931</v>
       </c>
       <c r="P174" s="4">
         <v>0.98844688394005931</v>
@@ -8122,10 +8123,10 @@
         <v>1.0792459956297313</v>
       </c>
       <c r="D175" s="5">
-        <v>0.7217266939501894</v>
+        <v>0.7100629439247873</v>
       </c>
       <c r="E175" s="5">
-        <v>0.34162839682331991</v>
+        <v>0.24335725841028319</v>
       </c>
       <c r="F175" s="5">
         <v>0.85570173832005625</v>
@@ -8134,19 +8135,19 @@
         <v>0.66122806827130054</v>
       </c>
       <c r="H175" s="5">
-        <v>4.2850395768642917</v>
+        <v>0.71651112216888924</v>
       </c>
       <c r="I175" s="4">
         <v>0.19034524505527448</v>
       </c>
-      <c r="J175" s="4">
-        <v>5.3886582201282485</v>
+      <c r="J175" s="6">
+        <v>0.40427298920500293</v>
       </c>
       <c r="K175" s="4">
         <v>0.26469363013455433</v>
       </c>
-      <c r="L175" s="4">
-        <v>2.1174630105875321</v>
+      <c r="L175" s="6">
+        <v>0.73107720264165577</v>
       </c>
       <c r="M175" s="4">
         <v>0.73107720264165577</v>
@@ -8154,8 +8155,8 @@
       <c r="N175" s="4">
         <v>0.99867953971059809</v>
       </c>
-      <c r="O175" s="4">
-        <v>6.8038392124813843E-2</v>
+      <c r="O175" s="6">
+        <v>1.0943351365840379</v>
       </c>
       <c r="P175" s="4">
         <v>1.0943351365840379</v>
@@ -8166,10 +8167,10 @@
         <v>0.8351820400238934</v>
       </c>
       <c r="D176" s="5">
-        <v>0.5706071280974081</v>
+        <v>0.81950147820401786</v>
       </c>
       <c r="E176" s="5">
-        <v>0.90823470643065729</v>
+        <v>0.1060494929095884</v>
       </c>
       <c r="F176" s="5">
         <v>0.67648249111362846</v>
@@ -8178,19 +8179,19 @@
         <v>0.75996320723163691</v>
       </c>
       <c r="H176" s="5">
-        <v>2.5619976796241288</v>
+        <v>1.7169639356912334</v>
       </c>
       <c r="I176" s="4">
         <v>0.20238620995107709</v>
       </c>
-      <c r="J176" s="4">
-        <v>4.6187387876452863</v>
+      <c r="J176" s="6">
+        <v>0.4225602283893522</v>
       </c>
       <c r="K176" s="4">
         <v>0.25927944697486288</v>
       </c>
-      <c r="L176" s="4">
-        <v>0.9032481713745204</v>
+      <c r="L176" s="6">
+        <v>1.2220475990617194</v>
       </c>
       <c r="M176" s="4">
         <v>1.2220475990617194</v>
@@ -8198,8 +8199,8 @@
       <c r="N176" s="4">
         <v>0.74117897627411433</v>
       </c>
-      <c r="O176" s="4">
-        <v>4.3166594528498144E-2</v>
+      <c r="O176" s="6">
+        <v>1.0112228218155801</v>
       </c>
       <c r="P176" s="4">
         <v>1.0112228218155801</v>
@@ -8210,10 +8211,10 @@
         <v>0.75222671241303041</v>
       </c>
       <c r="D177" s="5">
-        <v>0.6748203095490426</v>
+        <v>0.58488621667332308</v>
       </c>
       <c r="E177" s="5">
-        <v>9.9534700403511991E-2</v>
+        <v>0.64716189285472503</v>
       </c>
       <c r="F177" s="5">
         <v>0.76895707810498304</v>
@@ -8222,19 +8223,19 @@
         <v>0.72415328380432664</v>
       </c>
       <c r="H177" s="5">
-        <v>0.19788591917176598</v>
+        <v>0.13092309457199394</v>
       </c>
       <c r="I177" s="4">
         <v>0.18089704831681569</v>
       </c>
-      <c r="J177" s="4">
-        <v>4.2425575203919044</v>
+      <c r="J177" s="6">
+        <v>0.39846567356432261</v>
       </c>
       <c r="K177" s="4">
         <v>0.21624205780985969</v>
       </c>
-      <c r="L177" s="4">
-        <v>0.3175934207236728</v>
+      <c r="L177" s="6">
+        <v>1.4350813004160226</v>
       </c>
       <c r="M177" s="4">
         <v>1.4350813004160226</v>
@@ -8242,8 +8243,8 @@
       <c r="N177" s="4">
         <v>0.99999999999992772</v>
       </c>
-      <c r="O177" s="4">
-        <v>5.2146433454051955E-2</v>
+      <c r="O177" s="6">
+        <v>0.90380828368121724</v>
       </c>
       <c r="P177" s="4">
         <v>0.90380828368121724</v>
@@ -8254,10 +8255,10 @@
         <v>1.0018210126915326</v>
       </c>
       <c r="D178" s="5">
-        <v>0.79750801574370822</v>
+        <v>0.62358356632823209</v>
       </c>
       <c r="E178" s="5">
-        <v>0.64920577734858342</v>
+        <v>2.0240515361216129</v>
       </c>
       <c r="F178" s="5">
         <v>0.97008027444615452</v>
@@ -8266,19 +8267,19 @@
         <v>0.74441251865712621</v>
       </c>
       <c r="H178" s="5">
-        <v>0.45464603362950545</v>
+        <v>0.55183006212370478</v>
       </c>
       <c r="I178" s="4">
         <v>0.20572743709301455</v>
       </c>
-      <c r="J178" s="4">
-        <v>5.3277737066553934</v>
+      <c r="J178" s="6">
+        <v>0.39220574912944367</v>
       </c>
       <c r="K178" s="4">
         <v>0.21486622333538238</v>
       </c>
-      <c r="L178" s="4">
-        <v>1.1181287484537548</v>
+      <c r="L178" s="6">
+        <v>1.00931559194311</v>
       </c>
       <c r="M178" s="4">
         <v>1.00931559194311</v>
@@ -8286,8 +8287,8 @@
       <c r="N178" s="4">
         <v>1.3009682984055157E-2</v>
       </c>
-      <c r="O178" s="4">
-        <v>2.7249150500838075</v>
+      <c r="O178" s="6">
+        <v>0.99894152853562435</v>
       </c>
       <c r="P178" s="4">
         <v>0.99894152853562435</v>
@@ -8298,10 +8299,10 @@
         <v>0.83066529816691914</v>
       </c>
       <c r="D179" s="5">
-        <v>0.73325065997390393</v>
+        <v>0.55509711425718333</v>
       </c>
       <c r="E179" s="5">
-        <v>0.70956066899770254</v>
+        <v>3.6028653499550836</v>
       </c>
       <c r="F179" s="5">
         <v>0.59184282448464298</v>
@@ -8310,19 +8311,19 @@
         <v>0.72373458215309783</v>
       </c>
       <c r="H179" s="5">
-        <v>1.9238208235573242</v>
+        <v>0.33696512304223625</v>
       </c>
       <c r="I179" s="4">
         <v>0.19599128255880496</v>
       </c>
-      <c r="J179" s="4">
-        <v>4.8638986509204525</v>
+      <c r="J179" s="6">
+        <v>0.41494181492164556</v>
       </c>
       <c r="K179" s="4">
         <v>0.19801387822305294</v>
       </c>
-      <c r="L179" s="4">
-        <v>3.8559685793507712</v>
+      <c r="L179" s="6">
+        <v>0.80120457621762797</v>
       </c>
       <c r="M179" s="4">
         <v>0.80120457621762797</v>
@@ -8330,8 +8331,8 @@
       <c r="N179" s="4">
         <v>9.0459834189143707E-3</v>
       </c>
-      <c r="O179" s="4">
-        <v>2.5039382317617838</v>
+      <c r="O179" s="6">
+        <v>1.012089792308964</v>
       </c>
       <c r="P179" s="4">
         <v>1.012089792308964</v>
@@ -8342,10 +8343,10 @@
         <v>0.94883297208711992</v>
       </c>
       <c r="D180" s="5">
-        <v>0.90788677416434649</v>
+        <v>0.74088692392550193</v>
       </c>
       <c r="E180" s="5">
-        <v>0.6155439275273743</v>
+        <v>5.1367752670635314</v>
       </c>
       <c r="F180" s="5">
         <v>0.70802819181532772</v>
@@ -8354,19 +8355,19 @@
         <v>0.6783280019910285</v>
       </c>
       <c r="H180" s="5">
-        <v>0.45790042009916715</v>
+        <v>1.1595348434117956</v>
       </c>
       <c r="I180" s="4">
         <v>0.2175313877461971</v>
       </c>
-      <c r="J180" s="4">
-        <v>1.3545343751158947</v>
+      <c r="J180" s="6">
+        <v>0.41006292949388434</v>
       </c>
       <c r="K180" s="4">
         <v>0.20962713717658638</v>
       </c>
-      <c r="L180" s="4">
-        <v>1.1976090073864389</v>
+      <c r="L180" s="6">
+        <v>1.2361443668288468</v>
       </c>
       <c r="M180" s="4">
         <v>1.2361443668288468</v>
@@ -8374,8 +8375,8 @@
       <c r="N180" s="4">
         <v>1.2430967258720919E-6</v>
       </c>
-      <c r="O180" s="4">
-        <v>2.9641188836206895</v>
+      <c r="O180" s="6">
+        <v>0.96744983022989284</v>
       </c>
       <c r="P180" s="4">
         <v>0.96744983022989284</v>
@@ -8386,10 +8387,10 @@
         <v>0.48996816859894537</v>
       </c>
       <c r="D181" s="5">
-        <v>0.93319141146122597</v>
+        <v>0.79599546368897178</v>
       </c>
       <c r="E181" s="5">
-        <v>0.81601958400736618</v>
+        <v>0.65586910159464051</v>
       </c>
       <c r="F181" s="5">
         <v>0.73576730093308174</v>
@@ -8398,19 +8399,19 @@
         <v>0.69963405419523772</v>
       </c>
       <c r="H181" s="5">
-        <v>0.73967228042326649</v>
+        <v>9.8414394669025004E-2</v>
       </c>
       <c r="I181" s="4">
         <v>0.20221012983116229</v>
       </c>
-      <c r="J181" s="4">
-        <v>3.7306641135853917</v>
+      <c r="J181" s="6">
+        <v>0.41893527096039779</v>
       </c>
       <c r="K181" s="4">
         <v>0.1848613458011607</v>
       </c>
-      <c r="L181" s="4">
-        <v>1.4153604587400326</v>
+      <c r="L181" s="6">
+        <v>1.1085365063015729</v>
       </c>
       <c r="M181" s="4">
         <v>1.1085365063015729</v>
@@ -8418,8 +8419,8 @@
       <c r="N181" s="4">
         <v>0.99999999925601579</v>
       </c>
-      <c r="O181" s="4">
-        <v>1.3903328071168612</v>
+      <c r="O181" s="6">
+        <v>1.0374974968253539</v>
       </c>
       <c r="P181" s="4">
         <v>1.0374974968253539</v>
@@ -8430,10 +8431,10 @@
         <v>1.0300042194969738</v>
       </c>
       <c r="D182" s="5">
-        <v>0.67196834834944164</v>
+        <v>0.71376167422741621</v>
       </c>
       <c r="E182" s="5">
-        <v>1.3877336818843624</v>
+        <v>0.2993639730293895</v>
       </c>
       <c r="F182" s="5">
         <v>0.87243863576195091</v>
@@ -8442,19 +8443,19 @@
         <v>0.62736141663169254</v>
       </c>
       <c r="H182" s="5">
-        <v>1.6779921424980665E-2</v>
+        <v>1.9371403741121795</v>
       </c>
       <c r="I182" s="4">
         <v>0.19246924738153121</v>
       </c>
-      <c r="J182" s="4">
-        <v>1.8432124679945416</v>
+      <c r="J182" s="6">
+        <v>0.38675318470432485</v>
       </c>
       <c r="K182" s="4">
         <v>0.21081329748115438</v>
       </c>
-      <c r="L182" s="4">
-        <v>1.2216491790310597</v>
+      <c r="L182" s="6">
+        <v>0.83875674856731419</v>
       </c>
       <c r="M182" s="4">
         <v>0.83875674856731419</v>
@@ -8462,8 +8463,8 @@
       <c r="N182" s="4">
         <v>4.8084582105141987E-4</v>
       </c>
-      <c r="O182" s="4">
-        <v>0.47322175390128024</v>
+      <c r="O182" s="6">
+        <v>1.0490751330503878</v>
       </c>
       <c r="P182" s="4">
         <v>1.0490751330503878</v>
@@ -8474,10 +8475,10 @@
         <v>0.96587541119135589</v>
       </c>
       <c r="D183" s="5">
-        <v>0.63280152041096371</v>
+        <v>0.7367765555955893</v>
       </c>
       <c r="E183" s="5">
-        <v>1.1208585026145632</v>
+        <v>2.0658609950022755</v>
       </c>
       <c r="F183" s="5">
         <v>0.56717177552660425</v>
@@ -8486,19 +8487,19 @@
         <v>0.74810140504295586</v>
       </c>
       <c r="H183" s="5">
-        <v>0.70096986853178056</v>
+        <v>0.99300466301527757</v>
       </c>
       <c r="I183" s="4">
         <v>0.17869537396911794</v>
       </c>
-      <c r="J183" s="4">
-        <v>3.4761105886790675</v>
+      <c r="J183" s="6">
+        <v>0.39274857827180337</v>
       </c>
       <c r="K183" s="4">
         <v>0.25410079051035223</v>
       </c>
-      <c r="L183" s="4">
-        <v>0.43520221351135613</v>
+      <c r="L183" s="6">
+        <v>0.88213362793883843</v>
       </c>
       <c r="M183" s="4">
         <v>0.88213362793883843</v>
@@ -8506,8 +8507,8 @@
       <c r="N183" s="4">
         <v>0.41878316671020199</v>
       </c>
-      <c r="O183" s="4">
-        <v>0.64875788279687996</v>
+      <c r="O183" s="6">
+        <v>1.0611328031193348</v>
       </c>
       <c r="P183" s="4">
         <v>1.0611328031193348</v>
@@ -8518,10 +8519,10 @@
         <v>1.0946945530659864</v>
       </c>
       <c r="D184" s="5">
-        <v>0.67784793072916938</v>
+        <v>0.75029678918239873</v>
       </c>
       <c r="E184" s="5">
-        <v>0.26631266533155135</v>
+        <v>0.36758610081825954</v>
       </c>
       <c r="F184" s="5">
         <v>0.88678234720254134</v>
@@ -8530,19 +8531,19 @@
         <v>0.67423092325962519</v>
       </c>
       <c r="H184" s="5">
-        <v>0.52480641126944028</v>
+        <v>1.8341906663044174</v>
       </c>
       <c r="I184" s="4">
         <v>0.19059317434926151</v>
       </c>
-      <c r="J184" s="4">
-        <v>1.2166579703981102</v>
+      <c r="J184" s="6">
+        <v>0.39989604464047018</v>
       </c>
       <c r="K184" s="4">
         <v>0.14947667118434765</v>
       </c>
-      <c r="L184" s="4">
-        <v>2.2929724713284614</v>
+      <c r="L184" s="6">
+        <v>1.0503971397946312</v>
       </c>
       <c r="M184" s="4">
         <v>1.0503971397946312</v>
@@ -8550,8 +8551,8 @@
       <c r="N184" s="4">
         <v>0.90748001636085218</v>
       </c>
-      <c r="O184" s="4">
-        <v>1.468827508844633</v>
+      <c r="O184" s="6">
+        <v>1.0686218355567407</v>
       </c>
       <c r="P184" s="4">
         <v>1.0686218355567407</v>
@@ -8562,10 +8563,10 @@
         <v>0.74389731421498861</v>
       </c>
       <c r="D185" s="5">
-        <v>0.75300731575161461</v>
+        <v>0.93545023654041026</v>
       </c>
       <c r="E185" s="5">
-        <v>0.59261311493018731</v>
+        <v>0.29789342430645288</v>
       </c>
       <c r="F185" s="5">
         <v>0.70711559524455614</v>
@@ -8574,19 +8575,19 @@
         <v>0.81184997573581874</v>
       </c>
       <c r="H185" s="5">
-        <v>0.4819579982733046</v>
+        <v>0.60271642980696938</v>
       </c>
       <c r="I185" s="4">
         <v>0.17330192398672872</v>
       </c>
-      <c r="J185" s="4">
-        <v>1.6403748315807523</v>
+      <c r="J185" s="6">
+        <v>0.40647948167712222</v>
       </c>
       <c r="K185" s="4">
         <v>0.20118250177896002</v>
       </c>
-      <c r="L185" s="4">
-        <v>3.0933370023329099</v>
+      <c r="L185" s="6">
+        <v>0.95312338722525314</v>
       </c>
       <c r="M185" s="4">
         <v>0.95312338722525314</v>
@@ -8594,8 +8595,8 @@
       <c r="N185" s="4">
         <v>0.76696158755522137</v>
       </c>
-      <c r="O185" s="4">
-        <v>0.42009635971654063</v>
+      <c r="O185" s="6">
+        <v>1.079347332600217</v>
       </c>
       <c r="P185" s="4">
         <v>1.079347332600217</v>
@@ -8606,10 +8607,10 @@
         <v>0.80381442585147855</v>
       </c>
       <c r="D186" s="5">
-        <v>0.64706458476880357</v>
+        <v>0.89365196514529388</v>
       </c>
       <c r="E186" s="5">
-        <v>7.3217114200335678E-2</v>
+        <v>1.3557258158223724</v>
       </c>
       <c r="F186" s="5">
         <v>0.844939474388957</v>
@@ -8618,19 +8619,19 @@
         <v>0.70180470152323182</v>
       </c>
       <c r="H186" s="5">
-        <v>9.8622320431249355E-2</v>
+        <v>1.4159131485215113</v>
       </c>
       <c r="I186" s="4">
         <v>0.18682742903138316</v>
       </c>
-      <c r="J186" s="4">
-        <v>0.7996105078246839</v>
+      <c r="J186" s="6">
+        <v>0.36662919626878843</v>
       </c>
       <c r="K186" s="4">
         <v>0.18729712029670886</v>
       </c>
-      <c r="L186" s="4">
-        <v>1.8139033130071212</v>
+      <c r="L186" s="6">
+        <v>1.2474273607548456</v>
       </c>
       <c r="M186" s="4">
         <v>1.2474273607548456</v>
@@ -8638,8 +8639,8 @@
       <c r="N186" s="4">
         <v>2.7837161607066733E-7</v>
       </c>
-      <c r="O186" s="4">
-        <v>1.9747689329484988</v>
+      <c r="O186" s="6">
+        <v>1.0593572547373502</v>
       </c>
       <c r="P186" s="4">
         <v>1.0593572547373502</v>
@@ -8650,10 +8651,10 @@
         <v>0.94025558447858393</v>
       </c>
       <c r="D187" s="5">
-        <v>0.71521224565280128</v>
+        <v>0.76016743698263012</v>
       </c>
       <c r="E187" s="5">
-        <v>0.59144919103425708</v>
+        <v>0.74573018573322947</v>
       </c>
       <c r="F187" s="5">
         <v>0.70565595716552287</v>
@@ -8662,19 +8663,19 @@
         <v>0.72586104473127588</v>
       </c>
       <c r="H187" s="5">
-        <v>2.6911230317279662</v>
+        <v>0.6848975260067548</v>
       </c>
       <c r="I187" s="4">
         <v>0.20000115201792934</v>
       </c>
-      <c r="J187" s="4">
-        <v>0.31963454387785833</v>
+      <c r="J187" s="6">
+        <v>0.4047240756707276</v>
       </c>
       <c r="K187" s="4">
         <v>0.20854211389865773</v>
       </c>
-      <c r="L187" s="4">
-        <v>0.31441298069380885</v>
+      <c r="L187" s="6">
+        <v>1.1330452363775543</v>
       </c>
       <c r="M187" s="4">
         <v>1.1330452363775543</v>
@@ -8682,8 +8683,8 @@
       <c r="N187" s="4">
         <v>0.57634786381907166</v>
       </c>
-      <c r="O187" s="4">
-        <v>3.6978274684419663</v>
+      <c r="O187" s="6">
+        <v>1.0118384872560429</v>
       </c>
       <c r="P187" s="4">
         <v>1.0118384872560429</v>
@@ -8694,10 +8695,10 @@
         <v>0.59718512798495949</v>
       </c>
       <c r="D188" s="5">
-        <v>0.85471210398648112</v>
+        <v>0.64407751646817468</v>
       </c>
       <c r="E188" s="5">
-        <v>3.6955088148282207</v>
+        <v>1.4045227324715173</v>
       </c>
       <c r="F188" s="5">
         <v>0.56347459109938258</v>
@@ -8706,19 +8707,19 @@
         <v>0.67802036609804939</v>
       </c>
       <c r="H188" s="5">
-        <v>0.58687969929805228</v>
+        <v>2.518604156053641</v>
       </c>
       <c r="I188" s="4">
         <v>0.21576682799126851</v>
       </c>
-      <c r="J188" s="4">
-        <v>0.21883869338803505</v>
+      <c r="J188" s="6">
+        <v>0.3518057402241716</v>
       </c>
       <c r="K188" s="4">
         <v>0.21729311674402996</v>
       </c>
-      <c r="L188" s="4">
-        <v>1.0457951973494224</v>
+      <c r="L188" s="6">
+        <v>1.2355054462635682</v>
       </c>
       <c r="M188" s="4">
         <v>1.2355054462635682</v>
@@ -8726,8 +8727,8 @@
       <c r="N188" s="4">
         <v>0.99999590259704507</v>
       </c>
-      <c r="O188" s="4">
-        <v>0.55850923980124945</v>
+      <c r="O188" s="6">
+        <v>0.89686514074977364</v>
       </c>
       <c r="P188" s="4">
         <v>0.89686514074977364</v>
@@ -8738,10 +8739,10 @@
         <v>0.96996690242734762</v>
       </c>
       <c r="D189" s="5">
-        <v>0.71066187257875857</v>
+        <v>0.74473713589102708</v>
       </c>
       <c r="E189" s="5">
-        <v>0.91133516007080806</v>
+        <v>0.56952363612149326</v>
       </c>
       <c r="F189" s="5">
         <v>0.72858103997930734</v>
@@ -8750,19 +8751,19 @@
         <v>0.7144366248970071</v>
       </c>
       <c r="H189" s="5">
-        <v>2.2818273049944566</v>
+        <v>0.64080846535402081</v>
       </c>
       <c r="I189" s="4">
         <v>0.19536291770656813</v>
       </c>
-      <c r="J189" s="4">
-        <v>0.98646467382901271</v>
+      <c r="J189" s="6">
+        <v>0.4345556553851907</v>
       </c>
       <c r="K189" s="4">
         <v>0.24826450207532588</v>
       </c>
-      <c r="L189" s="4">
-        <v>0.68455974688811794</v>
+      <c r="L189" s="6">
+        <v>0.96477717623551307</v>
       </c>
       <c r="M189" s="4">
         <v>0.96477717623551307</v>
@@ -8770,8 +8771,8 @@
       <c r="N189" s="4">
         <v>0.71855068717432813</v>
       </c>
-      <c r="O189" s="4">
-        <v>1.3095383691400673</v>
+      <c r="O189" s="6">
+        <v>0.92187446947837526</v>
       </c>
       <c r="P189" s="4">
         <v>0.92187446947837526</v>
@@ -8782,10 +8783,10 @@
         <v>0.58421985248700237</v>
       </c>
       <c r="D190" s="5">
-        <v>0.69400898797919219</v>
+        <v>0.87973021209520663</v>
       </c>
       <c r="E190" s="5">
-        <v>1.5714893495556888</v>
+        <v>1.9796037649212483</v>
       </c>
       <c r="F190" s="5">
         <v>0.8230382055538884</v>
@@ -8794,19 +8795,19 @@
         <v>0.74749122024460279</v>
       </c>
       <c r="H190" s="5">
-        <v>2.1388001654694424</v>
+        <v>1.644792260666422</v>
       </c>
       <c r="I190" s="4">
         <v>0.20112661315463443</v>
       </c>
-      <c r="J190" s="4">
-        <v>3.5080326889620697</v>
+      <c r="J190" s="6">
+        <v>0.38793965989811363</v>
       </c>
       <c r="K190" s="4">
         <v>0.21072698989311556</v>
       </c>
-      <c r="L190" s="4">
-        <v>1.3714125810849676</v>
+      <c r="L190" s="6">
+        <v>0.93744408829484716</v>
       </c>
       <c r="M190" s="4">
         <v>0.93744408829484716</v>
@@ -8814,8 +8815,8 @@
       <c r="N190" s="4">
         <v>4.0218187192834981E-3</v>
       </c>
-      <c r="O190" s="4">
-        <v>3.4061772608772105</v>
+      <c r="O190" s="6">
+        <v>0.96605083554887572</v>
       </c>
       <c r="P190" s="4">
         <v>0.96605083554887572</v>
@@ -8826,10 +8827,10 @@
         <v>0.90138546112237128</v>
       </c>
       <c r="D191" s="5">
-        <v>0.73973999943962088</v>
+        <v>0.87002494580018752</v>
       </c>
       <c r="E191" s="5">
-        <v>0.68641059338908972</v>
+        <v>0.26391615217469644</v>
       </c>
       <c r="F191" s="5">
         <v>0.7799401496831353</v>
@@ -8838,19 +8839,19 @@
         <v>0.64687909526977594</v>
       </c>
       <c r="H191" s="5">
-        <v>0.33753539419821044</v>
+        <v>0.85216679728707612</v>
       </c>
       <c r="I191" s="4">
         <v>0.18639718185990767</v>
       </c>
-      <c r="J191" s="4">
-        <v>5.7134743660392608</v>
+      <c r="J191" s="6">
+        <v>0.40703779001875379</v>
       </c>
       <c r="K191" s="4">
         <v>0.20067183678943448</v>
       </c>
-      <c r="L191" s="4">
-        <v>0.2402543450163519</v>
+      <c r="L191" s="6">
+        <v>1.2767500275978132</v>
       </c>
       <c r="M191" s="4">
         <v>1.2767500275978132</v>
@@ -8858,8 +8859,8 @@
       <c r="N191" s="4">
         <v>0.58261966408326538</v>
       </c>
-      <c r="O191" s="4">
-        <v>2.0878076917994894</v>
+      <c r="O191" s="6">
+        <v>1.0661104799178249</v>
       </c>
       <c r="P191" s="4">
         <v>1.0661104799178249</v>
@@ -8870,10 +8871,10 @@
         <v>0.66945762876881931</v>
       </c>
       <c r="D192" s="5">
-        <v>0.57154201410131222</v>
+        <v>0.64020282407115447</v>
       </c>
       <c r="E192" s="5">
-        <v>9.9320676377221334E-2</v>
+        <v>0.37713683626777983</v>
       </c>
       <c r="F192" s="5">
         <v>0.66686050991682955</v>
@@ -8882,19 +8883,19 @@
         <v>0.75874797849093023</v>
       </c>
       <c r="H192" s="5">
-        <v>1.8571126155453408</v>
+        <v>1.441142627287521</v>
       </c>
       <c r="I192" s="4">
         <v>0.20367506026377932</v>
       </c>
-      <c r="J192" s="4">
-        <v>1.8358098181971134</v>
+      <c r="J192" s="6">
+        <v>0.41570893871816006</v>
       </c>
       <c r="K192" s="4">
         <v>0.21334631414057004</v>
       </c>
-      <c r="L192" s="4">
-        <v>0.72249996968162078</v>
+      <c r="L192" s="6">
+        <v>0.77725463841567732</v>
       </c>
       <c r="M192" s="4">
         <v>0.77725463841567732</v>
@@ -8902,8 +8903,8 @@
       <c r="N192" s="4">
         <v>1.0134840758527682E-8</v>
       </c>
-      <c r="O192" s="4">
-        <v>1.1010657537065163</v>
+      <c r="O192" s="6">
+        <v>0.93905853689996932</v>
       </c>
       <c r="P192" s="4">
         <v>0.93905853689996932</v>
@@ -8914,10 +8915,10 @@
         <v>0.75759958993236798</v>
       </c>
       <c r="D193" s="5">
-        <v>0.69687937213901541</v>
+        <v>0.57127337127117483</v>
       </c>
       <c r="E193" s="5">
-        <v>1.8794579831427107</v>
+        <v>1.061589268707507E-2</v>
       </c>
       <c r="F193" s="5">
         <v>0.72706557712093423</v>
@@ -8926,19 +8927,19 @@
         <v>0.76313375806555028</v>
       </c>
       <c r="H193" s="5">
-        <v>0.30121912801245554</v>
+        <v>0.18350069176462419</v>
       </c>
       <c r="I193" s="4">
         <v>0.20436259959900177</v>
       </c>
-      <c r="J193" s="4">
-        <v>3.8493571045444397</v>
+      <c r="J193" s="6">
+        <v>0.38706653738410479</v>
       </c>
       <c r="K193" s="4">
         <v>0.24287391190809773</v>
       </c>
-      <c r="L193" s="4">
-        <v>0.43979972763064579</v>
+      <c r="L193" s="6">
+        <v>0.95893051546433239</v>
       </c>
       <c r="M193" s="4">
         <v>0.95893051546433239</v>
@@ -8946,8 +8947,8 @@
       <c r="N193" s="4">
         <v>0.87507308915532545</v>
       </c>
-      <c r="O193" s="4">
-        <v>1.0059210605644946</v>
+      <c r="O193" s="6">
+        <v>0.95798414200400361</v>
       </c>
       <c r="P193" s="4">
         <v>0.95798414200400361</v>
@@ -8958,10 +8959,10 @@
         <v>0.71518771347644639</v>
       </c>
       <c r="D194" s="5">
-        <v>0.67352507001218465</v>
+        <v>0.58701039872995264</v>
       </c>
       <c r="E194" s="5">
-        <v>1.4538222045223841</v>
+        <v>2.5169044615863951</v>
       </c>
       <c r="F194" s="5">
         <v>0.61136560086864922</v>
@@ -8970,19 +8971,19 @@
         <v>0.79272415696921383</v>
       </c>
       <c r="H194" s="5">
-        <v>2.2123762320181841</v>
+        <v>0.35898524368285112</v>
       </c>
       <c r="I194" s="4">
         <v>0.22026094216787045</v>
       </c>
-      <c r="J194" s="4">
-        <v>3.9824905590893627</v>
+      <c r="J194" s="6">
+        <v>0.40949590750067227</v>
       </c>
       <c r="K194" s="4">
         <v>0.15188758874986344</v>
       </c>
-      <c r="L194" s="4">
-        <v>0.33810217829155398</v>
+      <c r="L194" s="6">
+        <v>0.91156517719271135</v>
       </c>
       <c r="M194" s="4">
         <v>0.91156517719271135</v>
@@ -8990,8 +8991,8 @@
       <c r="N194" s="4">
         <v>0.19153487681856424</v>
       </c>
-      <c r="O194" s="4">
-        <v>2.4060099423270254</v>
+      <c r="O194" s="6">
+        <v>1.0461532865717638</v>
       </c>
       <c r="P194" s="4">
         <v>1.0461532865717638</v>
@@ -9002,10 +9003,10 @@
         <v>1.0422324767579765</v>
       </c>
       <c r="D195" s="5">
-        <v>0.5750654105487959</v>
+        <v>0.6494885559210376</v>
       </c>
       <c r="E195" s="5">
-        <v>3.0993945190100902</v>
+        <v>1.3037755559131048</v>
       </c>
       <c r="F195" s="5">
         <v>0.76173438205363331</v>
@@ -9014,19 +9015,19 @@
         <v>0.71009923774727313</v>
       </c>
       <c r="H195" s="5">
-        <v>0.54735858079623212</v>
+        <v>1.7953812690050446</v>
       </c>
       <c r="I195" s="4">
         <v>0.20249451362819607</v>
       </c>
-      <c r="J195" s="4">
-        <v>0.36133663732657173</v>
+      <c r="J195" s="6">
+        <v>0.37561720251356828</v>
       </c>
       <c r="K195" s="4">
         <v>0.17333222601716664</v>
       </c>
-      <c r="L195" s="4">
-        <v>0.1921752335047518</v>
+      <c r="L195" s="6">
+        <v>1.013025849227684</v>
       </c>
       <c r="M195" s="4">
         <v>1.013025849227684</v>
@@ -9034,8 +9035,8 @@
       <c r="N195" s="4">
         <v>0.95473157551463306</v>
       </c>
-      <c r="O195" s="4">
-        <v>0.29989736594235966</v>
+      <c r="O195" s="6">
+        <v>0.99927745547318148</v>
       </c>
       <c r="P195" s="4">
         <v>0.99927745547318148</v>
@@ -9046,10 +9047,10 @@
         <v>0.65705676382482325</v>
       </c>
       <c r="D196" s="5">
-        <v>0.74235937482056014</v>
+        <v>0.86607001363747682</v>
       </c>
       <c r="E196" s="5">
-        <v>0.16463181720182513</v>
+        <v>0.48853529421931619</v>
       </c>
       <c r="F196" s="5">
         <v>0.61235070950136739</v>
@@ -9058,19 +9059,19 @@
         <v>0.71858928953422541</v>
       </c>
       <c r="H196" s="5">
-        <v>0.14951895173831067</v>
+        <v>0.84762677175218959</v>
       </c>
       <c r="I196" s="4">
         <v>0.20029106678765596</v>
       </c>
-      <c r="J196" s="4">
-        <v>10.345709668387803</v>
+      <c r="J196" s="6">
+        <v>0.39644809440584056</v>
       </c>
       <c r="K196" s="4">
         <v>0.26758253192299541</v>
       </c>
-      <c r="L196" s="4">
-        <v>1.5680747099707082</v>
+      <c r="L196" s="6">
+        <v>0.72820878143303269</v>
       </c>
       <c r="M196" s="4">
         <v>0.72820878143303269</v>
@@ -9078,8 +9079,8 @@
       <c r="N196" s="4">
         <v>2.7504970053677845E-3</v>
       </c>
-      <c r="O196" s="4">
-        <v>1.8278233298188189</v>
+      <c r="O196" s="6">
+        <v>1.1107832269615536</v>
       </c>
       <c r="P196" s="4">
         <v>1.1107832269615536</v>
@@ -9090,10 +9091,10 @@
         <v>0.35847857967921359</v>
       </c>
       <c r="D197" s="5">
-        <v>0.84126379698195652</v>
+        <v>0.69773187655164193</v>
       </c>
       <c r="E197" s="5">
-        <v>0.24907959729713797</v>
+        <v>2.2782480446767739</v>
       </c>
       <c r="F197" s="5">
         <v>0.75365057493722909</v>
@@ -9102,19 +9103,19 @@
         <v>0.75013884317141188</v>
       </c>
       <c r="H197" s="5">
-        <v>0.29270132643502295</v>
+        <v>1.5969377195828105</v>
       </c>
       <c r="I197" s="4">
         <v>0.18849807138918356</v>
       </c>
-      <c r="J197" s="4">
-        <v>0.20246916339901061</v>
+      <c r="J197" s="6">
+        <v>0.41599208194218568</v>
       </c>
       <c r="K197" s="4">
         <v>0.22890656301055598</v>
       </c>
-      <c r="L197" s="4">
-        <v>9.1485968230629322E-2</v>
+      <c r="L197" s="6">
+        <v>0.76529818450009302</v>
       </c>
       <c r="M197" s="4">
         <v>0.76529818450009302</v>
@@ -9122,8 +9123,8 @@
       <c r="N197" s="4">
         <v>0.3646271642758474</v>
       </c>
-      <c r="O197" s="4">
-        <v>3.0342444633540278</v>
+      <c r="O197" s="6">
+        <v>0.92714527542427505</v>
       </c>
       <c r="P197" s="4">
         <v>0.92714527542427505</v>
@@ -9134,10 +9135,10 @@
         <v>0.47031967225498872</v>
       </c>
       <c r="D198" s="5">
-        <v>0.78966975683762985</v>
+        <v>0.97905397673175298</v>
       </c>
       <c r="E198" s="5">
-        <v>0.75873965459992754</v>
+        <v>4.223642246787537</v>
       </c>
       <c r="F198" s="5">
         <v>0.71463365533565859</v>
@@ -9146,19 +9147,19 @@
         <v>0.64835089818987135</v>
       </c>
       <c r="H198" s="5">
-        <v>0.11264719129431225</v>
+        <v>2.4710688010593622</v>
       </c>
       <c r="I198" s="4">
         <v>0.22424909610667598</v>
       </c>
-      <c r="J198" s="4">
-        <v>8.168697998247354E-2</v>
+      <c r="J198" s="6">
+        <v>0.41502336768390324</v>
       </c>
       <c r="K198" s="4">
         <v>0.23250479303189642</v>
       </c>
-      <c r="L198" s="4">
-        <v>2.0085958889494364</v>
+      <c r="L198" s="6">
+        <v>1.0377354698701624</v>
       </c>
       <c r="M198" s="4">
         <v>1.0377354698701624</v>
@@ -9166,8 +9167,8 @@
       <c r="N198" s="4">
         <v>0.99999999999997191</v>
       </c>
-      <c r="O198" s="4">
-        <v>2.4269254007375509</v>
+      <c r="O198" s="6">
+        <v>0.98314730887871582</v>
       </c>
       <c r="P198" s="4">
         <v>0.98314730887871582</v>

--- a/dream/KnowledgeExtraction/KEtool_examples/KE tool&GUI/test_data.xlsx
+++ b/dream/KnowledgeExtraction/KEtool_examples/KE tool&GUI/test_data.xlsx
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="S186" sqref="S186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
         <v>0.21430665422460365</v>
       </c>
       <c r="J2" s="6">
-        <v>0.3955889589552477</v>
+        <v>0.40936212999999999</v>
       </c>
       <c r="K2" s="4">
         <v>0.19843493323223443</v>
@@ -573,7 +573,7 @@
         <v>0.18271264720431088</v>
       </c>
       <c r="J3" s="6">
-        <v>0.42649778359616775</v>
+        <v>0.42562534000000002</v>
       </c>
       <c r="K3" s="4">
         <v>0.21274455776912232</v>
@@ -617,7 +617,7 @@
         <v>0.20320609659322039</v>
       </c>
       <c r="J4" s="6">
-        <v>0.39301367057050623</v>
+        <v>0.39069166999999999</v>
       </c>
       <c r="K4" s="4">
         <v>0.18633704936902057</v>
@@ -661,7 +661,7 @@
         <v>0.18694682101538951</v>
       </c>
       <c r="J5" s="6">
-        <v>0.4019453292011545</v>
+        <v>0.38563217999999999</v>
       </c>
       <c r="K5" s="4">
         <v>0.22397557022050191</v>
@@ -705,7 +705,7 @@
         <v>0.20109890704224292</v>
       </c>
       <c r="J6" s="6">
-        <v>0.3845894908703813</v>
+        <v>0.40100604000000001</v>
       </c>
       <c r="K6" s="4">
         <v>0.19445262678826372</v>
@@ -749,7 +749,7 @@
         <v>0.20513816776641247</v>
       </c>
       <c r="J7" s="6">
-        <v>0.39990148762387445</v>
+        <v>0.35835318999999999</v>
       </c>
       <c r="K7" s="4">
         <v>0.21545850419338844</v>
@@ -793,7 +793,7 @@
         <v>0.19742886444462499</v>
       </c>
       <c r="J8" s="6">
-        <v>0.42991191960808406</v>
+        <v>0.39890998</v>
       </c>
       <c r="K8" s="4">
         <v>0.18733962061028808</v>
@@ -837,7 +837,7 @@
         <v>0.18917336257675144</v>
       </c>
       <c r="J9" s="6">
-        <v>0.35665522871161215</v>
+        <v>0.41519472000000002</v>
       </c>
       <c r="K9" s="4">
         <v>0.24954856371376186</v>
@@ -881,7 +881,7 @@
         <v>0.21835937226294436</v>
       </c>
       <c r="J10" s="6">
-        <v>0.41731426652706211</v>
+        <v>0.43680103999999997</v>
       </c>
       <c r="K10" s="4">
         <v>0.17037972567371762</v>
@@ -925,7 +925,7 @@
         <v>0.18925372605729637</v>
       </c>
       <c r="J11" s="6">
-        <v>0.38481283349002104</v>
+        <v>0.39468340000000002</v>
       </c>
       <c r="K11" s="4">
         <v>0.20508218404527631</v>
@@ -969,7 +969,7 @@
         <v>0.19808408965287416</v>
       </c>
       <c r="J12" s="6">
-        <v>0.37993231610889339</v>
+        <v>0.40561253000000003</v>
       </c>
       <c r="K12" s="4">
         <v>0.17232445104995658</v>
@@ -1013,7 +1013,7 @@
         <v>0.20589921402202824</v>
       </c>
       <c r="J13" s="6">
-        <v>0.41232733681357209</v>
+        <v>0.38531048000000001</v>
       </c>
       <c r="K13" s="4">
         <v>0.27148449346309211</v>
@@ -1057,7 +1057,7 @@
         <v>0.20023569816610393</v>
       </c>
       <c r="J14" s="6">
-        <v>0.39231779363347585</v>
+        <v>0.37984444000000001</v>
       </c>
       <c r="K14" s="4">
         <v>0.17596249523602767</v>
@@ -1101,7 +1101,7 @@
         <v>0.19390239986196992</v>
       </c>
       <c r="J15" s="6">
-        <v>0.40258676374187924</v>
+        <v>0.38283815999999998</v>
       </c>
       <c r="K15" s="4">
         <v>0.26139444337955198</v>
@@ -1145,7 +1145,7 @@
         <v>0.20293219720027983</v>
       </c>
       <c r="J16" s="6">
-        <v>0.40945002602018321</v>
+        <v>0.37544364000000002</v>
       </c>
       <c r="K16" s="4">
         <v>0.20980759877318347</v>
@@ -1189,7 +1189,7 @@
         <v>0.21313443690746167</v>
       </c>
       <c r="J17" s="6">
-        <v>0.40997095263105615</v>
+        <v>0.39981849000000003</v>
       </c>
       <c r="K17" s="4">
         <v>0.2652251142613577</v>
@@ -1233,7 +1233,7 @@
         <v>0.19630564676661744</v>
       </c>
       <c r="J18" s="6">
-        <v>0.41297899060037191</v>
+        <v>0.40134747999999998</v>
       </c>
       <c r="K18" s="4">
         <v>0.19298572772375194</v>
@@ -1277,7 +1277,7 @@
         <v>0.22594447288021149</v>
       </c>
       <c r="J19" s="6">
-        <v>0.38863889031096865</v>
+        <v>0.37618108</v>
       </c>
       <c r="K19" s="4">
         <v>0.21279892076733017</v>
@@ -1321,7 +1321,7 @@
         <v>0.18779158924605685</v>
       </c>
       <c r="J20" s="6">
-        <v>0.36120723433801072</v>
+        <v>0.38233539</v>
       </c>
       <c r="K20" s="4">
         <v>0.27332621534699036</v>
@@ -1365,7 +1365,7 @@
         <v>0.19585887698390295</v>
       </c>
       <c r="J21" s="6">
-        <v>0.40259440418188475</v>
+        <v>0.39975722000000002</v>
       </c>
       <c r="K21" s="4">
         <v>0.23105245911138048</v>
@@ -1409,7 +1409,7 @@
         <v>0.18667439091288179</v>
       </c>
       <c r="J22" s="6">
-        <v>0.38825900384656992</v>
+        <v>0.39098460000000002</v>
       </c>
       <c r="K22" s="4">
         <v>0.26596187027150681</v>
@@ -1453,7 +1453,7 @@
         <v>0.21004213453979467</v>
       </c>
       <c r="J23" s="6">
-        <v>0.39907148876884518</v>
+        <v>0.41997444</v>
       </c>
       <c r="K23" s="4">
         <v>0.29780992229057524</v>
@@ -1497,7 +1497,7 @@
         <v>0.19274924206006352</v>
       </c>
       <c r="J24" s="6">
-        <v>0.44750337808537211</v>
+        <v>0.38245828999999998</v>
       </c>
       <c r="K24" s="4">
         <v>0.19147030334893722</v>
@@ -1541,7 +1541,7 @@
         <v>0.20951120705585041</v>
       </c>
       <c r="J25" s="6">
-        <v>0.39839244858792278</v>
+        <v>0.38979007999999998</v>
       </c>
       <c r="K25" s="4">
         <v>0.19349497819337286</v>
@@ -1585,7 +1585,7 @@
         <v>0.19345006811036872</v>
       </c>
       <c r="J26" s="6">
-        <v>0.39405528774714449</v>
+        <v>0.42461687999999997</v>
       </c>
       <c r="K26" s="4">
         <v>0.23236113393098701</v>
@@ -1629,7 +1629,7 @@
         <v>0.20110054935616831</v>
       </c>
       <c r="J27" s="6">
-        <v>0.41037190128367285</v>
+        <v>0.42671687000000003</v>
       </c>
       <c r="K27" s="4">
         <v>0.20765496080417778</v>
@@ -1673,7 +1673,7 @@
         <v>0.20339213410717794</v>
       </c>
       <c r="J28" s="6">
-        <v>0.41856641442475984</v>
+        <v>0.35183238</v>
       </c>
       <c r="K28" s="4">
         <v>0.24427787979084226</v>
@@ -1717,7 +1717,7 @@
         <v>0.19813260402012281</v>
       </c>
       <c r="J29" s="6">
-        <v>0.39855642159334342</v>
+        <v>0.38566781999999999</v>
       </c>
       <c r="K29" s="4">
         <v>0.22389423998855787</v>
@@ -1761,7 +1761,7 @@
         <v>0.19773542071284816</v>
       </c>
       <c r="J30" s="6">
-        <v>0.40430556109404336</v>
+        <v>0.40115520999999998</v>
       </c>
       <c r="K30" s="4">
         <v>0.23866977089282704</v>
@@ -1805,7 +1805,7 @@
         <v>0.20026673130111591</v>
       </c>
       <c r="J31" s="6">
-        <v>0.43001874079423485</v>
+        <v>0.36245261000000001</v>
       </c>
       <c r="K31" s="4">
         <v>0.17544227433030091</v>
@@ -1849,7 +1849,7 @@
         <v>0.19049812699465882</v>
       </c>
       <c r="J32" s="6">
-        <v>0.39158771707663909</v>
+        <v>0.38709126999999999</v>
       </c>
       <c r="K32" s="4">
         <v>0.20428089592736814</v>
@@ -1893,7 +1893,7 @@
         <v>0.21105107264173562</v>
       </c>
       <c r="J33" s="6">
-        <v>0.42450618600089907</v>
+        <v>0.39531882000000002</v>
       </c>
       <c r="K33" s="4">
         <v>0.2586801701810435</v>
@@ -1937,7 +1937,7 @@
         <v>0.19171175353863726</v>
       </c>
       <c r="J34" s="6">
-        <v>0.37255949235024399</v>
+        <v>0.38633925000000002</v>
       </c>
       <c r="K34" s="4">
         <v>0.21305546454594743</v>
@@ -1981,7 +1981,7 @@
         <v>0.19260031855116516</v>
       </c>
       <c r="J35" s="6">
-        <v>0.38772911810864319</v>
+        <v>0.39854440000000002</v>
       </c>
       <c r="K35" s="4">
         <v>0.24654280754983138</v>
@@ -2025,7 +2025,7 @@
         <v>0.198185574427588</v>
       </c>
       <c r="J36" s="6">
-        <v>0.41200422616596466</v>
+        <v>0.41041386000000002</v>
       </c>
       <c r="K36" s="4">
         <v>0.25152047431168723</v>
@@ -2069,7 +2069,7 @@
         <v>0.20171049306188304</v>
       </c>
       <c r="J37" s="6">
-        <v>0.38520388840782049</v>
+        <v>0.36929815999999999</v>
       </c>
       <c r="K37" s="4">
         <v>0.19826461060486567</v>
@@ -2113,7 +2113,7 @@
         <v>0.1944561871035361</v>
       </c>
       <c r="J38" s="6">
-        <v>0.40515210533317003</v>
+        <v>0.40932816</v>
       </c>
       <c r="K38" s="4">
         <v>0.22212339319900742</v>
@@ -2157,7 +2157,7 @@
         <v>0.20238054989814341</v>
       </c>
       <c r="J39" s="6">
-        <v>0.39833570566278925</v>
+        <v>0.40402185000000002</v>
       </c>
       <c r="K39" s="4">
         <v>0.17745812434808028</v>
@@ -2201,7 +2201,7 @@
         <v>0.18802104896579588</v>
       </c>
       <c r="J40" s="6">
-        <v>0.38911702720802194</v>
+        <v>0.40227199000000002</v>
       </c>
       <c r="K40" s="4">
         <v>0.22656611971010715</v>
@@ -2245,7 +2245,7 @@
         <v>0.20560485764523517</v>
       </c>
       <c r="J41" s="6">
-        <v>0.37411053142718609</v>
+        <v>0.38157706000000002</v>
       </c>
       <c r="K41" s="4">
         <v>0.15711785259528421</v>
@@ -2289,7 +2289,7 @@
         <v>0.20304228098311941</v>
       </c>
       <c r="J42" s="6">
-        <v>0.39439177450309421</v>
+        <v>0.36680391000000001</v>
       </c>
       <c r="K42" s="4">
         <v>0.16535621998457464</v>
@@ -2333,7 +2333,7 @@
         <v>0.19755046685454594</v>
       </c>
       <c r="J43" s="6">
-        <v>0.41149910892520541</v>
+        <v>0.37695005999999998</v>
       </c>
       <c r="K43" s="4">
         <v>0.13990379728525601</v>
@@ -2377,7 +2377,7 @@
         <v>0.2005384144257833</v>
       </c>
       <c r="J44" s="6">
-        <v>0.40364879534991288</v>
+        <v>0.40554154999999997</v>
       </c>
       <c r="K44" s="4">
         <v>0.21521424575705939</v>
@@ -2421,7 +2421,7 @@
         <v>0.20970890623364569</v>
       </c>
       <c r="J45" s="6">
-        <v>0.42594369411207972</v>
+        <v>0.45891905999999999</v>
       </c>
       <c r="K45" s="4">
         <v>0.22033290011960341</v>
@@ -2465,7 +2465,7 @@
         <v>0.20724014858317064</v>
       </c>
       <c r="J46" s="6">
-        <v>0.39971295628633108</v>
+        <v>0.35786990000000002</v>
       </c>
       <c r="K46" s="4">
         <v>0.2076058008714628</v>
@@ -2509,7 +2509,7 @@
         <v>0.21053443009139336</v>
       </c>
       <c r="J47" s="6">
-        <v>0.40027577569122647</v>
+        <v>0.39313700000000001</v>
       </c>
       <c r="K47" s="4">
         <v>0.24984229405305719</v>
@@ -2553,7 +2553,7 @@
         <v>0.19467801336768034</v>
       </c>
       <c r="J48" s="6">
-        <v>0.35988960057549924</v>
+        <v>0.41907327</v>
       </c>
       <c r="K48" s="4">
         <v>0.21532947069656266</v>
@@ -2597,7 +2597,7 @@
         <v>0.20561821977432995</v>
       </c>
       <c r="J49" s="6">
-        <v>0.409777304380951</v>
+        <v>0.40600532</v>
       </c>
       <c r="K49" s="4">
         <v>0.21523567319771164</v>
@@ -2641,7 +2641,7 @@
         <v>0.19384029628542973</v>
       </c>
       <c r="J50" s="6">
-        <v>0.42389329869635933</v>
+        <v>0.41578749999999998</v>
       </c>
       <c r="K50" s="4">
         <v>0.27948687151909435</v>
@@ -2685,7 +2685,7 @@
         <v>0.21043439365090186</v>
       </c>
       <c r="J51" s="6">
-        <v>0.39144912176253394</v>
+        <v>0.41802017000000002</v>
       </c>
       <c r="K51" s="4">
         <v>0.18608517647027972</v>
@@ -2729,7 +2729,7 @@
         <v>0.19064735945908595</v>
       </c>
       <c r="J52" s="6">
-        <v>0.39897298438447965</v>
+        <v>0.42433597000000001</v>
       </c>
       <c r="K52" s="4">
         <v>0.22289884918862563</v>
@@ -2773,7 +2773,7 @@
         <v>0.20463215440848523</v>
       </c>
       <c r="J53" s="6">
-        <v>0.40945553144688229</v>
+        <v>0.37530929000000002</v>
       </c>
       <c r="K53" s="4">
         <v>0.24693230293248844</v>
@@ -2817,7 +2817,7 @@
         <v>0.18597092905997487</v>
       </c>
       <c r="J54" s="6">
-        <v>0.41147283109954563</v>
+        <v>0.39991863</v>
       </c>
       <c r="K54" s="4">
         <v>0.24643463646018254</v>
@@ -2861,7 +2861,7 @@
         <v>0.20609544312451711</v>
       </c>
       <c r="J55" s="6">
-        <v>0.39133351287282719</v>
+        <v>0.37627739999999998</v>
       </c>
       <c r="K55" s="4">
         <v>0.25260400894178592</v>
@@ -2905,7 +2905,7 @@
         <v>0.1945497967387895</v>
       </c>
       <c r="J56" s="6">
-        <v>0.40404339145684337</v>
+        <v>0.39246365</v>
       </c>
       <c r="K56" s="4">
         <v>0.10815116173258157</v>
@@ -2949,7 +2949,7 @@
         <v>0.20180616310979041</v>
       </c>
       <c r="J57" s="6">
-        <v>0.37917646756792506</v>
+        <v>0.37695187000000002</v>
       </c>
       <c r="K57" s="4">
         <v>0.20040692961221071</v>
@@ -2993,7 +2993,7 @@
         <v>0.20561489150320084</v>
       </c>
       <c r="J58" s="6">
-        <v>0.3821365113633875</v>
+        <v>0.39527735000000003</v>
       </c>
       <c r="K58" s="4">
         <v>0.22367137723924296</v>
@@ -3037,7 +3037,7 @@
         <v>0.20058474364402323</v>
       </c>
       <c r="J59" s="6">
-        <v>0.39696767536640071</v>
+        <v>0.41781140999999999</v>
       </c>
       <c r="K59" s="4">
         <v>0.28086045668657861</v>
@@ -3081,7 +3081,7 @@
         <v>0.20370074668340621</v>
       </c>
       <c r="J60" s="6">
-        <v>0.36232391464428887</v>
+        <v>0.42713435999999999</v>
       </c>
       <c r="K60" s="4">
         <v>0.21375840664503271</v>
@@ -3125,7 +3125,7 @@
         <v>0.195182867279387</v>
       </c>
       <c r="J61" s="6">
-        <v>0.37156153885474419</v>
+        <v>0.38349720999999998</v>
       </c>
       <c r="K61" s="4">
         <v>0.19833758382130018</v>
@@ -3169,7 +3169,7 @@
         <v>0.20458023723844132</v>
       </c>
       <c r="J62" s="6">
-        <v>0.38647109315565714</v>
+        <v>0.38134031000000002</v>
       </c>
       <c r="K62" s="4">
         <v>0.19918644281214162</v>
@@ -3213,7 +3213,7 @@
         <v>0.19485818974543373</v>
       </c>
       <c r="J63" s="6">
-        <v>0.42493035090307413</v>
+        <v>0.40866543</v>
       </c>
       <c r="K63" s="4">
         <v>0.20685415549258976</v>
@@ -3257,7 +3257,7 @@
         <v>0.20285812115331051</v>
       </c>
       <c r="J64" s="6">
-        <v>0.44828876691237241</v>
+        <v>0.41288902</v>
       </c>
       <c r="K64" s="4">
         <v>0.19450218345839992</v>
@@ -3301,7 +3301,7 @@
         <v>0.20398363278667667</v>
       </c>
       <c r="J65" s="6">
-        <v>0.39467053502467886</v>
+        <v>0.40776774999999998</v>
       </c>
       <c r="K65" s="4">
         <v>5.6930252379334079E-2</v>
@@ -3345,7 +3345,7 @@
         <v>0.19642247721039316</v>
       </c>
       <c r="J66" s="6">
-        <v>0.39823121814992718</v>
+        <v>0.41932477000000001</v>
       </c>
       <c r="K66" s="4">
         <v>0.22504481019947223</v>
@@ -3389,7 +3389,7 @@
         <v>0.19878397439656004</v>
       </c>
       <c r="J67" s="6">
-        <v>0.3948925822398342</v>
+        <v>0.37267578000000001</v>
       </c>
       <c r="K67" s="4">
         <v>0.22847872181009374</v>
@@ -3433,7 +3433,7 @@
         <v>0.2108199014795033</v>
       </c>
       <c r="J68" s="6">
-        <v>0.38076093825869195</v>
+        <v>0.37519939000000002</v>
       </c>
       <c r="K68" s="4">
         <v>0.17428582235032639</v>
@@ -3477,7 +3477,7 @@
         <v>0.20745064074410091</v>
       </c>
       <c r="J69" s="6">
-        <v>0.3957063122950869</v>
+        <v>0.40140310000000001</v>
       </c>
       <c r="K69" s="4">
         <v>0.24414075462545118</v>
@@ -3521,7 +3521,7 @@
         <v>0.1952325863804083</v>
       </c>
       <c r="J70" s="6">
-        <v>0.44012150993543575</v>
+        <v>0.42975858</v>
       </c>
       <c r="K70" s="4">
         <v>0.16022860138621764</v>
@@ -3565,7 +3565,7 @@
         <v>0.18887651482704379</v>
       </c>
       <c r="J71" s="6">
-        <v>0.37343576554103175</v>
+        <v>0.36766106999999998</v>
       </c>
       <c r="K71" s="4">
         <v>0.17768686583576859</v>
@@ -3609,7 +3609,7 @@
         <v>0.19843739432864407</v>
       </c>
       <c r="J72" s="6">
-        <v>0.39776624821173662</v>
+        <v>0.38103273999999998</v>
       </c>
       <c r="K72" s="4">
         <v>0.24017257189545685</v>
@@ -3653,7 +3653,7 @@
         <v>0.19923394392473648</v>
       </c>
       <c r="J73" s="6">
-        <v>0.42074604301968616</v>
+        <v>0.40904712999999998</v>
       </c>
       <c r="K73" s="4">
         <v>0.11825453059586259</v>
@@ -3697,7 +3697,7 @@
         <v>0.1876314985263563</v>
       </c>
       <c r="J74" s="6">
-        <v>0.39467027637105379</v>
+        <v>0.40602439000000001</v>
       </c>
       <c r="K74" s="4">
         <v>0.26585112656376397</v>
@@ -3741,7 +3741,7 @@
         <v>0.19662815281975218</v>
       </c>
       <c r="J75" s="6">
-        <v>0.41696000745112377</v>
+        <v>0.39925479000000003</v>
       </c>
       <c r="K75" s="4">
         <v>0.1870808336221394</v>
@@ -3785,7 +3785,7 @@
         <v>0.19953166036919706</v>
       </c>
       <c r="J76" s="6">
-        <v>0.43352724827532113</v>
+        <v>0.43446654000000001</v>
       </c>
       <c r="K76" s="4">
         <v>0.17387676983005695</v>
@@ -3829,7 +3829,7 @@
         <v>0.18434332410790158</v>
       </c>
       <c r="J77" s="6">
-        <v>0.42186809136538816</v>
+        <v>0.38618373</v>
       </c>
       <c r="K77" s="4">
         <v>0.19143006988815103</v>
@@ -3873,7 +3873,7 @@
         <v>0.21028680877089223</v>
       </c>
       <c r="J78" s="6">
-        <v>0.37238974323338997</v>
+        <v>0.41454435000000001</v>
       </c>
       <c r="K78" s="4">
         <v>0.14601639494737167</v>
@@ -3917,7 +3917,7 @@
         <v>0.19368504744228512</v>
       </c>
       <c r="J79" s="6">
-        <v>0.39518556969017399</v>
+        <v>0.41062430999999999</v>
       </c>
       <c r="K79" s="4">
         <v>0.19963687958211376</v>
@@ -3961,7 +3961,7 @@
         <v>0.19979012190951995</v>
       </c>
       <c r="J80" s="6">
-        <v>0.41482314640187568</v>
+        <v>0.40530411</v>
       </c>
       <c r="K80" s="4">
         <v>0.19567090326687112</v>
@@ -4005,7 +4005,7 @@
         <v>0.19673306247729494</v>
       </c>
       <c r="J81" s="6">
-        <v>0.40440857488549903</v>
+        <v>0.42358910999999999</v>
       </c>
       <c r="K81" s="4">
         <v>0.22417493120794832</v>
@@ -4049,7 +4049,7 @@
         <v>0.18711820191222864</v>
       </c>
       <c r="J82" s="6">
-        <v>0.37175949690681087</v>
+        <v>0.42565935999999999</v>
       </c>
       <c r="K82" s="4">
         <v>0.21416383158423752</v>
@@ -4093,7 +4093,7 @@
         <v>0.17738438547510524</v>
       </c>
       <c r="J83" s="6">
-        <v>0.3979439234670728</v>
+        <v>0.36763529</v>
       </c>
       <c r="K83" s="4">
         <v>0.2020186015690742</v>
@@ -4137,7 +4137,7 @@
         <v>0.20625633895289855</v>
       </c>
       <c r="J84" s="6">
-        <v>0.38765815549607652</v>
+        <v>0.40242938</v>
       </c>
       <c r="K84" s="4">
         <v>0.20923856908255833</v>
@@ -4181,7 +4181,7 @@
         <v>0.18729507811175058</v>
       </c>
       <c r="J85" s="6">
-        <v>0.38871289559668026</v>
+        <v>0.38819095999999997</v>
       </c>
       <c r="K85" s="4">
         <v>0.29772443210945282</v>
@@ -4225,7 +4225,7 @@
         <v>0.20465036081317495</v>
       </c>
       <c r="J86" s="6">
-        <v>0.39163476275267334</v>
+        <v>0.42508016999999998</v>
       </c>
       <c r="K86" s="4">
         <v>0.21667921308464203</v>
@@ -4269,7 +4269,7 @@
         <v>0.20273148097359092</v>
       </c>
       <c r="J87" s="6">
-        <v>0.4209272502255279</v>
+        <v>0.41912972999999998</v>
       </c>
       <c r="K87" s="4">
         <v>0.20261061038637923</v>
@@ -4313,7 +4313,7 @@
         <v>0.19630511480154184</v>
       </c>
       <c r="J88" s="6">
-        <v>0.42537263735180342</v>
+        <v>0.45532863000000001</v>
       </c>
       <c r="K88" s="4">
         <v>0.23448627172687</v>
@@ -4357,7 +4357,7 @@
         <v>0.20595507784687089</v>
       </c>
       <c r="J89" s="6">
-        <v>0.45720499435793605</v>
+        <v>0.36818537000000001</v>
       </c>
       <c r="K89" s="4">
         <v>0.15166298794171071</v>
@@ -4401,7 +4401,7 @@
         <v>0.19602886044043435</v>
       </c>
       <c r="J90" s="6">
-        <v>0.37919546107807139</v>
+        <v>0.40851019</v>
       </c>
       <c r="K90" s="4">
         <v>0.16867531360435561</v>
@@ -4445,7 +4445,7 @@
         <v>0.19722348738035311</v>
       </c>
       <c r="J91" s="6">
-        <v>0.39553600352247731</v>
+        <v>0.42283310000000002</v>
       </c>
       <c r="K91" s="4">
         <v>0.20218942793052555</v>
@@ -4489,7 +4489,7 @@
         <v>0.21259830406081234</v>
       </c>
       <c r="J92" s="6">
-        <v>0.41163482620378683</v>
+        <v>0.40039288000000001</v>
       </c>
       <c r="K92" s="4">
         <v>0.22042592621844312</v>
@@ -4533,7 +4533,7 @@
         <v>0.1887535066177313</v>
       </c>
       <c r="J93" s="6">
-        <v>0.41956847652458767</v>
+        <v>0.36724285000000001</v>
       </c>
       <c r="K93" s="4">
         <v>0.18202653603786534</v>
@@ -4577,7 +4577,7 @@
         <v>0.18956042804859441</v>
       </c>
       <c r="J94" s="6">
-        <v>0.40073762709989802</v>
+        <v>0.40675721999999997</v>
       </c>
       <c r="K94" s="4">
         <v>0.26881605042674411</v>
@@ -4621,7 +4621,7 @@
         <v>0.2024583229903788</v>
       </c>
       <c r="J95" s="6">
-        <v>0.41276906214986686</v>
+        <v>0.40638680999999999</v>
       </c>
       <c r="K95" s="4">
         <v>0.249221091436852</v>
@@ -4665,7 +4665,7 @@
         <v>0.18387848510044441</v>
       </c>
       <c r="J96" s="6">
-        <v>0.40738840986039643</v>
+        <v>0.37461201</v>
       </c>
       <c r="K96" s="4">
         <v>0.21297849690729906</v>
@@ -4709,7 +4709,7 @@
         <v>0.1850514573382982</v>
       </c>
       <c r="J97" s="6">
-        <v>0.46104009907736831</v>
+        <v>0.40386727</v>
       </c>
       <c r="K97" s="4">
         <v>0.27428382427665687</v>
@@ -4753,7 +4753,7 @@
         <v>0.20849512885783267</v>
       </c>
       <c r="J98" s="6">
-        <v>0.37611413731271692</v>
+        <v>0.39699491999999997</v>
       </c>
       <c r="K98" s="4">
         <v>0.1633994048502794</v>
@@ -4797,7 +4797,7 @@
         <v>0.18895712976137638</v>
       </c>
       <c r="J99" s="6">
-        <v>0.42487556321922293</v>
+        <v>0.40233956999999998</v>
       </c>
       <c r="K99" s="4">
         <v>0.20210351129755802</v>
@@ -4841,7 +4841,7 @@
         <v>0.19132263904324187</v>
       </c>
       <c r="J100" s="6">
-        <v>0.39255655971280673</v>
+        <v>0.38849261000000002</v>
       </c>
       <c r="K100" s="4">
         <v>0.16942578397463987</v>
@@ -4885,7 +4885,7 @@
         <v>0.20120180006518695</v>
       </c>
       <c r="J101" s="6">
-        <v>0.3846588042580168</v>
+        <v>0.41115434000000001</v>
       </c>
       <c r="K101" s="4">
         <v>0.15551411157070491</v>
@@ -4929,7 +4929,7 @@
         <v>0.18617771205321795</v>
       </c>
       <c r="J102" s="6">
-        <v>0.41444339803554314</v>
+        <v>0.40014240000000001</v>
       </c>
       <c r="K102" s="4">
         <v>0.21938666484986535</v>
@@ -4973,7 +4973,7 @@
         <v>0.18718102861248506</v>
       </c>
       <c r="J103" s="6">
-        <v>0.39409811926273902</v>
+        <v>0.39217547000000003</v>
       </c>
       <c r="K103" s="4">
         <v>0.25574019252970026</v>
@@ -5017,7 +5017,7 @@
         <v>0.19038662238801204</v>
       </c>
       <c r="J104" s="6">
-        <v>0.38903214365176753</v>
+        <v>0.45529546999999998</v>
       </c>
       <c r="K104" s="4">
         <v>0.20367036012652895</v>
@@ -5061,7 +5061,7 @@
         <v>0.19597490584451929</v>
       </c>
       <c r="J105" s="6">
-        <v>0.40173025837103477</v>
+        <v>0.38964149999999997</v>
       </c>
       <c r="K105" s="4">
         <v>0.23698925577524024</v>
@@ -5105,7 +5105,7 @@
         <v>0.20729025842925852</v>
       </c>
       <c r="J106" s="6">
-        <v>0.37547734238273628</v>
+        <v>0.43274383999999999</v>
       </c>
       <c r="K106" s="4">
         <v>0.21404464322939329</v>
@@ -5149,7 +5149,7 @@
         <v>0.2111068752292331</v>
       </c>
       <c r="J107" s="6">
-        <v>0.38370764664080081</v>
+        <v>0.41959737000000003</v>
       </c>
       <c r="K107" s="4">
         <v>0.24029701426792607</v>
@@ -5193,7 +5193,7 @@
         <v>0.20730598770501824</v>
       </c>
       <c r="J108" s="6">
-        <v>0.38900160524080912</v>
+        <v>0.42620975999999999</v>
       </c>
       <c r="K108" s="4">
         <v>0.1881049595100569</v>
@@ -5237,7 +5237,7 @@
         <v>0.19619127194928579</v>
       </c>
       <c r="J109" s="6">
-        <v>0.39973373862719763</v>
+        <v>0.41330854</v>
       </c>
       <c r="K109" s="4">
         <v>0.14362703735133092</v>
@@ -5281,7 +5281,7 @@
         <v>0.1939240550960295</v>
       </c>
       <c r="J110" s="6">
-        <v>0.44950693763368882</v>
+        <v>0.39085341000000001</v>
       </c>
       <c r="K110" s="4">
         <v>0.20343775809819292</v>
@@ -5325,7 +5325,7 @@
         <v>0.19498972936071959</v>
       </c>
       <c r="J111" s="6">
-        <v>0.44281658750897995</v>
+        <v>0.41311055000000002</v>
       </c>
       <c r="K111" s="4">
         <v>0.2853109302090534</v>
@@ -5369,7 +5369,7 @@
         <v>0.2020293934766437</v>
       </c>
       <c r="J112" s="6">
-        <v>0.38619916559639172</v>
+        <v>0.41578904999999999</v>
       </c>
       <c r="K112" s="4">
         <v>0.19476682438455029</v>
@@ -5413,7 +5413,7 @@
         <v>0.21267922714601023</v>
       </c>
       <c r="J113" s="6">
-        <v>0.37509122123574024</v>
+        <v>0.37598256000000002</v>
       </c>
       <c r="K113" s="4">
         <v>0.18565389947128533</v>
@@ -5457,7 +5457,7 @@
         <v>0.19392183463889723</v>
       </c>
       <c r="J114" s="6">
-        <v>0.42847875482165226</v>
+        <v>0.39067679</v>
       </c>
       <c r="K114" s="4">
         <v>0.19770888769243228</v>
@@ -5501,7 +5501,7 @@
         <v>0.21496540658451635</v>
       </c>
       <c r="J115" s="6">
-        <v>0.40007719072074288</v>
+        <v>0.40879282</v>
       </c>
       <c r="K115" s="4">
         <v>0.2220158473862574</v>
@@ -5545,7 +5545,7 @@
         <v>0.19634098096075109</v>
       </c>
       <c r="J116" s="6">
-        <v>0.41760461737639115</v>
+        <v>0.39284604000000001</v>
       </c>
       <c r="K116" s="4">
         <v>0.20702300240042135</v>
@@ -5589,7 +5589,7 @@
         <v>0.20229766132201379</v>
       </c>
       <c r="J117" s="6">
-        <v>0.40733813341074493</v>
+        <v>0.38335729000000002</v>
       </c>
       <c r="K117" s="4">
         <v>0.18791461958545136</v>
@@ -5633,7 +5633,7 @@
         <v>0.18516518046476396</v>
       </c>
       <c r="J118" s="6">
-        <v>0.38882892502134281</v>
+        <v>0.39699187000000002</v>
       </c>
       <c r="K118" s="4">
         <v>0.20919122102175955</v>
@@ -5677,7 +5677,7 @@
         <v>0.18481620972306995</v>
       </c>
       <c r="J119" s="6">
-        <v>0.39318628449105736</v>
+        <v>0.40051978999999999</v>
       </c>
       <c r="K119" s="4">
         <v>0.22460644004757693</v>
@@ -5721,7 +5721,7 @@
         <v>0.19562361406380083</v>
       </c>
       <c r="J120" s="6">
-        <v>0.40921853554970472</v>
+        <v>0.44578769000000001</v>
       </c>
       <c r="K120" s="4">
         <v>0.15360143463595546</v>
@@ -5765,7 +5765,7 @@
         <v>0.1983607709707432</v>
       </c>
       <c r="J121" s="6">
-        <v>0.38804436219398475</v>
+        <v>0.37851358000000002</v>
       </c>
       <c r="K121" s="4">
         <v>0.18844254880465156</v>
@@ -5809,7 +5809,7 @@
         <v>0.20362149785881914</v>
       </c>
       <c r="J122" s="6">
-        <v>0.42575639491004452</v>
+        <v>0.41942404</v>
       </c>
       <c r="K122" s="4">
         <v>0.2608785616040592</v>
@@ -5853,7 +5853,7 @@
         <v>0.21178009005284373</v>
       </c>
       <c r="J123" s="6">
-        <v>0.39658060310320847</v>
+        <v>0.42000969999999999</v>
       </c>
       <c r="K123" s="4">
         <v>0.16963177653100564</v>
@@ -5897,7 +5897,7 @@
         <v>0.21880002132848195</v>
       </c>
       <c r="J124" s="6">
-        <v>0.3945627440017877</v>
+        <v>0.42124233</v>
       </c>
       <c r="K124" s="4">
         <v>0.23929901167112219</v>
@@ -5941,7 +5941,7 @@
         <v>0.17806009352938335</v>
       </c>
       <c r="J125" s="6">
-        <v>0.39211903349055921</v>
+        <v>0.38136916999999998</v>
       </c>
       <c r="K125" s="4">
         <v>0.16507343677608405</v>
@@ -5985,7 +5985,7 @@
         <v>0.20829023420117596</v>
       </c>
       <c r="J126" s="6">
-        <v>0.43784807823236827</v>
+        <v>0.36660559999999998</v>
       </c>
       <c r="K126" s="4">
         <v>0.2167274501757265</v>
@@ -6029,7 +6029,7 @@
         <v>0.1982856224256736</v>
       </c>
       <c r="J127" s="6">
-        <v>0.40467636004819091</v>
+        <v>0.37383981999999999</v>
       </c>
       <c r="K127" s="4">
         <v>0.20100771109090532</v>
@@ -6073,7 +6073,7 @@
         <v>0.22255137605646041</v>
       </c>
       <c r="J128" s="6">
-        <v>0.38652113458575932</v>
+        <v>0.41739978</v>
       </c>
       <c r="K128" s="4">
         <v>0.17649279422076231</v>
@@ -6117,7 +6117,7 @@
         <v>0.20491330939002739</v>
       </c>
       <c r="J129" s="6">
-        <v>0.35751958425202474</v>
+        <v>0.41604340000000001</v>
       </c>
       <c r="K129" s="4">
         <v>0.29843395467076944</v>
@@ -6161,7 +6161,7 @@
         <v>0.18565331128965576</v>
       </c>
       <c r="J130" s="6">
-        <v>0.42043299595144218</v>
+        <v>0.42323954000000003</v>
       </c>
       <c r="K130" s="4">
         <v>0.15751580311917118</v>
@@ -6205,7 +6205,7 @@
         <v>0.19989606240323135</v>
       </c>
       <c r="J131" s="6">
-        <v>0.39059807074774927</v>
+        <v>0.41050776999999999</v>
       </c>
       <c r="K131" s="4">
         <v>0.20496455686371576</v>
@@ -6249,7 +6249,7 @@
         <v>0.20194109499709292</v>
       </c>
       <c r="J132" s="6">
-        <v>0.41172044707346145</v>
+        <v>0.40731012999999999</v>
       </c>
       <c r="K132" s="4">
         <v>0.16860011226369342</v>
@@ -6293,7 +6293,7 @@
         <v>0.20053313130053704</v>
       </c>
       <c r="J133" s="6">
-        <v>0.411249519203714</v>
+        <v>0.42834243</v>
       </c>
       <c r="K133" s="4">
         <v>0.17738978707690942</v>
@@ -6337,7 +6337,7 @@
         <v>0.2085519360220135</v>
       </c>
       <c r="J134" s="6">
-        <v>0.39060803036829167</v>
+        <v>0.39385046000000001</v>
       </c>
       <c r="K134" s="4">
         <v>0.20279380795796403</v>
@@ -6381,7 +6381,7 @@
         <v>0.19711760858328345</v>
       </c>
       <c r="J135" s="6">
-        <v>0.37405271495622849</v>
+        <v>0.40419706</v>
       </c>
       <c r="K135" s="4">
         <v>0.23505021149873012</v>
@@ -6425,7 +6425,7 @@
         <v>0.19174159273772892</v>
       </c>
       <c r="J136" s="6">
-        <v>0.41878311983647826</v>
+        <v>0.35359391000000001</v>
       </c>
       <c r="K136" s="4">
         <v>0.24845452469801502</v>
@@ -6469,7 +6469,7 @@
         <v>0.17711774037591943</v>
       </c>
       <c r="J137" s="6">
-        <v>0.4066700697600924</v>
+        <v>0.38980123</v>
       </c>
       <c r="K137" s="4">
         <v>0.22648095902388105</v>
@@ -6513,7 +6513,7 @@
         <v>0.20517375486153958</v>
       </c>
       <c r="J138" s="6">
-        <v>0.39524201604158798</v>
+        <v>0.37153668000000001</v>
       </c>
       <c r="K138" s="4">
         <v>0.24590823106987847</v>
@@ -6557,7 +6557,7 @@
         <v>0.19371124766531186</v>
       </c>
       <c r="J139" s="6">
-        <v>0.43501406278765364</v>
+        <v>0.42690904000000002</v>
       </c>
       <c r="K139" s="4">
         <v>0.16313775679576584</v>
@@ -6601,7 +6601,7 @@
         <v>0.1977332598341644</v>
       </c>
       <c r="J140" s="6">
-        <v>0.40855255115545497</v>
+        <v>0.39375374000000002</v>
       </c>
       <c r="K140" s="4">
         <v>0.24726239843672074</v>
@@ -6645,7 +6645,7 @@
         <v>0.20151401497097121</v>
       </c>
       <c r="J141" s="6">
-        <v>0.37596249455306063</v>
+        <v>0.40760793000000001</v>
       </c>
       <c r="K141" s="4">
         <v>0.18015077671255947</v>
@@ -6689,7 +6689,7 @@
         <v>0.20058344473658621</v>
       </c>
       <c r="J142" s="6">
-        <v>0.37566330358109307</v>
+        <v>0.40953412</v>
       </c>
       <c r="K142" s="4">
         <v>0.24411447671273778</v>
@@ -6733,7 +6733,7 @@
         <v>0.2157980172328714</v>
       </c>
       <c r="J143" s="6">
-        <v>0.3763323214383697</v>
+        <v>0.39210884000000001</v>
       </c>
       <c r="K143" s="4">
         <v>0.23512156020082597</v>
@@ -6777,7 +6777,7 @@
         <v>0.20663397799329494</v>
       </c>
       <c r="J144" s="6">
-        <v>0.37369612050125228</v>
+        <v>0.39251647000000001</v>
       </c>
       <c r="K144" s="4">
         <v>0.25773093747911424</v>
@@ -6821,7 +6821,7 @@
         <v>0.20139960767782372</v>
       </c>
       <c r="J145" s="6">
-        <v>0.41049724345486233</v>
+        <v>0.39295911</v>
       </c>
       <c r="K145" s="4">
         <v>0.16597382257059351</v>
@@ -6865,7 +6865,7 @@
         <v>0.18474983201503953</v>
       </c>
       <c r="J146" s="6">
-        <v>0.42901013544834693</v>
+        <v>0.40406247000000001</v>
       </c>
       <c r="K146" s="4">
         <v>0.24166589087818635</v>
@@ -6909,7 +6909,7 @@
         <v>0.20838034132254477</v>
       </c>
       <c r="J147" s="6">
-        <v>0.40100308653501754</v>
+        <v>0.38774773000000001</v>
       </c>
       <c r="K147" s="4">
         <v>0.1642949337514277</v>
@@ -6953,7 +6953,7 @@
         <v>0.21304691142846982</v>
       </c>
       <c r="J148" s="6">
-        <v>0.38946472181867026</v>
+        <v>0.42108811000000002</v>
       </c>
       <c r="K148" s="4">
         <v>0.17173136326942023</v>
@@ -6997,7 +6997,7 @@
         <v>0.19552537998722203</v>
       </c>
       <c r="J149" s="6">
-        <v>0.40622778010655086</v>
+        <v>0.41021663000000003</v>
       </c>
       <c r="K149" s="4">
         <v>0.2067796194751306</v>
@@ -7041,7 +7041,7 @@
         <v>0.19034100353205025</v>
       </c>
       <c r="J150" s="6">
-        <v>0.38381867292134275</v>
+        <v>0.41903027999999998</v>
       </c>
       <c r="K150" s="4">
         <v>0.28362393634756439</v>
@@ -7085,7 +7085,7 @@
         <v>0.19669633991711286</v>
       </c>
       <c r="J151" s="6">
-        <v>0.38082030922785742</v>
+        <v>0.37403314999999998</v>
       </c>
       <c r="K151" s="4">
         <v>0.22049347921553239</v>
@@ -7129,7 +7129,7 @@
         <v>0.21616130092811908</v>
       </c>
       <c r="J152" s="6">
-        <v>0.38088330979446383</v>
+        <v>0.38269605000000001</v>
       </c>
       <c r="K152" s="4">
         <v>0.23209532406922867</v>
@@ -7173,7 +7173,7 @@
         <v>0.20112759539615704</v>
       </c>
       <c r="J153" s="6">
-        <v>0.42406373873273506</v>
+        <v>0.40621299</v>
       </c>
       <c r="K153" s="4">
         <v>0.24177140420192705</v>
@@ -7217,7 +7217,7 @@
         <v>0.18807273535758923</v>
       </c>
       <c r="J154" s="6">
-        <v>0.43647965909863712</v>
+        <v>0.40434514999999999</v>
       </c>
       <c r="K154" s="4">
         <v>0.17471269737325412</v>
@@ -7261,7 +7261,7 @@
         <v>0.20314118156945379</v>
       </c>
       <c r="J155" s="6">
-        <v>0.41650947366543628</v>
+        <v>0.37818164999999998</v>
       </c>
       <c r="K155" s="4">
         <v>0.1834516736752988</v>
@@ -7305,7 +7305,7 @@
         <v>0.19141354712471254</v>
       </c>
       <c r="J156" s="6">
-        <v>0.40722211106379308</v>
+        <v>0.42959391000000002</v>
       </c>
       <c r="K156" s="4">
         <v>0.22676818542230656</v>
@@ -7349,7 +7349,7 @@
         <v>0.20410356368741114</v>
       </c>
       <c r="J157" s="6">
-        <v>0.39181075504821439</v>
+        <v>0.39920636999999998</v>
       </c>
       <c r="K157" s="4">
         <v>0.19327852903337644</v>
@@ -7393,7 +7393,7 @@
         <v>0.21401992306108664</v>
       </c>
       <c r="J158" s="6">
-        <v>0.39421046784344577</v>
+        <v>0.38677401</v>
       </c>
       <c r="K158" s="4">
         <v>0.1570989870416967</v>
@@ -7437,7 +7437,7 @@
         <v>0.18267505832946235</v>
       </c>
       <c r="J159" s="6">
-        <v>0.41160476081776032</v>
+        <v>0.41035112000000001</v>
       </c>
       <c r="K159" s="4">
         <v>0.24122591235867313</v>
@@ -7481,7 +7481,7 @@
         <v>0.1890251803768698</v>
       </c>
       <c r="J160" s="6">
-        <v>0.37950798330274793</v>
+        <v>0.35867007000000001</v>
       </c>
       <c r="K160" s="4">
         <v>0.24440781505892623</v>
@@ -7525,7 +7525,7 @@
         <v>0.19944494151551184</v>
       </c>
       <c r="J161" s="6">
-        <v>0.42907765592599584</v>
+        <v>0.37984402</v>
       </c>
       <c r="K161" s="4">
         <v>0.20093813335694685</v>
@@ -7569,7 +7569,7 @@
         <v>0.19039704408334301</v>
       </c>
       <c r="J162" s="6">
-        <v>0.3916449829856461</v>
+        <v>0.37422941999999998</v>
       </c>
       <c r="K162" s="4">
         <v>0.14276075889636991</v>
@@ -7613,7 +7613,7 @@
         <v>0.18344308059128492</v>
       </c>
       <c r="J163" s="6">
-        <v>0.35788576550005097</v>
+        <v>0.42999469000000001</v>
       </c>
       <c r="K163" s="4">
         <v>0.21631821978891519</v>
@@ -7657,7 +7657,7 @@
         <v>0.20546838960656041</v>
       </c>
       <c r="J164" s="6">
-        <v>0.37185077173343217</v>
+        <v>0.42135223999999999</v>
       </c>
       <c r="K164" s="4">
         <v>0.19020856618506193</v>
@@ -7701,7 +7701,7 @@
         <v>0.20119826344329525</v>
       </c>
       <c r="J165" s="6">
-        <v>0.42185276559715423</v>
+        <v>0.41429764000000002</v>
       </c>
       <c r="K165" s="4">
         <v>0.21829135774143393</v>
@@ -7745,7 +7745,7 @@
         <v>0.20873706917942167</v>
       </c>
       <c r="J166" s="6">
-        <v>0.38787879700709549</v>
+        <v>0.41585253999999999</v>
       </c>
       <c r="K166" s="4">
         <v>0.246720826778589</v>
@@ -7789,7 +7789,7 @@
         <v>0.19283360232365532</v>
       </c>
       <c r="J167" s="6">
-        <v>0.37835660762724932</v>
+        <v>0.43717056999999998</v>
       </c>
       <c r="K167" s="4">
         <v>0.14221741779930844</v>
@@ -7833,7 +7833,7 @@
         <v>0.20147037130093939</v>
       </c>
       <c r="J168" s="6">
-        <v>0.39058070423410068</v>
+        <v>0.39896431999999998</v>
       </c>
       <c r="K168" s="4">
         <v>0.20648506709298031</v>
@@ -7877,7 +7877,7 @@
         <v>0.21773503682560849</v>
       </c>
       <c r="J169" s="6">
-        <v>0.375561337055836</v>
+        <v>0.38798038000000001</v>
       </c>
       <c r="K169" s="4">
         <v>0.19418447678149031</v>
@@ -7921,7 +7921,7 @@
         <v>0.21272453510123104</v>
       </c>
       <c r="J170" s="6">
-        <v>0.42645593175841928</v>
+        <v>0.37959811999999998</v>
       </c>
       <c r="K170" s="4">
         <v>0.20771353222374214</v>
@@ -7965,7 +7965,7 @@
         <v>0.20650693011582638</v>
       </c>
       <c r="J171" s="6">
-        <v>0.38319760721572343</v>
+        <v>0.36789101000000002</v>
       </c>
       <c r="K171" s="4">
         <v>0.21221694399049448</v>
@@ -8009,7 +8009,7 @@
         <v>0.1859866296479174</v>
       </c>
       <c r="J172" s="6">
-        <v>0.41248311821177264</v>
+        <v>0.41067917999999998</v>
       </c>
       <c r="K172" s="4">
         <v>0.16393909705361709</v>
@@ -8053,7 +8053,7 @@
         <v>0.21948316320211503</v>
       </c>
       <c r="J173" s="6">
-        <v>0.38949998254343299</v>
+        <v>0.41334580999999998</v>
       </c>
       <c r="K173" s="4">
         <v>0.29237765660938725</v>
@@ -8097,7 +8097,7 @@
         <v>0.20578329585327115</v>
       </c>
       <c r="J174" s="6">
-        <v>0.36237516816353321</v>
+        <v>0.40282151999999999</v>
       </c>
       <c r="K174" s="4">
         <v>0.2108762872167278</v>
@@ -8141,7 +8141,7 @@
         <v>0.19034524505527448</v>
       </c>
       <c r="J175" s="6">
-        <v>0.40427298920500293</v>
+        <v>0.38632259000000002</v>
       </c>
       <c r="K175" s="4">
         <v>0.26469363013455433</v>
@@ -8185,7 +8185,7 @@
         <v>0.20238620995107709</v>
       </c>
       <c r="J176" s="6">
-        <v>0.4225602283893522</v>
+        <v>0.36461703000000001</v>
       </c>
       <c r="K176" s="4">
         <v>0.25927944697486288</v>
@@ -8229,7 +8229,7 @@
         <v>0.18089704831681569</v>
       </c>
       <c r="J177" s="6">
-        <v>0.39846567356432261</v>
+        <v>0.39878954</v>
       </c>
       <c r="K177" s="4">
         <v>0.21624205780985969</v>
@@ -8273,7 +8273,7 @@
         <v>0.20572743709301455</v>
       </c>
       <c r="J178" s="6">
-        <v>0.39220574912944367</v>
+        <v>0.39622114000000003</v>
       </c>
       <c r="K178" s="4">
         <v>0.21486622333538238</v>
@@ -8317,7 +8317,7 @@
         <v>0.19599128255880496</v>
       </c>
       <c r="J179" s="6">
-        <v>0.41494181492164556</v>
+        <v>0.36142289999999999</v>
       </c>
       <c r="K179" s="4">
         <v>0.19801387822305294</v>
@@ -8361,7 +8361,7 @@
         <v>0.2175313877461971</v>
       </c>
       <c r="J180" s="6">
-        <v>0.41006292949388434</v>
+        <v>0.37574034000000001</v>
       </c>
       <c r="K180" s="4">
         <v>0.20962713717658638</v>
@@ -8405,7 +8405,7 @@
         <v>0.20221012983116229</v>
       </c>
       <c r="J181" s="6">
-        <v>0.41893527096039779</v>
+        <v>0.38282328999999998</v>
       </c>
       <c r="K181" s="4">
         <v>0.1848613458011607</v>
@@ -8449,7 +8449,7 @@
         <v>0.19246924738153121</v>
       </c>
       <c r="J182" s="6">
-        <v>0.38675318470432485</v>
+        <v>0.35879966000000002</v>
       </c>
       <c r="K182" s="4">
         <v>0.21081329748115438</v>
@@ -8493,7 +8493,7 @@
         <v>0.17869537396911794</v>
       </c>
       <c r="J183" s="6">
-        <v>0.39274857827180337</v>
+        <v>0.39491483999999999</v>
       </c>
       <c r="K183" s="4">
         <v>0.25410079051035223</v>
@@ -8537,7 +8537,7 @@
         <v>0.19059317434926151</v>
       </c>
       <c r="J184" s="6">
-        <v>0.39989604464047018</v>
+        <v>0.40226498999999999</v>
       </c>
       <c r="K184" s="4">
         <v>0.14947667118434765</v>
@@ -8581,7 +8581,7 @@
         <v>0.17330192398672872</v>
       </c>
       <c r="J185" s="6">
-        <v>0.40647948167712222</v>
+        <v>0.39424029999999999</v>
       </c>
       <c r="K185" s="4">
         <v>0.20118250177896002</v>
@@ -8625,7 +8625,7 @@
         <v>0.18682742903138316</v>
       </c>
       <c r="J186" s="6">
-        <v>0.36662919626878843</v>
+        <v>0.39057972000000002</v>
       </c>
       <c r="K186" s="4">
         <v>0.18729712029670886</v>
@@ -8669,7 +8669,7 @@
         <v>0.20000115201792934</v>
       </c>
       <c r="J187" s="6">
-        <v>0.4047240756707276</v>
+        <v>0.37500704000000001</v>
       </c>
       <c r="K187" s="4">
         <v>0.20854211389865773</v>
@@ -8713,7 +8713,7 @@
         <v>0.21576682799126851</v>
       </c>
       <c r="J188" s="6">
-        <v>0.3518057402241716</v>
+        <v>0.37740019000000002</v>
       </c>
       <c r="K188" s="4">
         <v>0.21729311674402996</v>
@@ -8757,7 +8757,7 @@
         <v>0.19536291770656813</v>
       </c>
       <c r="J189" s="6">
-        <v>0.4345556553851907</v>
+        <v>0.38159546</v>
       </c>
       <c r="K189" s="4">
         <v>0.24826450207532588</v>
@@ -8801,7 +8801,7 @@
         <v>0.20112661315463443</v>
       </c>
       <c r="J190" s="6">
-        <v>0.38793965989811363</v>
+        <v>0.41069299999999997</v>
       </c>
       <c r="K190" s="4">
         <v>0.21072698989311556</v>
@@ -8845,7 +8845,7 @@
         <v>0.18639718185990767</v>
       </c>
       <c r="J191" s="6">
-        <v>0.40703779001875379</v>
+        <v>0.40422563</v>
       </c>
       <c r="K191" s="4">
         <v>0.20067183678943448</v>
@@ -8889,7 +8889,7 @@
         <v>0.20367506026377932</v>
       </c>
       <c r="J192" s="6">
-        <v>0.41570893871816006</v>
+        <v>0.37991049999999998</v>
       </c>
       <c r="K192" s="4">
         <v>0.21334631414057004</v>
@@ -8933,7 +8933,7 @@
         <v>0.20436259959900177</v>
       </c>
       <c r="J193" s="6">
-        <v>0.38706653738410479</v>
+        <v>0.41361060999999999</v>
       </c>
       <c r="K193" s="4">
         <v>0.24287391190809773</v>
@@ -8977,7 +8977,7 @@
         <v>0.22026094216787045</v>
       </c>
       <c r="J194" s="6">
-        <v>0.40949590750067227</v>
+        <v>0.38356636</v>
       </c>
       <c r="K194" s="4">
         <v>0.15188758874986344</v>
@@ -9021,7 +9021,7 @@
         <v>0.20249451362819607</v>
       </c>
       <c r="J195" s="6">
-        <v>0.37561720251356828</v>
+        <v>0.41390444999999998</v>
       </c>
       <c r="K195" s="4">
         <v>0.17333222601716664</v>
@@ -9065,7 +9065,7 @@
         <v>0.20029106678765596</v>
       </c>
       <c r="J196" s="6">
-        <v>0.39644809440584056</v>
+        <v>0.39400747000000003</v>
       </c>
       <c r="K196" s="4">
         <v>0.26758253192299541</v>
@@ -9109,7 +9109,7 @@
         <v>0.18849807138918356</v>
       </c>
       <c r="J197" s="6">
-        <v>0.41599208194218568</v>
+        <v>0.35519336000000001</v>
       </c>
       <c r="K197" s="4">
         <v>0.22890656301055598</v>
@@ -9153,7 +9153,7 @@
         <v>0.22424909610667598</v>
       </c>
       <c r="J198" s="6">
-        <v>0.41502336768390324</v>
+        <v>0.37049989</v>
       </c>
       <c r="K198" s="4">
         <v>0.23250479303189642</v>

--- a/dream/KnowledgeExtraction/KEtool_examples/KE tool&GUI/test_data.xlsx
+++ b/dream/KnowledgeExtraction/KEtool_examples/KE tool&GUI/test_data.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="C1:P198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
         <v>0.21430665422460365</v>
       </c>
       <c r="J2" s="6">
-        <v>0.40936212999999999</v>
+        <v>0.40765130999999999</v>
       </c>
       <c r="K2" s="4">
         <v>0.19843493323223443</v>
@@ -541,7 +541,7 @@
         <v>0.93955228034389859</v>
       </c>
       <c r="N2" s="4">
-        <v>1.7910270725827051E-6</v>
+        <v>0.40765130999999999</v>
       </c>
       <c r="O2" s="6">
         <v>0.95183489097885932</v>
@@ -573,7 +573,7 @@
         <v>0.18271264720431088</v>
       </c>
       <c r="J3" s="6">
-        <v>0.42562534000000002</v>
+        <v>0.38815102000000001</v>
       </c>
       <c r="K3" s="4">
         <v>0.21274455776912232</v>
@@ -585,7 +585,7 @@
         <v>1.2394368627205492</v>
       </c>
       <c r="N3" s="4">
-        <v>8.8724976827205163E-2</v>
+        <v>0.38815102000000001</v>
       </c>
       <c r="O3" s="6">
         <v>1.0998067990521836</v>
@@ -617,7 +617,7 @@
         <v>0.20320609659322039</v>
       </c>
       <c r="J4" s="6">
-        <v>0.39069166999999999</v>
+        <v>0.39850034000000001</v>
       </c>
       <c r="K4" s="4">
         <v>0.18633704936902057</v>
@@ -629,7 +629,7 @@
         <v>0.75910324243832106</v>
       </c>
       <c r="N4" s="4">
-        <v>0.12046990946914013</v>
+        <v>0.39850034000000001</v>
       </c>
       <c r="O4" s="6">
         <v>0.98514092637400807</v>
@@ -661,7 +661,7 @@
         <v>0.18694682101538951</v>
       </c>
       <c r="J5" s="6">
-        <v>0.38563217999999999</v>
+        <v>0.39908130000000003</v>
       </c>
       <c r="K5" s="4">
         <v>0.22397557022050191</v>
@@ -673,7 +673,7 @@
         <v>1.0766495353863716</v>
       </c>
       <c r="N5" s="4">
-        <v>0.99999964142546305</v>
+        <v>0.39908130000000003</v>
       </c>
       <c r="O5" s="6">
         <v>1.0931449762824532</v>
@@ -705,7 +705,7 @@
         <v>0.20109890704224292</v>
       </c>
       <c r="J6" s="6">
-        <v>0.40100604000000001</v>
+        <v>0.39875138999999998</v>
       </c>
       <c r="K6" s="4">
         <v>0.19445262678826372</v>
@@ -717,7 +717,7 @@
         <v>0.69433759089232594</v>
       </c>
       <c r="N6" s="4">
-        <v>2.3960977420123111E-2</v>
+        <v>0.39875138999999998</v>
       </c>
       <c r="O6" s="6">
         <v>1.0594957852130737</v>
@@ -749,7 +749,7 @@
         <v>0.20513816776641247</v>
       </c>
       <c r="J7" s="6">
-        <v>0.35835318999999999</v>
+        <v>0.40786183999999998</v>
       </c>
       <c r="K7" s="4">
         <v>0.21545850419338844</v>
@@ -761,7 +761,7 @@
         <v>1.0761585862030163</v>
       </c>
       <c r="N7" s="4">
-        <v>1.5320655210709615E-4</v>
+        <v>0.40786183999999998</v>
       </c>
       <c r="O7" s="6">
         <v>0.98215680219994239</v>
@@ -793,7 +793,7 @@
         <v>0.19742886444462499</v>
       </c>
       <c r="J8" s="6">
-        <v>0.39890998</v>
+        <v>0.40655913999999999</v>
       </c>
       <c r="K8" s="4">
         <v>0.18733962061028808</v>
@@ -805,7 +805,7 @@
         <v>0.96319384677493802</v>
       </c>
       <c r="N8" s="4">
-        <v>8.3068937683661369E-4</v>
+        <v>0.40655913999999999</v>
       </c>
       <c r="O8" s="6">
         <v>1.1062675375725803</v>
@@ -837,7 +837,7 @@
         <v>0.18917336257675144</v>
       </c>
       <c r="J9" s="6">
-        <v>0.41519472000000002</v>
+        <v>0.39722935999999998</v>
       </c>
       <c r="K9" s="4">
         <v>0.24954856371376186</v>
@@ -849,7 +849,7 @@
         <v>0.97096568238098802</v>
       </c>
       <c r="N9" s="4">
-        <v>6.1230112776848117E-2</v>
+        <v>0.39722935999999998</v>
       </c>
       <c r="O9" s="6">
         <v>0.99171704133739058</v>
@@ -881,7 +881,7 @@
         <v>0.21835937226294436</v>
       </c>
       <c r="J10" s="6">
-        <v>0.43680103999999997</v>
+        <v>0.38965286999999998</v>
       </c>
       <c r="K10" s="4">
         <v>0.17037972567371762</v>
@@ -893,7 +893,7 @@
         <v>0.91801679665173075</v>
       </c>
       <c r="N10" s="4">
-        <v>0.67168378729139577</v>
+        <v>0.38965286999999998</v>
       </c>
       <c r="O10" s="6">
         <v>1.0355380021460447</v>
@@ -925,7 +925,7 @@
         <v>0.18925372605729637</v>
       </c>
       <c r="J11" s="6">
-        <v>0.39468340000000002</v>
+        <v>0.41123833999999998</v>
       </c>
       <c r="K11" s="4">
         <v>0.20508218404527631</v>
@@ -937,7 +937,7 @@
         <v>0.87892111905719006</v>
       </c>
       <c r="N11" s="4">
-        <v>0.99989085067827643</v>
+        <v>0.41123833999999998</v>
       </c>
       <c r="O11" s="6">
         <v>1.1343312256503413</v>
@@ -969,7 +969,7 @@
         <v>0.19808408965287416</v>
       </c>
       <c r="J12" s="6">
-        <v>0.40561253000000003</v>
+        <v>0.38802420999999998</v>
       </c>
       <c r="K12" s="4">
         <v>0.17232445104995658</v>
@@ -981,7 +981,7 @@
         <v>1.0800646991171681</v>
       </c>
       <c r="N12" s="4">
-        <v>0.99994062579680099</v>
+        <v>0.38802420999999998</v>
       </c>
       <c r="O12" s="6">
         <v>1.0499961581024997</v>
@@ -1013,7 +1013,7 @@
         <v>0.20589921402202824</v>
       </c>
       <c r="J13" s="6">
-        <v>0.38531048000000001</v>
+        <v>0.38574633000000003</v>
       </c>
       <c r="K13" s="4">
         <v>0.27148449346309211</v>
@@ -1025,7 +1025,7 @@
         <v>1.0840367819942989</v>
       </c>
       <c r="N13" s="4">
-        <v>0.45847026304182853</v>
+        <v>0.38574633000000003</v>
       </c>
       <c r="O13" s="6">
         <v>0.88211552384032588</v>
@@ -1057,7 +1057,7 @@
         <v>0.20023569816610393</v>
       </c>
       <c r="J14" s="6">
-        <v>0.37984444000000001</v>
+        <v>0.40726688999999999</v>
       </c>
       <c r="K14" s="4">
         <v>0.17596249523602767</v>
@@ -1069,7 +1069,7 @@
         <v>0.86416647608872732</v>
       </c>
       <c r="N14" s="4">
-        <v>0.49951220835366461</v>
+        <v>0.40726688999999999</v>
       </c>
       <c r="O14" s="6">
         <v>0.72171624548027169</v>
@@ -1101,7 +1101,7 @@
         <v>0.19390239986196992</v>
       </c>
       <c r="J15" s="6">
-        <v>0.38283815999999998</v>
+        <v>0.39819903000000001</v>
       </c>
       <c r="K15" s="4">
         <v>0.26139444337955198</v>
@@ -1113,7 +1113,7 @@
         <v>1.1580919369012526</v>
       </c>
       <c r="N15" s="4">
-        <v>3.104492662485244E-5</v>
+        <v>0.39819903000000001</v>
       </c>
       <c r="O15" s="6">
         <v>0.99464234734490786</v>
@@ -1145,7 +1145,7 @@
         <v>0.20293219720027983</v>
       </c>
       <c r="J16" s="6">
-        <v>0.37544364000000002</v>
+        <v>0.40277201000000001</v>
       </c>
       <c r="K16" s="4">
         <v>0.20980759877318347</v>
@@ -1157,7 +1157,7 @@
         <v>1.2081375632706717</v>
       </c>
       <c r="N16" s="4">
-        <v>0.9999997054344425</v>
+        <v>0.40277201000000001</v>
       </c>
       <c r="O16" s="6">
         <v>1.0657117825552695</v>
@@ -1189,7 +1189,7 @@
         <v>0.21313443690746167</v>
       </c>
       <c r="J17" s="6">
-        <v>0.39981849000000003</v>
+        <v>0.39521838999999997</v>
       </c>
       <c r="K17" s="4">
         <v>0.2652251142613577</v>
@@ -1201,7 +1201,7 @@
         <v>0.98241153982222496</v>
       </c>
       <c r="N17" s="4">
-        <v>2.2435739089921424E-3</v>
+        <v>0.39521838999999997</v>
       </c>
       <c r="O17" s="6">
         <v>1.0831165304890538</v>
@@ -1233,7 +1233,7 @@
         <v>0.19630564676661744</v>
       </c>
       <c r="J18" s="6">
-        <v>0.40134747999999998</v>
+        <v>0.40605860999999999</v>
       </c>
       <c r="K18" s="4">
         <v>0.19298572772375194</v>
@@ -1245,7 +1245,7 @@
         <v>1.1746606250477123</v>
       </c>
       <c r="N18" s="4">
-        <v>6.1592531565798095E-5</v>
+        <v>0.40605860999999999</v>
       </c>
       <c r="O18" s="6">
         <v>0.94306660723901226</v>
@@ -1277,7 +1277,7 @@
         <v>0.22594447288021149</v>
       </c>
       <c r="J19" s="6">
-        <v>0.37618108</v>
+        <v>0.41318093</v>
       </c>
       <c r="K19" s="4">
         <v>0.21279892076733017</v>
@@ -1289,7 +1289,7 @@
         <v>0.67383054734989423</v>
       </c>
       <c r="N19" s="4">
-        <v>5.0426657428706168E-2</v>
+        <v>0.41318093</v>
       </c>
       <c r="O19" s="6">
         <v>1.039815929014547</v>
@@ -1321,7 +1321,7 @@
         <v>0.18779158924605685</v>
       </c>
       <c r="J20" s="6">
-        <v>0.38233539</v>
+        <v>0.41071361000000001</v>
       </c>
       <c r="K20" s="4">
         <v>0.27332621534699036</v>
@@ -1333,7 +1333,7 @@
         <v>0.38978950267592793</v>
       </c>
       <c r="N20" s="4">
-        <v>0.34859016628603112</v>
+        <v>0.41071361000000001</v>
       </c>
       <c r="O20" s="6">
         <v>1.0881942360154944</v>
@@ -1365,7 +1365,7 @@
         <v>0.19585887698390295</v>
       </c>
       <c r="J21" s="6">
-        <v>0.39975722000000002</v>
+        <v>0.40391786000000002</v>
       </c>
       <c r="K21" s="4">
         <v>0.23105245911138048</v>
@@ -1377,7 +1377,7 @@
         <v>0.88184046628379908</v>
       </c>
       <c r="N21" s="4">
-        <v>0.91185208900829351</v>
+        <v>0.40391786000000002</v>
       </c>
       <c r="O21" s="6">
         <v>1.0039399413288854</v>
@@ -1409,7 +1409,7 @@
         <v>0.18667439091288179</v>
       </c>
       <c r="J22" s="6">
-        <v>0.39098460000000002</v>
+        <v>0.40696747999999999</v>
       </c>
       <c r="K22" s="4">
         <v>0.26596187027150681</v>
@@ -1421,7 +1421,7 @@
         <v>0.82370095330198412</v>
       </c>
       <c r="N22" s="4">
-        <v>0.23523467345127655</v>
+        <v>0.40696747999999999</v>
       </c>
       <c r="O22" s="6">
         <v>1.1247922574061666</v>
@@ -1453,7 +1453,7 @@
         <v>0.21004213453979467</v>
       </c>
       <c r="J23" s="6">
-        <v>0.41997444</v>
+        <v>0.41054139000000001</v>
       </c>
       <c r="K23" s="4">
         <v>0.29780992229057524</v>
@@ -1465,7 +1465,7 @@
         <v>1.0525680336022529</v>
       </c>
       <c r="N23" s="4">
-        <v>0.99999999999999534</v>
+        <v>0.41054139000000001</v>
       </c>
       <c r="O23" s="6">
         <v>1.0105746248468748</v>
@@ -1497,7 +1497,7 @@
         <v>0.19274924206006352</v>
       </c>
       <c r="J24" s="6">
-        <v>0.38245828999999998</v>
+        <v>0.41485794999999998</v>
       </c>
       <c r="K24" s="4">
         <v>0.19147030334893722</v>
@@ -1509,7 +1509,7 @@
         <v>0.93298262877056148</v>
       </c>
       <c r="N24" s="4">
-        <v>0.99999997905567695</v>
+        <v>0.41485794999999998</v>
       </c>
       <c r="O24" s="6">
         <v>0.91572895885610694</v>
@@ -1541,7 +1541,7 @@
         <v>0.20951120705585041</v>
       </c>
       <c r="J25" s="6">
-        <v>0.38979007999999998</v>
+        <v>0.3999857</v>
       </c>
       <c r="K25" s="4">
         <v>0.19349497819337286</v>
@@ -1553,7 +1553,7 @@
         <v>0.88339074015325814</v>
       </c>
       <c r="N25" s="4">
-        <v>5.8406411318599532E-3</v>
+        <v>0.3999857</v>
       </c>
       <c r="O25" s="6">
         <v>0.98048756946918991</v>
@@ -1585,7 +1585,7 @@
         <v>0.19345006811036872</v>
       </c>
       <c r="J26" s="6">
-        <v>0.42461687999999997</v>
+        <v>0.38624484999999997</v>
       </c>
       <c r="K26" s="4">
         <v>0.23236113393098701</v>
@@ -1597,7 +1597,7 @@
         <v>0.82691293244498931</v>
       </c>
       <c r="N26" s="4">
-        <v>0.99998452483299949</v>
+        <v>0.38624484999999997</v>
       </c>
       <c r="O26" s="6">
         <v>0.98442127262377244</v>
@@ -1629,7 +1629,7 @@
         <v>0.20110054935616831</v>
       </c>
       <c r="J27" s="6">
-        <v>0.42671687000000003</v>
+        <v>0.39714649000000002</v>
       </c>
       <c r="K27" s="4">
         <v>0.20765496080417778</v>
@@ -1641,7 +1641,7 @@
         <v>1.0793074101946964</v>
       </c>
       <c r="N27" s="4">
-        <v>0.99986119940077545</v>
+        <v>0.39714649000000002</v>
       </c>
       <c r="O27" s="6">
         <v>0.85848718756645559</v>
@@ -1673,7 +1673,7 @@
         <v>0.20339213410717794</v>
       </c>
       <c r="J28" s="6">
-        <v>0.35183238</v>
+        <v>0.41408581</v>
       </c>
       <c r="K28" s="4">
         <v>0.24427787979084226</v>
@@ -1685,7 +1685,7 @@
         <v>1.0495048233962843</v>
       </c>
       <c r="N28" s="4">
-        <v>0.87564921792301575</v>
+        <v>0.41408581</v>
       </c>
       <c r="O28" s="6">
         <v>0.94558373190206257</v>
@@ -1717,7 +1717,7 @@
         <v>0.19813260402012281</v>
       </c>
       <c r="J29" s="6">
-        <v>0.38566781999999999</v>
+        <v>0.39850966999999998</v>
       </c>
       <c r="K29" s="4">
         <v>0.22389423998855787</v>
@@ -1729,7 +1729,7 @@
         <v>0.94311441878051983</v>
       </c>
       <c r="N29" s="4">
-        <v>0.85190285989018932</v>
+        <v>0.39850966999999998</v>
       </c>
       <c r="O29" s="6">
         <v>1.0533918035760572</v>
@@ -1761,7 +1761,7 @@
         <v>0.19773542071284816</v>
       </c>
       <c r="J30" s="6">
-        <v>0.40115520999999998</v>
+        <v>0.39857545</v>
       </c>
       <c r="K30" s="4">
         <v>0.23866977089282704</v>
@@ -1773,7 +1773,7 @@
         <v>0.81300093897578252</v>
       </c>
       <c r="N30" s="4">
-        <v>2.2401444339654715E-3</v>
+        <v>0.39857545</v>
       </c>
       <c r="O30" s="6">
         <v>0.92998266642711869</v>
@@ -1805,7 +1805,7 @@
         <v>0.20026673130111591</v>
       </c>
       <c r="J31" s="6">
-        <v>0.36245261000000001</v>
+        <v>0.40340408</v>
       </c>
       <c r="K31" s="4">
         <v>0.17544227433030091</v>
@@ -1817,7 +1817,7 @@
         <v>1.146912633500909</v>
       </c>
       <c r="N31" s="4">
-        <v>0.92128475515091257</v>
+        <v>0.40340408</v>
       </c>
       <c r="O31" s="6">
         <v>0.90140178340846333</v>
@@ -1849,7 +1849,7 @@
         <v>0.19049812699465882</v>
       </c>
       <c r="J32" s="6">
-        <v>0.38709126999999999</v>
+        <v>0.39620242999999999</v>
       </c>
       <c r="K32" s="4">
         <v>0.20428089592736814</v>
@@ -1861,7 +1861,7 @@
         <v>0.95643532246983531</v>
       </c>
       <c r="N32" s="4">
-        <v>0.99991916053846053</v>
+        <v>0.39620242999999999</v>
       </c>
       <c r="O32" s="6">
         <v>0.9767296246587136</v>
@@ -1893,7 +1893,7 @@
         <v>0.21105107264173562</v>
       </c>
       <c r="J33" s="6">
-        <v>0.39531882000000002</v>
+        <v>0.39885042999999998</v>
       </c>
       <c r="K33" s="4">
         <v>0.2586801701810435</v>
@@ -1905,7 +1905,7 @@
         <v>0.79130751449443959</v>
       </c>
       <c r="N33" s="4">
-        <v>0.99999999999731859</v>
+        <v>0.39885042999999998</v>
       </c>
       <c r="O33" s="6">
         <v>1.0524094383739482</v>
@@ -1937,7 +1937,7 @@
         <v>0.19171175353863726</v>
       </c>
       <c r="J34" s="6">
-        <v>0.38633925000000002</v>
+        <v>0.39678797999999998</v>
       </c>
       <c r="K34" s="4">
         <v>0.21305546454594743</v>
@@ -1949,7 +1949,7 @@
         <v>0.82841811506573992</v>
       </c>
       <c r="N34" s="4">
-        <v>5.905683756354841E-2</v>
+        <v>0.39678797999999998</v>
       </c>
       <c r="O34" s="6">
         <v>1.0411621633447192</v>
@@ -1981,7 +1981,7 @@
         <v>0.19260031855116516</v>
       </c>
       <c r="J35" s="6">
-        <v>0.39854440000000002</v>
+        <v>0.39333125000000002</v>
       </c>
       <c r="K35" s="4">
         <v>0.24654280754983138</v>
@@ -1993,7 +1993,7 @@
         <v>0.84774830239684518</v>
       </c>
       <c r="N35" s="4">
-        <v>3.6021327636065598E-8</v>
+        <v>0.39333125000000002</v>
       </c>
       <c r="O35" s="6">
         <v>0.99414463284540877</v>
@@ -2025,7 +2025,7 @@
         <v>0.198185574427588</v>
       </c>
       <c r="J36" s="6">
-        <v>0.41041386000000002</v>
+        <v>0.39282735000000002</v>
       </c>
       <c r="K36" s="4">
         <v>0.25152047431168723</v>
@@ -2037,7 +2037,7 @@
         <v>0.9213236406866111</v>
       </c>
       <c r="N36" s="4">
-        <v>2.2751319363959969E-2</v>
+        <v>0.39282735000000002</v>
       </c>
       <c r="O36" s="6">
         <v>0.86492040258854241</v>
@@ -2069,7 +2069,7 @@
         <v>0.20171049306188304</v>
       </c>
       <c r="J37" s="6">
-        <v>0.36929815999999999</v>
+        <v>0.40702898999999998</v>
       </c>
       <c r="K37" s="4">
         <v>0.19826461060486567</v>
@@ -2081,7 +2081,7 @@
         <v>0.96531346165852572</v>
       </c>
       <c r="N37" s="4">
-        <v>0.98518739095525087</v>
+        <v>0.40702898999999998</v>
       </c>
       <c r="O37" s="6">
         <v>0.96826559622892172</v>
@@ -2113,7 +2113,7 @@
         <v>0.1944561871035361</v>
       </c>
       <c r="J38" s="6">
-        <v>0.40932816</v>
+        <v>0.38974545999999999</v>
       </c>
       <c r="K38" s="4">
         <v>0.22212339319900742</v>
@@ -2125,7 +2125,7 @@
         <v>0.75477169924785092</v>
       </c>
       <c r="N38" s="4">
-        <v>0.99885161837095826</v>
+        <v>0.38974545999999999</v>
       </c>
       <c r="O38" s="6">
         <v>0.90911209492732992</v>
@@ -2157,7 +2157,7 @@
         <v>0.20238054989814341</v>
       </c>
       <c r="J39" s="6">
-        <v>0.40402185000000002</v>
+        <v>0.39763548999999998</v>
       </c>
       <c r="K39" s="4">
         <v>0.17745812434808028</v>
@@ -2169,7 +2169,7 @@
         <v>0.96701165978950099</v>
       </c>
       <c r="N39" s="4">
-        <v>1.2021089329507739E-2</v>
+        <v>0.39763548999999998</v>
       </c>
       <c r="O39" s="6">
         <v>0.99357959054648726</v>
@@ -2201,7 +2201,7 @@
         <v>0.18802104896579588</v>
       </c>
       <c r="J40" s="6">
-        <v>0.40227199000000002</v>
+        <v>0.39822614000000001</v>
       </c>
       <c r="K40" s="4">
         <v>0.22656611971010715</v>
@@ -2213,7 +2213,7 @@
         <v>0.72933436336991697</v>
       </c>
       <c r="N40" s="4">
-        <v>3.2644893407337949E-2</v>
+        <v>0.39822614000000001</v>
       </c>
       <c r="O40" s="6">
         <v>0.97636625323666604</v>
@@ -2245,7 +2245,7 @@
         <v>0.20560485764523517</v>
       </c>
       <c r="J41" s="6">
-        <v>0.38157706000000002</v>
+        <v>0.39928152</v>
       </c>
       <c r="K41" s="4">
         <v>0.15711785259528421</v>
@@ -2257,7 +2257,7 @@
         <v>0.92823658153998301</v>
       </c>
       <c r="N41" s="4">
-        <v>5.7134846148179375E-2</v>
+        <v>0.39928152</v>
       </c>
       <c r="O41" s="6">
         <v>0.96549619679006071</v>
@@ -2289,7 +2289,7 @@
         <v>0.20304228098311941</v>
       </c>
       <c r="J42" s="6">
-        <v>0.36680391000000001</v>
+        <v>0.40000143999999999</v>
       </c>
       <c r="K42" s="4">
         <v>0.16535621998457464</v>
@@ -2301,7 +2301,7 @@
         <v>1.0700010642776461</v>
       </c>
       <c r="N42" s="4">
-        <v>8.6168955316219844E-6</v>
+        <v>0.40000143999999999</v>
       </c>
       <c r="O42" s="6">
         <v>1.0363692965480173</v>
@@ -2333,7 +2333,7 @@
         <v>0.19755046685454594</v>
       </c>
       <c r="J43" s="6">
-        <v>0.37695005999999998</v>
+        <v>0.40171832000000002</v>
       </c>
       <c r="K43" s="4">
         <v>0.13990379728525601</v>
@@ -2345,7 +2345,7 @@
         <v>0.98102781197586608</v>
       </c>
       <c r="N43" s="4">
-        <v>2.7990144034201025E-7</v>
+        <v>0.40171832000000002</v>
       </c>
       <c r="O43" s="6">
         <v>1.0306767567129462</v>
@@ -2377,7 +2377,7 @@
         <v>0.2005384144257833</v>
       </c>
       <c r="J44" s="6">
-        <v>0.40554154999999997</v>
+        <v>0.39032641000000001</v>
       </c>
       <c r="K44" s="4">
         <v>0.21521424575705939</v>
@@ -2389,7 +2389,7 @@
         <v>0.92544223801075709</v>
       </c>
       <c r="N44" s="4">
-        <v>0.99999993147283461</v>
+        <v>0.39032641000000001</v>
       </c>
       <c r="O44" s="6">
         <v>0.86605197966276304</v>
@@ -2421,7 +2421,7 @@
         <v>0.20970890623364569</v>
       </c>
       <c r="J45" s="6">
-        <v>0.45891905999999999</v>
+        <v>0.39612644000000002</v>
       </c>
       <c r="K45" s="4">
         <v>0.22033290011960341</v>
@@ -2433,7 +2433,7 @@
         <v>0.84997310260466064</v>
       </c>
       <c r="N45" s="4">
-        <v>0.99999999999999989</v>
+        <v>0.39612644000000002</v>
       </c>
       <c r="O45" s="6">
         <v>1.0200403720426663</v>
@@ -2465,7 +2465,7 @@
         <v>0.20724014858317064</v>
       </c>
       <c r="J46" s="6">
-        <v>0.35786990000000002</v>
+        <v>0.39595474000000003</v>
       </c>
       <c r="K46" s="4">
         <v>0.2076058008714628</v>
@@ -2477,7 +2477,7 @@
         <v>0.76207711427482872</v>
       </c>
       <c r="N46" s="4">
-        <v>7.7195929543421466E-10</v>
+        <v>0.39595474000000003</v>
       </c>
       <c r="O46" s="6">
         <v>0.98301342856344331</v>
@@ -2509,7 +2509,7 @@
         <v>0.21053443009139336</v>
       </c>
       <c r="J47" s="6">
-        <v>0.39313700000000001</v>
+        <v>0.39015212999999999</v>
       </c>
       <c r="K47" s="4">
         <v>0.24984229405305719</v>
@@ -2521,7 +2521,7 @@
         <v>0.81427107432934609</v>
       </c>
       <c r="N47" s="4">
-        <v>1.1629916094191814E-4</v>
+        <v>0.39015212999999999</v>
       </c>
       <c r="O47" s="6">
         <v>1.0849327744475823</v>
@@ -2553,7 +2553,7 @@
         <v>0.19467801336768034</v>
       </c>
       <c r="J48" s="6">
-        <v>0.41907327</v>
+        <v>0.40106573000000001</v>
       </c>
       <c r="K48" s="4">
         <v>0.21532947069656266</v>
@@ -2565,7 +2565,7 @@
         <v>0.81891478035896559</v>
       </c>
       <c r="N48" s="4">
-        <v>3.3083577869316122E-2</v>
+        <v>0.40106573000000001</v>
       </c>
       <c r="O48" s="6">
         <v>0.99647851553211886</v>
@@ -2597,7 +2597,7 @@
         <v>0.20561821977432995</v>
       </c>
       <c r="J49" s="6">
-        <v>0.40600532</v>
+        <v>0.41314554999999997</v>
       </c>
       <c r="K49" s="4">
         <v>0.21523567319771164</v>
@@ -2609,7 +2609,7 @@
         <v>0.8258043957896174</v>
       </c>
       <c r="N49" s="4">
-        <v>1.1181219475626109E-2</v>
+        <v>0.41314554999999997</v>
       </c>
       <c r="O49" s="6">
         <v>0.89655778640133921</v>
@@ -2641,7 +2641,7 @@
         <v>0.19384029628542973</v>
       </c>
       <c r="J50" s="6">
-        <v>0.41578749999999998</v>
+        <v>0.38514469000000001</v>
       </c>
       <c r="K50" s="4">
         <v>0.27948687151909435</v>
@@ -2653,7 +2653,7 @@
         <v>0.89682794402055777</v>
       </c>
       <c r="N50" s="4">
-        <v>7.4849874546960718E-3</v>
+        <v>0.38514469000000001</v>
       </c>
       <c r="O50" s="6">
         <v>0.91175213511588926</v>
@@ -2685,7 +2685,7 @@
         <v>0.21043439365090186</v>
       </c>
       <c r="J51" s="6">
-        <v>0.41802017000000002</v>
+        <v>0.39523127000000002</v>
       </c>
       <c r="K51" s="4">
         <v>0.18608517647027972</v>
@@ -2697,7 +2697,7 @@
         <v>1.0077205199839032</v>
       </c>
       <c r="N51" s="4">
-        <v>5.5861889664376102E-3</v>
+        <v>0.39523127000000002</v>
       </c>
       <c r="O51" s="6">
         <v>0.89057016372247721</v>
@@ -2729,7 +2729,7 @@
         <v>0.19064735945908595</v>
       </c>
       <c r="J52" s="6">
-        <v>0.42433597000000001</v>
+        <v>0.40022142999999999</v>
       </c>
       <c r="K52" s="4">
         <v>0.22289884918862563</v>
@@ -2741,7 +2741,7 @@
         <v>0.76038002675286809</v>
       </c>
       <c r="N52" s="4">
-        <v>6.4803601499724237E-2</v>
+        <v>0.40022142999999999</v>
       </c>
       <c r="O52" s="6">
         <v>1.0439425803292328</v>
@@ -2773,7 +2773,7 @@
         <v>0.20463215440848523</v>
       </c>
       <c r="J53" s="6">
-        <v>0.37530929000000002</v>
+        <v>0.39953915000000001</v>
       </c>
       <c r="K53" s="4">
         <v>0.24693230293248844</v>
@@ -2785,7 +2785,7 @@
         <v>1.0479955758186397</v>
       </c>
       <c r="N53" s="4">
-        <v>0.99999749602678467</v>
+        <v>0.39953915000000001</v>
       </c>
       <c r="O53" s="6">
         <v>1.0831332188119998</v>
@@ -2817,7 +2817,7 @@
         <v>0.18597092905997487</v>
       </c>
       <c r="J54" s="6">
-        <v>0.39991863</v>
+        <v>0.39598502000000002</v>
       </c>
       <c r="K54" s="4">
         <v>0.24643463646018254</v>
@@ -2829,7 +2829,7 @@
         <v>0.95417911012547174</v>
       </c>
       <c r="N54" s="4">
-        <v>4.2037868364618681E-4</v>
+        <v>0.39598502000000002</v>
       </c>
       <c r="O54" s="6">
         <v>1.0445234812590272</v>
@@ -2861,7 +2861,7 @@
         <v>0.20609544312451711</v>
       </c>
       <c r="J55" s="6">
-        <v>0.37627739999999998</v>
+        <v>0.38250229000000002</v>
       </c>
       <c r="K55" s="4">
         <v>0.25260400894178592</v>
@@ -2873,7 +2873,7 @@
         <v>1.4587818950342446</v>
       </c>
       <c r="N55" s="4">
-        <v>3.1600243686159264E-3</v>
+        <v>0.38250229000000002</v>
       </c>
       <c r="O55" s="6">
         <v>0.98010413483942105</v>
@@ -2905,7 +2905,7 @@
         <v>0.1945497967387895</v>
       </c>
       <c r="J56" s="6">
-        <v>0.39246365</v>
+        <v>0.38989900999999999</v>
       </c>
       <c r="K56" s="4">
         <v>0.10815116173258157</v>
@@ -2917,7 +2917,7 @@
         <v>1.1027538061386752</v>
       </c>
       <c r="N56" s="4">
-        <v>0.99999999485984814</v>
+        <v>0.38989900999999999</v>
       </c>
       <c r="O56" s="6">
         <v>1.0209982707464826</v>
@@ -2949,7 +2949,7 @@
         <v>0.20180616310979041</v>
       </c>
       <c r="J57" s="6">
-        <v>0.37695187000000002</v>
+        <v>0.40306863999999998</v>
       </c>
       <c r="K57" s="4">
         <v>0.20040692961221071</v>
@@ -2961,7 +2961,7 @@
         <v>0.76240663503107231</v>
       </c>
       <c r="N57" s="4">
-        <v>2.6786395323912957E-2</v>
+        <v>0.40306863999999998</v>
       </c>
       <c r="O57" s="6">
         <v>0.94956822764785687</v>
@@ -2993,7 +2993,7 @@
         <v>0.20561489150320084</v>
       </c>
       <c r="J58" s="6">
-        <v>0.39527735000000003</v>
+        <v>0.38410380999999999</v>
       </c>
       <c r="K58" s="4">
         <v>0.22367137723924296</v>
@@ -3005,7 +3005,7 @@
         <v>0.60767444421212324</v>
       </c>
       <c r="N58" s="4">
-        <v>0.99999432818541789</v>
+        <v>0.38410380999999999</v>
       </c>
       <c r="O58" s="6">
         <v>0.97477930511115141</v>
@@ -3037,7 +3037,7 @@
         <v>0.20058474364402323</v>
       </c>
       <c r="J59" s="6">
-        <v>0.41781140999999999</v>
+        <v>0.40845673999999998</v>
       </c>
       <c r="K59" s="4">
         <v>0.28086045668657861</v>
@@ -3049,7 +3049,7 @@
         <v>0.73945270047312672</v>
       </c>
       <c r="N59" s="4">
-        <v>0.96778581494603444</v>
+        <v>0.40845673999999998</v>
       </c>
       <c r="O59" s="6">
         <v>1.0420078199925151</v>
@@ -3081,7 +3081,7 @@
         <v>0.20370074668340621</v>
       </c>
       <c r="J60" s="6">
-        <v>0.42713435999999999</v>
+        <v>0.42072229999999999</v>
       </c>
       <c r="K60" s="4">
         <v>0.21375840664503271</v>
@@ -3093,7 +3093,7 @@
         <v>0.9434522917259438</v>
       </c>
       <c r="N60" s="4">
-        <v>0.99994111686674347</v>
+        <v>0.42072229999999999</v>
       </c>
       <c r="O60" s="6">
         <v>1.0623677672114893</v>
@@ -3125,7 +3125,7 @@
         <v>0.195182867279387</v>
       </c>
       <c r="J61" s="6">
-        <v>0.38349720999999998</v>
+        <v>0.40708749999999999</v>
       </c>
       <c r="K61" s="4">
         <v>0.19833758382130018</v>
@@ -3137,7 +3137,7 @@
         <v>1.0326518161626355</v>
       </c>
       <c r="N61" s="4">
-        <v>4.2617553628223788E-2</v>
+        <v>0.40708749999999999</v>
       </c>
       <c r="O61" s="6">
         <v>0.9848474724683921</v>
@@ -3169,7 +3169,7 @@
         <v>0.20458023723844132</v>
       </c>
       <c r="J62" s="6">
-        <v>0.38134031000000002</v>
+        <v>0.39839174999999999</v>
       </c>
       <c r="K62" s="4">
         <v>0.19918644281214162</v>
@@ -3181,7 +3181,7 @@
         <v>0.61780499348321893</v>
       </c>
       <c r="N62" s="4">
-        <v>5.9567610041302955E-9</v>
+        <v>0.39839174999999999</v>
       </c>
       <c r="O62" s="6">
         <v>0.96498183626557887</v>
@@ -3213,7 +3213,7 @@
         <v>0.19485818974543373</v>
       </c>
       <c r="J63" s="6">
-        <v>0.40866543</v>
+        <v>0.39729238</v>
       </c>
       <c r="K63" s="4">
         <v>0.20685415549258976</v>
@@ -3225,7 +3225,7 @@
         <v>0.87291833172016986</v>
       </c>
       <c r="N63" s="4">
-        <v>0.99955825736933757</v>
+        <v>0.39729238</v>
       </c>
       <c r="O63" s="6">
         <v>0.98644595087453502</v>
@@ -3257,7 +3257,7 @@
         <v>0.20285812115331051</v>
       </c>
       <c r="J64" s="6">
-        <v>0.41288902</v>
+        <v>0.3974472</v>
       </c>
       <c r="K64" s="4">
         <v>0.19450218345839992</v>
@@ -3269,7 +3269,7 @@
         <v>0.75151439196742964</v>
       </c>
       <c r="N64" s="4">
-        <v>0.99999999999963318</v>
+        <v>0.3974472</v>
       </c>
       <c r="O64" s="6">
         <v>0.93923402952802937</v>
@@ -3301,7 +3301,7 @@
         <v>0.20398363278667667</v>
       </c>
       <c r="J65" s="6">
-        <v>0.40776774999999998</v>
+        <v>0.40177480999999998</v>
       </c>
       <c r="K65" s="4">
         <v>5.6930252379334079E-2</v>
@@ -3313,7 +3313,7 @@
         <v>0.856610881392039</v>
       </c>
       <c r="N65" s="4">
-        <v>1.6082408579334104E-2</v>
+        <v>0.40177480999999998</v>
       </c>
       <c r="O65" s="6">
         <v>1.0612270781619206</v>
@@ -3345,7 +3345,7 @@
         <v>0.19642247721039316</v>
       </c>
       <c r="J66" s="6">
-        <v>0.41932477000000001</v>
+        <v>0.39224227</v>
       </c>
       <c r="K66" s="4">
         <v>0.22504481019947223</v>
@@ -3357,7 +3357,7 @@
         <v>0.93490222592151395</v>
       </c>
       <c r="N66" s="4">
-        <v>1</v>
+        <v>0.39224227</v>
       </c>
       <c r="O66" s="6">
         <v>1.0732393883707281</v>
@@ -3389,7 +3389,7 @@
         <v>0.19878397439656004</v>
       </c>
       <c r="J67" s="6">
-        <v>0.37267578000000001</v>
+        <v>0.39697051999999999</v>
       </c>
       <c r="K67" s="4">
         <v>0.22847872181009374</v>
@@ -3401,7 +3401,7 @@
         <v>0.98593540882882991</v>
       </c>
       <c r="N67" s="4">
-        <v>0.99999999522847904</v>
+        <v>0.39697051999999999</v>
       </c>
       <c r="O67" s="6">
         <v>0.95701140337681367</v>
@@ -3433,7 +3433,7 @@
         <v>0.2108199014795033</v>
       </c>
       <c r="J68" s="6">
-        <v>0.37519939000000002</v>
+        <v>0.40511434000000002</v>
       </c>
       <c r="K68" s="4">
         <v>0.17428582235032639</v>
@@ -3445,7 +3445,7 @@
         <v>1.1527131442141125</v>
       </c>
       <c r="N68" s="4">
-        <v>0.99699538483190098</v>
+        <v>0.40511434000000002</v>
       </c>
       <c r="O68" s="6">
         <v>1.0683178209798483</v>
@@ -3477,7 +3477,7 @@
         <v>0.20745064074410091</v>
       </c>
       <c r="J69" s="6">
-        <v>0.40140310000000001</v>
+        <v>0.39852345</v>
       </c>
       <c r="K69" s="4">
         <v>0.24414075462545118</v>
@@ -3489,7 +3489,7 @@
         <v>0.90334983811313152</v>
       </c>
       <c r="N69" s="4">
-        <v>0.99996158044244288</v>
+        <v>0.39852345</v>
       </c>
       <c r="O69" s="6">
         <v>0.85480418115566204</v>
@@ -3521,7 +3521,7 @@
         <v>0.1952325863804083</v>
       </c>
       <c r="J70" s="6">
-        <v>0.42975858</v>
+        <v>0.39329152000000001</v>
       </c>
       <c r="K70" s="4">
         <v>0.16022860138621764</v>
@@ -3533,7 +3533,7 @@
         <v>0.65249016789539938</v>
       </c>
       <c r="N70" s="4">
-        <v>0.86105709012698783</v>
+        <v>0.39329152000000001</v>
       </c>
       <c r="O70" s="6">
         <v>0.9512940214958383</v>
@@ -3565,7 +3565,7 @@
         <v>0.18887651482704379</v>
       </c>
       <c r="J71" s="6">
-        <v>0.36766106999999998</v>
+        <v>0.39315464</v>
       </c>
       <c r="K71" s="4">
         <v>0.17768686583576859</v>
@@ -3577,7 +3577,7 @@
         <v>0.79436141044746889</v>
       </c>
       <c r="N71" s="4">
-        <v>2.1482416934409363E-2</v>
+        <v>0.39315464</v>
       </c>
       <c r="O71" s="6">
         <v>0.9984739117945427</v>
@@ -3609,7 +3609,7 @@
         <v>0.19843739432864407</v>
       </c>
       <c r="J72" s="6">
-        <v>0.38103273999999998</v>
+        <v>0.38942778</v>
       </c>
       <c r="K72" s="4">
         <v>0.24017257189545685</v>
@@ -3621,7 +3621,7 @@
         <v>0.97567141874326513</v>
       </c>
       <c r="N72" s="4">
-        <v>0.99999999999930334</v>
+        <v>0.38942778</v>
       </c>
       <c r="O72" s="6">
         <v>0.81176358203777621</v>
@@ -3653,7 +3653,7 @@
         <v>0.19923394392473648</v>
       </c>
       <c r="J73" s="6">
-        <v>0.40904712999999998</v>
+        <v>0.40552802999999998</v>
       </c>
       <c r="K73" s="4">
         <v>0.11825453059586259</v>
@@ -3665,7 +3665,7 @@
         <v>1.2702453788659582</v>
       </c>
       <c r="N73" s="4">
-        <v>1.0375700649003228E-2</v>
+        <v>0.40552802999999998</v>
       </c>
       <c r="O73" s="6">
         <v>0.88322942734987753</v>
@@ -3697,7 +3697,7 @@
         <v>0.1876314985263563</v>
       </c>
       <c r="J74" s="6">
-        <v>0.40602439000000001</v>
+        <v>0.41921638999999999</v>
       </c>
       <c r="K74" s="4">
         <v>0.26585112656376397</v>
@@ -3709,7 +3709,7 @@
         <v>0.92750163741458491</v>
       </c>
       <c r="N74" s="4">
-        <v>0.99481258168595799</v>
+        <v>0.41921638999999999</v>
       </c>
       <c r="O74" s="6">
         <v>1.0209623411782143</v>
@@ -3741,7 +3741,7 @@
         <v>0.19662815281975218</v>
       </c>
       <c r="J75" s="6">
-        <v>0.39925479000000003</v>
+        <v>0.39200551</v>
       </c>
       <c r="K75" s="4">
         <v>0.1870808336221394</v>
@@ -3753,7 +3753,7 @@
         <v>0.81899500696151595</v>
       </c>
       <c r="N75" s="4">
-        <v>2.5712395438046261E-2</v>
+        <v>0.39200551</v>
       </c>
       <c r="O75" s="6">
         <v>0.97119652311937144</v>
@@ -3785,7 +3785,7 @@
         <v>0.19953166036919706</v>
       </c>
       <c r="J76" s="6">
-        <v>0.43446654000000001</v>
+        <v>0.39940606000000001</v>
       </c>
       <c r="K76" s="4">
         <v>0.17387676983005695</v>
@@ -3797,7 +3797,7 @@
         <v>0.60373058256568735</v>
       </c>
       <c r="N76" s="4">
-        <v>8.2534603296303901E-6</v>
+        <v>0.39940606000000001</v>
       </c>
       <c r="O76" s="6">
         <v>0.95799262591951129</v>
@@ -3829,7 +3829,7 @@
         <v>0.18434332410790158</v>
       </c>
       <c r="J77" s="6">
-        <v>0.38618373</v>
+        <v>0.39731031</v>
       </c>
       <c r="K77" s="4">
         <v>0.19143006988815103</v>
@@ -3841,7 +3841,7 @@
         <v>0.94595327780814076</v>
       </c>
       <c r="N77" s="4">
-        <v>0.7188174126083271</v>
+        <v>0.39731031</v>
       </c>
       <c r="O77" s="6">
         <v>0.9878127548517418</v>
@@ -3873,7 +3873,7 @@
         <v>0.21028680877089223</v>
       </c>
       <c r="J78" s="6">
-        <v>0.41454435000000001</v>
+        <v>0.41090792999999998</v>
       </c>
       <c r="K78" s="4">
         <v>0.14601639494737167</v>
@@ -3885,7 +3885,7 @@
         <v>0.96670733844898205</v>
       </c>
       <c r="N78" s="4">
-        <v>0.85603918606700968</v>
+        <v>0.41090792999999998</v>
       </c>
       <c r="O78" s="6">
         <v>0.9754267416010457</v>
@@ -3917,7 +3917,7 @@
         <v>0.19368504744228512</v>
       </c>
       <c r="J79" s="6">
-        <v>0.41062430999999999</v>
+        <v>0.40271195999999998</v>
       </c>
       <c r="K79" s="4">
         <v>0.19963687958211376</v>
@@ -3929,7 +3929,7 @@
         <v>0.66754577234886991</v>
       </c>
       <c r="N79" s="4">
-        <v>0.288084293938834</v>
+        <v>0.40271195999999998</v>
       </c>
       <c r="O79" s="6">
         <v>1.0313151417023585</v>
@@ -3961,7 +3961,7 @@
         <v>0.19979012190951995</v>
       </c>
       <c r="J80" s="6">
-        <v>0.40530411</v>
+        <v>0.41466752000000001</v>
       </c>
       <c r="K80" s="4">
         <v>0.19567090326687112</v>
@@ -3973,7 +3973,7 @@
         <v>0.76676061971548082</v>
       </c>
       <c r="N80" s="4">
-        <v>1.2040919525387802E-5</v>
+        <v>0.41466752000000001</v>
       </c>
       <c r="O80" s="6">
         <v>0.99394774698707034</v>
@@ -4005,7 +4005,7 @@
         <v>0.19673306247729494</v>
       </c>
       <c r="J81" s="6">
-        <v>0.42358910999999999</v>
+        <v>0.38142630999999999</v>
       </c>
       <c r="K81" s="4">
         <v>0.22417493120794832</v>
@@ -4017,7 +4017,7 @@
         <v>1.0527245957689788</v>
       </c>
       <c r="N81" s="4">
-        <v>1.4035077704543843E-3</v>
+        <v>0.38142630999999999</v>
       </c>
       <c r="O81" s="6">
         <v>0.88186436716380712</v>
@@ -4049,7 +4049,7 @@
         <v>0.18711820191222864</v>
       </c>
       <c r="J82" s="6">
-        <v>0.42565935999999999</v>
+        <v>0.39071544000000002</v>
       </c>
       <c r="K82" s="4">
         <v>0.21416383158423752</v>
@@ -4061,7 +4061,7 @@
         <v>1.1697969484293738</v>
       </c>
       <c r="N82" s="4">
-        <v>0.99955785253226836</v>
+        <v>0.39071544000000002</v>
       </c>
       <c r="O82" s="6">
         <v>0.97857400479905177</v>
@@ -4093,7 +4093,7 @@
         <v>0.17738438547510524</v>
       </c>
       <c r="J83" s="6">
-        <v>0.36763529</v>
+        <v>0.41728517999999998</v>
       </c>
       <c r="K83" s="4">
         <v>0.2020186015690742</v>
@@ -4105,7 +4105,7 @@
         <v>0.75271747457104055</v>
       </c>
       <c r="N83" s="4">
-        <v>2.1744501064149515E-2</v>
+        <v>0.41728517999999998</v>
       </c>
       <c r="O83" s="6">
         <v>0.98598219260361764</v>
@@ -4137,7 +4137,7 @@
         <v>0.20625633895289855</v>
       </c>
       <c r="J84" s="6">
-        <v>0.40242938</v>
+        <v>0.40845110000000001</v>
       </c>
       <c r="K84" s="4">
         <v>0.20923856908255833</v>
@@ -4149,7 +4149,7 @@
         <v>1.195487781763511</v>
       </c>
       <c r="N84" s="4">
-        <v>3.4504356006932531E-8</v>
+        <v>0.40845110000000001</v>
       </c>
       <c r="O84" s="6">
         <v>0.98632925062405352</v>
@@ -4181,7 +4181,7 @@
         <v>0.18729507811175058</v>
       </c>
       <c r="J85" s="6">
-        <v>0.38819095999999997</v>
+        <v>0.40975767000000002</v>
       </c>
       <c r="K85" s="4">
         <v>0.29772443210945282</v>
@@ -4193,7 +4193,7 @@
         <v>0.82325452800747001</v>
       </c>
       <c r="N85" s="4">
-        <v>2.6768808217911422E-5</v>
+        <v>0.40975767000000002</v>
       </c>
       <c r="O85" s="6">
         <v>0.80471182781454675</v>
@@ -4225,7 +4225,7 @@
         <v>0.20465036081317495</v>
       </c>
       <c r="J86" s="6">
-        <v>0.42508016999999998</v>
+        <v>0.39640482999999999</v>
       </c>
       <c r="K86" s="4">
         <v>0.21667921308464203</v>
@@ -4237,7 +4237,7 @@
         <v>0.74343665527659941</v>
       </c>
       <c r="N86" s="4">
-        <v>3.3237724564348017E-8</v>
+        <v>0.39640482999999999</v>
       </c>
       <c r="O86" s="6">
         <v>0.91858745771658501</v>
@@ -4269,7 +4269,7 @@
         <v>0.20273148097359092</v>
       </c>
       <c r="J87" s="6">
-        <v>0.41912972999999998</v>
+        <v>0.40837014999999999</v>
       </c>
       <c r="K87" s="4">
         <v>0.20261061038637923</v>
@@ -4281,7 +4281,7 @@
         <v>0.53440279824246351</v>
       </c>
       <c r="N87" s="4">
-        <v>8.7546532619765379E-7</v>
+        <v>0.40837014999999999</v>
       </c>
       <c r="O87" s="6">
         <v>0.98761937183130843</v>
@@ -4313,7 +4313,7 @@
         <v>0.19630511480154184</v>
       </c>
       <c r="J88" s="6">
-        <v>0.45532863000000001</v>
+        <v>0.42720363</v>
       </c>
       <c r="K88" s="4">
         <v>0.23448627172687</v>
@@ -4325,7 +4325,7 @@
         <v>1.0786916891134291</v>
       </c>
       <c r="N88" s="4">
-        <v>3.5731281888137921E-5</v>
+        <v>0.42720363</v>
       </c>
       <c r="O88" s="6">
         <v>0.91023477164225175</v>
@@ -4357,7 +4357,7 @@
         <v>0.20595507784687089</v>
       </c>
       <c r="J89" s="6">
-        <v>0.36818537000000001</v>
+        <v>0.40193335000000002</v>
       </c>
       <c r="K89" s="4">
         <v>0.15166298794171071</v>
@@ -4369,7 +4369,7 @@
         <v>1.3754229851337914</v>
       </c>
       <c r="N89" s="4">
-        <v>0.99999999999988254</v>
+        <v>0.40193335000000002</v>
       </c>
       <c r="O89" s="6">
         <v>0.97617678910118344</v>
@@ -4401,7 +4401,7 @@
         <v>0.19602886044043435</v>
       </c>
       <c r="J90" s="6">
-        <v>0.40851019</v>
+        <v>0.40556488000000002</v>
       </c>
       <c r="K90" s="4">
         <v>0.16867531360435561</v>
@@ -4413,7 +4413,7 @@
         <v>1.017883474644274</v>
       </c>
       <c r="N90" s="4">
-        <v>0.99996588843521395</v>
+        <v>0.40556488000000002</v>
       </c>
       <c r="O90" s="6">
         <v>0.96854003820328693</v>
@@ -4445,7 +4445,7 @@
         <v>0.19722348738035311</v>
       </c>
       <c r="J91" s="6">
-        <v>0.42283310000000002</v>
+        <v>0.41043698000000001</v>
       </c>
       <c r="K91" s="4">
         <v>0.20218942793052555</v>
@@ -4457,7 +4457,7 @@
         <v>1.2152058724184669</v>
       </c>
       <c r="N91" s="4">
-        <v>0.99999667682159132</v>
+        <v>0.41043698000000001</v>
       </c>
       <c r="O91" s="6">
         <v>1.0216267179669547</v>
@@ -4489,7 +4489,7 @@
         <v>0.21259830406081234</v>
       </c>
       <c r="J92" s="6">
-        <v>0.40039288000000001</v>
+        <v>0.38776632</v>
       </c>
       <c r="K92" s="4">
         <v>0.22042592621844312</v>
@@ -4501,7 +4501,7 @@
         <v>0.91521646207950635</v>
       </c>
       <c r="N92" s="4">
-        <v>1.0524514692616132E-7</v>
+        <v>0.38776632</v>
       </c>
       <c r="O92" s="6">
         <v>1.0442146836966304</v>
@@ -4533,7 +4533,7 @@
         <v>0.1887535066177313</v>
       </c>
       <c r="J93" s="6">
-        <v>0.36724285000000001</v>
+        <v>0.39664603999999998</v>
       </c>
       <c r="K93" s="4">
         <v>0.18202653603786534</v>
@@ -4545,7 +4545,7 @@
         <v>1.0891325351914851</v>
       </c>
       <c r="N93" s="4">
-        <v>0.99999999963254849</v>
+        <v>0.39664603999999998</v>
       </c>
       <c r="O93" s="6">
         <v>0.80086996455149384</v>
@@ -4577,7 +4577,7 @@
         <v>0.18956042804859441</v>
       </c>
       <c r="J94" s="6">
-        <v>0.40675721999999997</v>
+        <v>0.39839927000000003</v>
       </c>
       <c r="K94" s="4">
         <v>0.26881605042674411</v>
@@ -4589,7 +4589,7 @@
         <v>1.0016286079438168</v>
       </c>
       <c r="N94" s="4">
-        <v>2.4795370718113367E-4</v>
+        <v>0.39839927000000003</v>
       </c>
       <c r="O94" s="6">
         <v>1.1237486135526515</v>
@@ -4621,7 +4621,7 @@
         <v>0.2024583229903788</v>
       </c>
       <c r="J95" s="6">
-        <v>0.40638680999999999</v>
+        <v>0.38299074999999999</v>
       </c>
       <c r="K95" s="4">
         <v>0.249221091436852</v>
@@ -4633,7 +4633,7 @@
         <v>0.98246229969923793</v>
       </c>
       <c r="N95" s="4">
-        <v>3.3827113974876318E-7</v>
+        <v>0.38299074999999999</v>
       </c>
       <c r="O95" s="6">
         <v>0.97897203101885821</v>
@@ -4665,7 +4665,7 @@
         <v>0.18387848510044441</v>
       </c>
       <c r="J96" s="6">
-        <v>0.37461201</v>
+        <v>0.39657135999999998</v>
       </c>
       <c r="K96" s="4">
         <v>0.21297849690729906</v>
@@ -4677,7 +4677,7 @@
         <v>0.59090980742972921</v>
       </c>
       <c r="N96" s="4">
-        <v>0.70383711213954392</v>
+        <v>0.39657135999999998</v>
       </c>
       <c r="O96" s="6">
         <v>0.91329519661072789</v>
@@ -4709,7 +4709,7 @@
         <v>0.1850514573382982</v>
       </c>
       <c r="J97" s="6">
-        <v>0.40386727</v>
+        <v>0.39185941000000002</v>
       </c>
       <c r="K97" s="4">
         <v>0.27428382427665687</v>
@@ -4721,7 +4721,7 @@
         <v>1.1851254011168297</v>
       </c>
       <c r="N97" s="4">
-        <v>0.31701682833324718</v>
+        <v>0.39185941000000002</v>
       </c>
       <c r="O97" s="6">
         <v>0.8846686041285563</v>
@@ -4753,7 +4753,7 @@
         <v>0.20849512885783267</v>
       </c>
       <c r="J98" s="6">
-        <v>0.39699491999999997</v>
+        <v>0.39674903</v>
       </c>
       <c r="K98" s="4">
         <v>0.1633994048502794</v>
@@ -4765,7 +4765,7 @@
         <v>1.1491613178741014</v>
       </c>
       <c r="N98" s="4">
-        <v>0.99985823230379811</v>
+        <v>0.39674903</v>
       </c>
       <c r="O98" s="6">
         <v>1.1879694245445602</v>
@@ -4797,7 +4797,7 @@
         <v>0.18895712976137638</v>
       </c>
       <c r="J99" s="6">
-        <v>0.40233956999999998</v>
+        <v>0.39385144999999999</v>
       </c>
       <c r="K99" s="4">
         <v>0.20210351129755802</v>
@@ -4809,7 +4809,7 @@
         <v>1.0940708641380041</v>
       </c>
       <c r="N99" s="4">
-        <v>5.0067305669226882E-5</v>
+        <v>0.39385144999999999</v>
       </c>
       <c r="O99" s="6">
         <v>1.006801346437558</v>
@@ -4841,7 +4841,7 @@
         <v>0.19132263904324187</v>
       </c>
       <c r="J100" s="6">
-        <v>0.38849261000000002</v>
+        <v>0.40145455000000002</v>
       </c>
       <c r="K100" s="4">
         <v>0.16942578397463987</v>
@@ -4853,7 +4853,7 @@
         <v>0.44651731347722812</v>
       </c>
       <c r="N100" s="4">
-        <v>0.25163369330373853</v>
+        <v>0.40145455000000002</v>
       </c>
       <c r="O100" s="6">
         <v>1.0871236066888015</v>
@@ -4885,7 +4885,7 @@
         <v>0.20120180006518695</v>
       </c>
       <c r="J101" s="6">
-        <v>0.41115434000000001</v>
+        <v>0.39903569999999999</v>
       </c>
       <c r="K101" s="4">
         <v>0.15551411157070491</v>
@@ -4897,7 +4897,7 @@
         <v>0.92484085775413638</v>
       </c>
       <c r="N101" s="4">
-        <v>1.3247600987983871E-10</v>
+        <v>0.39903569999999999</v>
       </c>
       <c r="O101" s="6">
         <v>1.0315912312353019</v>
@@ -4929,7 +4929,7 @@
         <v>0.18617771205321795</v>
       </c>
       <c r="J102" s="6">
-        <v>0.40014240000000001</v>
+        <v>0.38405294000000001</v>
       </c>
       <c r="K102" s="4">
         <v>0.21938666484986535</v>
@@ -4941,7 +4941,7 @@
         <v>0.8711079758883965</v>
       </c>
       <c r="N102" s="4">
-        <v>1.3764989516492022E-8</v>
+        <v>0.38405294000000001</v>
       </c>
       <c r="O102" s="6">
         <v>0.96695561838136745</v>
@@ -4973,7 +4973,7 @@
         <v>0.18718102861248506</v>
       </c>
       <c r="J103" s="6">
-        <v>0.39217547000000003</v>
+        <v>0.39665900999999998</v>
       </c>
       <c r="K103" s="4">
         <v>0.25574019252970026</v>
@@ -4985,7 +4985,7 @@
         <v>0.8348979090471208</v>
       </c>
       <c r="N103" s="4">
-        <v>1.3029998104110789E-2</v>
+        <v>0.39665900999999998</v>
       </c>
       <c r="O103" s="6">
         <v>0.79892540698285275</v>
@@ -5017,7 +5017,7 @@
         <v>0.19038662238801204</v>
       </c>
       <c r="J104" s="6">
-        <v>0.45529546999999998</v>
+        <v>0.39689906000000003</v>
       </c>
       <c r="K104" s="4">
         <v>0.20367036012652895</v>
@@ -5029,7 +5029,7 @@
         <v>1.1124640368624861</v>
       </c>
       <c r="N104" s="4">
-        <v>0.20599542550960304</v>
+        <v>0.39689906000000003</v>
       </c>
       <c r="O104" s="6">
         <v>0.99907948082058529</v>
@@ -5061,7 +5061,7 @@
         <v>0.19597490584451929</v>
       </c>
       <c r="J105" s="6">
-        <v>0.38964149999999997</v>
+        <v>0.40204968000000002</v>
       </c>
       <c r="K105" s="4">
         <v>0.23698925577524024</v>
@@ -5073,7 +5073,7 @@
         <v>1.1805101449400215</v>
       </c>
       <c r="N105" s="4">
-        <v>0.95127692926013807</v>
+        <v>0.40204968000000002</v>
       </c>
       <c r="O105" s="6">
         <v>0.90656721695795772</v>
@@ -5105,7 +5105,7 @@
         <v>0.20729025842925852</v>
       </c>
       <c r="J106" s="6">
-        <v>0.43274383999999999</v>
+        <v>0.38707979999999997</v>
       </c>
       <c r="K106" s="4">
         <v>0.21404464322939329</v>
@@ -5117,7 +5117,7 @@
         <v>1.0697068085803041</v>
       </c>
       <c r="N106" s="4">
-        <v>0.99816919294467965</v>
+        <v>0.38707979999999997</v>
       </c>
       <c r="O106" s="6">
         <v>1.139439520588269</v>
@@ -5149,7 +5149,7 @@
         <v>0.2111068752292331</v>
       </c>
       <c r="J107" s="6">
-        <v>0.41959737000000003</v>
+        <v>0.40843244000000001</v>
       </c>
       <c r="K107" s="4">
         <v>0.24029701426792607</v>
@@ -5161,7 +5161,7 @@
         <v>0.98657582021181622</v>
       </c>
       <c r="N107" s="4">
-        <v>0.97384130314702066</v>
+        <v>0.40843244000000001</v>
       </c>
       <c r="O107" s="6">
         <v>0.82328734010491245</v>
@@ -5193,7 +5193,7 @@
         <v>0.20730598770501824</v>
       </c>
       <c r="J108" s="6">
-        <v>0.42620975999999999</v>
+        <v>0.40238236999999999</v>
       </c>
       <c r="K108" s="4">
         <v>0.1881049595100569</v>
@@ -5205,7 +5205,7 @@
         <v>0.90250257582911397</v>
       </c>
       <c r="N108" s="4">
-        <v>0.95976965837855366</v>
+        <v>0.40238236999999999</v>
       </c>
       <c r="O108" s="6">
         <v>1.0138069763589674</v>
@@ -5237,7 +5237,7 @@
         <v>0.19619127194928579</v>
       </c>
       <c r="J109" s="6">
-        <v>0.41330854</v>
+        <v>0.40427879999999999</v>
       </c>
       <c r="K109" s="4">
         <v>0.14362703735133092</v>
@@ -5249,7 +5249,7 @@
         <v>0.6946324499701384</v>
       </c>
       <c r="N109" s="4">
-        <v>0.99982279010065267</v>
+        <v>0.40427879999999999</v>
       </c>
       <c r="O109" s="6">
         <v>0.97126673407667263</v>
@@ -5281,7 +5281,7 @@
         <v>0.1939240550960295</v>
       </c>
       <c r="J110" s="6">
-        <v>0.39085341000000001</v>
+        <v>0.39849970000000001</v>
       </c>
       <c r="K110" s="4">
         <v>0.20343775809819292</v>
@@ -5293,7 +5293,7 @@
         <v>0.86887005795803107</v>
       </c>
       <c r="N110" s="4">
-        <v>0.99999999997468625</v>
+        <v>0.39849970000000001</v>
       </c>
       <c r="O110" s="6">
         <v>1.0079675543170019</v>
@@ -5325,7 +5325,7 @@
         <v>0.19498972936071959</v>
       </c>
       <c r="J111" s="6">
-        <v>0.41311055000000002</v>
+        <v>0.40175185000000002</v>
       </c>
       <c r="K111" s="4">
         <v>0.2853109302090534</v>
@@ -5337,7 +5337,7 @@
         <v>0.54134837960972193</v>
       </c>
       <c r="N111" s="4">
-        <v>7.7235157863679717E-5</v>
+        <v>0.40175185000000002</v>
       </c>
       <c r="O111" s="6">
         <v>0.87892632749600863</v>
@@ -5369,7 +5369,7 @@
         <v>0.2020293934766437</v>
       </c>
       <c r="J112" s="6">
-        <v>0.41578904999999999</v>
+        <v>0.39225104999999999</v>
       </c>
       <c r="K112" s="4">
         <v>0.19476682438455029</v>
@@ -5381,7 +5381,7 @@
         <v>0.89420392830620721</v>
       </c>
       <c r="N112" s="4">
-        <v>0.15556596291923563</v>
+        <v>0.39225104999999999</v>
       </c>
       <c r="O112" s="6">
         <v>0.9930784868118695</v>
@@ -5413,7 +5413,7 @@
         <v>0.21267922714601023</v>
       </c>
       <c r="J113" s="6">
-        <v>0.37598256000000002</v>
+        <v>0.38997256000000002</v>
       </c>
       <c r="K113" s="4">
         <v>0.18565389947128533</v>
@@ -5425,7 +5425,7 @@
         <v>1.3114384121795668</v>
       </c>
       <c r="N113" s="4">
-        <v>4.8841686156103133E-2</v>
+        <v>0.38997256000000002</v>
       </c>
       <c r="O113" s="6">
         <v>0.91276081081910354</v>
@@ -5457,7 +5457,7 @@
         <v>0.19392183463889723</v>
       </c>
       <c r="J114" s="6">
-        <v>0.39067679</v>
+        <v>0.41873817000000002</v>
       </c>
       <c r="K114" s="4">
         <v>0.19770888769243228</v>
@@ -5469,7 +5469,7 @@
         <v>0.89797506611759081</v>
       </c>
       <c r="N114" s="4">
-        <v>1.2040814029642247E-2</v>
+        <v>0.41873817000000002</v>
       </c>
       <c r="O114" s="6">
         <v>1.0093984611597262</v>
@@ -5501,7 +5501,7 @@
         <v>0.21496540658451635</v>
       </c>
       <c r="J115" s="6">
-        <v>0.40879282</v>
+        <v>0.39164786000000001</v>
       </c>
       <c r="K115" s="4">
         <v>0.2220158473862574</v>
@@ -5513,7 +5513,7 @@
         <v>0.85455648191173494</v>
       </c>
       <c r="N115" s="4">
-        <v>0.94148308013970894</v>
+        <v>0.39164786000000001</v>
       </c>
       <c r="O115" s="6">
         <v>1.0841099847772933</v>
@@ -5545,7 +5545,7 @@
         <v>0.19634098096075109</v>
       </c>
       <c r="J116" s="6">
-        <v>0.39284604000000001</v>
+        <v>0.38962744999999999</v>
       </c>
       <c r="K116" s="4">
         <v>0.20702300240042135</v>
@@ -5557,7 +5557,7 @@
         <v>0.83185905889232403</v>
       </c>
       <c r="N116" s="4">
-        <v>0.90069356931554767</v>
+        <v>0.38962744999999999</v>
       </c>
       <c r="O116" s="6">
         <v>1.0133081756830784</v>
@@ -5589,7 +5589,7 @@
         <v>0.20229766132201379</v>
       </c>
       <c r="J117" s="6">
-        <v>0.38335729000000002</v>
+        <v>0.40879483</v>
       </c>
       <c r="K117" s="4">
         <v>0.18791461958545136</v>
@@ -5601,7 +5601,7 @@
         <v>0.67038572435259369</v>
       </c>
       <c r="N117" s="4">
-        <v>0.91310280162455792</v>
+        <v>0.40879483</v>
       </c>
       <c r="O117" s="6">
         <v>1.1326535941024587</v>
@@ -5633,7 +5633,7 @@
         <v>0.18516518046476396</v>
       </c>
       <c r="J118" s="6">
-        <v>0.39699187000000002</v>
+        <v>0.41027936999999998</v>
       </c>
       <c r="K118" s="4">
         <v>0.20919122102175955</v>
@@ -5645,7 +5645,7 @@
         <v>0.73952892041144347</v>
       </c>
       <c r="N118" s="4">
-        <v>8.2710089993313168E-2</v>
+        <v>0.41027936999999998</v>
       </c>
       <c r="O118" s="6">
         <v>1.1884562814584692</v>
@@ -5677,7 +5677,7 @@
         <v>0.18481620972306995</v>
       </c>
       <c r="J119" s="6">
-        <v>0.40051978999999999</v>
+        <v>0.40914274</v>
       </c>
       <c r="K119" s="4">
         <v>0.22460644004757693</v>
@@ -5689,7 +5689,7 @@
         <v>0.97088493288772626</v>
       </c>
       <c r="N119" s="4">
-        <v>1.8418043871925083E-2</v>
+        <v>0.40914274</v>
       </c>
       <c r="O119" s="6">
         <v>1.0138429826138218</v>
@@ -5721,7 +5721,7 @@
         <v>0.19562361406380083</v>
       </c>
       <c r="J120" s="6">
-        <v>0.44578769000000001</v>
+        <v>0.39995776</v>
       </c>
       <c r="K120" s="4">
         <v>0.15360143463595546</v>
@@ -5733,7 +5733,7 @@
         <v>1.0984260155590202</v>
       </c>
       <c r="N120" s="4">
-        <v>2.4367662965834317E-2</v>
+        <v>0.39995776</v>
       </c>
       <c r="O120" s="6">
         <v>1.0219520228008265</v>
@@ -5765,7 +5765,7 @@
         <v>0.1983607709707432</v>
       </c>
       <c r="J121" s="6">
-        <v>0.37851358000000002</v>
+        <v>0.39027293000000002</v>
       </c>
       <c r="K121" s="4">
         <v>0.18844254880465156</v>
@@ -5777,7 +5777,7 @@
         <v>1.0630585312506184</v>
       </c>
       <c r="N121" s="4">
-        <v>3.22871971100527E-2</v>
+        <v>0.39027293000000002</v>
       </c>
       <c r="O121" s="6">
         <v>1.0852149455389959</v>
@@ -5809,7 +5809,7 @@
         <v>0.20362149785881914</v>
       </c>
       <c r="J122" s="6">
-        <v>0.41942404</v>
+        <v>0.39717622000000002</v>
       </c>
       <c r="K122" s="4">
         <v>0.2608785616040592</v>
@@ -5821,7 +5821,7 @@
         <v>0.98386741447011228</v>
       </c>
       <c r="N122" s="4">
-        <v>2.0451032387261616E-6</v>
+        <v>0.39717622000000002</v>
       </c>
       <c r="O122" s="6">
         <v>0.97217593354984577</v>
@@ -5853,7 +5853,7 @@
         <v>0.21178009005284373</v>
       </c>
       <c r="J123" s="6">
-        <v>0.42000969999999999</v>
+        <v>0.38492029999999999</v>
       </c>
       <c r="K123" s="4">
         <v>0.16963177653100564</v>
@@ -5865,7 +5865,7 @@
         <v>0.68481424406883595</v>
       </c>
       <c r="N123" s="4">
-        <v>0.9999999959421999</v>
+        <v>0.38492029999999999</v>
       </c>
       <c r="O123" s="6">
         <v>0.99024380522041389</v>
@@ -5897,7 +5897,7 @@
         <v>0.21880002132848195</v>
       </c>
       <c r="J124" s="6">
-        <v>0.42124233</v>
+        <v>0.37997963000000001</v>
       </c>
       <c r="K124" s="4">
         <v>0.23929901167112219</v>
@@ -5909,7 +5909,7 @@
         <v>0.75740965488542589</v>
       </c>
       <c r="N124" s="4">
-        <v>0.99889681774423589</v>
+        <v>0.37997963000000001</v>
       </c>
       <c r="O124" s="6">
         <v>0.95477851424133731</v>
@@ -5941,7 +5941,7 @@
         <v>0.17806009352938335</v>
       </c>
       <c r="J125" s="6">
-        <v>0.38136916999999998</v>
+        <v>0.39755531</v>
       </c>
       <c r="K125" s="4">
         <v>0.16507343677608405</v>
@@ -5953,7 +5953,7 @@
         <v>0.87019930924947375</v>
       </c>
       <c r="N125" s="4">
-        <v>0.99571918587340424</v>
+        <v>0.39755531</v>
       </c>
       <c r="O125" s="6">
         <v>0.99289365299522792</v>
@@ -5985,7 +5985,7 @@
         <v>0.20829023420117596</v>
       </c>
       <c r="J126" s="6">
-        <v>0.36660559999999998</v>
+        <v>0.40103195000000003</v>
       </c>
       <c r="K126" s="4">
         <v>0.2167274501757265</v>
@@ -5997,7 +5997,7 @@
         <v>0.9049659140988997</v>
       </c>
       <c r="N126" s="4">
-        <v>3.5033132603770801E-4</v>
+        <v>0.40103195000000003</v>
       </c>
       <c r="O126" s="6">
         <v>1.0393026095908786</v>
@@ -6029,7 +6029,7 @@
         <v>0.1982856224256736</v>
       </c>
       <c r="J127" s="6">
-        <v>0.37383981999999999</v>
+        <v>0.41117302999999999</v>
       </c>
       <c r="K127" s="4">
         <v>0.20100771109090532</v>
@@ -6041,7 +6041,7 @@
         <v>0.81462982995765432</v>
       </c>
       <c r="N127" s="4">
-        <v>1.2491409162062102E-2</v>
+        <v>0.41117302999999999</v>
       </c>
       <c r="O127" s="6">
         <v>0.99340677585974579</v>
@@ -6073,7 +6073,7 @@
         <v>0.22255137605646041</v>
       </c>
       <c r="J128" s="6">
-        <v>0.41739978</v>
+        <v>0.39881486999999999</v>
       </c>
       <c r="K128" s="4">
         <v>0.17649279422076231</v>
@@ -6085,7 +6085,7 @@
         <v>1.1672199468226938</v>
       </c>
       <c r="N128" s="4">
-        <v>9.6712342696616715E-2</v>
+        <v>0.39881486999999999</v>
       </c>
       <c r="O128" s="6">
         <v>1.1296883543450893</v>
@@ -6117,7 +6117,7 @@
         <v>0.20491330939002739</v>
       </c>
       <c r="J129" s="6">
-        <v>0.41604340000000001</v>
+        <v>0.38573445000000001</v>
       </c>
       <c r="K129" s="4">
         <v>0.29843395467076944</v>
@@ -6129,7 +6129,7 @@
         <v>1.0273379689883304</v>
       </c>
       <c r="N129" s="4">
-        <v>0.40241996811088321</v>
+        <v>0.38573445000000001</v>
       </c>
       <c r="O129" s="6">
         <v>0.8827688359560677</v>
@@ -6161,7 +6161,7 @@
         <v>0.18565331128965576</v>
       </c>
       <c r="J130" s="6">
-        <v>0.42323954000000003</v>
+        <v>0.39952977000000001</v>
       </c>
       <c r="K130" s="4">
         <v>0.15751580311917118</v>
@@ -6173,7 +6173,7 @@
         <v>0.89779250138132105</v>
       </c>
       <c r="N130" s="4">
-        <v>9.2630039244221297E-4</v>
+        <v>0.39952977000000001</v>
       </c>
       <c r="O130" s="6">
         <v>0.9746872975578833</v>
@@ -6205,7 +6205,7 @@
         <v>0.19989606240323135</v>
       </c>
       <c r="J131" s="6">
-        <v>0.41050776999999999</v>
+        <v>0.39050615</v>
       </c>
       <c r="K131" s="4">
         <v>0.20496455686371576</v>
@@ -6217,7 +6217,7 @@
         <v>0.65854240940733777</v>
       </c>
       <c r="N131" s="4">
-        <v>9.9715479892927719E-7</v>
+        <v>0.39050615</v>
       </c>
       <c r="O131" s="6">
         <v>0.89480963104154998</v>
@@ -6249,7 +6249,7 @@
         <v>0.20194109499709292</v>
       </c>
       <c r="J132" s="6">
-        <v>0.40731012999999999</v>
+        <v>0.40603980000000001</v>
       </c>
       <c r="K132" s="4">
         <v>0.16860011226369342</v>
@@ -6261,7 +6261,7 @@
         <v>0.87550126514734539</v>
       </c>
       <c r="N132" s="4">
-        <v>8.8825661417340024E-2</v>
+        <v>0.40603980000000001</v>
       </c>
       <c r="O132" s="6">
         <v>0.89588129944165962</v>
@@ -6293,7 +6293,7 @@
         <v>0.20053313130053704</v>
       </c>
       <c r="J133" s="6">
-        <v>0.42834243</v>
+        <v>0.41069240000000001</v>
       </c>
       <c r="K133" s="4">
         <v>0.17738978707690942</v>
@@ -6305,7 +6305,7 @@
         <v>0.82650751000738143</v>
       </c>
       <c r="N133" s="4">
-        <v>1.3083009366356457E-5</v>
+        <v>0.41069240000000001</v>
       </c>
       <c r="O133" s="6">
         <v>1.0404036679396367</v>
@@ -6337,7 +6337,7 @@
         <v>0.2085519360220135</v>
       </c>
       <c r="J134" s="6">
-        <v>0.39385046000000001</v>
+        <v>0.41014721999999998</v>
       </c>
       <c r="K134" s="4">
         <v>0.20279380795796403</v>
@@ -6349,7 +6349,7 @@
         <v>1.0307756789112834</v>
       </c>
       <c r="N134" s="4">
-        <v>6.3611006757805112E-3</v>
+        <v>0.41014721999999998</v>
       </c>
       <c r="O134" s="6">
         <v>0.91672751914364425</v>
@@ -6381,7 +6381,7 @@
         <v>0.19711760858328345</v>
       </c>
       <c r="J135" s="6">
-        <v>0.40419706</v>
+        <v>0.40131681000000002</v>
       </c>
       <c r="K135" s="4">
         <v>0.23505021149873012</v>
@@ -6393,7 +6393,7 @@
         <v>1.0271221725460493</v>
       </c>
       <c r="N135" s="4">
-        <v>0.99980958037201484</v>
+        <v>0.40131681000000002</v>
       </c>
       <c r="O135" s="6">
         <v>1.083388007105877</v>
@@ -6425,7 +6425,7 @@
         <v>0.19174159273772892</v>
       </c>
       <c r="J136" s="6">
-        <v>0.35359391000000001</v>
+        <v>0.39644009000000002</v>
       </c>
       <c r="K136" s="4">
         <v>0.24845452469801502</v>
@@ -6437,7 +6437,7 @@
         <v>0.84261906787767393</v>
       </c>
       <c r="N136" s="4">
-        <v>7.5534332822976752E-2</v>
+        <v>0.39644009000000002</v>
       </c>
       <c r="O136" s="6">
         <v>1.0307581401890835</v>
@@ -6469,7 +6469,7 @@
         <v>0.17711774037591943</v>
       </c>
       <c r="J137" s="6">
-        <v>0.38980123</v>
+        <v>0.39077748000000001</v>
       </c>
       <c r="K137" s="4">
         <v>0.22648095902388105</v>
@@ -6481,7 +6481,7 @@
         <v>0.83999635391757888</v>
       </c>
       <c r="N137" s="4">
-        <v>0.24470609254055384</v>
+        <v>0.39077748000000001</v>
       </c>
       <c r="O137" s="6">
         <v>0.9571923148832584</v>
@@ -6513,7 +6513,7 @@
         <v>0.20517375486153958</v>
       </c>
       <c r="J138" s="6">
-        <v>0.37153668000000001</v>
+        <v>0.37051541999999998</v>
       </c>
       <c r="K138" s="4">
         <v>0.24590823106987847</v>
@@ -6525,7 +6525,7 @@
         <v>1.0539166430909312</v>
       </c>
       <c r="N138" s="4">
-        <v>0.99999990437036745</v>
+        <v>0.37051541999999998</v>
       </c>
       <c r="O138" s="6">
         <v>1.0828191359795702</v>
@@ -6557,7 +6557,7 @@
         <v>0.19371124766531186</v>
       </c>
       <c r="J139" s="6">
-        <v>0.42690904000000002</v>
+        <v>0.40917585000000001</v>
       </c>
       <c r="K139" s="4">
         <v>0.16313775679576584</v>
@@ -6569,7 +6569,7 @@
         <v>0.50339490176542712</v>
       </c>
       <c r="N139" s="4">
-        <v>0.98643137346204035</v>
+        <v>0.40917585000000001</v>
       </c>
       <c r="O139" s="6">
         <v>0.99515133588416971</v>
@@ -6601,7 +6601,7 @@
         <v>0.1977332598341644</v>
       </c>
       <c r="J140" s="6">
-        <v>0.39375374000000002</v>
+        <v>0.40710622000000002</v>
       </c>
       <c r="K140" s="4">
         <v>0.24726239843672074</v>
@@ -6613,7 +6613,7 @@
         <v>0.952465866190504</v>
       </c>
       <c r="N140" s="4">
-        <v>0.99996601185137213</v>
+        <v>0.40710622000000002</v>
       </c>
       <c r="O140" s="6">
         <v>1.1085158516160949</v>
@@ -6645,7 +6645,7 @@
         <v>0.20151401497097121</v>
       </c>
       <c r="J141" s="6">
-        <v>0.40760793000000001</v>
+        <v>0.41094765</v>
       </c>
       <c r="K141" s="4">
         <v>0.18015077671255947</v>
@@ -6657,7 +6657,7 @@
         <v>1.0131648299140836</v>
       </c>
       <c r="N141" s="4">
-        <v>0.99999999539547924</v>
+        <v>0.41094765</v>
       </c>
       <c r="O141" s="6">
         <v>0.97666011667271913</v>
@@ -6689,7 +6689,7 @@
         <v>0.20058344473658621</v>
       </c>
       <c r="J142" s="6">
-        <v>0.40953412</v>
+        <v>0.41267682</v>
       </c>
       <c r="K142" s="4">
         <v>0.24411447671273778</v>
@@ -6701,7 +6701,7 @@
         <v>0.9095488593094504</v>
       </c>
       <c r="N142" s="4">
-        <v>1.7386866483888049E-4</v>
+        <v>0.41267682</v>
       </c>
       <c r="O142" s="6">
         <v>0.93497253797041979</v>
@@ -6733,7 +6733,7 @@
         <v>0.2157980172328714</v>
       </c>
       <c r="J143" s="6">
-        <v>0.39210884000000001</v>
+        <v>0.39157511</v>
       </c>
       <c r="K143" s="4">
         <v>0.23512156020082597</v>
@@ -6745,7 +6745,7 @@
         <v>0.90472172614930324</v>
       </c>
       <c r="N143" s="4">
-        <v>0.93210216992157779</v>
+        <v>0.39157511</v>
       </c>
       <c r="O143" s="6">
         <v>1.0821555018362037</v>
@@ -6777,7 +6777,7 @@
         <v>0.20663397799329494</v>
       </c>
       <c r="J144" s="6">
-        <v>0.39251647000000001</v>
+        <v>0.39684469999999999</v>
       </c>
       <c r="K144" s="4">
         <v>0.25773093747911424</v>
@@ -6789,7 +6789,7 @@
         <v>0.93757577795412128</v>
       </c>
       <c r="N144" s="4">
-        <v>4.5887196272301374E-2</v>
+        <v>0.39684469999999999</v>
       </c>
       <c r="O144" s="6">
         <v>0.81259676350390686</v>
@@ -6821,7 +6821,7 @@
         <v>0.20139960767782372</v>
       </c>
       <c r="J145" s="6">
-        <v>0.39295911</v>
+        <v>0.39592887999999998</v>
       </c>
       <c r="K145" s="4">
         <v>0.16597382257059351</v>
@@ -6833,7 +6833,7 @@
         <v>1.2050466743025194</v>
       </c>
       <c r="N145" s="4">
-        <v>0.9999998880687837</v>
+        <v>0.39592887999999998</v>
       </c>
       <c r="O145" s="6">
         <v>0.89533492562768124</v>
@@ -6865,7 +6865,7 @@
         <v>0.18474983201503953</v>
       </c>
       <c r="J146" s="6">
-        <v>0.40406247000000001</v>
+        <v>0.40949746999999997</v>
       </c>
       <c r="K146" s="4">
         <v>0.24166589087818635</v>
@@ -6877,7 +6877,7 @@
         <v>0.87940243983406241</v>
       </c>
       <c r="N146" s="4">
-        <v>0.81016463304681396</v>
+        <v>0.40949746999999997</v>
       </c>
       <c r="O146" s="6">
         <v>0.98010378115107111</v>
@@ -6909,7 +6909,7 @@
         <v>0.20838034132254477</v>
       </c>
       <c r="J147" s="6">
-        <v>0.38774773000000001</v>
+        <v>0.40577159000000002</v>
       </c>
       <c r="K147" s="4">
         <v>0.1642949337514277</v>
@@ -6921,7 +6921,7 @@
         <v>0.81320634516516277</v>
       </c>
       <c r="N147" s="4">
-        <v>0.76360343189982194</v>
+        <v>0.40577159000000002</v>
       </c>
       <c r="O147" s="6">
         <v>0.98517715732378985</v>
@@ -6953,7 +6953,7 @@
         <v>0.21304691142846982</v>
       </c>
       <c r="J148" s="6">
-        <v>0.42108811000000002</v>
+        <v>0.39173793000000001</v>
       </c>
       <c r="K148" s="4">
         <v>0.17173136326942023</v>
@@ -6965,7 +6965,7 @@
         <v>0.75546508337483165</v>
       </c>
       <c r="N148" s="4">
-        <v>0.99837213788664969</v>
+        <v>0.39173793000000001</v>
       </c>
       <c r="O148" s="6">
         <v>0.96911509969899823</v>
@@ -6997,7 +6997,7 @@
         <v>0.19552537998722203</v>
       </c>
       <c r="J149" s="6">
-        <v>0.41021663000000003</v>
+        <v>0.40593194999999999</v>
       </c>
       <c r="K149" s="4">
         <v>0.2067796194751306</v>
@@ -7009,7 +7009,7 @@
         <v>0.7494487695376324</v>
       </c>
       <c r="N149" s="4">
-        <v>1.0645357367088512E-2</v>
+        <v>0.40593194999999999</v>
       </c>
       <c r="O149" s="6">
         <v>1.0426004847119963</v>
@@ -7041,7 +7041,7 @@
         <v>0.19034100353205025</v>
       </c>
       <c r="J150" s="6">
-        <v>0.41903027999999998</v>
+        <v>0.40830284</v>
       </c>
       <c r="K150" s="4">
         <v>0.28362393634756439</v>
@@ -7053,7 +7053,7 @@
         <v>1.0940204945921499</v>
       </c>
       <c r="N150" s="4">
-        <v>0.99999999999999989</v>
+        <v>0.40830284</v>
       </c>
       <c r="O150" s="6">
         <v>1.0449736881720495</v>
@@ -7085,7 +7085,7 @@
         <v>0.19669633991711286</v>
       </c>
       <c r="J151" s="6">
-        <v>0.37403314999999998</v>
+        <v>0.40912929999999997</v>
       </c>
       <c r="K151" s="4">
         <v>0.22049347921553239</v>
@@ -7097,7 +7097,7 @@
         <v>1.2659083731453113</v>
       </c>
       <c r="N151" s="4">
-        <v>0.53962194085149595</v>
+        <v>0.40912929999999997</v>
       </c>
       <c r="O151" s="6">
         <v>0.96235873428015062</v>
@@ -7129,7 +7129,7 @@
         <v>0.21616130092811908</v>
       </c>
       <c r="J152" s="6">
-        <v>0.38269605000000001</v>
+        <v>0.41120641000000002</v>
       </c>
       <c r="K152" s="4">
         <v>0.23209532406922867</v>
@@ -7141,7 +7141,7 @@
         <v>0.70173205097158975</v>
       </c>
       <c r="N152" s="4">
-        <v>0.19939045679438627</v>
+        <v>0.41120641000000002</v>
       </c>
       <c r="O152" s="6">
         <v>0.95381745024600706</v>
@@ -7173,7 +7173,7 @@
         <v>0.20112759539615704</v>
       </c>
       <c r="J153" s="6">
-        <v>0.40621299</v>
+        <v>0.40136946000000001</v>
       </c>
       <c r="K153" s="4">
         <v>0.24177140420192705</v>
@@ -7185,7 +7185,7 @@
         <v>0.95838191465754075</v>
       </c>
       <c r="N153" s="4">
-        <v>0.87752853718312929</v>
+        <v>0.40136946000000001</v>
       </c>
       <c r="O153" s="6">
         <v>0.98783377452722687</v>
@@ -7217,7 +7217,7 @@
         <v>0.18807273535758923</v>
       </c>
       <c r="J154" s="6">
-        <v>0.40434514999999999</v>
+        <v>0.39742145000000001</v>
       </c>
       <c r="K154" s="4">
         <v>0.17471269737325412</v>
@@ -7229,7 +7229,7 @@
         <v>0.896458199896352</v>
       </c>
       <c r="N154" s="4">
-        <v>4.2269070100283007E-9</v>
+        <v>0.39742145000000001</v>
       </c>
       <c r="O154" s="6">
         <v>0.87691791265112518</v>
@@ -7261,7 +7261,7 @@
         <v>0.20314118156945379</v>
       </c>
       <c r="J155" s="6">
-        <v>0.37818164999999998</v>
+        <v>0.39739022000000002</v>
       </c>
       <c r="K155" s="4">
         <v>0.1834516736752988</v>
@@ -7273,7 +7273,7 @@
         <v>0.83091055758809207</v>
       </c>
       <c r="N155" s="4">
-        <v>0.9998713561135274</v>
+        <v>0.39739022000000002</v>
       </c>
       <c r="O155" s="6">
         <v>0.93725207303040792</v>
@@ -7305,7 +7305,7 @@
         <v>0.19141354712471254</v>
       </c>
       <c r="J156" s="6">
-        <v>0.42959391000000002</v>
+        <v>0.40281072000000001</v>
       </c>
       <c r="K156" s="4">
         <v>0.22676818542230656</v>
@@ -7317,7 +7317,7 @@
         <v>1.0262680316760149</v>
       </c>
       <c r="N156" s="4">
-        <v>0.99999785919290052</v>
+        <v>0.40281072000000001</v>
       </c>
       <c r="O156" s="6">
         <v>1.0190607297137757</v>
@@ -7349,7 +7349,7 @@
         <v>0.20410356368741114</v>
       </c>
       <c r="J157" s="6">
-        <v>0.39920636999999998</v>
+        <v>0.41190452999999999</v>
       </c>
       <c r="K157" s="4">
         <v>0.19327852903337644</v>
@@ -7361,7 +7361,7 @@
         <v>1.0685573774994648</v>
       </c>
       <c r="N157" s="4">
-        <v>1.3565956393600123E-7</v>
+        <v>0.41190452999999999</v>
       </c>
       <c r="O157" s="6">
         <v>1.1351971626535569</v>
@@ -7393,7 +7393,7 @@
         <v>0.21401992306108664</v>
       </c>
       <c r="J158" s="6">
-        <v>0.38677401</v>
+        <v>0.40258830000000001</v>
       </c>
       <c r="K158" s="4">
         <v>0.1570989870416967</v>
@@ -7405,7 +7405,7 @@
         <v>0.83039112374460045</v>
       </c>
       <c r="N158" s="4">
-        <v>0.39691855521551278</v>
+        <v>0.40258830000000001</v>
       </c>
       <c r="O158" s="6">
         <v>0.88353277974067546</v>
@@ -7437,7 +7437,7 @@
         <v>0.18267505832946235</v>
       </c>
       <c r="J159" s="6">
-        <v>0.41035112000000001</v>
+        <v>0.38875176</v>
       </c>
       <c r="K159" s="4">
         <v>0.24122591235867313</v>
@@ -7449,7 +7449,7 @@
         <v>0.91505356887053402</v>
       </c>
       <c r="N159" s="4">
-        <v>0.99997828235420905</v>
+        <v>0.38875176</v>
       </c>
       <c r="O159" s="6">
         <v>0.84659448484389399</v>
@@ -7481,7 +7481,7 @@
         <v>0.1890251803768698</v>
       </c>
       <c r="J160" s="6">
-        <v>0.35867007000000001</v>
+        <v>0.41077818999999999</v>
       </c>
       <c r="K160" s="4">
         <v>0.24440781505892623</v>
@@ -7493,7 +7493,7 @@
         <v>0.66344134222192674</v>
       </c>
       <c r="N160" s="4">
-        <v>0.97492635830066077</v>
+        <v>0.41077818999999999</v>
       </c>
       <c r="O160" s="6">
         <v>1.1409453068689761</v>
@@ -7525,7 +7525,7 @@
         <v>0.19944494151551184</v>
       </c>
       <c r="J161" s="6">
-        <v>0.37984402</v>
+        <v>0.39338641000000002</v>
       </c>
       <c r="K161" s="4">
         <v>0.20093813335694685</v>
@@ -7537,7 +7537,7 @@
         <v>0.84247026866932595</v>
       </c>
       <c r="N161" s="4">
-        <v>0.99611039441439675</v>
+        <v>0.39338641000000002</v>
       </c>
       <c r="O161" s="6">
         <v>1.0425631810481433</v>
@@ -7569,7 +7569,7 @@
         <v>0.19039704408334301</v>
       </c>
       <c r="J162" s="6">
-        <v>0.37422941999999998</v>
+        <v>0.40717854999999997</v>
       </c>
       <c r="K162" s="4">
         <v>0.14276075889636991</v>
@@ -7581,7 +7581,7 @@
         <v>0.94732035629096079</v>
       </c>
       <c r="N162" s="4">
-        <v>0.92542333274644939</v>
+        <v>0.40717854999999997</v>
       </c>
       <c r="O162" s="6">
         <v>0.93291845836353837</v>
@@ -7613,7 +7613,7 @@
         <v>0.18344308059128492</v>
       </c>
       <c r="J163" s="6">
-        <v>0.42999469000000001</v>
+        <v>0.40072798999999998</v>
       </c>
       <c r="K163" s="4">
         <v>0.21631821978891519</v>
@@ -7625,7 +7625,7 @@
         <v>0.93482762188244573</v>
       </c>
       <c r="N163" s="4">
-        <v>1.0516321031763536E-9</v>
+        <v>0.40072798999999998</v>
       </c>
       <c r="O163" s="6">
         <v>1.0520656589296846</v>
@@ -7657,7 +7657,7 @@
         <v>0.20546838960656041</v>
       </c>
       <c r="J164" s="6">
-        <v>0.42135223999999999</v>
+        <v>0.39668695999999998</v>
       </c>
       <c r="K164" s="4">
         <v>0.19020856618506193</v>
@@ -7669,7 +7669,7 @@
         <v>0.6907515224957077</v>
       </c>
       <c r="N164" s="4">
-        <v>8.2839710830330979E-6</v>
+        <v>0.39668695999999998</v>
       </c>
       <c r="O164" s="6">
         <v>0.83234082687633926</v>
@@ -7701,7 +7701,7 @@
         <v>0.20119826344329525</v>
       </c>
       <c r="J165" s="6">
-        <v>0.41429764000000002</v>
+        <v>0.39574858000000002</v>
       </c>
       <c r="K165" s="4">
         <v>0.21829135774143393</v>
@@ -7713,7 +7713,7 @@
         <v>0.79101646493779176</v>
       </c>
       <c r="N165" s="4">
-        <v>1.190739278065153E-6</v>
+        <v>0.39574858000000002</v>
       </c>
       <c r="O165" s="6">
         <v>0.87471234522339736</v>
@@ -7745,7 +7745,7 @@
         <v>0.20873706917942167</v>
       </c>
       <c r="J166" s="6">
-        <v>0.41585253999999999</v>
+        <v>0.40390969999999998</v>
       </c>
       <c r="K166" s="4">
         <v>0.246720826778589</v>
@@ -7757,7 +7757,7 @@
         <v>0.94441779307211282</v>
       </c>
       <c r="N166" s="4">
-        <v>8.2766468315021102E-2</v>
+        <v>0.40390969999999998</v>
       </c>
       <c r="O166" s="6">
         <v>1.060633226063987</v>
@@ -7789,7 +7789,7 @@
         <v>0.19283360232365532</v>
       </c>
       <c r="J167" s="6">
-        <v>0.43717056999999998</v>
+        <v>0.38821724000000002</v>
       </c>
       <c r="K167" s="4">
         <v>0.14221741779930844</v>
@@ -7801,7 +7801,7 @@
         <v>0.82340185110108743</v>
       </c>
       <c r="N167" s="4">
-        <v>0.34191767873911588</v>
+        <v>0.38821724000000002</v>
       </c>
       <c r="O167" s="6">
         <v>0.88966376624301202</v>
@@ -7833,7 +7833,7 @@
         <v>0.20147037130093939</v>
       </c>
       <c r="J168" s="6">
-        <v>0.39896431999999998</v>
+        <v>0.39047252999999998</v>
       </c>
       <c r="K168" s="4">
         <v>0.20648506709298031</v>
@@ -7845,7 +7845,7 @@
         <v>0.6044912054988596</v>
       </c>
       <c r="N168" s="4">
-        <v>2.4666433663045718E-8</v>
+        <v>0.39047252999999998</v>
       </c>
       <c r="O168" s="6">
         <v>1.0324526433312315</v>
@@ -7877,7 +7877,7 @@
         <v>0.21773503682560849</v>
       </c>
       <c r="J169" s="6">
-        <v>0.38798038000000001</v>
+        <v>0.39709527</v>
       </c>
       <c r="K169" s="4">
         <v>0.19418447678149031</v>
@@ -7889,7 +7889,7 @@
         <v>1.1978122875644153</v>
       </c>
       <c r="N169" s="4">
-        <v>6.4469368386145242E-6</v>
+        <v>0.39709527</v>
       </c>
       <c r="O169" s="6">
         <v>1.0214617502362124</v>
@@ -7921,7 +7921,7 @@
         <v>0.21272453510123104</v>
       </c>
       <c r="J170" s="6">
-        <v>0.37959811999999998</v>
+        <v>0.40926591000000001</v>
       </c>
       <c r="K170" s="4">
         <v>0.20771353222374214</v>
@@ -7933,7 +7933,7 @@
         <v>0.8879036042502414</v>
       </c>
       <c r="N170" s="4">
-        <v>3.3634670476820225E-4</v>
+        <v>0.40926591000000001</v>
       </c>
       <c r="O170" s="6">
         <v>1.1618668953278268</v>
@@ -7965,7 +7965,7 @@
         <v>0.20650693011582638</v>
       </c>
       <c r="J171" s="6">
-        <v>0.36789101000000002</v>
+        <v>0.38026198999999999</v>
       </c>
       <c r="K171" s="4">
         <v>0.21221694399049448</v>
@@ -7977,7 +7977,7 @@
         <v>0.94991357652712116</v>
       </c>
       <c r="N171" s="4">
-        <v>0.12006901408312734</v>
+        <v>0.38026198999999999</v>
       </c>
       <c r="O171" s="6">
         <v>1.0568399382706588</v>
@@ -8009,7 +8009,7 @@
         <v>0.1859866296479174</v>
       </c>
       <c r="J172" s="6">
-        <v>0.41067917999999998</v>
+        <v>0.40406376999999999</v>
       </c>
       <c r="K172" s="4">
         <v>0.16393909705361709</v>
@@ -8021,7 +8021,7 @@
         <v>0.70728159965671011</v>
       </c>
       <c r="N172" s="4">
-        <v>0.13537750435039311</v>
+        <v>0.40406376999999999</v>
       </c>
       <c r="O172" s="6">
         <v>1.00944128073576</v>
@@ -8053,7 +8053,7 @@
         <v>0.21948316320211503</v>
       </c>
       <c r="J173" s="6">
-        <v>0.41334580999999998</v>
+        <v>0.37007909</v>
       </c>
       <c r="K173" s="4">
         <v>0.29237765660938725</v>
@@ -8065,7 +8065,7 @@
         <v>0.86843165216854112</v>
       </c>
       <c r="N173" s="4">
-        <v>1.2027905038078446E-3</v>
+        <v>0.37007909</v>
       </c>
       <c r="O173" s="6">
         <v>1.0735244447786318</v>
@@ -8097,7 +8097,7 @@
         <v>0.20578329585327115</v>
       </c>
       <c r="J174" s="6">
-        <v>0.40282151999999999</v>
+        <v>0.41809484000000002</v>
       </c>
       <c r="K174" s="4">
         <v>0.2108762872167278</v>
@@ -8109,7 +8109,7 @@
         <v>1.1386203299760262</v>
       </c>
       <c r="N174" s="4">
-        <v>0.99924052278119624</v>
+        <v>0.41809484000000002</v>
       </c>
       <c r="O174" s="6">
         <v>0.98844688394005931</v>
@@ -8141,7 +8141,7 @@
         <v>0.19034524505527448</v>
       </c>
       <c r="J175" s="6">
-        <v>0.38632259000000002</v>
+        <v>0.38587058000000002</v>
       </c>
       <c r="K175" s="4">
         <v>0.26469363013455433</v>
@@ -8153,7 +8153,7 @@
         <v>0.73107720264165577</v>
       </c>
       <c r="N175" s="4">
-        <v>0.99867953971059809</v>
+        <v>0.38587058000000002</v>
       </c>
       <c r="O175" s="6">
         <v>1.0943351365840379</v>
@@ -8185,7 +8185,7 @@
         <v>0.20238620995107709</v>
       </c>
       <c r="J176" s="6">
-        <v>0.36461703000000001</v>
+        <v>0.41432885000000003</v>
       </c>
       <c r="K176" s="4">
         <v>0.25927944697486288</v>
@@ -8197,7 +8197,7 @@
         <v>1.2220475990617194</v>
       </c>
       <c r="N176" s="4">
-        <v>0.74117897627411433</v>
+        <v>0.41432885000000003</v>
       </c>
       <c r="O176" s="6">
         <v>1.0112228218155801</v>
@@ -8229,7 +8229,7 @@
         <v>0.18089704831681569</v>
       </c>
       <c r="J177" s="6">
-        <v>0.39878954</v>
+        <v>0.39164547999999999</v>
       </c>
       <c r="K177" s="4">
         <v>0.21624205780985969</v>
@@ -8241,7 +8241,7 @@
         <v>1.4350813004160226</v>
       </c>
       <c r="N177" s="4">
-        <v>0.99999999999992772</v>
+        <v>0.39164547999999999</v>
       </c>
       <c r="O177" s="6">
         <v>0.90380828368121724</v>
@@ -8273,7 +8273,7 @@
         <v>0.20572743709301455</v>
       </c>
       <c r="J178" s="6">
-        <v>0.39622114000000003</v>
+        <v>0.41529575000000002</v>
       </c>
       <c r="K178" s="4">
         <v>0.21486622333538238</v>
@@ -8285,7 +8285,7 @@
         <v>1.00931559194311</v>
       </c>
       <c r="N178" s="4">
-        <v>1.3009682984055157E-2</v>
+        <v>0.41529575000000002</v>
       </c>
       <c r="O178" s="6">
         <v>0.99894152853562435</v>
@@ -8317,7 +8317,7 @@
         <v>0.19599128255880496</v>
       </c>
       <c r="J179" s="6">
-        <v>0.36142289999999999</v>
+        <v>0.41329634999999998</v>
       </c>
       <c r="K179" s="4">
         <v>0.19801387822305294</v>
@@ -8329,7 +8329,7 @@
         <v>0.80120457621762797</v>
       </c>
       <c r="N179" s="4">
-        <v>9.0459834189143707E-3</v>
+        <v>0.41329634999999998</v>
       </c>
       <c r="O179" s="6">
         <v>1.012089792308964</v>
@@ -8361,7 +8361,7 @@
         <v>0.2175313877461971</v>
       </c>
       <c r="J180" s="6">
-        <v>0.37574034000000001</v>
+        <v>0.38975431999999999</v>
       </c>
       <c r="K180" s="4">
         <v>0.20962713717658638</v>
@@ -8373,7 +8373,7 @@
         <v>1.2361443668288468</v>
       </c>
       <c r="N180" s="4">
-        <v>1.2430967258720919E-6</v>
+        <v>0.38975431999999999</v>
       </c>
       <c r="O180" s="6">
         <v>0.96744983022989284</v>
@@ -8405,7 +8405,7 @@
         <v>0.20221012983116229</v>
       </c>
       <c r="J181" s="6">
-        <v>0.38282328999999998</v>
+        <v>0.39643349</v>
       </c>
       <c r="K181" s="4">
         <v>0.1848613458011607</v>
@@ -8417,7 +8417,7 @@
         <v>1.1085365063015729</v>
       </c>
       <c r="N181" s="4">
-        <v>0.99999999925601579</v>
+        <v>0.39643349</v>
       </c>
       <c r="O181" s="6">
         <v>1.0374974968253539</v>
@@ -8449,7 +8449,7 @@
         <v>0.19246924738153121</v>
       </c>
       <c r="J182" s="6">
-        <v>0.35879966000000002</v>
+        <v>0.40926593</v>
       </c>
       <c r="K182" s="4">
         <v>0.21081329748115438</v>
@@ -8461,7 +8461,7 @@
         <v>0.83875674856731419</v>
       </c>
       <c r="N182" s="4">
-        <v>4.8084582105141987E-4</v>
+        <v>0.40926593</v>
       </c>
       <c r="O182" s="6">
         <v>1.0490751330503878</v>
@@ -8493,7 +8493,7 @@
         <v>0.17869537396911794</v>
       </c>
       <c r="J183" s="6">
-        <v>0.39491483999999999</v>
+        <v>0.40057605000000002</v>
       </c>
       <c r="K183" s="4">
         <v>0.25410079051035223</v>
@@ -8505,7 +8505,7 @@
         <v>0.88213362793883843</v>
       </c>
       <c r="N183" s="4">
-        <v>0.41878316671020199</v>
+        <v>0.40057605000000002</v>
       </c>
       <c r="O183" s="6">
         <v>1.0611328031193348</v>
@@ -8537,7 +8537,7 @@
         <v>0.19059317434926151</v>
       </c>
       <c r="J184" s="6">
-        <v>0.40226498999999999</v>
+        <v>0.39796765000000001</v>
       </c>
       <c r="K184" s="4">
         <v>0.14947667118434765</v>
@@ -8549,7 +8549,7 @@
         <v>1.0503971397946312</v>
       </c>
       <c r="N184" s="4">
-        <v>0.90748001636085218</v>
+        <v>0.39796765000000001</v>
       </c>
       <c r="O184" s="6">
         <v>1.0686218355567407</v>
@@ -8581,7 +8581,7 @@
         <v>0.17330192398672872</v>
       </c>
       <c r="J185" s="6">
-        <v>0.39424029999999999</v>
+        <v>0.39831357000000001</v>
       </c>
       <c r="K185" s="4">
         <v>0.20118250177896002</v>
@@ -8593,7 +8593,7 @@
         <v>0.95312338722525314</v>
       </c>
       <c r="N185" s="4">
-        <v>0.76696158755522137</v>
+        <v>0.39831357000000001</v>
       </c>
       <c r="O185" s="6">
         <v>1.079347332600217</v>
@@ -8625,7 +8625,7 @@
         <v>0.18682742903138316</v>
       </c>
       <c r="J186" s="6">
-        <v>0.39057972000000002</v>
+        <v>0.39734967999999998</v>
       </c>
       <c r="K186" s="4">
         <v>0.18729712029670886</v>
@@ -8637,7 +8637,7 @@
         <v>1.2474273607548456</v>
       </c>
       <c r="N186" s="4">
-        <v>2.7837161607066733E-7</v>
+        <v>0.39734967999999998</v>
       </c>
       <c r="O186" s="6">
         <v>1.0593572547373502</v>
@@ -8669,7 +8669,7 @@
         <v>0.20000115201792934</v>
       </c>
       <c r="J187" s="6">
-        <v>0.37500704000000001</v>
+        <v>0.39363894999999999</v>
       </c>
       <c r="K187" s="4">
         <v>0.20854211389865773</v>
@@ -8681,7 +8681,7 @@
         <v>1.1330452363775543</v>
       </c>
       <c r="N187" s="4">
-        <v>0.57634786381907166</v>
+        <v>0.39363894999999999</v>
       </c>
       <c r="O187" s="6">
         <v>1.0118384872560429</v>
@@ -8713,7 +8713,7 @@
         <v>0.21576682799126851</v>
       </c>
       <c r="J188" s="6">
-        <v>0.37740019000000002</v>
+        <v>0.39177255999999999</v>
       </c>
       <c r="K188" s="4">
         <v>0.21729311674402996</v>
@@ -8725,7 +8725,7 @@
         <v>1.2355054462635682</v>
       </c>
       <c r="N188" s="4">
-        <v>0.99999590259704507</v>
+        <v>0.39177255999999999</v>
       </c>
       <c r="O188" s="6">
         <v>0.89686514074977364</v>
@@ -8757,7 +8757,7 @@
         <v>0.19536291770656813</v>
       </c>
       <c r="J189" s="6">
-        <v>0.38159546</v>
+        <v>0.39396249</v>
       </c>
       <c r="K189" s="4">
         <v>0.24826450207532588</v>
@@ -8769,7 +8769,7 @@
         <v>0.96477717623551307</v>
       </c>
       <c r="N189" s="4">
-        <v>0.71855068717432813</v>
+        <v>0.39396249</v>
       </c>
       <c r="O189" s="6">
         <v>0.92187446947837526</v>
@@ -8801,7 +8801,7 @@
         <v>0.20112661315463443</v>
       </c>
       <c r="J190" s="6">
-        <v>0.41069299999999997</v>
+        <v>0.39909948000000001</v>
       </c>
       <c r="K190" s="4">
         <v>0.21072698989311556</v>
@@ -8813,7 +8813,7 @@
         <v>0.93744408829484716</v>
       </c>
       <c r="N190" s="4">
-        <v>4.0218187192834981E-3</v>
+        <v>0.39909948000000001</v>
       </c>
       <c r="O190" s="6">
         <v>0.96605083554887572</v>
@@ -8845,7 +8845,7 @@
         <v>0.18639718185990767</v>
       </c>
       <c r="J191" s="6">
-        <v>0.40422563</v>
+        <v>0.39763999999999999</v>
       </c>
       <c r="K191" s="4">
         <v>0.20067183678943448</v>
@@ -8857,7 +8857,7 @@
         <v>1.2767500275978132</v>
       </c>
       <c r="N191" s="4">
-        <v>0.58261966408326538</v>
+        <v>0.39763999999999999</v>
       </c>
       <c r="O191" s="6">
         <v>1.0661104799178249</v>
@@ -8889,7 +8889,7 @@
         <v>0.20367506026377932</v>
       </c>
       <c r="J192" s="6">
-        <v>0.37991049999999998</v>
+        <v>0.39733902999999998</v>
       </c>
       <c r="K192" s="4">
         <v>0.21334631414057004</v>
@@ -8901,7 +8901,7 @@
         <v>0.77725463841567732</v>
       </c>
       <c r="N192" s="4">
-        <v>1.0134840758527682E-8</v>
+        <v>0.39733902999999998</v>
       </c>
       <c r="O192" s="6">
         <v>0.93905853689996932</v>
@@ -8933,7 +8933,7 @@
         <v>0.20436259959900177</v>
       </c>
       <c r="J193" s="6">
-        <v>0.41361060999999999</v>
+        <v>0.41900340000000003</v>
       </c>
       <c r="K193" s="4">
         <v>0.24287391190809773</v>
@@ -8945,7 +8945,7 @@
         <v>0.95893051546433239</v>
       </c>
       <c r="N193" s="4">
-        <v>0.87507308915532545</v>
+        <v>0.41900340000000003</v>
       </c>
       <c r="O193" s="6">
         <v>0.95798414200400361</v>
@@ -8977,7 +8977,7 @@
         <v>0.22026094216787045</v>
       </c>
       <c r="J194" s="6">
-        <v>0.38356636</v>
+        <v>0.38408063999999997</v>
       </c>
       <c r="K194" s="4">
         <v>0.15188758874986344</v>
@@ -8989,7 +8989,7 @@
         <v>0.91156517719271135</v>
       </c>
       <c r="N194" s="4">
-        <v>0.19153487681856424</v>
+        <v>0.38408063999999997</v>
       </c>
       <c r="O194" s="6">
         <v>1.0461532865717638</v>
@@ -9021,7 +9021,7 @@
         <v>0.20249451362819607</v>
       </c>
       <c r="J195" s="6">
-        <v>0.41390444999999998</v>
+        <v>0.42025506000000001</v>
       </c>
       <c r="K195" s="4">
         <v>0.17333222601716664</v>
@@ -9033,7 +9033,7 @@
         <v>1.013025849227684</v>
       </c>
       <c r="N195" s="4">
-        <v>0.95473157551463306</v>
+        <v>0.42025506000000001</v>
       </c>
       <c r="O195" s="6">
         <v>0.99927745547318148</v>
@@ -9065,7 +9065,7 @@
         <v>0.20029106678765596</v>
       </c>
       <c r="J196" s="6">
-        <v>0.39400747000000003</v>
+        <v>0.41968202999999998</v>
       </c>
       <c r="K196" s="4">
         <v>0.26758253192299541</v>
@@ -9077,7 +9077,7 @@
         <v>0.72820878143303269</v>
       </c>
       <c r="N196" s="4">
-        <v>2.7504970053677845E-3</v>
+        <v>0.41968202999999998</v>
       </c>
       <c r="O196" s="6">
         <v>1.1107832269615536</v>
@@ -9109,7 +9109,7 @@
         <v>0.18849807138918356</v>
       </c>
       <c r="J197" s="6">
-        <v>0.35519336000000001</v>
+        <v>0.39698240000000001</v>
       </c>
       <c r="K197" s="4">
         <v>0.22890656301055598</v>
@@ -9121,7 +9121,7 @@
         <v>0.76529818450009302</v>
       </c>
       <c r="N197" s="4">
-        <v>0.3646271642758474</v>
+        <v>0.39698240000000001</v>
       </c>
       <c r="O197" s="6">
         <v>0.92714527542427505</v>
@@ -9153,7 +9153,7 @@
         <v>0.22424909610667598</v>
       </c>
       <c r="J198" s="6">
-        <v>0.37049989</v>
+        <v>0.39506717000000002</v>
       </c>
       <c r="K198" s="4">
         <v>0.23250479303189642</v>
@@ -9165,7 +9165,7 @@
         <v>1.0377354698701624</v>
       </c>
       <c r="N198" s="4">
-        <v>0.99999999999997191</v>
+        <v>0.39506717000000002</v>
       </c>
       <c r="O198" s="6">
         <v>0.98314730887871582</v>

--- a/dream/KnowledgeExtraction/KEtool_examples/KE tool&GUI/test_data.xlsx
+++ b/dream/KnowledgeExtraction/KEtool_examples/KE tool&GUI/test_data.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="C1:P198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +540,7 @@
         <v>0.93955228034389859</v>
       </c>
       <c r="N2" s="3">
-        <v>0.40765130999999999</v>
+        <v>0.54201711321032731</v>
       </c>
       <c r="O2" s="5">
         <v>0.95183489097885932</v>
@@ -584,7 +584,7 @@
         <v>1.2394368627205492</v>
       </c>
       <c r="N3" s="3">
-        <v>0.38815102000000001</v>
+        <v>0.55919011404966479</v>
       </c>
       <c r="O3" s="5">
         <v>1.0998067990521836</v>
@@ -628,7 +628,7 @@
         <v>0.75910324243832106</v>
       </c>
       <c r="N4" s="3">
-        <v>0.39850034000000001</v>
+        <v>0.39972969142072401</v>
       </c>
       <c r="O4" s="5">
         <v>0.98514092637400807</v>
@@ -672,7 +672,7 @@
         <v>1.0766495353863716</v>
       </c>
       <c r="N5" s="3">
-        <v>0.39908130000000003</v>
+        <v>0.50844347320442929</v>
       </c>
       <c r="O5" s="5">
         <v>1.0931449762824532</v>
@@ -716,7 +716,7 @@
         <v>0.69433759089232594</v>
       </c>
       <c r="N6" s="3">
-        <v>0.39875138999999998</v>
+        <v>0.55716293354359114</v>
       </c>
       <c r="O6" s="5">
         <v>1.0594957852130737</v>
@@ -760,7 +760,7 @@
         <v>1.0761585862030163</v>
       </c>
       <c r="N7" s="3">
-        <v>0.40786183999999998</v>
+        <v>0.48233280532008554</v>
       </c>
       <c r="O7" s="5">
         <v>0.98215680219994239</v>
@@ -804,7 +804,7 @@
         <v>0.96319384677493802</v>
       </c>
       <c r="N8" s="3">
-        <v>0.40655913999999999</v>
+        <v>0.49252257907150832</v>
       </c>
       <c r="O8" s="5">
         <v>1.1062675375725803</v>
@@ -848,7 +848,7 @@
         <v>0.97096568238098802</v>
       </c>
       <c r="N9" s="3">
-        <v>0.39722935999999998</v>
+        <v>0.56270791745601922</v>
       </c>
       <c r="O9" s="5">
         <v>0.99171704133739058</v>
@@ -892,7 +892,7 @@
         <v>0.91801679665173075</v>
       </c>
       <c r="N10" s="3">
-        <v>0.38965286999999998</v>
+        <v>0.47510588024890482</v>
       </c>
       <c r="O10" s="5">
         <v>1.0355380021460447</v>
@@ -936,7 +936,7 @@
         <v>0.87892111905719006</v>
       </c>
       <c r="N11" s="3">
-        <v>0.41123833999999998</v>
+        <v>0.42789708956423012</v>
       </c>
       <c r="O11" s="5">
         <v>1.1343312256503413</v>
@@ -980,7 +980,7 @@
         <v>1.0800646991171681</v>
       </c>
       <c r="N12" s="3">
-        <v>0.38802420999999998</v>
+        <v>0.55557314768762545</v>
       </c>
       <c r="O12" s="5">
         <v>1.0499961581024997</v>
@@ -1024,7 +1024,7 @@
         <v>1.0840367819942989</v>
       </c>
       <c r="N13" s="3">
-        <v>0.38574633000000003</v>
+        <v>0.55199868769852301</v>
       </c>
       <c r="O13" s="5">
         <v>0.88211552384032588</v>
@@ -1068,7 +1068,7 @@
         <v>0.86416647608872732</v>
       </c>
       <c r="N14" s="3">
-        <v>0.40726688999999999</v>
+        <v>0.62663597637255608</v>
       </c>
       <c r="O14" s="5">
         <v>0.72171624548027169</v>
@@ -1112,7 +1112,7 @@
         <v>1.1580919369012526</v>
       </c>
       <c r="N15" s="3">
-        <v>0.39819903000000001</v>
+        <v>0.42621434360097371</v>
       </c>
       <c r="O15" s="5">
         <v>0.99464234734490786</v>
@@ -1156,7 +1156,7 @@
         <v>1.2081375632706717</v>
       </c>
       <c r="N16" s="3">
-        <v>0.40277201000000001</v>
+        <v>0.46279223152945964</v>
       </c>
       <c r="O16" s="5">
         <v>1.0657117825552695</v>
@@ -1200,7 +1200,7 @@
         <v>0.98241153982222496</v>
       </c>
       <c r="N17" s="3">
-        <v>0.39521838999999997</v>
+        <v>0.59674338408408556</v>
       </c>
       <c r="O17" s="5">
         <v>1.0831165304890538</v>
@@ -1244,7 +1244,7 @@
         <v>1.1746606250477123</v>
       </c>
       <c r="N18" s="3">
-        <v>0.40605860999999999</v>
+        <v>0.57299738598831951</v>
       </c>
       <c r="O18" s="5">
         <v>0.94306660723901226</v>
@@ -1288,7 +1288,7 @@
         <v>0.67383054734989423</v>
       </c>
       <c r="N19" s="3">
-        <v>0.41318093</v>
+        <v>0.60732341342289109</v>
       </c>
       <c r="O19" s="5">
         <v>1.039815929014547</v>
@@ -1332,7 +1332,7 @@
         <v>0.38978950267592793</v>
       </c>
       <c r="N20" s="3">
-        <v>0.41071361000000001</v>
+        <v>0.58240611822201904</v>
       </c>
       <c r="O20" s="5">
         <v>1.0881942360154944</v>
@@ -1376,7 +1376,7 @@
         <v>0.88184046628379908</v>
       </c>
       <c r="N21" s="3">
-        <v>0.40391786000000002</v>
+        <v>0.47355571823692</v>
       </c>
       <c r="O21" s="5">
         <v>1.0039399413288854</v>
@@ -1420,7 +1420,7 @@
         <v>0.82370095330198412</v>
       </c>
       <c r="N22" s="3">
-        <v>0.40696747999999999</v>
+        <v>0.50378804263382027</v>
       </c>
       <c r="O22" s="5">
         <v>1.1247922574061666</v>
@@ -1464,7 +1464,7 @@
         <v>1.0525680336022529</v>
       </c>
       <c r="N23" s="3">
-        <v>0.41054139000000001</v>
+        <v>0.50647942116829525</v>
       </c>
       <c r="O23" s="5">
         <v>1.0105746248468748</v>
@@ -1508,7 +1508,7 @@
         <v>0.93298262877056148</v>
       </c>
       <c r="N24" s="3">
-        <v>0.41485794999999998</v>
+        <v>0.60278202265022207</v>
       </c>
       <c r="O24" s="5">
         <v>0.91572895885610694</v>
@@ -1552,7 +1552,7 @@
         <v>0.88339074015325814</v>
       </c>
       <c r="N25" s="3">
-        <v>0.3999857</v>
+        <v>0.40721130204881922</v>
       </c>
       <c r="O25" s="5">
         <v>0.98048756946918991</v>
@@ -1596,7 +1596,7 @@
         <v>0.82691293244498931</v>
       </c>
       <c r="N26" s="3">
-        <v>0.38624484999999997</v>
+        <v>0.47354794888128038</v>
       </c>
       <c r="O26" s="5">
         <v>0.98442127262377244</v>
@@ -1640,7 +1640,7 @@
         <v>1.0793074101946964</v>
       </c>
       <c r="N27" s="3">
-        <v>0.39714649000000002</v>
+        <v>0.42285203620989731</v>
       </c>
       <c r="O27" s="5">
         <v>0.85848718756645559</v>
@@ -1684,7 +1684,7 @@
         <v>1.0495048233962843</v>
       </c>
       <c r="N28" s="3">
-        <v>0.41408581</v>
+        <v>0.50579912611836031</v>
       </c>
       <c r="O28" s="5">
         <v>0.94558373190206257</v>
@@ -1728,7 +1728,7 @@
         <v>0.94311441878051983</v>
       </c>
       <c r="N29" s="3">
-        <v>0.39850966999999998</v>
+        <v>0.58768212634974104</v>
       </c>
       <c r="O29" s="5">
         <v>1.0533918035760572</v>
@@ -1772,7 +1772,7 @@
         <v>0.81300093897578252</v>
       </c>
       <c r="N30" s="3">
-        <v>0.39857545</v>
+        <v>0.50068839365696571</v>
       </c>
       <c r="O30" s="5">
         <v>0.92998266642711869</v>
@@ -1816,7 +1816,7 @@
         <v>1.146912633500909</v>
       </c>
       <c r="N31" s="3">
-        <v>0.40340408</v>
+        <v>0.39597837162793614</v>
       </c>
       <c r="O31" s="5">
         <v>0.90140178340846333</v>
@@ -1860,7 +1860,7 @@
         <v>0.95643532246983531</v>
       </c>
       <c r="N32" s="3">
-        <v>0.39620242999999999</v>
+        <v>0.60352745278247388</v>
       </c>
       <c r="O32" s="5">
         <v>0.9767296246587136</v>
@@ -1904,7 +1904,7 @@
         <v>0.79130751449443959</v>
       </c>
       <c r="N33" s="3">
-        <v>0.39885042999999998</v>
+        <v>0.41731065533091705</v>
       </c>
       <c r="O33" s="5">
         <v>1.0524094383739482</v>
@@ -1948,7 +1948,7 @@
         <v>0.82841811506573992</v>
       </c>
       <c r="N34" s="3">
-        <v>0.39678797999999998</v>
+        <v>0.5482780700514055</v>
       </c>
       <c r="O34" s="5">
         <v>1.0411621633447192</v>
@@ -1992,7 +1992,7 @@
         <v>0.84774830239684518</v>
       </c>
       <c r="N35" s="3">
-        <v>0.39333125000000002</v>
+        <v>0.42135538977196457</v>
       </c>
       <c r="O35" s="5">
         <v>0.99414463284540877</v>
@@ -2036,7 +2036,7 @@
         <v>0.9213236406866111</v>
       </c>
       <c r="N36" s="3">
-        <v>0.39282735000000002</v>
+        <v>0.51707375743263528</v>
       </c>
       <c r="O36" s="5">
         <v>0.86492040258854241</v>
@@ -2080,7 +2080,7 @@
         <v>0.96531346165852572</v>
       </c>
       <c r="N37" s="3">
-        <v>0.40702898999999998</v>
+        <v>0.59771479276472861</v>
       </c>
       <c r="O37" s="5">
         <v>0.96826559622892172</v>
@@ -2124,7 +2124,7 @@
         <v>0.75477169924785092</v>
       </c>
       <c r="N38" s="3">
-        <v>0.38974545999999999</v>
+        <v>0.61717362458800962</v>
       </c>
       <c r="O38" s="5">
         <v>0.90911209492732992</v>
@@ -2168,7 +2168,7 @@
         <v>0.96701165978950099</v>
       </c>
       <c r="N39" s="3">
-        <v>0.39763548999999998</v>
+        <v>0.49291726526627694</v>
       </c>
       <c r="O39" s="5">
         <v>0.99357959054648726</v>
@@ -2212,7 +2212,7 @@
         <v>0.72933436336991697</v>
       </c>
       <c r="N40" s="3">
-        <v>0.39822614000000001</v>
+        <v>0.60563276062301663</v>
       </c>
       <c r="O40" s="5">
         <v>0.97636625323666604</v>
@@ -2256,7 +2256,7 @@
         <v>0.92823658153998301</v>
       </c>
       <c r="N41" s="3">
-        <v>0.39928152</v>
+        <v>0.53638758228005901</v>
       </c>
       <c r="O41" s="5">
         <v>0.96549619679006071</v>
@@ -2300,7 +2300,7 @@
         <v>1.0700010642776461</v>
       </c>
       <c r="N42" s="3">
-        <v>0.40000143999999999</v>
+        <v>0.49813141950208689</v>
       </c>
       <c r="O42" s="5">
         <v>1.0363692965480173</v>
@@ -2344,7 +2344,7 @@
         <v>0.98102781197586608</v>
       </c>
       <c r="N43" s="3">
-        <v>0.40171832000000002</v>
+        <v>0.58540868251561018</v>
       </c>
       <c r="O43" s="5">
         <v>1.0306767567129462</v>
@@ -2388,7 +2388,7 @@
         <v>0.92544223801075709</v>
       </c>
       <c r="N44" s="3">
-        <v>0.39032641000000001</v>
+        <v>0.56832135836948461</v>
       </c>
       <c r="O44" s="5">
         <v>0.86605197966276304</v>
@@ -2432,7 +2432,7 @@
         <v>0.84997310260466064</v>
       </c>
       <c r="N45" s="3">
-        <v>0.39612644000000002</v>
+        <v>0.47381424444768311</v>
       </c>
       <c r="O45" s="5">
         <v>1.0200403720426663</v>
@@ -2476,7 +2476,7 @@
         <v>0.76207711427482872</v>
       </c>
       <c r="N46" s="3">
-        <v>0.39595474000000003</v>
+        <v>0.45267048637677304</v>
       </c>
       <c r="O46" s="5">
         <v>0.98301342856344331</v>
@@ -2520,7 +2520,7 @@
         <v>0.81427107432934609</v>
       </c>
       <c r="N47" s="3">
-        <v>0.39015212999999999</v>
+        <v>0.49626994880353231</v>
       </c>
       <c r="O47" s="5">
         <v>1.0849327744475823</v>
@@ -2564,7 +2564,7 @@
         <v>0.81891478035896559</v>
       </c>
       <c r="N48" s="3">
-        <v>0.40106573000000001</v>
+        <v>0.5614918767440582</v>
       </c>
       <c r="O48" s="5">
         <v>0.99647851553211886</v>
@@ -2608,7 +2608,7 @@
         <v>0.8258043957896174</v>
       </c>
       <c r="N49" s="3">
-        <v>0.41314554999999997</v>
+        <v>0.54802303193907287</v>
       </c>
       <c r="O49" s="5">
         <v>0.89655778640133921</v>
@@ -2652,7 +2652,7 @@
         <v>0.89682794402055777</v>
       </c>
       <c r="N50" s="3">
-        <v>0.38514469000000001</v>
+        <v>0.47703362774225577</v>
       </c>
       <c r="O50" s="5">
         <v>0.91175213511588926</v>
@@ -2696,7 +2696,7 @@
         <v>1.0077205199839032</v>
       </c>
       <c r="N51" s="3">
-        <v>0.39523127000000002</v>
+        <v>0.53221137227128523</v>
       </c>
       <c r="O51" s="5">
         <v>0.89057016372247721</v>
@@ -2740,7 +2740,7 @@
         <v>0.76038002675286809</v>
       </c>
       <c r="N52" s="3">
-        <v>0.40022142999999999</v>
+        <v>0.38570307558194217</v>
       </c>
       <c r="O52" s="5">
         <v>1.0439425803292328</v>
@@ -2784,7 +2784,7 @@
         <v>1.0479955758186397</v>
       </c>
       <c r="N53" s="3">
-        <v>0.39953915000000001</v>
+        <v>0.48266864068991322</v>
       </c>
       <c r="O53" s="5">
         <v>1.0831332188119998</v>
@@ -2828,7 +2828,7 @@
         <v>0.95417911012547174</v>
       </c>
       <c r="N54" s="3">
-        <v>0.39598502000000002</v>
+        <v>0.62082139442772899</v>
       </c>
       <c r="O54" s="5">
         <v>1.0445234812590272</v>
@@ -2872,7 +2872,7 @@
         <v>1.4587818950342446</v>
       </c>
       <c r="N55" s="3">
-        <v>0.38250229000000002</v>
+        <v>0.46802711458638602</v>
       </c>
       <c r="O55" s="5">
         <v>0.98010413483942105</v>
@@ -2916,7 +2916,7 @@
         <v>1.1027538061386752</v>
       </c>
       <c r="N56" s="3">
-        <v>0.38989900999999999</v>
+        <v>0.43964475189930652</v>
       </c>
       <c r="O56" s="5">
         <v>1.0209982707464826</v>
@@ -2960,7 +2960,7 @@
         <v>0.76240663503107231</v>
       </c>
       <c r="N57" s="3">
-        <v>0.40306863999999998</v>
+        <v>0.54556816015366927</v>
       </c>
       <c r="O57" s="5">
         <v>0.94956822764785687</v>
@@ -3004,7 +3004,7 @@
         <v>0.60767444421212324</v>
       </c>
       <c r="N58" s="3">
-        <v>0.38410380999999999</v>
+        <v>0.57642009298895791</v>
       </c>
       <c r="O58" s="5">
         <v>0.97477930511115141</v>
@@ -3048,7 +3048,7 @@
         <v>0.73945270047312672</v>
       </c>
       <c r="N59" s="3">
-        <v>0.40845673999999998</v>
+        <v>0.4814848042295401</v>
       </c>
       <c r="O59" s="5">
         <v>1.0420078199925151</v>
@@ -3092,7 +3092,7 @@
         <v>0.9434522917259438</v>
       </c>
       <c r="N60" s="3">
-        <v>0.42072229999999999</v>
+        <v>0.4585996205595631</v>
       </c>
       <c r="O60" s="5">
         <v>1.0623677672114893</v>
@@ -3136,7 +3136,7 @@
         <v>1.0326518161626355</v>
       </c>
       <c r="N61" s="3">
-        <v>0.40708749999999999</v>
+        <v>0.58528699453740185</v>
       </c>
       <c r="O61" s="5">
         <v>0.9848474724683921</v>
@@ -3180,7 +3180,7 @@
         <v>0.61780499348321893</v>
       </c>
       <c r="N62" s="3">
-        <v>0.39839174999999999</v>
+        <v>0.47800894200898686</v>
       </c>
       <c r="O62" s="5">
         <v>0.96498183626557887</v>
@@ -3224,7 +3224,7 @@
         <v>0.87291833172016986</v>
       </c>
       <c r="N63" s="3">
-        <v>0.39729238</v>
+        <v>0.49032949220475519</v>
       </c>
       <c r="O63" s="5">
         <v>0.98644595087453502</v>
@@ -3268,7 +3268,7 @@
         <v>0.75151439196742964</v>
       </c>
       <c r="N64" s="3">
-        <v>0.3974472</v>
+        <v>0.50144119544816379</v>
       </c>
       <c r="O64" s="5">
         <v>0.93923402952802937</v>
@@ -3312,7 +3312,7 @@
         <v>0.856610881392039</v>
       </c>
       <c r="N65" s="3">
-        <v>0.40177480999999998</v>
+        <v>0.46994033114487893</v>
       </c>
       <c r="O65" s="5">
         <v>1.0612270781619206</v>
@@ -3356,7 +3356,7 @@
         <v>0.93490222592151395</v>
       </c>
       <c r="N66" s="3">
-        <v>0.39224227</v>
+        <v>0.50488003155693861</v>
       </c>
       <c r="O66" s="5">
         <v>1.0732393883707281</v>
@@ -3400,7 +3400,7 @@
         <v>0.98593540882882991</v>
       </c>
       <c r="N67" s="3">
-        <v>0.39697051999999999</v>
+        <v>0.43742460317147119</v>
       </c>
       <c r="O67" s="5">
         <v>0.95701140337681367</v>
@@ -3444,7 +3444,7 @@
         <v>1.1527131442141125</v>
       </c>
       <c r="N68" s="3">
-        <v>0.40511434000000002</v>
+        <v>0.53257169241890234</v>
       </c>
       <c r="O68" s="5">
         <v>1.0683178209798483</v>
@@ -3488,7 +3488,7 @@
         <v>0.90334983811313152</v>
       </c>
       <c r="N69" s="3">
-        <v>0.39852345</v>
+        <v>0.47956543217580949</v>
       </c>
       <c r="O69" s="5">
         <v>0.85480418115566204</v>
@@ -3532,7 +3532,7 @@
         <v>0.65249016789539938</v>
       </c>
       <c r="N70" s="3">
-        <v>0.39329152000000001</v>
+        <v>0.53224900896096261</v>
       </c>
       <c r="O70" s="5">
         <v>0.9512940214958383</v>
@@ -3576,7 +3576,7 @@
         <v>0.79436141044746889</v>
       </c>
       <c r="N71" s="3">
-        <v>0.39315464</v>
+        <v>0.46557978979319536</v>
       </c>
       <c r="O71" s="5">
         <v>0.9984739117945427</v>
@@ -3620,7 +3620,7 @@
         <v>0.97567141874326513</v>
       </c>
       <c r="N72" s="3">
-        <v>0.38942778</v>
+        <v>0.49976955079338131</v>
       </c>
       <c r="O72" s="5">
         <v>0.81176358203777621</v>
@@ -3664,7 +3664,7 @@
         <v>1.2702453788659582</v>
       </c>
       <c r="N73" s="3">
-        <v>0.40552802999999998</v>
+        <v>0.46057897147374427</v>
       </c>
       <c r="O73" s="5">
         <v>0.88322942734987753</v>
@@ -3708,7 +3708,7 @@
         <v>0.92750163741458491</v>
       </c>
       <c r="N74" s="3">
-        <v>0.41921638999999999</v>
+        <v>0.61880421688072307</v>
       </c>
       <c r="O74" s="5">
         <v>1.0209623411782143</v>
@@ -3752,7 +3752,7 @@
         <v>0.81899500696151595</v>
       </c>
       <c r="N75" s="3">
-        <v>0.39200551</v>
+        <v>0.54692807191936033</v>
       </c>
       <c r="O75" s="5">
         <v>0.97119652311937144</v>
@@ -3796,7 +3796,7 @@
         <v>0.60373058256568735</v>
       </c>
       <c r="N76" s="3">
-        <v>0.39940606000000001</v>
+        <v>0.49892561799069107</v>
       </c>
       <c r="O76" s="5">
         <v>0.95799262591951129</v>
@@ -3840,7 +3840,7 @@
         <v>0.94595327780814076</v>
       </c>
       <c r="N77" s="3">
-        <v>0.39731031</v>
+        <v>0.61362920198643933</v>
       </c>
       <c r="O77" s="5">
         <v>0.9878127548517418</v>
@@ -3884,7 +3884,7 @@
         <v>0.96670733844898205</v>
       </c>
       <c r="N78" s="3">
-        <v>0.41090792999999998</v>
+        <v>0.57916483523068052</v>
       </c>
       <c r="O78" s="5">
         <v>0.9754267416010457</v>
@@ -3928,7 +3928,7 @@
         <v>0.66754577234886991</v>
       </c>
       <c r="N79" s="3">
-        <v>0.40271195999999998</v>
+        <v>0.47565820491941985</v>
       </c>
       <c r="O79" s="5">
         <v>1.0313151417023585</v>
@@ -3972,7 +3972,7 @@
         <v>0.76676061971548082</v>
       </c>
       <c r="N80" s="3">
-        <v>0.41466752000000001</v>
+        <v>0.4898065252174818</v>
       </c>
       <c r="O80" s="5">
         <v>0.99394774698707034</v>
@@ -4016,7 +4016,7 @@
         <v>1.0527245957689788</v>
       </c>
       <c r="N81" s="3">
-        <v>0.38142630999999999</v>
+        <v>0.58884678236279386</v>
       </c>
       <c r="O81" s="5">
         <v>0.88186436716380712</v>
@@ -4060,7 +4060,7 @@
         <v>1.1697969484293738</v>
       </c>
       <c r="N82" s="3">
-        <v>0.39071544000000002</v>
+        <v>0.55638749723869196</v>
       </c>
       <c r="O82" s="5">
         <v>0.97857400479905177</v>
@@ -4104,7 +4104,7 @@
         <v>0.75271747457104055</v>
       </c>
       <c r="N83" s="3">
-        <v>0.41728517999999998</v>
+        <v>0.54383407647275372</v>
       </c>
       <c r="O83" s="5">
         <v>0.98598219260361764</v>
@@ -4148,7 +4148,7 @@
         <v>1.195487781763511</v>
       </c>
       <c r="N84" s="3">
-        <v>0.40845110000000001</v>
+        <v>0.409274286951198</v>
       </c>
       <c r="O84" s="5">
         <v>0.98632925062405352</v>
@@ -4192,7 +4192,7 @@
         <v>0.82325452800747001</v>
       </c>
       <c r="N85" s="3">
-        <v>0.40975767000000002</v>
+        <v>0.53026346987261963</v>
       </c>
       <c r="O85" s="5">
         <v>0.80471182781454675</v>
@@ -4236,7 +4236,7 @@
         <v>0.74343665527659941</v>
       </c>
       <c r="N86" s="3">
-        <v>0.39640482999999999</v>
+        <v>0.5134136012834809</v>
       </c>
       <c r="O86" s="5">
         <v>0.91858745771658501</v>
@@ -4280,7 +4280,7 @@
         <v>0.53440279824246351</v>
       </c>
       <c r="N87" s="3">
-        <v>0.40837014999999999</v>
+        <v>0.55670364347240009</v>
       </c>
       <c r="O87" s="5">
         <v>0.98761937183130843</v>
@@ -4324,7 +4324,7 @@
         <v>1.0786916891134291</v>
       </c>
       <c r="N88" s="3">
-        <v>0.42720363</v>
+        <v>0.55092683301725387</v>
       </c>
       <c r="O88" s="5">
         <v>0.91023477164225175</v>
@@ -4368,7 +4368,7 @@
         <v>1.3754229851337914</v>
       </c>
       <c r="N89" s="3">
-        <v>0.40193335000000002</v>
+        <v>0.35349580214762655</v>
       </c>
       <c r="O89" s="5">
         <v>0.97617678910118344</v>
@@ -4412,7 +4412,7 @@
         <v>1.017883474644274</v>
       </c>
       <c r="N90" s="3">
-        <v>0.40556488000000002</v>
+        <v>0.49292884333832959</v>
       </c>
       <c r="O90" s="5">
         <v>0.96854003820328693</v>
@@ -4456,7 +4456,7 @@
         <v>1.2152058724184669</v>
       </c>
       <c r="N91" s="3">
-        <v>0.41043698000000001</v>
+        <v>0.57272079093394124</v>
       </c>
       <c r="O91" s="5">
         <v>1.0216267179669547</v>
@@ -4500,7 +4500,7 @@
         <v>0.91521646207950635</v>
       </c>
       <c r="N92" s="3">
-        <v>0.38776632</v>
+        <v>0.54009553663434851</v>
       </c>
       <c r="O92" s="5">
         <v>1.0442146836966304</v>
@@ -4544,7 +4544,7 @@
         <v>1.0891325351914851</v>
       </c>
       <c r="N93" s="3">
-        <v>0.39664603999999998</v>
+        <v>0.46177513836971318</v>
       </c>
       <c r="O93" s="5">
         <v>0.80086996455149384</v>
@@ -4588,7 +4588,7 @@
         <v>1.0016286079438168</v>
       </c>
       <c r="N94" s="3">
-        <v>0.39839927000000003</v>
+        <v>0.57937012578250757</v>
       </c>
       <c r="O94" s="5">
         <v>1.1237486135526515</v>
@@ -4632,7 +4632,7 @@
         <v>0.98246229969923793</v>
       </c>
       <c r="N95" s="3">
-        <v>0.38299074999999999</v>
+        <v>0.53692149660244859</v>
       </c>
       <c r="O95" s="5">
         <v>0.97897203101885821</v>
@@ -4676,7 +4676,7 @@
         <v>0.59090980742972921</v>
       </c>
       <c r="N96" s="3">
-        <v>0.39657135999999998</v>
+        <v>0.50877888881494782</v>
       </c>
       <c r="O96" s="5">
         <v>0.91329519661072789</v>
@@ -4720,7 +4720,7 @@
         <v>1.1851254011168297</v>
       </c>
       <c r="N97" s="3">
-        <v>0.39185941000000002</v>
+        <v>0.52822310397147287</v>
       </c>
       <c r="O97" s="5">
         <v>0.8846686041285563</v>
@@ -4764,7 +4764,7 @@
         <v>1.1491613178741014</v>
       </c>
       <c r="N98" s="3">
-        <v>0.39674903</v>
+        <v>0.57519301286145452</v>
       </c>
       <c r="O98" s="5">
         <v>1.1879694245445602</v>
@@ -4808,7 +4808,7 @@
         <v>1.0940708641380041</v>
       </c>
       <c r="N99" s="3">
-        <v>0.39385144999999999</v>
+        <v>0.51239708488450997</v>
       </c>
       <c r="O99" s="5">
         <v>1.006801346437558</v>
@@ -4852,7 +4852,7 @@
         <v>0.44651731347722812</v>
       </c>
       <c r="N100" s="3">
-        <v>0.40145455000000002</v>
+        <v>0.4361579170618719</v>
       </c>
       <c r="O100" s="5">
         <v>1.0871236066888015</v>
@@ -4896,7 +4896,7 @@
         <v>0.92484085775413638</v>
       </c>
       <c r="N101" s="3">
-        <v>0.39903569999999999</v>
+        <v>0.59085675972347651</v>
       </c>
       <c r="O101" s="5">
         <v>1.0315912312353019</v>
@@ -4940,7 +4940,7 @@
         <v>0.8711079758883965</v>
       </c>
       <c r="N102" s="3">
-        <v>0.38405294000000001</v>
+        <v>0.4615867759687059</v>
       </c>
       <c r="O102" s="5">
         <v>0.96695561838136745</v>
@@ -4984,7 +4984,7 @@
         <v>0.8348979090471208</v>
       </c>
       <c r="N103" s="3">
-        <v>0.39665900999999998</v>
+        <v>0.42530639351284566</v>
       </c>
       <c r="O103" s="5">
         <v>0.79892540698285275</v>
@@ -5028,7 +5028,7 @@
         <v>1.1124640368624861</v>
       </c>
       <c r="N104" s="3">
-        <v>0.39689906000000003</v>
+        <v>0.58883525455160091</v>
       </c>
       <c r="O104" s="5">
         <v>0.99907948082058529</v>
@@ -5072,7 +5072,7 @@
         <v>1.1805101449400215</v>
       </c>
       <c r="N105" s="3">
-        <v>0.40204968000000002</v>
+        <v>0.46960862298977651</v>
       </c>
       <c r="O105" s="5">
         <v>0.90656721695795772</v>
@@ -5116,7 +5116,7 @@
         <v>1.0697068085803041</v>
       </c>
       <c r="N106" s="3">
-        <v>0.38707979999999997</v>
+        <v>0.55281538005607334</v>
       </c>
       <c r="O106" s="5">
         <v>1.139439520588269</v>
@@ -5160,7 +5160,7 @@
         <v>0.98657582021181622</v>
       </c>
       <c r="N107" s="3">
-        <v>0.40843244000000001</v>
+        <v>0.51887694369094461</v>
       </c>
       <c r="O107" s="5">
         <v>0.82328734010491245</v>
@@ -5204,7 +5204,7 @@
         <v>0.90250257582911397</v>
       </c>
       <c r="N108" s="3">
-        <v>0.40238236999999999</v>
+        <v>0.51834848101155429</v>
       </c>
       <c r="O108" s="5">
         <v>1.0138069763589674</v>
@@ -5248,7 +5248,7 @@
         <v>0.6946324499701384</v>
       </c>
       <c r="N109" s="3">
-        <v>0.40427879999999999</v>
+        <v>0.41893899300120008</v>
       </c>
       <c r="O109" s="5">
         <v>0.97126673407667263</v>
@@ -5292,7 +5292,7 @@
         <v>0.86887005795803107</v>
       </c>
       <c r="N110" s="3">
-        <v>0.39849970000000001</v>
+        <v>0.50088771157536349</v>
       </c>
       <c r="O110" s="5">
         <v>1.0079675543170019</v>
@@ -5336,7 +5336,7 @@
         <v>0.54134837960972193</v>
       </c>
       <c r="N111" s="3">
-        <v>0.40175185000000002</v>
+        <v>0.66529583601450626</v>
       </c>
       <c r="O111" s="5">
         <v>0.87892632749600863</v>
@@ -5380,7 +5380,7 @@
         <v>0.89420392830620721</v>
       </c>
       <c r="N112" s="3">
-        <v>0.39225104999999999</v>
+        <v>0.54950289230530858</v>
       </c>
       <c r="O112" s="5">
         <v>0.9930784868118695</v>
@@ -5424,7 +5424,7 @@
         <v>1.3114384121795668</v>
       </c>
       <c r="N113" s="3">
-        <v>0.38997256000000002</v>
+        <v>0.54126832104875366</v>
       </c>
       <c r="O113" s="5">
         <v>0.91276081081910354</v>
@@ -5468,7 +5468,7 @@
         <v>0.89797506611759081</v>
       </c>
       <c r="N114" s="3">
-        <v>0.41873817000000002</v>
+        <v>0.44247290463377242</v>
       </c>
       <c r="O114" s="5">
         <v>1.0093984611597262</v>
@@ -5512,7 +5512,7 @@
         <v>0.85455648191173494</v>
       </c>
       <c r="N115" s="3">
-        <v>0.39164786000000001</v>
+        <v>0.55672439880642854</v>
       </c>
       <c r="O115" s="5">
         <v>1.0841099847772933</v>
@@ -5556,7 +5556,7 @@
         <v>0.83185905889232403</v>
       </c>
       <c r="N116" s="3">
-        <v>0.38962744999999999</v>
+        <v>0.55890622131513235</v>
       </c>
       <c r="O116" s="5">
         <v>1.0133081756830784</v>
@@ -5600,7 +5600,7 @@
         <v>0.67038572435259369</v>
       </c>
       <c r="N117" s="3">
-        <v>0.40879483</v>
+        <v>0.5422538655142316</v>
       </c>
       <c r="O117" s="5">
         <v>1.1326535941024587</v>
@@ -5644,7 +5644,7 @@
         <v>0.73952892041144347</v>
       </c>
       <c r="N118" s="3">
-        <v>0.41027936999999998</v>
+        <v>0.51325087645659506</v>
       </c>
       <c r="O118" s="5">
         <v>1.1884562814584692</v>
@@ -5688,7 +5688,7 @@
         <v>0.97088493288772626</v>
       </c>
       <c r="N119" s="3">
-        <v>0.40914274</v>
+        <v>0.51016248208447801</v>
       </c>
       <c r="O119" s="5">
         <v>1.0138429826138218</v>
@@ -5732,7 +5732,7 @@
         <v>1.0984260155590202</v>
       </c>
       <c r="N120" s="3">
-        <v>0.39995776</v>
+        <v>0.48574117199064709</v>
       </c>
       <c r="O120" s="5">
         <v>1.0219520228008265</v>
@@ -5776,7 +5776,7 @@
         <v>1.0630585312506184</v>
       </c>
       <c r="N121" s="3">
-        <v>0.39027293000000002</v>
+        <v>0.45308316248407998</v>
       </c>
       <c r="O121" s="5">
         <v>1.0852149455389959</v>
@@ -5820,7 +5820,7 @@
         <v>0.98386741447011228</v>
       </c>
       <c r="N122" s="3">
-        <v>0.39717622000000002</v>
+        <v>0.54303086285868774</v>
       </c>
       <c r="O122" s="5">
         <v>0.97217593354984577</v>
@@ -5864,7 +5864,7 @@
         <v>0.68481424406883595</v>
       </c>
       <c r="N123" s="3">
-        <v>0.38492029999999999</v>
+        <v>0.47713124527851969</v>
       </c>
       <c r="O123" s="5">
         <v>0.99024380522041389</v>
@@ -5908,7 +5908,7 @@
         <v>0.75740965488542589</v>
       </c>
       <c r="N124" s="3">
-        <v>0.37997963000000001</v>
+        <v>0.57550681206943222</v>
       </c>
       <c r="O124" s="5">
         <v>0.95477851424133731</v>
@@ -5952,7 +5952,7 @@
         <v>0.87019930924947375</v>
       </c>
       <c r="N125" s="3">
-        <v>0.39755531</v>
+        <v>0.49913976208789435</v>
       </c>
       <c r="O125" s="5">
         <v>0.99289365299522792</v>
@@ -5996,7 +5996,7 @@
         <v>0.9049659140988997</v>
       </c>
       <c r="N126" s="3">
-        <v>0.40103195000000003</v>
+        <v>0.55016111621073505</v>
       </c>
       <c r="O126" s="5">
         <v>1.0393026095908786</v>
@@ -6040,7 +6040,7 @@
         <v>0.81462982995765432</v>
       </c>
       <c r="N127" s="3">
-        <v>0.41117302999999999</v>
+        <v>0.56341905656846003</v>
       </c>
       <c r="O127" s="5">
         <v>0.99340677585974579</v>
@@ -6084,7 +6084,7 @@
         <v>1.1672199468226938</v>
       </c>
       <c r="N128" s="3">
-        <v>0.39881486999999999</v>
+        <v>0.48771412971260614</v>
       </c>
       <c r="O128" s="5">
         <v>1.1296883543450893</v>
@@ -6128,7 +6128,7 @@
         <v>1.0273379689883304</v>
       </c>
       <c r="N129" s="3">
-        <v>0.38573445000000001</v>
+        <v>0.65078112755225481</v>
       </c>
       <c r="O129" s="5">
         <v>0.8827688359560677</v>
@@ -6172,7 +6172,7 @@
         <v>0.89779250138132105</v>
       </c>
       <c r="N130" s="3">
-        <v>0.39952977000000001</v>
+        <v>0.49035555488348836</v>
       </c>
       <c r="O130" s="5">
         <v>0.9746872975578833</v>
@@ -6216,7 +6216,7 @@
         <v>0.65854240940733777</v>
       </c>
       <c r="N131" s="3">
-        <v>0.39050615</v>
+        <v>0.47632365666516829</v>
       </c>
       <c r="O131" s="5">
         <v>0.89480963104154998</v>
@@ -6260,7 +6260,7 @@
         <v>0.87550126514734539</v>
       </c>
       <c r="N132" s="3">
-        <v>0.40603980000000001</v>
+        <v>0.64793303750643894</v>
       </c>
       <c r="O132" s="5">
         <v>0.89588129944165962</v>
@@ -6304,7 +6304,7 @@
         <v>0.82650751000738143</v>
       </c>
       <c r="N133" s="3">
-        <v>0.41069240000000001</v>
+        <v>0.50552015703474096</v>
       </c>
       <c r="O133" s="5">
         <v>1.0404036679396367</v>
@@ -6348,7 +6348,7 @@
         <v>1.0307756789112834</v>
       </c>
       <c r="N134" s="3">
-        <v>0.41014721999999998</v>
+        <v>0.53519069425788768</v>
       </c>
       <c r="O134" s="5">
         <v>0.91672751914364425</v>
@@ -6392,7 +6392,7 @@
         <v>1.0271221725460493</v>
       </c>
       <c r="N135" s="3">
-        <v>0.40131681000000002</v>
+        <v>0.53310273014492149</v>
       </c>
       <c r="O135" s="5">
         <v>1.083388007105877</v>
@@ -6436,7 +6436,7 @@
         <v>0.84261906787767393</v>
       </c>
       <c r="N136" s="3">
-        <v>0.39644009000000002</v>
+        <v>0.60180581161485802</v>
       </c>
       <c r="O136" s="5">
         <v>1.0307581401890835</v>
@@ -6480,7 +6480,7 @@
         <v>0.83999635391757888</v>
       </c>
       <c r="N137" s="3">
-        <v>0.39077748000000001</v>
+        <v>0.43103822711538481</v>
       </c>
       <c r="O137" s="5">
         <v>0.9571923148832584</v>
@@ -6524,7 +6524,7 @@
         <v>1.0539166430909312</v>
       </c>
       <c r="N138" s="3">
-        <v>0.37051541999999998</v>
+        <v>0.49659046257269246</v>
       </c>
       <c r="O138" s="5">
         <v>1.0828191359795702</v>
@@ -6568,7 +6568,7 @@
         <v>0.50339490176542712</v>
       </c>
       <c r="N139" s="3">
-        <v>0.40917585000000001</v>
+        <v>0.57499429070110575</v>
       </c>
       <c r="O139" s="5">
         <v>0.99515133588416971</v>
@@ -6612,7 +6612,7 @@
         <v>0.952465866190504</v>
       </c>
       <c r="N140" s="3">
-        <v>0.40710622000000002</v>
+        <v>0.4541051464332474</v>
       </c>
       <c r="O140" s="5">
         <v>1.1085158516160949</v>
@@ -6656,7 +6656,7 @@
         <v>1.0131648299140836</v>
       </c>
       <c r="N141" s="3">
-        <v>0.41094765</v>
+        <v>0.54067601958272549</v>
       </c>
       <c r="O141" s="5">
         <v>0.97666011667271913</v>
@@ -6700,7 +6700,7 @@
         <v>0.9095488593094504</v>
       </c>
       <c r="N142" s="3">
-        <v>0.41267682</v>
+        <v>0.49288169907991947</v>
       </c>
       <c r="O142" s="5">
         <v>0.93497253797041979</v>
@@ -6744,7 +6744,7 @@
         <v>0.90472172614930324</v>
       </c>
       <c r="N143" s="3">
-        <v>0.39157511</v>
+        <v>0.45023143621619266</v>
       </c>
       <c r="O143" s="5">
         <v>1.0821555018362037</v>
@@ -6788,7 +6788,7 @@
         <v>0.93757577795412128</v>
       </c>
       <c r="N144" s="3">
-        <v>0.39684469999999999</v>
+        <v>0.54067426532991281</v>
       </c>
       <c r="O144" s="5">
         <v>0.81259676350390686</v>
@@ -6832,7 +6832,7 @@
         <v>1.2050466743025194</v>
       </c>
       <c r="N145" s="3">
-        <v>0.39592887999999998</v>
+        <v>0.53175351108131197</v>
       </c>
       <c r="O145" s="5">
         <v>0.89533492562768124</v>
@@ -6876,7 +6876,7 @@
         <v>0.87940243983406241</v>
       </c>
       <c r="N146" s="3">
-        <v>0.40949746999999997</v>
+        <v>0.48383355907332137</v>
       </c>
       <c r="O146" s="5">
         <v>0.98010378115107111</v>
@@ -6920,7 +6920,7 @@
         <v>0.81320634516516277</v>
       </c>
       <c r="N147" s="3">
-        <v>0.40577159000000002</v>
+        <v>0.63072669079657784</v>
       </c>
       <c r="O147" s="5">
         <v>0.98517715732378985</v>
@@ -6964,7 +6964,7 @@
         <v>0.75546508337483165</v>
       </c>
       <c r="N148" s="3">
-        <v>0.39173793000000001</v>
+        <v>0.43592751954300257</v>
       </c>
       <c r="O148" s="5">
         <v>0.96911509969899823</v>
@@ -7008,7 +7008,7 @@
         <v>0.7494487695376324</v>
       </c>
       <c r="N149" s="3">
-        <v>0.40593194999999999</v>
+        <v>0.51227050722632439</v>
       </c>
       <c r="O149" s="5">
         <v>1.0426004847119963</v>
@@ -7052,7 +7052,7 @@
         <v>1.0940204945921499</v>
       </c>
       <c r="N150" s="3">
-        <v>0.40830284</v>
+        <v>0.50709580867636261</v>
       </c>
       <c r="O150" s="5">
         <v>1.0449736881720495</v>
@@ -7096,7 +7096,7 @@
         <v>1.2659083731453113</v>
       </c>
       <c r="N151" s="3">
-        <v>0.40912929999999997</v>
+        <v>0.51127770658296234</v>
       </c>
       <c r="O151" s="5">
         <v>0.96235873428015062</v>
@@ -7140,7 +7140,7 @@
         <v>0.70173205097158975</v>
       </c>
       <c r="N152" s="3">
-        <v>0.41120641000000002</v>
+        <v>0.51402708614437698</v>
       </c>
       <c r="O152" s="5">
         <v>0.95381745024600706</v>
@@ -7184,7 +7184,7 @@
         <v>0.95838191465754075</v>
       </c>
       <c r="N153" s="3">
-        <v>0.40136946000000001</v>
+        <v>0.44782341388886976</v>
       </c>
       <c r="O153" s="5">
         <v>0.98783377452722687</v>
@@ -7228,7 +7228,7 @@
         <v>0.896458199896352</v>
       </c>
       <c r="N154" s="3">
-        <v>0.39742145000000001</v>
+        <v>0.54976929189667056</v>
       </c>
       <c r="O154" s="5">
         <v>0.87691791265112518</v>
@@ -7272,7 +7272,7 @@
         <v>0.83091055758809207</v>
       </c>
       <c r="N155" s="3">
-        <v>0.39739022000000002</v>
+        <v>0.45364342396705631</v>
       </c>
       <c r="O155" s="5">
         <v>0.93725207303040792</v>
@@ -7316,7 +7316,7 @@
         <v>1.0262680316760149</v>
       </c>
       <c r="N156" s="3">
-        <v>0.40281072000000001</v>
+        <v>0.53740456164065087</v>
       </c>
       <c r="O156" s="5">
         <v>1.0190607297137757</v>
@@ -7360,7 +7360,7 @@
         <v>1.0685573774994648</v>
       </c>
       <c r="N157" s="3">
-        <v>0.41190452999999999</v>
+        <v>0.54597752567982494</v>
       </c>
       <c r="O157" s="5">
         <v>1.1351971626535569</v>
@@ -7404,7 +7404,7 @@
         <v>0.83039112374460045</v>
       </c>
       <c r="N158" s="3">
-        <v>0.40258830000000001</v>
+        <v>0.69125654571249373</v>
       </c>
       <c r="O158" s="5">
         <v>0.88353277974067546</v>
@@ -7448,7 +7448,7 @@
         <v>0.91505356887053402</v>
       </c>
       <c r="N159" s="3">
-        <v>0.38875176</v>
+        <v>0.47986883392587498</v>
       </c>
       <c r="O159" s="5">
         <v>0.84659448484389399</v>
@@ -7492,7 +7492,7 @@
         <v>0.66344134222192674</v>
       </c>
       <c r="N160" s="3">
-        <v>0.41077818999999999</v>
+        <v>0.53763077852149921</v>
       </c>
       <c r="O160" s="5">
         <v>1.1409453068689761</v>
@@ -7536,7 +7536,7 @@
         <v>0.84247026866932595</v>
       </c>
       <c r="N161" s="3">
-        <v>0.39338641000000002</v>
+        <v>0.55843480518024124</v>
       </c>
       <c r="O161" s="5">
         <v>1.0425631810481433</v>
@@ -7580,7 +7580,7 @@
         <v>0.94732035629096079</v>
       </c>
       <c r="N162" s="3">
-        <v>0.40717854999999997</v>
+        <v>0.52735633679026606</v>
       </c>
       <c r="O162" s="5">
         <v>0.93291845836353837</v>
@@ -7624,7 +7624,7 @@
         <v>0.93482762188244573</v>
       </c>
       <c r="N163" s="3">
-        <v>0.40072798999999998</v>
+        <v>0.55121815143262842</v>
       </c>
       <c r="O163" s="5">
         <v>1.0520656589296846</v>
@@ -7668,7 +7668,7 @@
         <v>0.6907515224957077</v>
       </c>
       <c r="N164" s="3">
-        <v>0.39668695999999998</v>
+        <v>0.54358735373137435</v>
       </c>
       <c r="O164" s="5">
         <v>0.83234082687633926</v>
@@ -7712,7 +7712,7 @@
         <v>0.79101646493779176</v>
       </c>
       <c r="N165" s="3">
-        <v>0.39574858000000002</v>
+        <v>0.54087176220546285</v>
       </c>
       <c r="O165" s="5">
         <v>0.87471234522339736</v>
@@ -7756,7 +7756,7 @@
         <v>0.94441779307211282</v>
       </c>
       <c r="N166" s="3">
-        <v>0.40390969999999998</v>
+        <v>0.52618286984615181</v>
       </c>
       <c r="O166" s="5">
         <v>1.060633226063987</v>
@@ -7800,7 +7800,7 @@
         <v>0.82340185110108743</v>
       </c>
       <c r="N167" s="3">
-        <v>0.38821724000000002</v>
+        <v>0.52537411245939059</v>
       </c>
       <c r="O167" s="5">
         <v>0.88966376624301202</v>
@@ -7844,7 +7844,7 @@
         <v>0.6044912054988596</v>
       </c>
       <c r="N168" s="3">
-        <v>0.39047252999999998</v>
+        <v>0.61559107713470618</v>
       </c>
       <c r="O168" s="5">
         <v>1.0324526433312315</v>
@@ -7888,7 +7888,7 @@
         <v>1.1978122875644153</v>
       </c>
       <c r="N169" s="3">
-        <v>0.39709527</v>
+        <v>0.44914459288102881</v>
       </c>
       <c r="O169" s="5">
         <v>1.0214617502362124</v>
@@ -7932,7 +7932,7 @@
         <v>0.8879036042502414</v>
       </c>
       <c r="N170" s="3">
-        <v>0.40926591000000001</v>
+        <v>0.45261987970175388</v>
       </c>
       <c r="O170" s="5">
         <v>1.1618668953278268</v>
@@ -7976,7 +7976,7 @@
         <v>0.94991357652712116</v>
       </c>
       <c r="N171" s="3">
-        <v>0.38026198999999999</v>
+        <v>0.40430981656249321</v>
       </c>
       <c r="O171" s="5">
         <v>1.0568399382706588</v>
@@ -8020,7 +8020,7 @@
         <v>0.70728159965671011</v>
       </c>
       <c r="N172" s="3">
-        <v>0.40406376999999999</v>
+        <v>0.60333100861903177</v>
       </c>
       <c r="O172" s="5">
         <v>1.00944128073576</v>
@@ -8064,7 +8064,7 @@
         <v>0.86843165216854112</v>
       </c>
       <c r="N173" s="3">
-        <v>0.37007909</v>
+        <v>0.51182300781255807</v>
       </c>
       <c r="O173" s="5">
         <v>1.0735244447786318</v>
@@ -8108,7 +8108,7 @@
         <v>1.1386203299760262</v>
       </c>
       <c r="N174" s="3">
-        <v>0.41809484000000002</v>
+        <v>0.57352313661747012</v>
       </c>
       <c r="O174" s="5">
         <v>0.98844688394005931</v>
@@ -8152,7 +8152,7 @@
         <v>0.73107720264165577</v>
       </c>
       <c r="N175" s="3">
-        <v>0.38587058000000002</v>
+        <v>0.527110948572871</v>
       </c>
       <c r="O175" s="5">
         <v>1.0943351365840379</v>
@@ -8196,7 +8196,7 @@
         <v>1.2220475990617194</v>
       </c>
       <c r="N176" s="3">
-        <v>0.41432885000000003</v>
+        <v>0.65410982016343078</v>
       </c>
       <c r="O176" s="5">
         <v>1.0112228218155801</v>
@@ -8240,7 +8240,7 @@
         <v>1.4350813004160226</v>
       </c>
       <c r="N177" s="3">
-        <v>0.39164547999999999</v>
+        <v>0.5000439973471712</v>
       </c>
       <c r="O177" s="5">
         <v>0.90380828368121724</v>
@@ -8284,7 +8284,7 @@
         <v>1.00931559194311</v>
       </c>
       <c r="N178" s="3">
-        <v>0.41529575000000002</v>
+        <v>0.50930324530579052</v>
       </c>
       <c r="O178" s="5">
         <v>0.99894152853562435</v>
@@ -8328,7 +8328,7 @@
         <v>0.80120457621762797</v>
       </c>
       <c r="N179" s="3">
-        <v>0.41329634999999998</v>
+        <v>0.53248654875283341</v>
       </c>
       <c r="O179" s="5">
         <v>1.012089792308964</v>
@@ -8372,7 +8372,7 @@
         <v>1.2361443668288468</v>
       </c>
       <c r="N180" s="3">
-        <v>0.38975431999999999</v>
+        <v>0.57641838585424732</v>
       </c>
       <c r="O180" s="5">
         <v>0.96744983022989284</v>
@@ -8416,7 +8416,7 @@
         <v>1.1085365063015729</v>
       </c>
       <c r="N181" s="3">
-        <v>0.39643349</v>
+        <v>0.58023350625121106</v>
       </c>
       <c r="O181" s="5">
         <v>1.0374974968253539</v>
@@ -8460,7 +8460,7 @@
         <v>0.83875674856731419</v>
       </c>
       <c r="N182" s="3">
-        <v>0.40926593</v>
+        <v>0.557787054527634</v>
       </c>
       <c r="O182" s="5">
         <v>1.0490751330503878</v>
@@ -8504,7 +8504,7 @@
         <v>0.88213362793883843</v>
       </c>
       <c r="N183" s="3">
-        <v>0.40057605000000002</v>
+        <v>0.53377126929532759</v>
       </c>
       <c r="O183" s="5">
         <v>1.0611328031193348</v>
@@ -8548,7 +8548,7 @@
         <v>1.0503971397946312</v>
       </c>
       <c r="N184" s="3">
-        <v>0.39796765000000001</v>
+        <v>0.43109373906968074</v>
       </c>
       <c r="O184" s="5">
         <v>1.0686218355567407</v>
@@ -8592,7 +8592,7 @@
         <v>0.95312338722525314</v>
       </c>
       <c r="N185" s="3">
-        <v>0.39831357000000001</v>
+        <v>0.46306244460337659</v>
       </c>
       <c r="O185" s="5">
         <v>1.079347332600217</v>
@@ -8636,7 +8636,7 @@
         <v>1.2474273607548456</v>
       </c>
       <c r="N186" s="3">
-        <v>0.39734967999999998</v>
+        <v>0.40798930952255036</v>
       </c>
       <c r="O186" s="5">
         <v>1.0593572547373502</v>
@@ -8680,7 +8680,7 @@
         <v>1.1330452363775543</v>
       </c>
       <c r="N187" s="3">
-        <v>0.39363894999999999</v>
+        <v>0.55850527474965217</v>
       </c>
       <c r="O187" s="5">
         <v>1.0118384872560429</v>
@@ -8724,7 +8724,7 @@
         <v>1.2355054462635682</v>
       </c>
       <c r="N188" s="3">
-        <v>0.39177255999999999</v>
+        <v>0.4784101048326731</v>
       </c>
       <c r="O188" s="5">
         <v>0.89686514074977364</v>
@@ -8768,7 +8768,7 @@
         <v>0.96477717623551307</v>
       </c>
       <c r="N189" s="3">
-        <v>0.39396249</v>
+        <v>0.50155791797907234</v>
       </c>
       <c r="O189" s="5">
         <v>0.92187446947837526</v>
@@ -8812,7 +8812,7 @@
         <v>0.93744408829484716</v>
       </c>
       <c r="N190" s="3">
-        <v>0.39909948000000001</v>
+        <v>0.49844067819649729</v>
       </c>
       <c r="O190" s="5">
         <v>0.96605083554887572</v>
@@ -8856,7 +8856,7 @@
         <v>1.2767500275978132</v>
       </c>
       <c r="N191" s="3">
-        <v>0.39763999999999999</v>
+        <v>0.49049717817665967</v>
       </c>
       <c r="O191" s="5">
         <v>1.0661104799178249</v>
@@ -8900,7 +8900,7 @@
         <v>0.77725463841567732</v>
       </c>
       <c r="N192" s="3">
-        <v>0.39733902999999998</v>
+        <v>0.55124834255541244</v>
       </c>
       <c r="O192" s="5">
         <v>0.93905853689996932</v>
@@ -8944,7 +8944,7 @@
         <v>0.95893051546433239</v>
       </c>
       <c r="N193" s="3">
-        <v>0.41900340000000003</v>
+        <v>0.3691966724185779</v>
       </c>
       <c r="O193" s="5">
         <v>0.95798414200400361</v>
@@ -8988,7 +8988,7 @@
         <v>0.91156517719271135</v>
       </c>
       <c r="N194" s="3">
-        <v>0.38408063999999997</v>
+        <v>0.54316503802061056</v>
       </c>
       <c r="O194" s="5">
         <v>1.0461532865717638</v>
@@ -9032,7 +9032,7 @@
         <v>1.013025849227684</v>
       </c>
       <c r="N195" s="3">
-        <v>0.42025506000000001</v>
+        <v>0.50727278093971828</v>
       </c>
       <c r="O195" s="5">
         <v>0.99927745547318148</v>
@@ -9076,7 +9076,7 @@
         <v>0.72820878143303269</v>
       </c>
       <c r="N196" s="3">
-        <v>0.41968202999999998</v>
+        <v>0.58718384802154078</v>
       </c>
       <c r="O196" s="5">
         <v>1.1107832269615536</v>
@@ -9120,7 +9120,7 @@
         <v>0.76529818450009302</v>
       </c>
       <c r="N197" s="3">
-        <v>0.39698240000000001</v>
+        <v>0.63061460716733431</v>
       </c>
       <c r="O197" s="5">
         <v>0.92714527542427505</v>
@@ -9164,7 +9164,7 @@
         <v>1.0377354698701624</v>
       </c>
       <c r="N198" s="3">
-        <v>0.39506717000000002</v>
+        <v>0.49633434772333607</v>
       </c>
       <c r="O198" s="5">
         <v>0.98314730887871582</v>
